--- a/The_.STL_Files/Excel_Spreadsheet_.stl_files/QUEEN_Printed_Part_Reference.xlsx
+++ b/The_.STL_Files/Excel_Spreadsheet_.stl_files/QUEEN_Printed_Part_Reference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repo3\Voron2.4_My_Build_Log\The_.STL_Files\Excel_Spreadsheet_.stl_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C464E1CE-736E-415B-BE3E-CF8CB8C239C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D2143C-D1CB-40F1-8151-EE388AD3A65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="330" windowWidth="21105" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="330" windowWidth="23760" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V2.4 QUEEN .STL List" sheetId="3" r:id="rId1"/>
@@ -3088,6 +3088,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3096,25 +3100,22 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -3125,19 +3126,11 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3145,30 +3138,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3188,26 +3166,48 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3534,11 +3534,11 @@
   <dimension ref="A1:Z436"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7320" ySplit="2400" topLeftCell="A242" activePane="bottomRight"/>
+      <pane xSplit="7320" ySplit="2400" topLeftCell="A248" activePane="bottomRight"/>
       <selection activeCell="U98" sqref="U98"/>
       <selection pane="topRight" activeCell="U1" sqref="U1"/>
-      <selection pane="bottomLeft" activeCell="M244" sqref="A244:XFD244"/>
-      <selection pane="bottomRight" activeCell="B259" sqref="B259"/>
+      <selection pane="bottomLeft" activeCell="M246" sqref="M246:O246"/>
+      <selection pane="bottomRight" activeCell="B271" sqref="B271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3695,17 +3695,17 @@
       <c r="B5" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="101" t="s">
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="106" t="s">
         <v>171</v>
       </c>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
       <c r="L5" s="11" t="s">
         <v>165</v>
       </c>
@@ -3778,7 +3778,7 @@
       <c r="Q6" s="23">
         <v>0</v>
       </c>
-      <c r="R6" s="88" t="s">
+      <c r="R6" s="109" t="s">
         <v>79</v>
       </c>
       <c r="S6" s="9"/>
@@ -3826,7 +3826,7 @@
       <c r="Q7" s="23">
         <v>0</v>
       </c>
-      <c r="R7" s="89"/>
+      <c r="R7" s="110"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="24" t="s">
@@ -3872,7 +3872,7 @@
       <c r="Q8" s="23">
         <v>0</v>
       </c>
-      <c r="R8" s="89"/>
+      <c r="R8" s="110"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
       <c r="U8" s="24" t="s">
@@ -3918,7 +3918,7 @@
       <c r="Q9" s="23">
         <v>0</v>
       </c>
-      <c r="R9" s="89"/>
+      <c r="R9" s="110"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="24" t="s">
@@ -3964,7 +3964,7 @@
       <c r="Q10" s="23">
         <v>0</v>
       </c>
-      <c r="R10" s="89"/>
+      <c r="R10" s="110"/>
       <c r="S10" s="9"/>
       <c r="T10" s="28" t="s">
         <v>163</v>
@@ -4012,7 +4012,7 @@
       <c r="Q11" s="22">
         <v>1</v>
       </c>
-      <c r="R11" s="90"/>
+      <c r="R11" s="111"/>
       <c r="S11" s="9"/>
       <c r="T11" s="28" t="s">
         <v>163</v>
@@ -4697,23 +4697,23 @@
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="94" t="s">
+      <c r="G26" s="93" t="s">
         <v>183</v>
       </c>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="97" t="s">
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="M26" s="99" t="s">
+      <c r="M26" s="96" t="s">
         <v>182</v>
       </c>
       <c r="N26" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="O26" s="84" t="s">
+      <c r="O26" s="85" t="s">
         <v>287</v>
       </c>
       <c r="P26" s="22" t="s">
@@ -4747,17 +4747,17 @@
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="99"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="96"/>
       <c r="N27" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="O27" s="84"/>
+      <c r="O27" s="85"/>
       <c r="P27" s="22" t="s">
         <v>1</v>
       </c>
@@ -5727,23 +5727,23 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="94" t="s">
+      <c r="G47" s="93" t="s">
         <v>179</v>
       </c>
-      <c r="H47" s="95"/>
-      <c r="I47" s="95"/>
-      <c r="J47" s="95"/>
-      <c r="K47" s="95"/>
-      <c r="L47" s="97" t="s">
+      <c r="H47" s="112"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="112"/>
+      <c r="K47" s="112"/>
+      <c r="L47" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="M47" s="99" t="s">
+      <c r="M47" s="96" t="s">
         <v>191</v>
       </c>
       <c r="N47" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="O47" s="84" t="s">
+      <c r="O47" s="85" t="s">
         <v>348</v>
       </c>
       <c r="P47" s="22" t="s">
@@ -5767,7 +5767,7 @@
       <c r="Z47" s="9"/>
     </row>
     <row r="48" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="93"/>
+      <c r="A48" s="104"/>
       <c r="B48" s="15" t="s">
         <v>23</v>
       </c>
@@ -5777,13 +5777,13 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="95"/>
-      <c r="I48" s="95"/>
-      <c r="J48" s="95"/>
-      <c r="K48" s="95"/>
-      <c r="L48" s="98"/>
-      <c r="M48" s="100"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="112"/>
+      <c r="J48" s="112"/>
+      <c r="K48" s="112"/>
+      <c r="L48" s="97"/>
+      <c r="M48" s="98"/>
       <c r="N48" s="22" t="s">
         <v>91</v>
       </c>
@@ -5821,23 +5821,23 @@
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="94" t="s">
+      <c r="G49" s="93" t="s">
         <v>179</v>
       </c>
-      <c r="H49" s="95"/>
-      <c r="I49" s="95"/>
-      <c r="J49" s="95"/>
-      <c r="K49" s="95"/>
-      <c r="L49" s="97" t="s">
+      <c r="H49" s="112"/>
+      <c r="I49" s="112"/>
+      <c r="J49" s="112"/>
+      <c r="K49" s="112"/>
+      <c r="L49" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="M49" s="99" t="s">
+      <c r="M49" s="96" t="s">
         <v>191</v>
       </c>
       <c r="N49" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="O49" s="84" t="s">
+      <c r="O49" s="85" t="s">
         <v>347</v>
       </c>
       <c r="P49" s="22" t="s">
@@ -5861,7 +5861,7 @@
       <c r="Z49" s="9"/>
     </row>
     <row r="50" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="93"/>
+      <c r="A50" s="104"/>
       <c r="B50" s="15" t="s">
         <v>23</v>
       </c>
@@ -5871,13 +5871,13 @@
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="95"/>
-      <c r="I50" s="95"/>
-      <c r="J50" s="95"/>
-      <c r="K50" s="95"/>
-      <c r="L50" s="98"/>
-      <c r="M50" s="100"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="112"/>
+      <c r="J50" s="112"/>
+      <c r="K50" s="112"/>
+      <c r="L50" s="97"/>
+      <c r="M50" s="98"/>
       <c r="N50" s="22" t="s">
         <v>93</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>199</v>
       </c>
       <c r="S53" s="9"/>
-      <c r="T53" s="87" t="s">
+      <c r="T53" s="105" t="s">
         <v>35</v>
       </c>
       <c r="U53" s="24"/>
@@ -6090,7 +6090,7 @@
         <v>166</v>
       </c>
       <c r="S54" s="9"/>
-      <c r="T54" s="86"/>
+      <c r="T54" s="108"/>
       <c r="U54" s="24" t="s">
         <v>535</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>2</v>
       </c>
       <c r="S55" s="9"/>
-      <c r="T55" s="87" t="s">
+      <c r="T55" s="105" t="s">
         <v>37</v>
       </c>
       <c r="U55" s="24"/>
@@ -6190,7 +6190,7 @@
         <v>2</v>
       </c>
       <c r="S56" s="9"/>
-      <c r="T56" s="86"/>
+      <c r="T56" s="108"/>
       <c r="U56" s="24" t="s">
         <v>535</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>2</v>
       </c>
       <c r="S65" s="9"/>
-      <c r="T65" s="87" t="s">
+      <c r="T65" s="105" t="s">
         <v>37</v>
       </c>
       <c r="U65" s="24"/>
@@ -6726,7 +6726,7 @@
         <v>166</v>
       </c>
       <c r="S66" s="9"/>
-      <c r="T66" s="86"/>
+      <c r="T66" s="108"/>
       <c r="U66" s="24" t="s">
         <v>536</v>
       </c>
@@ -7174,7 +7174,7 @@
       <c r="Q75" s="23">
         <v>0</v>
       </c>
-      <c r="R75" s="105" t="s">
+      <c r="R75" s="99" t="s">
         <v>215</v>
       </c>
       <c r="S75" s="9"/>
@@ -7228,7 +7228,7 @@
       <c r="Q76" s="23">
         <v>0</v>
       </c>
-      <c r="R76" s="106"/>
+      <c r="R76" s="100"/>
       <c r="S76" s="9"/>
       <c r="T76" s="9"/>
       <c r="U76" s="24" t="s">
@@ -7284,7 +7284,7 @@
       <c r="Q77" s="22">
         <v>1</v>
       </c>
-      <c r="R77" s="106"/>
+      <c r="R77" s="100"/>
       <c r="S77" s="9"/>
       <c r="T77" s="9"/>
       <c r="U77" s="24" t="s">
@@ -7340,7 +7340,7 @@
       <c r="Q78" s="22">
         <v>1</v>
       </c>
-      <c r="R78" s="107"/>
+      <c r="R78" s="101"/>
       <c r="S78" s="9"/>
       <c r="T78" s="9"/>
       <c r="U78" s="24" t="s">
@@ -7395,8 +7395,8 @@
       <c r="R79" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="S79" s="85"/>
-      <c r="T79" s="87" t="s">
+      <c r="S79" s="114"/>
+      <c r="T79" s="105" t="s">
         <v>7</v>
       </c>
       <c r="U79" s="24" t="s">
@@ -7451,8 +7451,8 @@
       <c r="R80" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="S80" s="86"/>
-      <c r="T80" s="86"/>
+      <c r="S80" s="108"/>
+      <c r="T80" s="108"/>
       <c r="U80" s="24" t="s">
         <v>539</v>
       </c>
@@ -7531,23 +7531,23 @@
       </c>
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
-      <c r="G82" s="94" t="s">
+      <c r="G82" s="93" t="s">
         <v>216</v>
       </c>
-      <c r="H82" s="95"/>
-      <c r="I82" s="95"/>
-      <c r="J82" s="95"/>
-      <c r="K82" s="95"/>
-      <c r="L82" s="97" t="s">
+      <c r="H82" s="112"/>
+      <c r="I82" s="112"/>
+      <c r="J82" s="112"/>
+      <c r="K82" s="112"/>
+      <c r="L82" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="M82" s="99" t="s">
+      <c r="M82" s="96" t="s">
         <v>214</v>
       </c>
       <c r="N82" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="O82" s="84" t="s">
+      <c r="O82" s="85" t="s">
         <v>379</v>
       </c>
       <c r="P82" s="103" t="s">
@@ -7556,7 +7556,7 @@
       <c r="Q82" s="22">
         <v>1</v>
       </c>
-      <c r="R82" s="84" t="s">
+      <c r="R82" s="85" t="s">
         <v>166</v>
       </c>
       <c r="S82" s="9"/>
@@ -7571,7 +7571,7 @@
       <c r="Z82" s="9"/>
     </row>
     <row r="83" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="93"/>
+      <c r="A83" s="104"/>
       <c r="B83" s="15" t="s">
         <v>23</v>
       </c>
@@ -7583,13 +7583,13 @@
       </c>
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
-      <c r="G83" s="96"/>
-      <c r="H83" s="95"/>
-      <c r="I83" s="95"/>
-      <c r="J83" s="95"/>
-      <c r="K83" s="95"/>
-      <c r="L83" s="98"/>
-      <c r="M83" s="100"/>
+      <c r="G83" s="113"/>
+      <c r="H83" s="112"/>
+      <c r="I83" s="112"/>
+      <c r="J83" s="112"/>
+      <c r="K83" s="112"/>
+      <c r="L83" s="97"/>
+      <c r="M83" s="98"/>
       <c r="N83" s="22" t="s">
         <v>52</v>
       </c>
@@ -7973,7 +7973,7 @@
       <c r="Z90" s="9"/>
     </row>
     <row r="91" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="93" t="s">
+      <c r="A91" s="104" t="s">
         <v>224</v>
       </c>
       <c r="B91" s="15" t="s">
@@ -7985,29 +7985,29 @@
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
-      <c r="G91" s="94" t="s">
+      <c r="G91" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="H91" s="104"/>
-      <c r="I91" s="104"/>
-      <c r="J91" s="104"/>
-      <c r="K91" s="104"/>
-      <c r="L91" s="97" t="s">
+      <c r="H91" s="94"/>
+      <c r="I91" s="94"/>
+      <c r="J91" s="94"/>
+      <c r="K91" s="94"/>
+      <c r="L91" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="M91" s="99" t="s">
+      <c r="M91" s="96" t="s">
         <v>224</v>
       </c>
       <c r="N91" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="O91" s="84" t="s">
+      <c r="O91" s="85" t="s">
         <v>381</v>
       </c>
-      <c r="P91" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q91" s="108">
+      <c r="P91" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="102">
         <v>6</v>
       </c>
       <c r="R91" s="28" t="s">
@@ -8025,7 +8025,7 @@
       <c r="Z91" s="9"/>
     </row>
     <row r="92" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="93"/>
+      <c r="A92" s="104"/>
       <c r="B92" s="15" t="s">
         <v>23</v>
       </c>
@@ -8035,19 +8035,19 @@
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
-      <c r="G92" s="94"/>
-      <c r="H92" s="104"/>
-      <c r="I92" s="104"/>
-      <c r="J92" s="104"/>
-      <c r="K92" s="104"/>
-      <c r="L92" s="98"/>
-      <c r="M92" s="99"/>
+      <c r="G92" s="93"/>
+      <c r="H92" s="94"/>
+      <c r="I92" s="94"/>
+      <c r="J92" s="94"/>
+      <c r="K92" s="94"/>
+      <c r="L92" s="97"/>
+      <c r="M92" s="96"/>
       <c r="N92" s="22" t="s">
         <v>110</v>
       </c>
       <c r="O92" s="103"/>
-      <c r="P92" s="87"/>
-      <c r="Q92" s="108"/>
+      <c r="P92" s="105"/>
+      <c r="Q92" s="102"/>
       <c r="R92" s="28" t="s">
         <v>383</v>
       </c>
@@ -8065,7 +8065,7 @@
       <c r="Z92" s="9"/>
     </row>
     <row r="93" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="93"/>
+      <c r="A93" s="104"/>
       <c r="B93" s="15" t="s">
         <v>23</v>
       </c>
@@ -8075,19 +8075,19 @@
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
-      <c r="G93" s="94"/>
-      <c r="H93" s="104"/>
-      <c r="I93" s="104"/>
-      <c r="J93" s="104"/>
-      <c r="K93" s="104"/>
-      <c r="L93" s="98"/>
-      <c r="M93" s="99"/>
+      <c r="G93" s="93"/>
+      <c r="H93" s="94"/>
+      <c r="I93" s="94"/>
+      <c r="J93" s="94"/>
+      <c r="K93" s="94"/>
+      <c r="L93" s="97"/>
+      <c r="M93" s="96"/>
       <c r="N93" s="22" t="s">
         <v>112</v>
       </c>
       <c r="O93" s="103"/>
-      <c r="P93" s="87"/>
-      <c r="Q93" s="108"/>
+      <c r="P93" s="105"/>
+      <c r="Q93" s="102"/>
       <c r="R93" s="28" t="s">
         <v>166</v>
       </c>
@@ -9459,7 +9459,7 @@
       <c r="R120" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S120" s="88" t="s">
+      <c r="S120" s="109" t="s">
         <v>128</v>
       </c>
       <c r="T120" s="28" t="s">
@@ -9515,7 +9515,7 @@
       <c r="R121" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S121" s="89"/>
+      <c r="S121" s="110"/>
       <c r="T121" s="54" t="s">
         <v>268</v>
       </c>
@@ -9569,7 +9569,7 @@
       <c r="R122" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S122" s="89"/>
+      <c r="S122" s="110"/>
       <c r="T122" s="54" t="s">
         <v>273</v>
       </c>
@@ -9623,7 +9623,7 @@
       <c r="R123" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S123" s="89"/>
+      <c r="S123" s="110"/>
       <c r="T123" s="54" t="s">
         <v>274</v>
       </c>
@@ -9671,7 +9671,7 @@
       <c r="R124" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S124" s="89"/>
+      <c r="S124" s="110"/>
       <c r="T124" s="9" t="s">
         <v>269</v>
       </c>
@@ -9719,7 +9719,7 @@
       <c r="R125" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S125" s="89"/>
+      <c r="S125" s="110"/>
       <c r="T125" s="9" t="s">
         <v>270</v>
       </c>
@@ -9767,7 +9767,7 @@
       <c r="R126" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S126" s="89"/>
+      <c r="S126" s="110"/>
       <c r="T126" s="54" t="s">
         <v>275</v>
       </c>
@@ -9815,7 +9815,7 @@
       <c r="R127" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S127" s="89"/>
+      <c r="S127" s="110"/>
       <c r="T127" s="54"/>
       <c r="U127" s="28" t="s">
         <v>560</v>
@@ -9861,7 +9861,7 @@
       <c r="R128" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S128" s="89"/>
+      <c r="S128" s="110"/>
       <c r="T128" s="54"/>
       <c r="U128" s="28" t="s">
         <v>560</v>
@@ -9907,7 +9907,7 @@
       <c r="R129" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S129" s="89"/>
+      <c r="S129" s="110"/>
       <c r="T129" s="54"/>
       <c r="U129" s="28" t="s">
         <v>560</v>
@@ -9953,7 +9953,7 @@
       <c r="R130" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S130" s="89"/>
+      <c r="S130" s="110"/>
       <c r="T130" s="54"/>
       <c r="U130" s="28" t="s">
         <v>560</v>
@@ -9999,7 +9999,7 @@
       <c r="R131" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S131" s="89"/>
+      <c r="S131" s="110"/>
       <c r="T131" s="54"/>
       <c r="U131" s="28" t="s">
         <v>560</v>
@@ -10045,7 +10045,7 @@
       <c r="R132" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S132" s="89"/>
+      <c r="S132" s="110"/>
       <c r="T132" s="54" t="s">
         <v>276</v>
       </c>
@@ -10093,7 +10093,7 @@
       <c r="R133" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S133" s="89"/>
+      <c r="S133" s="110"/>
       <c r="T133" s="54" t="s">
         <v>277</v>
       </c>
@@ -10141,7 +10141,7 @@
       <c r="R134" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S134" s="89"/>
+      <c r="S134" s="110"/>
       <c r="T134" s="54" t="s">
         <v>278</v>
       </c>
@@ -10189,7 +10189,7 @@
       <c r="R135" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S135" s="89"/>
+      <c r="S135" s="110"/>
       <c r="T135" s="54"/>
       <c r="U135" s="54" t="s">
         <v>563</v>
@@ -10235,7 +10235,7 @@
       <c r="R136" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S136" s="89"/>
+      <c r="S136" s="110"/>
       <c r="T136" s="54" t="s">
         <v>271</v>
       </c>
@@ -10283,7 +10283,7 @@
       <c r="R137" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S137" s="89"/>
+      <c r="S137" s="110"/>
       <c r="T137" s="54" t="s">
         <v>272</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>0</v>
       </c>
       <c r="R138" s="9"/>
-      <c r="S138" s="89"/>
+      <c r="S138" s="110"/>
       <c r="T138" s="54"/>
       <c r="U138" s="24" t="s">
         <v>566</v>
@@ -10377,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="R139" s="9"/>
-      <c r="S139" s="89"/>
+      <c r="S139" s="110"/>
       <c r="T139" s="54"/>
       <c r="U139" s="24" t="s">
         <v>567</v>
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="R140" s="9"/>
-      <c r="S140" s="89"/>
+      <c r="S140" s="110"/>
       <c r="T140" s="54"/>
       <c r="U140" s="24" t="s">
         <v>568</v>
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="R141" s="9"/>
-      <c r="S141" s="89"/>
+      <c r="S141" s="110"/>
       <c r="T141" s="54"/>
       <c r="U141" s="24" t="s">
         <v>569</v>
@@ -10515,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="R142" s="9"/>
-      <c r="S142" s="89"/>
+      <c r="S142" s="110"/>
       <c r="T142" s="54"/>
       <c r="U142" s="24" t="s">
         <v>570</v>
@@ -10561,7 +10561,7 @@
         <v>0</v>
       </c>
       <c r="R143" s="9"/>
-      <c r="S143" s="89"/>
+      <c r="S143" s="110"/>
       <c r="T143" s="54"/>
       <c r="U143" s="24" t="s">
         <v>571</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R144" s="9"/>
-      <c r="S144" s="89"/>
+      <c r="S144" s="110"/>
       <c r="T144" s="9"/>
       <c r="U144" s="24" t="s">
         <v>572</v>
@@ -10653,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="R145" s="9"/>
-      <c r="S145" s="90"/>
+      <c r="S145" s="111"/>
       <c r="T145" s="9"/>
       <c r="U145" s="24" t="s">
         <v>573</v>
@@ -12094,25 +12094,25 @@
       <c r="A178" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="B178" s="101" t="s">
+      <c r="B178" s="106" t="s">
         <v>171</v>
       </c>
-      <c r="C178" s="101"/>
-      <c r="D178" s="101"/>
-      <c r="E178" s="101"/>
-      <c r="F178" s="101"/>
-      <c r="G178" s="101"/>
-      <c r="H178" s="101"/>
-      <c r="I178" s="101"/>
-      <c r="J178" s="101"/>
-      <c r="K178" s="101"/>
-      <c r="L178" s="101"/>
+      <c r="C178" s="106"/>
+      <c r="D178" s="106"/>
+      <c r="E178" s="106"/>
+      <c r="F178" s="106"/>
+      <c r="G178" s="106"/>
+      <c r="H178" s="106"/>
+      <c r="I178" s="106"/>
+      <c r="J178" s="106"/>
+      <c r="K178" s="106"/>
+      <c r="L178" s="106"/>
       <c r="M178" s="91" t="s">
         <v>328</v>
       </c>
       <c r="N178" s="91"/>
       <c r="O178" s="91"/>
-      <c r="P178" s="109" t="s">
+      <c r="P178" s="90" t="s">
         <v>0</v>
       </c>
       <c r="Q178" s="91" t="s">
@@ -12134,21 +12134,21 @@
       <c r="A179" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="B179" s="101"/>
-      <c r="C179" s="101"/>
-      <c r="D179" s="101"/>
-      <c r="E179" s="101"/>
-      <c r="F179" s="101"/>
-      <c r="G179" s="101"/>
-      <c r="H179" s="101"/>
-      <c r="I179" s="101"/>
-      <c r="J179" s="101"/>
-      <c r="K179" s="101"/>
-      <c r="L179" s="101"/>
+      <c r="B179" s="106"/>
+      <c r="C179" s="106"/>
+      <c r="D179" s="106"/>
+      <c r="E179" s="106"/>
+      <c r="F179" s="106"/>
+      <c r="G179" s="106"/>
+      <c r="H179" s="106"/>
+      <c r="I179" s="106"/>
+      <c r="J179" s="106"/>
+      <c r="K179" s="106"/>
+      <c r="L179" s="106"/>
       <c r="M179" s="91"/>
       <c r="N179" s="91"/>
       <c r="O179" s="91"/>
-      <c r="P179" s="109"/>
+      <c r="P179" s="90"/>
       <c r="Q179" s="91"/>
       <c r="R179" s="91"/>
       <c r="S179" s="91"/>
@@ -12179,11 +12179,11 @@
       <c r="J180" s="19"/>
       <c r="K180" s="19"/>
       <c r="L180" s="19"/>
-      <c r="M180" s="84" t="s">
+      <c r="M180" s="85" t="s">
         <v>408</v>
       </c>
-      <c r="N180" s="84"/>
-      <c r="O180" s="84"/>
+      <c r="N180" s="85"/>
+      <c r="O180" s="85"/>
       <c r="P180" s="22" t="s">
         <v>1</v>
       </c>
@@ -12219,11 +12219,11 @@
       <c r="J181" s="19"/>
       <c r="K181" s="19"/>
       <c r="L181" s="19"/>
-      <c r="M181" s="84" t="s">
+      <c r="M181" s="85" t="s">
         <v>407</v>
       </c>
-      <c r="N181" s="84"/>
-      <c r="O181" s="84"/>
+      <c r="N181" s="85"/>
+      <c r="O181" s="85"/>
       <c r="P181" s="22" t="s">
         <v>1</v>
       </c>
@@ -12259,11 +12259,11 @@
       <c r="J182" s="19"/>
       <c r="K182" s="19"/>
       <c r="L182" s="19"/>
-      <c r="M182" s="84" t="s">
+      <c r="M182" s="85" t="s">
         <v>406</v>
       </c>
-      <c r="N182" s="84"/>
-      <c r="O182" s="84"/>
+      <c r="N182" s="85"/>
+      <c r="O182" s="85"/>
       <c r="P182" s="22" t="s">
         <v>1</v>
       </c>
@@ -12299,11 +12299,11 @@
       <c r="J183" s="19"/>
       <c r="K183" s="19"/>
       <c r="L183" s="19"/>
-      <c r="M183" s="84" t="s">
+      <c r="M183" s="85" t="s">
         <v>405</v>
       </c>
-      <c r="N183" s="84"/>
-      <c r="O183" s="84"/>
+      <c r="N183" s="85"/>
+      <c r="O183" s="85"/>
       <c r="P183" s="22" t="s">
         <v>1</v>
       </c>
@@ -12339,11 +12339,11 @@
       <c r="J184" s="19"/>
       <c r="K184" s="19"/>
       <c r="L184" s="19"/>
-      <c r="M184" s="84" t="s">
+      <c r="M184" s="85" t="s">
         <v>403</v>
       </c>
-      <c r="N184" s="84"/>
-      <c r="O184" s="84"/>
+      <c r="N184" s="85"/>
+      <c r="O184" s="85"/>
       <c r="P184" s="22" t="s">
         <v>1</v>
       </c>
@@ -12379,11 +12379,11 @@
       <c r="J185" s="19"/>
       <c r="K185" s="19"/>
       <c r="L185" s="19"/>
-      <c r="M185" s="84" t="s">
+      <c r="M185" s="85" t="s">
         <v>404</v>
       </c>
-      <c r="N185" s="84"/>
-      <c r="O185" s="84"/>
+      <c r="N185" s="85"/>
+      <c r="O185" s="85"/>
       <c r="P185" s="22" t="s">
         <v>1</v>
       </c>
@@ -12419,11 +12419,11 @@
       <c r="J186" s="19"/>
       <c r="K186" s="19"/>
       <c r="L186" s="19"/>
-      <c r="M186" s="84" t="s">
+      <c r="M186" s="85" t="s">
         <v>409</v>
       </c>
-      <c r="N186" s="84"/>
-      <c r="O186" s="84"/>
+      <c r="N186" s="85"/>
+      <c r="O186" s="85"/>
       <c r="P186" s="28" t="s">
         <v>176</v>
       </c>
@@ -12459,11 +12459,11 @@
       <c r="J187" s="19"/>
       <c r="K187" s="19"/>
       <c r="L187" s="19"/>
-      <c r="M187" s="84" t="s">
+      <c r="M187" s="85" t="s">
         <v>410</v>
       </c>
-      <c r="N187" s="84"/>
-      <c r="O187" s="84"/>
+      <c r="N187" s="85"/>
+      <c r="O187" s="85"/>
       <c r="P187" s="22" t="s">
         <v>1</v>
       </c>
@@ -12499,11 +12499,11 @@
       <c r="J188" s="19"/>
       <c r="K188" s="19"/>
       <c r="L188" s="19"/>
-      <c r="M188" s="84" t="s">
+      <c r="M188" s="85" t="s">
         <v>411</v>
       </c>
-      <c r="N188" s="84"/>
-      <c r="O188" s="84"/>
+      <c r="N188" s="85"/>
+      <c r="O188" s="85"/>
       <c r="P188" s="22" t="s">
         <v>1</v>
       </c>
@@ -12539,11 +12539,11 @@
       <c r="J189" s="19"/>
       <c r="K189" s="19"/>
       <c r="L189" s="19"/>
-      <c r="M189" s="84" t="s">
+      <c r="M189" s="85" t="s">
         <v>377</v>
       </c>
-      <c r="N189" s="84"/>
-      <c r="O189" s="84"/>
+      <c r="N189" s="85"/>
+      <c r="O189" s="85"/>
       <c r="P189" s="22" t="s">
         <v>1</v>
       </c>
@@ -12581,11 +12581,11 @@
       <c r="J190" s="19"/>
       <c r="K190" s="19"/>
       <c r="L190" s="19"/>
-      <c r="M190" s="84" t="s">
+      <c r="M190" s="85" t="s">
         <v>378</v>
       </c>
-      <c r="N190" s="84"/>
-      <c r="O190" s="84"/>
+      <c r="N190" s="85"/>
+      <c r="O190" s="85"/>
       <c r="P190" s="22" t="s">
         <v>1</v>
       </c>
@@ -12623,11 +12623,11 @@
       <c r="J191" s="19"/>
       <c r="K191" s="19"/>
       <c r="L191" s="19"/>
-      <c r="M191" s="84" t="s">
+      <c r="M191" s="85" t="s">
         <v>414</v>
       </c>
-      <c r="N191" s="84"/>
-      <c r="O191" s="84"/>
+      <c r="N191" s="85"/>
+      <c r="O191" s="85"/>
       <c r="P191" s="28" t="s">
         <v>176</v>
       </c>
@@ -12663,11 +12663,11 @@
       <c r="J192" s="19"/>
       <c r="K192" s="19"/>
       <c r="L192" s="19"/>
-      <c r="M192" s="84" t="s">
+      <c r="M192" s="85" t="s">
         <v>415</v>
       </c>
-      <c r="N192" s="84"/>
-      <c r="O192" s="84"/>
+      <c r="N192" s="85"/>
+      <c r="O192" s="85"/>
       <c r="P192" s="28" t="s">
         <v>176</v>
       </c>
@@ -12703,11 +12703,11 @@
       <c r="J193" s="19"/>
       <c r="K193" s="19"/>
       <c r="L193" s="19"/>
-      <c r="M193" s="84" t="s">
+      <c r="M193" s="85" t="s">
         <v>417</v>
       </c>
-      <c r="N193" s="84"/>
-      <c r="O193" s="84"/>
+      <c r="N193" s="85"/>
+      <c r="O193" s="85"/>
       <c r="P193" s="22" t="s">
         <v>1</v>
       </c>
@@ -12743,11 +12743,11 @@
       <c r="J194" s="19"/>
       <c r="K194" s="19"/>
       <c r="L194" s="19"/>
-      <c r="M194" s="84" t="s">
+      <c r="M194" s="85" t="s">
         <v>418</v>
       </c>
-      <c r="N194" s="84"/>
-      <c r="O194" s="84"/>
+      <c r="N194" s="85"/>
+      <c r="O194" s="85"/>
       <c r="P194" s="22" t="s">
         <v>1</v>
       </c>
@@ -12783,11 +12783,11 @@
       <c r="J195" s="19"/>
       <c r="K195" s="19"/>
       <c r="L195" s="19"/>
-      <c r="M195" s="84" t="s">
+      <c r="M195" s="85" t="s">
         <v>419</v>
       </c>
-      <c r="N195" s="84"/>
-      <c r="O195" s="84"/>
+      <c r="N195" s="85"/>
+      <c r="O195" s="85"/>
       <c r="P195" s="22" t="s">
         <v>1</v>
       </c>
@@ -12823,11 +12823,11 @@
       <c r="J196" s="19"/>
       <c r="K196" s="19"/>
       <c r="L196" s="19"/>
-      <c r="M196" s="83" t="s">
+      <c r="M196" s="84" t="s">
         <v>420</v>
       </c>
-      <c r="N196" s="83"/>
-      <c r="O196" s="83"/>
+      <c r="N196" s="84"/>
+      <c r="O196" s="84"/>
       <c r="P196" s="22" t="s">
         <v>1</v>
       </c>
@@ -12863,11 +12863,11 @@
       <c r="J197" s="19"/>
       <c r="K197" s="19"/>
       <c r="L197" s="19"/>
-      <c r="M197" s="83" t="s">
+      <c r="M197" s="84" t="s">
         <v>421</v>
       </c>
-      <c r="N197" s="83"/>
-      <c r="O197" s="83"/>
+      <c r="N197" s="84"/>
+      <c r="O197" s="84"/>
       <c r="P197" s="28" t="s">
         <v>187</v>
       </c>
@@ -12903,11 +12903,11 @@
       <c r="J198" s="19"/>
       <c r="K198" s="19"/>
       <c r="L198" s="19"/>
-      <c r="M198" s="83" t="s">
+      <c r="M198" s="84" t="s">
         <v>423</v>
       </c>
-      <c r="N198" s="83"/>
-      <c r="O198" s="83"/>
+      <c r="N198" s="84"/>
+      <c r="O198" s="84"/>
       <c r="P198" s="28" t="s">
         <v>187</v>
       </c>
@@ -12943,11 +12943,11 @@
       <c r="J199" s="19"/>
       <c r="K199" s="19"/>
       <c r="L199" s="19"/>
-      <c r="M199" s="83" t="s">
+      <c r="M199" s="84" t="s">
         <v>424</v>
       </c>
-      <c r="N199" s="83"/>
-      <c r="O199" s="83"/>
+      <c r="N199" s="84"/>
+      <c r="O199" s="84"/>
       <c r="P199" s="22" t="s">
         <v>1</v>
       </c>
@@ -12983,11 +12983,11 @@
       <c r="J200" s="19"/>
       <c r="K200" s="19"/>
       <c r="L200" s="19"/>
-      <c r="M200" s="83" t="s">
+      <c r="M200" s="84" t="s">
         <v>425</v>
       </c>
-      <c r="N200" s="83"/>
-      <c r="O200" s="83"/>
+      <c r="N200" s="84"/>
+      <c r="O200" s="84"/>
       <c r="P200" s="22" t="s">
         <v>1</v>
       </c>
@@ -13023,11 +13023,11 @@
       <c r="J201" s="19"/>
       <c r="K201" s="19"/>
       <c r="L201" s="19"/>
-      <c r="M201" s="84" t="s">
+      <c r="M201" s="85" t="s">
         <v>426</v>
       </c>
-      <c r="N201" s="84"/>
-      <c r="O201" s="84"/>
+      <c r="N201" s="85"/>
+      <c r="O201" s="85"/>
       <c r="P201" s="22" t="s">
         <v>1</v>
       </c>
@@ -13063,11 +13063,11 @@
       <c r="J202" s="19"/>
       <c r="K202" s="19"/>
       <c r="L202" s="19"/>
-      <c r="M202" s="84" t="s">
+      <c r="M202" s="85" t="s">
         <v>427</v>
       </c>
-      <c r="N202" s="84"/>
-      <c r="O202" s="84"/>
+      <c r="N202" s="85"/>
+      <c r="O202" s="85"/>
       <c r="P202" s="22" t="s">
         <v>1</v>
       </c>
@@ -13103,11 +13103,11 @@
       <c r="J203" s="19"/>
       <c r="K203" s="19"/>
       <c r="L203" s="19"/>
-      <c r="M203" s="84" t="s">
+      <c r="M203" s="85" t="s">
         <v>428</v>
       </c>
-      <c r="N203" s="84"/>
-      <c r="O203" s="84"/>
+      <c r="N203" s="85"/>
+      <c r="O203" s="85"/>
       <c r="P203" s="22" t="s">
         <v>1</v>
       </c>
@@ -13143,11 +13143,11 @@
       <c r="J204" s="19"/>
       <c r="K204" s="19"/>
       <c r="L204" s="19"/>
-      <c r="M204" s="84" t="s">
+      <c r="M204" s="85" t="s">
         <v>429</v>
       </c>
-      <c r="N204" s="84"/>
-      <c r="O204" s="84"/>
+      <c r="N204" s="85"/>
+      <c r="O204" s="85"/>
       <c r="P204" s="22" t="s">
         <v>1</v>
       </c>
@@ -13183,11 +13183,11 @@
       <c r="J205" s="19"/>
       <c r="K205" s="19"/>
       <c r="L205" s="19"/>
-      <c r="M205" s="84" t="s">
+      <c r="M205" s="85" t="s">
         <v>430</v>
       </c>
-      <c r="N205" s="84"/>
-      <c r="O205" s="84"/>
+      <c r="N205" s="85"/>
+      <c r="O205" s="85"/>
       <c r="P205" s="22" t="s">
         <v>1</v>
       </c>
@@ -13223,11 +13223,11 @@
       <c r="J206" s="19"/>
       <c r="K206" s="19"/>
       <c r="L206" s="19"/>
-      <c r="M206" s="84" t="s">
+      <c r="M206" s="85" t="s">
         <v>431</v>
       </c>
-      <c r="N206" s="84"/>
-      <c r="O206" s="84"/>
+      <c r="N206" s="85"/>
+      <c r="O206" s="85"/>
       <c r="P206" s="22" t="s">
         <v>1</v>
       </c>
@@ -13263,11 +13263,11 @@
       <c r="J207" s="19"/>
       <c r="K207" s="19"/>
       <c r="L207" s="19"/>
-      <c r="M207" s="84" t="s">
+      <c r="M207" s="85" t="s">
         <v>432</v>
       </c>
-      <c r="N207" s="84"/>
-      <c r="O207" s="84"/>
+      <c r="N207" s="85"/>
+      <c r="O207" s="85"/>
       <c r="P207" s="22" t="s">
         <v>1</v>
       </c>
@@ -13303,11 +13303,11 @@
       <c r="J208" s="19"/>
       <c r="K208" s="19"/>
       <c r="L208" s="19"/>
-      <c r="M208" s="84" t="s">
+      <c r="M208" s="85" t="s">
         <v>433</v>
       </c>
-      <c r="N208" s="84"/>
-      <c r="O208" s="84"/>
+      <c r="N208" s="85"/>
+      <c r="O208" s="85"/>
       <c r="P208" s="22" t="s">
         <v>1</v>
       </c>
@@ -13343,11 +13343,11 @@
       <c r="J209" s="19"/>
       <c r="K209" s="19"/>
       <c r="L209" s="19"/>
-      <c r="M209" s="84" t="s">
+      <c r="M209" s="85" t="s">
         <v>434</v>
       </c>
-      <c r="N209" s="84"/>
-      <c r="O209" s="84"/>
+      <c r="N209" s="85"/>
+      <c r="O209" s="85"/>
       <c r="P209" s="22" t="s">
         <v>1</v>
       </c>
@@ -13383,11 +13383,11 @@
       <c r="J210" s="19"/>
       <c r="K210" s="19"/>
       <c r="L210" s="19"/>
-      <c r="M210" s="84" t="s">
+      <c r="M210" s="85" t="s">
         <v>443</v>
       </c>
-      <c r="N210" s="84"/>
-      <c r="O210" s="84"/>
+      <c r="N210" s="85"/>
+      <c r="O210" s="85"/>
       <c r="P210" s="22" t="s">
         <v>1</v>
       </c>
@@ -13423,11 +13423,11 @@
       <c r="J211" s="19"/>
       <c r="K211" s="19"/>
       <c r="L211" s="19"/>
-      <c r="M211" s="84" t="s">
+      <c r="M211" s="85" t="s">
         <v>444</v>
       </c>
-      <c r="N211" s="84"/>
-      <c r="O211" s="84"/>
+      <c r="N211" s="85"/>
+      <c r="O211" s="85"/>
       <c r="P211" s="22" t="s">
         <v>1</v>
       </c>
@@ -13463,11 +13463,11 @@
       <c r="J212" s="19"/>
       <c r="K212" s="19"/>
       <c r="L212" s="19"/>
-      <c r="M212" s="84" t="s">
+      <c r="M212" s="85" t="s">
         <v>445</v>
       </c>
-      <c r="N212" s="84"/>
-      <c r="O212" s="84"/>
+      <c r="N212" s="85"/>
+      <c r="O212" s="85"/>
       <c r="P212" s="28" t="s">
         <v>176</v>
       </c>
@@ -13503,11 +13503,11 @@
       <c r="J213" s="19"/>
       <c r="K213" s="19"/>
       <c r="L213" s="19"/>
-      <c r="M213" s="84" t="s">
+      <c r="M213" s="85" t="s">
         <v>446</v>
       </c>
-      <c r="N213" s="84"/>
-      <c r="O213" s="84"/>
+      <c r="N213" s="85"/>
+      <c r="O213" s="85"/>
       <c r="P213" s="28" t="s">
         <v>176</v>
       </c>
@@ -13543,11 +13543,11 @@
       <c r="J214" s="19"/>
       <c r="K214" s="19"/>
       <c r="L214" s="19"/>
-      <c r="M214" s="84" t="s">
+      <c r="M214" s="85" t="s">
         <v>439</v>
       </c>
-      <c r="N214" s="84"/>
-      <c r="O214" s="84"/>
+      <c r="N214" s="85"/>
+      <c r="O214" s="85"/>
       <c r="P214" s="22" t="s">
         <v>1</v>
       </c>
@@ -13583,11 +13583,11 @@
       <c r="J215" s="19"/>
       <c r="K215" s="19"/>
       <c r="L215" s="19"/>
-      <c r="M215" s="84" t="s">
+      <c r="M215" s="85" t="s">
         <v>442</v>
       </c>
-      <c r="N215" s="84"/>
-      <c r="O215" s="84"/>
+      <c r="N215" s="85"/>
+      <c r="O215" s="85"/>
       <c r="P215" s="28" t="s">
         <v>176</v>
       </c>
@@ -13623,11 +13623,11 @@
       <c r="J216" s="19"/>
       <c r="K216" s="19"/>
       <c r="L216" s="19"/>
-      <c r="M216" s="83" t="s">
+      <c r="M216" s="84" t="s">
         <v>449</v>
       </c>
-      <c r="N216" s="83"/>
-      <c r="O216" s="83"/>
+      <c r="N216" s="84"/>
+      <c r="O216" s="84"/>
       <c r="P216" s="22" t="s">
         <v>1</v>
       </c>
@@ -13663,11 +13663,11 @@
       <c r="J217" s="19"/>
       <c r="K217" s="19"/>
       <c r="L217" s="19"/>
-      <c r="M217" s="83" t="s">
+      <c r="M217" s="84" t="s">
         <v>450</v>
       </c>
-      <c r="N217" s="83"/>
-      <c r="O217" s="83"/>
+      <c r="N217" s="84"/>
+      <c r="O217" s="84"/>
       <c r="P217" s="22" t="s">
         <v>1</v>
       </c>
@@ -13703,11 +13703,11 @@
       <c r="J218" s="19"/>
       <c r="K218" s="19"/>
       <c r="L218" s="19"/>
-      <c r="M218" s="83" t="s">
+      <c r="M218" s="84" t="s">
         <v>451</v>
       </c>
-      <c r="N218" s="83"/>
-      <c r="O218" s="83"/>
+      <c r="N218" s="84"/>
+      <c r="O218" s="84"/>
       <c r="P218" s="28" t="s">
         <v>176</v>
       </c>
@@ -13743,11 +13743,11 @@
       <c r="J219" s="19"/>
       <c r="K219" s="19"/>
       <c r="L219" s="19"/>
-      <c r="M219" s="83" t="s">
+      <c r="M219" s="84" t="s">
         <v>456</v>
       </c>
-      <c r="N219" s="83"/>
-      <c r="O219" s="83"/>
+      <c r="N219" s="84"/>
+      <c r="O219" s="84"/>
       <c r="P219" s="28" t="s">
         <v>176</v>
       </c>
@@ -13783,11 +13783,11 @@
       <c r="J220" s="19"/>
       <c r="K220" s="19"/>
       <c r="L220" s="19"/>
-      <c r="M220" s="83" t="s">
+      <c r="M220" s="84" t="s">
         <v>459</v>
       </c>
-      <c r="N220" s="83"/>
-      <c r="O220" s="83"/>
+      <c r="N220" s="84"/>
+      <c r="O220" s="84"/>
       <c r="P220" s="22" t="s">
         <v>1</v>
       </c>
@@ -13823,11 +13823,11 @@
       <c r="J221" s="19"/>
       <c r="K221" s="19"/>
       <c r="L221" s="19"/>
-      <c r="M221" s="84" t="s">
+      <c r="M221" s="85" t="s">
         <v>464</v>
       </c>
-      <c r="N221" s="84"/>
-      <c r="O221" s="84"/>
+      <c r="N221" s="85"/>
+      <c r="O221" s="85"/>
       <c r="P221" s="22" t="s">
         <v>1</v>
       </c>
@@ -13863,11 +13863,11 @@
       <c r="J222" s="19"/>
       <c r="K222" s="19"/>
       <c r="L222" s="19"/>
-      <c r="M222" s="84" t="s">
+      <c r="M222" s="85" t="s">
         <v>465</v>
       </c>
-      <c r="N222" s="84"/>
-      <c r="O222" s="84"/>
+      <c r="N222" s="85"/>
+      <c r="O222" s="85"/>
       <c r="P222" s="22" t="s">
         <v>1</v>
       </c>
@@ -13903,11 +13903,11 @@
       <c r="J223" s="19"/>
       <c r="K223" s="19"/>
       <c r="L223" s="19"/>
-      <c r="M223" s="84" t="s">
+      <c r="M223" s="85" t="s">
         <v>466</v>
       </c>
-      <c r="N223" s="84"/>
-      <c r="O223" s="84"/>
+      <c r="N223" s="85"/>
+      <c r="O223" s="85"/>
       <c r="P223" s="22" t="s">
         <v>1</v>
       </c>
@@ -13943,11 +13943,11 @@
       <c r="J224" s="19"/>
       <c r="K224" s="19"/>
       <c r="L224" s="19"/>
-      <c r="M224" s="84" t="s">
+      <c r="M224" s="85" t="s">
         <v>467</v>
       </c>
-      <c r="N224" s="84"/>
-      <c r="O224" s="84"/>
+      <c r="N224" s="85"/>
+      <c r="O224" s="85"/>
       <c r="P224" s="22" t="s">
         <v>1</v>
       </c>
@@ -13983,11 +13983,11 @@
       <c r="J225" s="19"/>
       <c r="K225" s="19"/>
       <c r="L225" s="19"/>
-      <c r="M225" s="84" t="s">
+      <c r="M225" s="85" t="s">
         <v>468</v>
       </c>
-      <c r="N225" s="84"/>
-      <c r="O225" s="84"/>
+      <c r="N225" s="85"/>
+      <c r="O225" s="85"/>
       <c r="P225" s="22" t="s">
         <v>1</v>
       </c>
@@ -14023,11 +14023,11 @@
       <c r="J226" s="19"/>
       <c r="K226" s="19"/>
       <c r="L226" s="19"/>
-      <c r="M226" s="84" t="s">
+      <c r="M226" s="85" t="s">
         <v>469</v>
       </c>
-      <c r="N226" s="84"/>
-      <c r="O226" s="84"/>
+      <c r="N226" s="85"/>
+      <c r="O226" s="85"/>
       <c r="P226" s="22" t="s">
         <v>1</v>
       </c>
@@ -14063,11 +14063,11 @@
       <c r="J227" s="19"/>
       <c r="K227" s="19"/>
       <c r="L227" s="19"/>
-      <c r="M227" s="84" t="s">
+      <c r="M227" s="85" t="s">
         <v>470</v>
       </c>
-      <c r="N227" s="84"/>
-      <c r="O227" s="84"/>
+      <c r="N227" s="85"/>
+      <c r="O227" s="85"/>
       <c r="P227" s="22" t="s">
         <v>1</v>
       </c>
@@ -14103,11 +14103,11 @@
       <c r="J228" s="19"/>
       <c r="K228" s="19"/>
       <c r="L228" s="19"/>
-      <c r="M228" s="84" t="s">
+      <c r="M228" s="85" t="s">
         <v>471</v>
       </c>
-      <c r="N228" s="84"/>
-      <c r="O228" s="84"/>
+      <c r="N228" s="85"/>
+      <c r="O228" s="85"/>
       <c r="P228" s="22" t="s">
         <v>1</v>
       </c>
@@ -14143,11 +14143,11 @@
       <c r="J229" s="19"/>
       <c r="K229" s="19"/>
       <c r="L229" s="19"/>
-      <c r="M229" s="84" t="s">
+      <c r="M229" s="85" t="s">
         <v>472</v>
       </c>
-      <c r="N229" s="84"/>
-      <c r="O229" s="84"/>
+      <c r="N229" s="85"/>
+      <c r="O229" s="85"/>
       <c r="P229" s="22" t="s">
         <v>1</v>
       </c>
@@ -14183,11 +14183,11 @@
       <c r="J230" s="19"/>
       <c r="K230" s="19"/>
       <c r="L230" s="19"/>
-      <c r="M230" s="84" t="s">
+      <c r="M230" s="85" t="s">
         <v>473</v>
       </c>
-      <c r="N230" s="84"/>
-      <c r="O230" s="84"/>
+      <c r="N230" s="85"/>
+      <c r="O230" s="85"/>
       <c r="P230" s="22" t="s">
         <v>1</v>
       </c>
@@ -14223,11 +14223,11 @@
       <c r="J231" s="19"/>
       <c r="K231" s="19"/>
       <c r="L231" s="19"/>
-      <c r="M231" s="84" t="s">
+      <c r="M231" s="85" t="s">
         <v>474</v>
       </c>
-      <c r="N231" s="84"/>
-      <c r="O231" s="84"/>
+      <c r="N231" s="85"/>
+      <c r="O231" s="85"/>
       <c r="P231" s="22" t="s">
         <v>1</v>
       </c>
@@ -14263,11 +14263,11 @@
       <c r="J232" s="19"/>
       <c r="K232" s="19"/>
       <c r="L232" s="19"/>
-      <c r="M232" s="84" t="s">
+      <c r="M232" s="85" t="s">
         <v>475</v>
       </c>
-      <c r="N232" s="84"/>
-      <c r="O232" s="84"/>
+      <c r="N232" s="85"/>
+      <c r="O232" s="85"/>
       <c r="P232" s="22" t="s">
         <v>1</v>
       </c>
@@ -14303,11 +14303,11 @@
       <c r="J233" s="19"/>
       <c r="K233" s="19"/>
       <c r="L233" s="19"/>
-      <c r="M233" s="84" t="s">
+      <c r="M233" s="85" t="s">
         <v>476</v>
       </c>
-      <c r="N233" s="84"/>
-      <c r="O233" s="84"/>
+      <c r="N233" s="85"/>
+      <c r="O233" s="85"/>
       <c r="P233" s="22" t="s">
         <v>1</v>
       </c>
@@ -14343,11 +14343,11 @@
       <c r="J234" s="19"/>
       <c r="K234" s="19"/>
       <c r="L234" s="19"/>
-      <c r="M234" s="84" t="s">
+      <c r="M234" s="85" t="s">
         <v>477</v>
       </c>
-      <c r="N234" s="84"/>
-      <c r="O234" s="84"/>
+      <c r="N234" s="85"/>
+      <c r="O234" s="85"/>
       <c r="P234" s="22" t="s">
         <v>1</v>
       </c>
@@ -14383,11 +14383,11 @@
       <c r="J235" s="19"/>
       <c r="K235" s="19"/>
       <c r="L235" s="19"/>
-      <c r="M235" s="84" t="s">
+      <c r="M235" s="85" t="s">
         <v>480</v>
       </c>
-      <c r="N235" s="84"/>
-      <c r="O235" s="84"/>
+      <c r="N235" s="85"/>
+      <c r="O235" s="85"/>
       <c r="P235" s="28" t="s">
         <v>176</v>
       </c>
@@ -14423,11 +14423,11 @@
       <c r="J236" s="19"/>
       <c r="K236" s="19"/>
       <c r="L236" s="19"/>
-      <c r="M236" s="83" t="s">
+      <c r="M236" s="84" t="s">
         <v>481</v>
       </c>
-      <c r="N236" s="83"/>
-      <c r="O236" s="83"/>
+      <c r="N236" s="84"/>
+      <c r="O236" s="84"/>
       <c r="P236" s="28" t="s">
         <v>187</v>
       </c>
@@ -14463,11 +14463,11 @@
       <c r="J237" s="19"/>
       <c r="K237" s="19"/>
       <c r="L237" s="19"/>
-      <c r="M237" s="83" t="s">
+      <c r="M237" s="84" t="s">
         <v>482</v>
       </c>
-      <c r="N237" s="83"/>
-      <c r="O237" s="83"/>
+      <c r="N237" s="84"/>
+      <c r="O237" s="84"/>
       <c r="P237" s="22" t="s">
         <v>1</v>
       </c>
@@ -14503,11 +14503,11 @@
       <c r="J238" s="19"/>
       <c r="K238" s="19"/>
       <c r="L238" s="19"/>
-      <c r="M238" s="83" t="s">
+      <c r="M238" s="84" t="s">
         <v>485</v>
       </c>
-      <c r="N238" s="83"/>
-      <c r="O238" s="83"/>
+      <c r="N238" s="84"/>
+      <c r="O238" s="84"/>
       <c r="P238" s="22" t="s">
         <v>1</v>
       </c>
@@ -14543,11 +14543,11 @@
       <c r="J239" s="19"/>
       <c r="K239" s="19"/>
       <c r="L239" s="19"/>
-      <c r="M239" s="83" t="s">
+      <c r="M239" s="84" t="s">
         <v>488</v>
       </c>
-      <c r="N239" s="83"/>
-      <c r="O239" s="83"/>
+      <c r="N239" s="84"/>
+      <c r="O239" s="84"/>
       <c r="P239" s="22" t="s">
         <v>1</v>
       </c>
@@ -14583,11 +14583,11 @@
       <c r="J240" s="19"/>
       <c r="K240" s="19"/>
       <c r="L240" s="19"/>
-      <c r="M240" s="83" t="s">
+      <c r="M240" s="84" t="s">
         <v>492</v>
       </c>
-      <c r="N240" s="83"/>
-      <c r="O240" s="83"/>
+      <c r="N240" s="84"/>
+      <c r="O240" s="84"/>
       <c r="P240" s="22" t="s">
         <v>1</v>
       </c>
@@ -14623,11 +14623,11 @@
       <c r="J241" s="19"/>
       <c r="K241" s="19"/>
       <c r="L241" s="19"/>
-      <c r="M241" s="84" t="s">
+      <c r="M241" s="85" t="s">
         <v>495</v>
       </c>
-      <c r="N241" s="84"/>
-      <c r="O241" s="84"/>
+      <c r="N241" s="85"/>
+      <c r="O241" s="85"/>
       <c r="P241" s="22" t="s">
         <v>1</v>
       </c>
@@ -14663,11 +14663,11 @@
       <c r="J242" s="19"/>
       <c r="K242" s="19"/>
       <c r="L242" s="19"/>
-      <c r="M242" s="84" t="s">
+      <c r="M242" s="85" t="s">
         <v>496</v>
       </c>
-      <c r="N242" s="84"/>
-      <c r="O242" s="84"/>
+      <c r="N242" s="85"/>
+      <c r="O242" s="85"/>
       <c r="P242" s="22" t="s">
         <v>1</v>
       </c>
@@ -14807,9 +14807,9 @@
       <c r="J246" s="67"/>
       <c r="K246" s="67"/>
       <c r="L246" s="67"/>
-      <c r="M246" s="112"/>
-      <c r="N246" s="112"/>
-      <c r="O246" s="112"/>
+      <c r="M246" s="89"/>
+      <c r="N246" s="89"/>
+      <c r="O246" s="89"/>
       <c r="P246" s="68"/>
       <c r="Q246" s="68"/>
       <c r="R246" s="69"/>
@@ -14837,9 +14837,9 @@
       <c r="J247" s="19"/>
       <c r="K247" s="19"/>
       <c r="L247" s="19"/>
-      <c r="M247" s="84"/>
-      <c r="N247" s="84"/>
-      <c r="O247" s="84"/>
+      <c r="M247" s="85"/>
+      <c r="N247" s="85"/>
+      <c r="O247" s="85"/>
       <c r="P247" s="22"/>
       <c r="Q247" s="22"/>
       <c r="R247" s="70"/>
@@ -14865,9 +14865,9 @@
       <c r="J248" s="19"/>
       <c r="K248" s="19"/>
       <c r="L248" s="19"/>
-      <c r="M248" s="84"/>
-      <c r="N248" s="84"/>
-      <c r="O248" s="84"/>
+      <c r="M248" s="85"/>
+      <c r="N248" s="85"/>
+      <c r="O248" s="85"/>
       <c r="P248" s="22"/>
       <c r="Q248" s="22"/>
       <c r="R248" s="64"/>
@@ -14897,11 +14897,11 @@
       <c r="J249" s="19"/>
       <c r="K249" s="19"/>
       <c r="L249" s="19"/>
-      <c r="M249" s="110" t="s">
+      <c r="M249" s="87" t="s">
         <v>849</v>
       </c>
-      <c r="N249" s="111"/>
-      <c r="O249" s="111"/>
+      <c r="N249" s="88"/>
+      <c r="O249" s="88"/>
       <c r="P249" s="22" t="s">
         <v>1</v>
       </c>
@@ -14937,11 +14937,11 @@
       <c r="J250" s="19"/>
       <c r="K250" s="19"/>
       <c r="L250" s="19"/>
-      <c r="M250" s="84" t="s">
+      <c r="M250" s="85" t="s">
         <v>522</v>
       </c>
-      <c r="N250" s="84"/>
-      <c r="O250" s="84"/>
+      <c r="N250" s="85"/>
+      <c r="O250" s="85"/>
       <c r="P250" s="22" t="s">
         <v>1</v>
       </c>
@@ -14977,11 +14977,11 @@
       <c r="J251" s="19"/>
       <c r="K251" s="19"/>
       <c r="L251" s="19"/>
-      <c r="M251" s="84" t="s">
+      <c r="M251" s="85" t="s">
         <v>523</v>
       </c>
-      <c r="N251" s="84"/>
-      <c r="O251" s="84"/>
+      <c r="N251" s="85"/>
+      <c r="O251" s="85"/>
       <c r="P251" s="22" t="s">
         <v>1</v>
       </c>
@@ -15017,11 +15017,11 @@
       <c r="J252" s="19"/>
       <c r="K252" s="19"/>
       <c r="L252" s="19"/>
-      <c r="M252" s="84" t="s">
+      <c r="M252" s="85" t="s">
         <v>848</v>
       </c>
-      <c r="N252" s="84"/>
-      <c r="O252" s="84"/>
+      <c r="N252" s="85"/>
+      <c r="O252" s="85"/>
       <c r="P252" s="22" t="s">
         <v>1</v>
       </c>
@@ -15055,11 +15055,11 @@
       <c r="J253" s="75"/>
       <c r="K253" s="75"/>
       <c r="L253" s="75"/>
-      <c r="M253" s="113" t="s">
+      <c r="M253" s="86" t="s">
         <v>851</v>
       </c>
-      <c r="N253" s="113"/>
-      <c r="O253" s="113"/>
+      <c r="N253" s="86"/>
+      <c r="O253" s="86"/>
       <c r="P253" s="76" t="s">
         <v>1</v>
       </c>
@@ -15097,11 +15097,11 @@
       <c r="J254" s="19"/>
       <c r="K254" s="19"/>
       <c r="L254" s="19"/>
-      <c r="M254" s="84" t="s">
+      <c r="M254" s="85" t="s">
         <v>677</v>
       </c>
-      <c r="N254" s="84"/>
-      <c r="O254" s="84"/>
+      <c r="N254" s="85"/>
+      <c r="O254" s="85"/>
       <c r="P254" s="22" t="s">
         <v>1</v>
       </c>
@@ -15137,11 +15137,11 @@
       <c r="J255" s="19"/>
       <c r="K255" s="19"/>
       <c r="L255" s="19"/>
-      <c r="M255" s="84" t="s">
+      <c r="M255" s="85" t="s">
         <v>662</v>
       </c>
-      <c r="N255" s="84"/>
-      <c r="O255" s="84"/>
+      <c r="N255" s="85"/>
+      <c r="O255" s="85"/>
       <c r="P255" s="22" t="s">
         <v>1</v>
       </c>
@@ -15177,11 +15177,11 @@
       <c r="J256" s="19"/>
       <c r="K256" s="19"/>
       <c r="L256" s="19"/>
-      <c r="M256" s="84" t="s">
+      <c r="M256" s="85" t="s">
         <v>664</v>
       </c>
-      <c r="N256" s="84"/>
-      <c r="O256" s="84"/>
+      <c r="N256" s="85"/>
+      <c r="O256" s="85"/>
       <c r="P256" s="22" t="s">
         <v>1</v>
       </c>
@@ -15217,11 +15217,11 @@
       <c r="J257" s="19"/>
       <c r="K257" s="19"/>
       <c r="L257" s="19"/>
-      <c r="M257" s="83" t="s">
+      <c r="M257" s="84" t="s">
         <v>666</v>
       </c>
-      <c r="N257" s="83"/>
-      <c r="O257" s="83"/>
+      <c r="N257" s="84"/>
+      <c r="O257" s="84"/>
       <c r="P257" s="22" t="s">
         <v>1</v>
       </c>
@@ -15257,11 +15257,11 @@
       <c r="J258" s="19"/>
       <c r="K258" s="19"/>
       <c r="L258" s="19"/>
-      <c r="M258" s="83" t="s">
+      <c r="M258" s="84" t="s">
         <v>667</v>
       </c>
-      <c r="N258" s="83"/>
-      <c r="O258" s="83"/>
+      <c r="N258" s="84"/>
+      <c r="O258" s="84"/>
       <c r="P258" s="22" t="s">
         <v>1</v>
       </c>
@@ -15297,11 +15297,11 @@
       <c r="J259" s="19"/>
       <c r="K259" s="19"/>
       <c r="L259" s="19"/>
-      <c r="M259" s="83" t="s">
+      <c r="M259" s="84" t="s">
         <v>668</v>
       </c>
-      <c r="N259" s="83"/>
-      <c r="O259" s="83"/>
+      <c r="N259" s="84"/>
+      <c r="O259" s="84"/>
       <c r="P259" s="22" t="s">
         <v>1</v>
       </c>
@@ -15324,7 +15324,7 @@
       <c r="A260" s="26" t="s">
         <v>661</v>
       </c>
-      <c r="B260" s="29" t="s">
+      <c r="B260" s="27" t="s">
         <v>670</v>
       </c>
       <c r="C260" s="29"/>
@@ -15337,11 +15337,11 @@
       <c r="J260" s="19"/>
       <c r="K260" s="19"/>
       <c r="L260" s="19"/>
-      <c r="M260" s="83" t="s">
+      <c r="M260" s="84" t="s">
         <v>670</v>
       </c>
-      <c r="N260" s="83"/>
-      <c r="O260" s="83"/>
+      <c r="N260" s="84"/>
+      <c r="O260" s="84"/>
       <c r="P260" s="22" t="s">
         <v>1</v>
       </c>
@@ -15364,7 +15364,7 @@
       <c r="A261" s="26" t="s">
         <v>661</v>
       </c>
-      <c r="B261" s="29" t="s">
+      <c r="B261" s="27" t="s">
         <v>671</v>
       </c>
       <c r="C261" s="29"/>
@@ -15377,11 +15377,11 @@
       <c r="J261" s="19"/>
       <c r="K261" s="19"/>
       <c r="L261" s="19"/>
-      <c r="M261" s="83" t="s">
+      <c r="M261" s="84" t="s">
         <v>671</v>
       </c>
-      <c r="N261" s="83"/>
-      <c r="O261" s="83"/>
+      <c r="N261" s="84"/>
+      <c r="O261" s="84"/>
       <c r="P261" s="22" t="s">
         <v>1</v>
       </c>
@@ -15404,7 +15404,7 @@
       <c r="A262" s="26" t="s">
         <v>661</v>
       </c>
-      <c r="B262" s="29" t="s">
+      <c r="B262" s="27" t="s">
         <v>672</v>
       </c>
       <c r="C262" s="29"/>
@@ -15417,11 +15417,11 @@
       <c r="J262" s="19"/>
       <c r="K262" s="19"/>
       <c r="L262" s="19"/>
-      <c r="M262" s="84" t="s">
+      <c r="M262" s="85" t="s">
         <v>672</v>
       </c>
-      <c r="N262" s="84"/>
-      <c r="O262" s="84"/>
+      <c r="N262" s="85"/>
+      <c r="O262" s="85"/>
       <c r="P262" s="22" t="s">
         <v>1</v>
       </c>
@@ -15444,7 +15444,7 @@
       <c r="A263" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="B263" s="29" t="s">
+      <c r="B263" s="27" t="s">
         <v>613</v>
       </c>
       <c r="C263" s="29"/>
@@ -15457,11 +15457,11 @@
       <c r="J263" s="19"/>
       <c r="K263" s="19"/>
       <c r="L263" s="19"/>
-      <c r="M263" s="84" t="s">
+      <c r="M263" s="85" t="s">
         <v>613</v>
       </c>
-      <c r="N263" s="84"/>
-      <c r="O263" s="84"/>
+      <c r="N263" s="85"/>
+      <c r="O263" s="85"/>
       <c r="P263" s="22" t="s">
         <v>1</v>
       </c>
@@ -15484,7 +15484,7 @@
       <c r="A264" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="B264" s="29" t="s">
+      <c r="B264" s="27" t="s">
         <v>614</v>
       </c>
       <c r="C264" s="29"/>
@@ -15497,11 +15497,11 @@
       <c r="J264" s="19"/>
       <c r="K264" s="19"/>
       <c r="L264" s="19"/>
-      <c r="M264" s="84" t="s">
+      <c r="M264" s="85" t="s">
         <v>614</v>
       </c>
-      <c r="N264" s="84"/>
-      <c r="O264" s="84"/>
+      <c r="N264" s="85"/>
+      <c r="O264" s="85"/>
       <c r="P264" s="22" t="s">
         <v>1</v>
       </c>
@@ -15524,7 +15524,7 @@
       <c r="A265" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="B265" s="29" t="s">
+      <c r="B265" s="27" t="s">
         <v>615</v>
       </c>
       <c r="C265" s="29"/>
@@ -15537,11 +15537,11 @@
       <c r="J265" s="19"/>
       <c r="K265" s="19"/>
       <c r="L265" s="19"/>
-      <c r="M265" s="84" t="s">
+      <c r="M265" s="85" t="s">
         <v>615</v>
       </c>
-      <c r="N265" s="84"/>
-      <c r="O265" s="84"/>
+      <c r="N265" s="85"/>
+      <c r="O265" s="85"/>
       <c r="P265" s="22" t="s">
         <v>1</v>
       </c>
@@ -15564,7 +15564,7 @@
       <c r="A266" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="B266" s="29" t="s">
+      <c r="B266" s="27" t="s">
         <v>616</v>
       </c>
       <c r="C266" s="29"/>
@@ -15577,11 +15577,11 @@
       <c r="J266" s="19"/>
       <c r="K266" s="19"/>
       <c r="L266" s="19"/>
-      <c r="M266" s="84" t="s">
+      <c r="M266" s="85" t="s">
         <v>616</v>
       </c>
-      <c r="N266" s="84"/>
-      <c r="O266" s="84"/>
+      <c r="N266" s="85"/>
+      <c r="O266" s="85"/>
       <c r="P266" s="22" t="s">
         <v>1</v>
       </c>
@@ -15604,7 +15604,7 @@
       <c r="A267" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="B267" s="29" t="s">
+      <c r="B267" s="27" t="s">
         <v>617</v>
       </c>
       <c r="C267" s="29"/>
@@ -15617,11 +15617,11 @@
       <c r="J267" s="19"/>
       <c r="K267" s="19"/>
       <c r="L267" s="19"/>
-      <c r="M267" s="84" t="s">
+      <c r="M267" s="85" t="s">
         <v>617</v>
       </c>
-      <c r="N267" s="84"/>
-      <c r="O267" s="84"/>
+      <c r="N267" s="85"/>
+      <c r="O267" s="85"/>
       <c r="P267" s="22" t="s">
         <v>1</v>
       </c>
@@ -15644,7 +15644,7 @@
       <c r="A268" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="B268" s="29" t="s">
+      <c r="B268" s="27" t="s">
         <v>618</v>
       </c>
       <c r="C268" s="29"/>
@@ -15657,11 +15657,11 @@
       <c r="J268" s="19"/>
       <c r="K268" s="19"/>
       <c r="L268" s="19"/>
-      <c r="M268" s="84" t="s">
+      <c r="M268" s="85" t="s">
         <v>618</v>
       </c>
-      <c r="N268" s="84"/>
-      <c r="O268" s="84"/>
+      <c r="N268" s="85"/>
+      <c r="O268" s="85"/>
       <c r="P268" s="22" t="s">
         <v>1</v>
       </c>
@@ -15684,7 +15684,7 @@
       <c r="A269" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="B269" s="29" t="s">
+      <c r="B269" s="27" t="s">
         <v>619</v>
       </c>
       <c r="C269" s="29"/>
@@ -15697,11 +15697,11 @@
       <c r="J269" s="19"/>
       <c r="K269" s="19"/>
       <c r="L269" s="19"/>
-      <c r="M269" s="84" t="s">
+      <c r="M269" s="85" t="s">
         <v>619</v>
       </c>
-      <c r="N269" s="84"/>
-      <c r="O269" s="84"/>
+      <c r="N269" s="85"/>
+      <c r="O269" s="85"/>
       <c r="P269" s="22" t="s">
         <v>1</v>
       </c>
@@ -15724,7 +15724,7 @@
       <c r="A270" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="B270" s="29" t="s">
+      <c r="B270" s="27" t="s">
         <v>620</v>
       </c>
       <c r="C270" s="29"/>
@@ -15737,11 +15737,11 @@
       <c r="J270" s="19"/>
       <c r="K270" s="19"/>
       <c r="L270" s="19"/>
-      <c r="M270" s="84" t="s">
+      <c r="M270" s="85" t="s">
         <v>620</v>
       </c>
-      <c r="N270" s="84"/>
-      <c r="O270" s="84"/>
+      <c r="N270" s="85"/>
+      <c r="O270" s="85"/>
       <c r="P270" s="22" t="s">
         <v>1</v>
       </c>
@@ -15764,7 +15764,7 @@
       <c r="A271" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="B271" s="29" t="s">
+      <c r="B271" s="27" t="s">
         <v>621</v>
       </c>
       <c r="C271" s="29"/>
@@ -15777,11 +15777,11 @@
       <c r="J271" s="19"/>
       <c r="K271" s="19"/>
       <c r="L271" s="19"/>
-      <c r="M271" s="84" t="s">
+      <c r="M271" s="85" t="s">
         <v>621</v>
       </c>
-      <c r="N271" s="84"/>
-      <c r="O271" s="84"/>
+      <c r="N271" s="85"/>
+      <c r="O271" s="85"/>
       <c r="P271" s="22" t="s">
         <v>1</v>
       </c>
@@ -15817,11 +15817,11 @@
       <c r="J272" s="19"/>
       <c r="K272" s="19"/>
       <c r="L272" s="19"/>
-      <c r="M272" s="84" t="s">
+      <c r="M272" s="85" t="s">
         <v>627</v>
       </c>
-      <c r="N272" s="84"/>
-      <c r="O272" s="84"/>
+      <c r="N272" s="85"/>
+      <c r="O272" s="85"/>
       <c r="P272" s="22" t="s">
         <v>1</v>
       </c>
@@ -15857,11 +15857,11 @@
       <c r="J273" s="19"/>
       <c r="K273" s="19"/>
       <c r="L273" s="19"/>
-      <c r="M273" s="83" t="s">
+      <c r="M273" s="84" t="s">
         <v>628</v>
       </c>
-      <c r="N273" s="83"/>
-      <c r="O273" s="83"/>
+      <c r="N273" s="84"/>
+      <c r="O273" s="84"/>
       <c r="P273" s="22" t="s">
         <v>1</v>
       </c>
@@ -15897,11 +15897,11 @@
       <c r="J274" s="19"/>
       <c r="K274" s="19"/>
       <c r="L274" s="19"/>
-      <c r="M274" s="83" t="s">
+      <c r="M274" s="84" t="s">
         <v>629</v>
       </c>
-      <c r="N274" s="83"/>
-      <c r="O274" s="83"/>
+      <c r="N274" s="84"/>
+      <c r="O274" s="84"/>
       <c r="P274" s="22" t="s">
         <v>1</v>
       </c>
@@ -15937,11 +15937,11 @@
       <c r="J275" s="19"/>
       <c r="K275" s="19"/>
       <c r="L275" s="19"/>
-      <c r="M275" s="83" t="s">
+      <c r="M275" s="84" t="s">
         <v>630</v>
       </c>
-      <c r="N275" s="83"/>
-      <c r="O275" s="83"/>
+      <c r="N275" s="84"/>
+      <c r="O275" s="84"/>
       <c r="P275" s="22" t="s">
         <v>1</v>
       </c>
@@ -15977,11 +15977,11 @@
       <c r="J276" s="19"/>
       <c r="K276" s="19"/>
       <c r="L276" s="19"/>
-      <c r="M276" s="83" t="s">
+      <c r="M276" s="84" t="s">
         <v>631</v>
       </c>
-      <c r="N276" s="83"/>
-      <c r="O276" s="83"/>
+      <c r="N276" s="84"/>
+      <c r="O276" s="84"/>
       <c r="P276" s="22" t="s">
         <v>1</v>
       </c>
@@ -16017,11 +16017,11 @@
       <c r="J277" s="19"/>
       <c r="K277" s="19"/>
       <c r="L277" s="19"/>
-      <c r="M277" s="83" t="s">
+      <c r="M277" s="84" t="s">
         <v>632</v>
       </c>
-      <c r="N277" s="83"/>
-      <c r="O277" s="83"/>
+      <c r="N277" s="84"/>
+      <c r="O277" s="84"/>
       <c r="P277" s="22" t="s">
         <v>1</v>
       </c>
@@ -16057,11 +16057,11 @@
       <c r="J278" s="19"/>
       <c r="K278" s="19"/>
       <c r="L278" s="19"/>
-      <c r="M278" s="83" t="s">
+      <c r="M278" s="84" t="s">
         <v>634</v>
       </c>
-      <c r="N278" s="83"/>
-      <c r="O278" s="83"/>
+      <c r="N278" s="84"/>
+      <c r="O278" s="84"/>
       <c r="P278" s="22" t="s">
         <v>1</v>
       </c>
@@ -16097,11 +16097,11 @@
       <c r="J279" s="19"/>
       <c r="K279" s="19"/>
       <c r="L279" s="19"/>
-      <c r="M279" s="83" t="s">
+      <c r="M279" s="84" t="s">
         <v>635</v>
       </c>
-      <c r="N279" s="83"/>
-      <c r="O279" s="83"/>
+      <c r="N279" s="84"/>
+      <c r="O279" s="84"/>
       <c r="P279" s="22" t="s">
         <v>1</v>
       </c>
@@ -16137,11 +16137,11 @@
       <c r="J280" s="19"/>
       <c r="K280" s="19"/>
       <c r="L280" s="19"/>
-      <c r="M280" s="84" t="s">
+      <c r="M280" s="85" t="s">
         <v>637</v>
       </c>
-      <c r="N280" s="84"/>
-      <c r="O280" s="84"/>
+      <c r="N280" s="85"/>
+      <c r="O280" s="85"/>
       <c r="P280" s="22" t="s">
         <v>1</v>
       </c>
@@ -16177,11 +16177,11 @@
       <c r="J281" s="19"/>
       <c r="K281" s="19"/>
       <c r="L281" s="19"/>
-      <c r="M281" s="84" t="s">
+      <c r="M281" s="85" t="s">
         <v>638</v>
       </c>
-      <c r="N281" s="84"/>
-      <c r="O281" s="84"/>
+      <c r="N281" s="85"/>
+      <c r="O281" s="85"/>
       <c r="P281" s="22" t="s">
         <v>1</v>
       </c>
@@ -16217,11 +16217,11 @@
       <c r="J282" s="19"/>
       <c r="K282" s="19"/>
       <c r="L282" s="19"/>
-      <c r="M282" s="84" t="s">
+      <c r="M282" s="85" t="s">
         <v>640</v>
       </c>
-      <c r="N282" s="84"/>
-      <c r="O282" s="84"/>
+      <c r="N282" s="85"/>
+      <c r="O282" s="85"/>
       <c r="P282" s="22" t="s">
         <v>1</v>
       </c>
@@ -16257,11 +16257,11 @@
       <c r="J283" s="19"/>
       <c r="K283" s="19"/>
       <c r="L283" s="19"/>
-      <c r="M283" s="84" t="s">
+      <c r="M283" s="85" t="s">
         <v>641</v>
       </c>
-      <c r="N283" s="84"/>
-      <c r="O283" s="84"/>
+      <c r="N283" s="85"/>
+      <c r="O283" s="85"/>
       <c r="P283" s="22" t="s">
         <v>1</v>
       </c>
@@ -16297,11 +16297,11 @@
       <c r="J284" s="19"/>
       <c r="K284" s="19"/>
       <c r="L284" s="19"/>
-      <c r="M284" s="84" t="s">
+      <c r="M284" s="85" t="s">
         <v>642</v>
       </c>
-      <c r="N284" s="84"/>
-      <c r="O284" s="84"/>
+      <c r="N284" s="85"/>
+      <c r="O284" s="85"/>
       <c r="P284" s="22" t="s">
         <v>1</v>
       </c>
@@ -16337,11 +16337,11 @@
       <c r="J285" s="19"/>
       <c r="K285" s="19"/>
       <c r="L285" s="19"/>
-      <c r="M285" s="84" t="s">
+      <c r="M285" s="85" t="s">
         <v>644</v>
       </c>
-      <c r="N285" s="84"/>
-      <c r="O285" s="84"/>
+      <c r="N285" s="85"/>
+      <c r="O285" s="85"/>
       <c r="P285" s="22" t="s">
         <v>1</v>
       </c>
@@ -16377,11 +16377,11 @@
       <c r="J286" s="19"/>
       <c r="K286" s="19"/>
       <c r="L286" s="19"/>
-      <c r="M286" s="84" t="s">
+      <c r="M286" s="85" t="s">
         <v>645</v>
       </c>
-      <c r="N286" s="84"/>
-      <c r="O286" s="84"/>
+      <c r="N286" s="85"/>
+      <c r="O286" s="85"/>
       <c r="P286" s="22" t="s">
         <v>1</v>
       </c>
@@ -16417,11 +16417,11 @@
       <c r="J287" s="19"/>
       <c r="K287" s="19"/>
       <c r="L287" s="19"/>
-      <c r="M287" s="84" t="s">
+      <c r="M287" s="85" t="s">
         <v>646</v>
       </c>
-      <c r="N287" s="84"/>
-      <c r="O287" s="84"/>
+      <c r="N287" s="85"/>
+      <c r="O287" s="85"/>
       <c r="P287" s="22" t="s">
         <v>1</v>
       </c>
@@ -16457,11 +16457,11 @@
       <c r="J288" s="19"/>
       <c r="K288" s="19"/>
       <c r="L288" s="19"/>
-      <c r="M288" s="84" t="s">
+      <c r="M288" s="85" t="s">
         <v>649</v>
       </c>
-      <c r="N288" s="84"/>
-      <c r="O288" s="84"/>
+      <c r="N288" s="85"/>
+      <c r="O288" s="85"/>
       <c r="P288" s="22" t="s">
         <v>1</v>
       </c>
@@ -16497,11 +16497,11 @@
       <c r="J289" s="19"/>
       <c r="K289" s="19"/>
       <c r="L289" s="19"/>
-      <c r="M289" s="84" t="s">
+      <c r="M289" s="85" t="s">
         <v>650</v>
       </c>
-      <c r="N289" s="84"/>
-      <c r="O289" s="84"/>
+      <c r="N289" s="85"/>
+      <c r="O289" s="85"/>
       <c r="P289" s="22" t="s">
         <v>1</v>
       </c>
@@ -16537,11 +16537,11 @@
       <c r="J290" s="19"/>
       <c r="K290" s="19"/>
       <c r="L290" s="19"/>
-      <c r="M290" s="84" t="s">
+      <c r="M290" s="85" t="s">
         <v>653</v>
       </c>
-      <c r="N290" s="84"/>
-      <c r="O290" s="84"/>
+      <c r="N290" s="85"/>
+      <c r="O290" s="85"/>
       <c r="P290" s="22" t="s">
         <v>1</v>
       </c>
@@ -16577,11 +16577,11 @@
       <c r="J291" s="19"/>
       <c r="K291" s="19"/>
       <c r="L291" s="19"/>
-      <c r="M291" s="83" t="s">
+      <c r="M291" s="84" t="s">
         <v>654</v>
       </c>
-      <c r="N291" s="83"/>
-      <c r="O291" s="83"/>
+      <c r="N291" s="84"/>
+      <c r="O291" s="84"/>
       <c r="P291" s="22" t="s">
         <v>1</v>
       </c>
@@ -16617,11 +16617,11 @@
       <c r="J292" s="19"/>
       <c r="K292" s="19"/>
       <c r="L292" s="19"/>
-      <c r="M292" s="83" t="s">
+      <c r="M292" s="84" t="s">
         <v>655</v>
       </c>
-      <c r="N292" s="83"/>
-      <c r="O292" s="83"/>
+      <c r="N292" s="84"/>
+      <c r="O292" s="84"/>
       <c r="P292" s="22" t="s">
         <v>1</v>
       </c>
@@ -16657,11 +16657,11 @@
       <c r="J293" s="19"/>
       <c r="K293" s="19"/>
       <c r="L293" s="19"/>
-      <c r="M293" s="83" t="s">
+      <c r="M293" s="84" t="s">
         <v>657</v>
       </c>
-      <c r="N293" s="83"/>
-      <c r="O293" s="83"/>
+      <c r="N293" s="84"/>
+      <c r="O293" s="84"/>
       <c r="P293" s="22" t="s">
         <v>1</v>
       </c>
@@ -16697,11 +16697,11 @@
       <c r="J294" s="19"/>
       <c r="K294" s="19"/>
       <c r="L294" s="19"/>
-      <c r="M294" s="83" t="s">
+      <c r="M294" s="84" t="s">
         <v>658</v>
       </c>
-      <c r="N294" s="83"/>
-      <c r="O294" s="83"/>
+      <c r="N294" s="84"/>
+      <c r="O294" s="84"/>
       <c r="P294" s="22" t="s">
         <v>1</v>
       </c>
@@ -16737,11 +16737,11 @@
       <c r="J295" s="19"/>
       <c r="K295" s="19"/>
       <c r="L295" s="19"/>
-      <c r="M295" s="83" t="s">
+      <c r="M295" s="84" t="s">
         <v>659</v>
       </c>
-      <c r="N295" s="83"/>
-      <c r="O295" s="83"/>
+      <c r="N295" s="84"/>
+      <c r="O295" s="84"/>
       <c r="P295" s="22" t="s">
         <v>1</v>
       </c>
@@ -16777,11 +16777,11 @@
       <c r="J296" s="19"/>
       <c r="K296" s="19"/>
       <c r="L296" s="19"/>
-      <c r="M296" s="84" t="s">
+      <c r="M296" s="85" t="s">
         <v>676</v>
       </c>
-      <c r="N296" s="84"/>
-      <c r="O296" s="84"/>
+      <c r="N296" s="85"/>
+      <c r="O296" s="85"/>
       <c r="P296" s="28" t="s">
         <v>176</v>
       </c>
@@ -16817,11 +16817,11 @@
       <c r="J297" s="19"/>
       <c r="K297" s="19"/>
       <c r="L297" s="19"/>
-      <c r="M297" s="84" t="s">
+      <c r="M297" s="85" t="s">
         <v>684</v>
       </c>
-      <c r="N297" s="84"/>
-      <c r="O297" s="84"/>
+      <c r="N297" s="85"/>
+      <c r="O297" s="85"/>
       <c r="P297" s="22" t="s">
         <v>1</v>
       </c>
@@ -16857,11 +16857,11 @@
       <c r="J298" s="19"/>
       <c r="K298" s="19"/>
       <c r="L298" s="19"/>
-      <c r="M298" s="84" t="s">
+      <c r="M298" s="85" t="s">
         <v>512</v>
       </c>
-      <c r="N298" s="84"/>
-      <c r="O298" s="84"/>
+      <c r="N298" s="85"/>
+      <c r="O298" s="85"/>
       <c r="P298" s="22" t="s">
         <v>1</v>
       </c>
@@ -16897,11 +16897,11 @@
       <c r="J299" s="19"/>
       <c r="K299" s="19"/>
       <c r="L299" s="19"/>
-      <c r="M299" s="84" t="s">
+      <c r="M299" s="85" t="s">
         <v>513</v>
       </c>
-      <c r="N299" s="84"/>
-      <c r="O299" s="84"/>
+      <c r="N299" s="85"/>
+      <c r="O299" s="85"/>
       <c r="P299" s="22" t="s">
         <v>1</v>
       </c>
@@ -16937,11 +16937,11 @@
       <c r="J300" s="19"/>
       <c r="K300" s="19"/>
       <c r="L300" s="19"/>
-      <c r="M300" s="84" t="s">
+      <c r="M300" s="85" t="s">
         <v>518</v>
       </c>
-      <c r="N300" s="84"/>
-      <c r="O300" s="84"/>
+      <c r="N300" s="85"/>
+      <c r="O300" s="85"/>
       <c r="P300" s="22" t="s">
         <v>1</v>
       </c>
@@ -16977,11 +16977,11 @@
       <c r="J301" s="19"/>
       <c r="K301" s="19"/>
       <c r="L301" s="19"/>
-      <c r="M301" s="84" t="s">
+      <c r="M301" s="85" t="s">
         <v>520</v>
       </c>
-      <c r="N301" s="84"/>
-      <c r="O301" s="84"/>
+      <c r="N301" s="85"/>
+      <c r="O301" s="85"/>
       <c r="P301" s="22" t="s">
         <v>1</v>
       </c>
@@ -17017,11 +17017,11 @@
       <c r="J302" s="19"/>
       <c r="K302" s="19"/>
       <c r="L302" s="19"/>
-      <c r="M302" s="84" t="s">
+      <c r="M302" s="85" t="s">
         <v>519</v>
       </c>
-      <c r="N302" s="84"/>
-      <c r="O302" s="84"/>
+      <c r="N302" s="85"/>
+      <c r="O302" s="85"/>
       <c r="P302" s="22" t="s">
         <v>1</v>
       </c>
@@ -17057,11 +17057,11 @@
       <c r="J303" s="19"/>
       <c r="K303" s="19"/>
       <c r="L303" s="19"/>
-      <c r="M303" s="84" t="s">
+      <c r="M303" s="85" t="s">
         <v>521</v>
       </c>
-      <c r="N303" s="84"/>
-      <c r="O303" s="84"/>
+      <c r="N303" s="85"/>
+      <c r="O303" s="85"/>
       <c r="P303" s="22" t="s">
         <v>1</v>
       </c>
@@ -17097,11 +17097,11 @@
       <c r="J304" s="19"/>
       <c r="K304" s="19"/>
       <c r="L304" s="19"/>
-      <c r="M304" s="84" t="s">
+      <c r="M304" s="85" t="s">
         <v>514</v>
       </c>
-      <c r="N304" s="84"/>
-      <c r="O304" s="84"/>
+      <c r="N304" s="85"/>
+      <c r="O304" s="85"/>
       <c r="P304" s="22" t="s">
         <v>1</v>
       </c>
@@ -17137,11 +17137,11 @@
       <c r="J305" s="19"/>
       <c r="K305" s="19"/>
       <c r="L305" s="19"/>
-      <c r="M305" s="84" t="s">
+      <c r="M305" s="85" t="s">
         <v>515</v>
       </c>
-      <c r="N305" s="84"/>
-      <c r="O305" s="84"/>
+      <c r="N305" s="85"/>
+      <c r="O305" s="85"/>
       <c r="P305" s="22" t="s">
         <v>1</v>
       </c>
@@ -17177,11 +17177,11 @@
       <c r="J306" s="19"/>
       <c r="K306" s="19"/>
       <c r="L306" s="19"/>
-      <c r="M306" s="84" t="s">
+      <c r="M306" s="85" t="s">
         <v>516</v>
       </c>
-      <c r="N306" s="84"/>
-      <c r="O306" s="84"/>
+      <c r="N306" s="85"/>
+      <c r="O306" s="85"/>
       <c r="P306" s="22" t="s">
         <v>1</v>
       </c>
@@ -17217,11 +17217,11 @@
       <c r="J307" s="19"/>
       <c r="K307" s="19"/>
       <c r="L307" s="19"/>
-      <c r="M307" s="83" t="s">
+      <c r="M307" s="84" t="s">
         <v>517</v>
       </c>
-      <c r="N307" s="83"/>
-      <c r="O307" s="83"/>
+      <c r="N307" s="84"/>
+      <c r="O307" s="84"/>
       <c r="P307" s="22" t="s">
         <v>1</v>
       </c>
@@ -17257,11 +17257,11 @@
       <c r="J308" s="19"/>
       <c r="K308" s="19"/>
       <c r="L308" s="19"/>
-      <c r="M308" s="83" t="s">
+      <c r="M308" s="84" t="s">
         <v>685</v>
       </c>
-      <c r="N308" s="83"/>
-      <c r="O308" s="83"/>
+      <c r="N308" s="84"/>
+      <c r="O308" s="84"/>
       <c r="P308" s="22" t="s">
         <v>1</v>
       </c>
@@ -17297,11 +17297,11 @@
       <c r="J309" s="19"/>
       <c r="K309" s="19"/>
       <c r="L309" s="19"/>
-      <c r="M309" s="83" t="s">
+      <c r="M309" s="84" t="s">
         <v>686</v>
       </c>
-      <c r="N309" s="83"/>
-      <c r="O309" s="83"/>
+      <c r="N309" s="84"/>
+      <c r="O309" s="84"/>
       <c r="P309" s="22" t="s">
         <v>1</v>
       </c>
@@ -17337,11 +17337,11 @@
       <c r="J310" s="19"/>
       <c r="K310" s="19"/>
       <c r="L310" s="19"/>
-      <c r="M310" s="83" t="s">
+      <c r="M310" s="84" t="s">
         <v>687</v>
       </c>
-      <c r="N310" s="83"/>
-      <c r="O310" s="83"/>
+      <c r="N310" s="84"/>
+      <c r="O310" s="84"/>
       <c r="P310" s="22" t="s">
         <v>1</v>
       </c>
@@ -17377,11 +17377,11 @@
       <c r="J311" s="19"/>
       <c r="K311" s="19"/>
       <c r="L311" s="19"/>
-      <c r="M311" s="83" t="s">
+      <c r="M311" s="84" t="s">
         <v>510</v>
       </c>
-      <c r="N311" s="83"/>
-      <c r="O311" s="83"/>
+      <c r="N311" s="84"/>
+      <c r="O311" s="84"/>
       <c r="P311" s="22" t="s">
         <v>1</v>
       </c>
@@ -17417,11 +17417,11 @@
       <c r="J312" s="19"/>
       <c r="K312" s="19"/>
       <c r="L312" s="19"/>
-      <c r="M312" s="83" t="s">
+      <c r="M312" s="84" t="s">
         <v>675</v>
       </c>
-      <c r="N312" s="83"/>
-      <c r="O312" s="83"/>
+      <c r="N312" s="84"/>
+      <c r="O312" s="84"/>
       <c r="P312" s="22" t="s">
         <v>1</v>
       </c>
@@ -17457,11 +17457,11 @@
       <c r="J313" s="19"/>
       <c r="K313" s="19"/>
       <c r="L313" s="19"/>
-      <c r="M313" s="83" t="s">
+      <c r="M313" s="84" t="s">
         <v>688</v>
       </c>
-      <c r="N313" s="83"/>
-      <c r="O313" s="83"/>
+      <c r="N313" s="84"/>
+      <c r="O313" s="84"/>
       <c r="P313" s="22" t="s">
         <v>1</v>
       </c>
@@ -17497,11 +17497,11 @@
       <c r="J314" s="19"/>
       <c r="K314" s="19"/>
       <c r="L314" s="19"/>
-      <c r="M314" s="83" t="s">
+      <c r="M314" s="84" t="s">
         <v>689</v>
       </c>
-      <c r="N314" s="83"/>
-      <c r="O314" s="83"/>
+      <c r="N314" s="84"/>
+      <c r="O314" s="84"/>
       <c r="P314" s="22" t="s">
         <v>1</v>
       </c>
@@ -17537,11 +17537,11 @@
       <c r="J315" s="19"/>
       <c r="K315" s="19"/>
       <c r="L315" s="19"/>
-      <c r="M315" s="83" t="s">
+      <c r="M315" s="84" t="s">
         <v>690</v>
       </c>
-      <c r="N315" s="83"/>
-      <c r="O315" s="83"/>
+      <c r="N315" s="84"/>
+      <c r="O315" s="84"/>
       <c r="P315" s="22" t="s">
         <v>1</v>
       </c>
@@ -17577,11 +17577,11 @@
       <c r="J316" s="19"/>
       <c r="K316" s="19"/>
       <c r="L316" s="19"/>
-      <c r="M316" s="83" t="s">
+      <c r="M316" s="84" t="s">
         <v>691</v>
       </c>
-      <c r="N316" s="83"/>
-      <c r="O316" s="83"/>
+      <c r="N316" s="84"/>
+      <c r="O316" s="84"/>
       <c r="P316" s="22" t="s">
         <v>1</v>
       </c>
@@ -17617,11 +17617,11 @@
       <c r="J317" s="19"/>
       <c r="K317" s="19"/>
       <c r="L317" s="19"/>
-      <c r="M317" s="83" t="s">
+      <c r="M317" s="84" t="s">
         <v>692</v>
       </c>
-      <c r="N317" s="83"/>
-      <c r="O317" s="83"/>
+      <c r="N317" s="84"/>
+      <c r="O317" s="84"/>
       <c r="P317" s="22" t="s">
         <v>1</v>
       </c>
@@ -17657,11 +17657,11 @@
       <c r="J318" s="19"/>
       <c r="K318" s="19"/>
       <c r="L318" s="19"/>
-      <c r="M318" s="83" t="s">
+      <c r="M318" s="84" t="s">
         <v>693</v>
       </c>
-      <c r="N318" s="83"/>
-      <c r="O318" s="83"/>
+      <c r="N318" s="84"/>
+      <c r="O318" s="84"/>
       <c r="P318" s="22" t="s">
         <v>1</v>
       </c>
@@ -17697,11 +17697,11 @@
       <c r="J319" s="19"/>
       <c r="K319" s="19"/>
       <c r="L319" s="19"/>
-      <c r="M319" s="83" t="s">
+      <c r="M319" s="84" t="s">
         <v>694</v>
       </c>
-      <c r="N319" s="83"/>
-      <c r="O319" s="83"/>
+      <c r="N319" s="84"/>
+      <c r="O319" s="84"/>
       <c r="P319" s="22" t="s">
         <v>1</v>
       </c>
@@ -17739,11 +17739,11 @@
       <c r="J320" s="19"/>
       <c r="K320" s="19"/>
       <c r="L320" s="19"/>
-      <c r="M320" s="83" t="s">
+      <c r="M320" s="84" t="s">
         <v>725</v>
       </c>
-      <c r="N320" s="83"/>
-      <c r="O320" s="83"/>
+      <c r="N320" s="84"/>
+      <c r="O320" s="84"/>
       <c r="P320" s="28" t="s">
         <v>176</v>
       </c>
@@ -17779,11 +17779,11 @@
       <c r="J321" s="19"/>
       <c r="K321" s="19"/>
       <c r="L321" s="19"/>
-      <c r="M321" s="83" t="s">
+      <c r="M321" s="84" t="s">
         <v>695</v>
       </c>
-      <c r="N321" s="83"/>
-      <c r="O321" s="83"/>
+      <c r="N321" s="84"/>
+      <c r="O321" s="84"/>
       <c r="P321" s="22" t="s">
         <v>1</v>
       </c>
@@ -17819,11 +17819,11 @@
       <c r="J322" s="19"/>
       <c r="K322" s="19"/>
       <c r="L322" s="19"/>
-      <c r="M322" s="83" t="s">
+      <c r="M322" s="84" t="s">
         <v>505</v>
       </c>
-      <c r="N322" s="83"/>
-      <c r="O322" s="83"/>
+      <c r="N322" s="84"/>
+      <c r="O322" s="84"/>
       <c r="P322" s="22" t="s">
         <v>1</v>
       </c>
@@ -17859,11 +17859,11 @@
       <c r="J323" s="19"/>
       <c r="K323" s="19"/>
       <c r="L323" s="19"/>
-      <c r="M323" s="83" t="s">
+      <c r="M323" s="84" t="s">
         <v>507</v>
       </c>
-      <c r="N323" s="83"/>
-      <c r="O323" s="83"/>
+      <c r="N323" s="84"/>
+      <c r="O323" s="84"/>
       <c r="P323" s="28" t="s">
         <v>187</v>
       </c>
@@ -17899,11 +17899,11 @@
       <c r="J324" s="19"/>
       <c r="K324" s="19"/>
       <c r="L324" s="19"/>
-      <c r="M324" s="83" t="s">
+      <c r="M324" s="84" t="s">
         <v>697</v>
       </c>
-      <c r="N324" s="83"/>
-      <c r="O324" s="83"/>
+      <c r="N324" s="84"/>
+      <c r="O324" s="84"/>
       <c r="P324" s="28" t="s">
         <v>187</v>
       </c>
@@ -17939,11 +17939,11 @@
       <c r="J325" s="19"/>
       <c r="K325" s="19"/>
       <c r="L325" s="19"/>
-      <c r="M325" s="83" t="s">
+      <c r="M325" s="84" t="s">
         <v>699</v>
       </c>
-      <c r="N325" s="83"/>
-      <c r="O325" s="83"/>
+      <c r="N325" s="84"/>
+      <c r="O325" s="84"/>
       <c r="P325" s="22" t="s">
         <v>1</v>
       </c>
@@ -17979,11 +17979,11 @@
       <c r="J326" s="19"/>
       <c r="K326" s="19"/>
       <c r="L326" s="19"/>
-      <c r="M326" s="83" t="s">
+      <c r="M326" s="84" t="s">
         <v>700</v>
       </c>
-      <c r="N326" s="83"/>
-      <c r="O326" s="83"/>
+      <c r="N326" s="84"/>
+      <c r="O326" s="84"/>
       <c r="P326" s="22" t="s">
         <v>1</v>
       </c>
@@ -18019,11 +18019,11 @@
       <c r="J327" s="19"/>
       <c r="K327" s="19"/>
       <c r="L327" s="19"/>
-      <c r="M327" s="83" t="s">
+      <c r="M327" s="84" t="s">
         <v>701</v>
       </c>
-      <c r="N327" s="83"/>
-      <c r="O327" s="83"/>
+      <c r="N327" s="84"/>
+      <c r="O327" s="84"/>
       <c r="P327" s="22" t="s">
         <v>1</v>
       </c>
@@ -18059,11 +18059,11 @@
       <c r="J328" s="19"/>
       <c r="K328" s="19"/>
       <c r="L328" s="19"/>
-      <c r="M328" s="83" t="s">
+      <c r="M328" s="84" t="s">
         <v>506</v>
       </c>
-      <c r="N328" s="83"/>
-      <c r="O328" s="83"/>
+      <c r="N328" s="84"/>
+      <c r="O328" s="84"/>
       <c r="P328" s="22" t="s">
         <v>1</v>
       </c>
@@ -18099,11 +18099,11 @@
       <c r="J329" s="19"/>
       <c r="K329" s="19"/>
       <c r="L329" s="19"/>
-      <c r="M329" s="83" t="s">
+      <c r="M329" s="84" t="s">
         <v>705</v>
       </c>
-      <c r="N329" s="83"/>
-      <c r="O329" s="83"/>
+      <c r="N329" s="84"/>
+      <c r="O329" s="84"/>
       <c r="P329" s="22" t="s">
         <v>1</v>
       </c>
@@ -18139,11 +18139,11 @@
       <c r="J330" s="19"/>
       <c r="K330" s="19"/>
       <c r="L330" s="19"/>
-      <c r="M330" s="83" t="s">
+      <c r="M330" s="84" t="s">
         <v>706</v>
       </c>
-      <c r="N330" s="83"/>
-      <c r="O330" s="83"/>
+      <c r="N330" s="84"/>
+      <c r="O330" s="84"/>
       <c r="P330" s="22" t="s">
         <v>1</v>
       </c>
@@ -18179,11 +18179,11 @@
       <c r="J331" s="19"/>
       <c r="K331" s="19"/>
       <c r="L331" s="19"/>
-      <c r="M331" s="83" t="s">
+      <c r="M331" s="84" t="s">
         <v>708</v>
       </c>
-      <c r="N331" s="83"/>
-      <c r="O331" s="83"/>
+      <c r="N331" s="84"/>
+      <c r="O331" s="84"/>
       <c r="P331" s="28" t="s">
         <v>187</v>
       </c>
@@ -18219,11 +18219,11 @@
       <c r="J332" s="19"/>
       <c r="K332" s="19"/>
       <c r="L332" s="19"/>
-      <c r="M332" s="83" t="s">
+      <c r="M332" s="84" t="s">
         <v>508</v>
       </c>
-      <c r="N332" s="83"/>
-      <c r="O332" s="83"/>
+      <c r="N332" s="84"/>
+      <c r="O332" s="84"/>
       <c r="P332" s="28" t="s">
         <v>187</v>
       </c>
@@ -18259,11 +18259,11 @@
       <c r="J333" s="19"/>
       <c r="K333" s="19"/>
       <c r="L333" s="19"/>
-      <c r="M333" s="83" t="s">
+      <c r="M333" s="84" t="s">
         <v>710</v>
       </c>
-      <c r="N333" s="83"/>
-      <c r="O333" s="83"/>
+      <c r="N333" s="84"/>
+      <c r="O333" s="84"/>
       <c r="P333" s="22" t="s">
         <v>1</v>
       </c>
@@ -18299,11 +18299,11 @@
       <c r="J334" s="19"/>
       <c r="K334" s="19"/>
       <c r="L334" s="19"/>
-      <c r="M334" s="83" t="s">
+      <c r="M334" s="84" t="s">
         <v>711</v>
       </c>
-      <c r="N334" s="83"/>
-      <c r="O334" s="83"/>
+      <c r="N334" s="84"/>
+      <c r="O334" s="84"/>
       <c r="P334" s="22" t="s">
         <v>1</v>
       </c>
@@ -18339,11 +18339,11 @@
       <c r="J335" s="19"/>
       <c r="K335" s="19"/>
       <c r="L335" s="19"/>
-      <c r="M335" s="83" t="s">
+      <c r="M335" s="84" t="s">
         <v>713</v>
       </c>
-      <c r="N335" s="83"/>
-      <c r="O335" s="83"/>
+      <c r="N335" s="84"/>
+      <c r="O335" s="84"/>
       <c r="P335" s="22" t="s">
         <v>1</v>
       </c>
@@ -18379,11 +18379,11 @@
       <c r="J336" s="19"/>
       <c r="K336" s="19"/>
       <c r="L336" s="19"/>
-      <c r="M336" s="83" t="s">
+      <c r="M336" s="84" t="s">
         <v>714</v>
       </c>
-      <c r="N336" s="83"/>
-      <c r="O336" s="83"/>
+      <c r="N336" s="84"/>
+      <c r="O336" s="84"/>
       <c r="P336" s="22" t="s">
         <v>1</v>
       </c>
@@ -18419,11 +18419,11 @@
       <c r="J337" s="19"/>
       <c r="K337" s="19"/>
       <c r="L337" s="19"/>
-      <c r="M337" s="83" t="s">
+      <c r="M337" s="84" t="s">
         <v>716</v>
       </c>
-      <c r="N337" s="83"/>
-      <c r="O337" s="83"/>
+      <c r="N337" s="84"/>
+      <c r="O337" s="84"/>
       <c r="P337" s="22" t="s">
         <v>1</v>
       </c>
@@ -18459,11 +18459,11 @@
       <c r="J338" s="19"/>
       <c r="K338" s="19"/>
       <c r="L338" s="19"/>
-      <c r="M338" s="83" t="s">
+      <c r="M338" s="84" t="s">
         <v>717</v>
       </c>
-      <c r="N338" s="83"/>
-      <c r="O338" s="83"/>
+      <c r="N338" s="84"/>
+      <c r="O338" s="84"/>
       <c r="P338" s="22" t="s">
         <v>1</v>
       </c>
@@ -18499,11 +18499,11 @@
       <c r="J339" s="19"/>
       <c r="K339" s="19"/>
       <c r="L339" s="19"/>
-      <c r="M339" s="83" t="s">
+      <c r="M339" s="84" t="s">
         <v>719</v>
       </c>
-      <c r="N339" s="83"/>
-      <c r="O339" s="83"/>
+      <c r="N339" s="84"/>
+      <c r="O339" s="84"/>
       <c r="P339" s="22" t="s">
         <v>1</v>
       </c>
@@ -18539,11 +18539,11 @@
       <c r="J340" s="19"/>
       <c r="K340" s="19"/>
       <c r="L340" s="19"/>
-      <c r="M340" s="83" t="s">
+      <c r="M340" s="84" t="s">
         <v>720</v>
       </c>
-      <c r="N340" s="83"/>
-      <c r="O340" s="83"/>
+      <c r="N340" s="84"/>
+      <c r="O340" s="84"/>
       <c r="P340" s="22" t="s">
         <v>1</v>
       </c>
@@ -18579,11 +18579,11 @@
       <c r="J341" s="19"/>
       <c r="K341" s="19"/>
       <c r="L341" s="19"/>
-      <c r="M341" s="83" t="s">
+      <c r="M341" s="84" t="s">
         <v>721</v>
       </c>
-      <c r="N341" s="83"/>
-      <c r="O341" s="83"/>
+      <c r="N341" s="84"/>
+      <c r="O341" s="84"/>
       <c r="P341" s="22" t="s">
         <v>1</v>
       </c>
@@ -18619,11 +18619,11 @@
       <c r="J342" s="19"/>
       <c r="K342" s="19"/>
       <c r="L342" s="19"/>
-      <c r="M342" s="83" t="s">
+      <c r="M342" s="84" t="s">
         <v>722</v>
       </c>
-      <c r="N342" s="83"/>
-      <c r="O342" s="83"/>
+      <c r="N342" s="84"/>
+      <c r="O342" s="84"/>
       <c r="P342" s="22" t="s">
         <v>1</v>
       </c>
@@ -18659,11 +18659,11 @@
       <c r="J343" s="19"/>
       <c r="K343" s="19"/>
       <c r="L343" s="19"/>
-      <c r="M343" s="83" t="s">
+      <c r="M343" s="84" t="s">
         <v>724</v>
       </c>
-      <c r="N343" s="83"/>
-      <c r="O343" s="83"/>
+      <c r="N343" s="84"/>
+      <c r="O343" s="84"/>
       <c r="P343" s="22" t="s">
         <v>1</v>
       </c>
@@ -18699,11 +18699,11 @@
       <c r="J344" s="19"/>
       <c r="K344" s="19"/>
       <c r="L344" s="19"/>
-      <c r="M344" s="83" t="s">
+      <c r="M344" s="84" t="s">
         <v>727</v>
       </c>
-      <c r="N344" s="83"/>
-      <c r="O344" s="83"/>
+      <c r="N344" s="84"/>
+      <c r="O344" s="84"/>
       <c r="P344" s="22" t="s">
         <v>1</v>
       </c>
@@ -18739,11 +18739,11 @@
       <c r="J345" s="19"/>
       <c r="K345" s="19"/>
       <c r="L345" s="19"/>
-      <c r="M345" s="83" t="s">
+      <c r="M345" s="84" t="s">
         <v>732</v>
       </c>
-      <c r="N345" s="83"/>
-      <c r="O345" s="83"/>
+      <c r="N345" s="84"/>
+      <c r="O345" s="84"/>
       <c r="P345" s="22" t="s">
         <v>1</v>
       </c>
@@ -18779,11 +18779,11 @@
       <c r="J346" s="19"/>
       <c r="K346" s="19"/>
       <c r="L346" s="19"/>
-      <c r="M346" s="83" t="s">
+      <c r="M346" s="84" t="s">
         <v>736</v>
       </c>
-      <c r="N346" s="83"/>
-      <c r="O346" s="83"/>
+      <c r="N346" s="84"/>
+      <c r="O346" s="84"/>
       <c r="P346" s="22" t="s">
         <v>1</v>
       </c>
@@ -18819,11 +18819,11 @@
       <c r="J347" s="19"/>
       <c r="K347" s="19"/>
       <c r="L347" s="19"/>
-      <c r="M347" s="83" t="s">
+      <c r="M347" s="84" t="s">
         <v>737</v>
       </c>
-      <c r="N347" s="83"/>
-      <c r="O347" s="83"/>
+      <c r="N347" s="84"/>
+      <c r="O347" s="84"/>
       <c r="P347" s="22" t="s">
         <v>1</v>
       </c>
@@ -18859,11 +18859,11 @@
       <c r="J348" s="19"/>
       <c r="K348" s="19"/>
       <c r="L348" s="19"/>
-      <c r="M348" s="83" t="s">
+      <c r="M348" s="84" t="s">
         <v>741</v>
       </c>
-      <c r="N348" s="83"/>
-      <c r="O348" s="83"/>
+      <c r="N348" s="84"/>
+      <c r="O348" s="84"/>
       <c r="P348" s="22" t="s">
         <v>1</v>
       </c>
@@ -18899,11 +18899,11 @@
       <c r="J349" s="19"/>
       <c r="K349" s="19"/>
       <c r="L349" s="19"/>
-      <c r="M349" s="83" t="s">
+      <c r="M349" s="84" t="s">
         <v>744</v>
       </c>
-      <c r="N349" s="83"/>
-      <c r="O349" s="83"/>
+      <c r="N349" s="84"/>
+      <c r="O349" s="84"/>
       <c r="P349" s="22" t="s">
         <v>1</v>
       </c>
@@ -18939,11 +18939,11 @@
       <c r="J350" s="19"/>
       <c r="K350" s="19"/>
       <c r="L350" s="19"/>
-      <c r="M350" s="83" t="s">
+      <c r="M350" s="84" t="s">
         <v>747</v>
       </c>
-      <c r="N350" s="83"/>
-      <c r="O350" s="83"/>
+      <c r="N350" s="84"/>
+      <c r="O350" s="84"/>
       <c r="P350" s="22" t="s">
         <v>1</v>
       </c>
@@ -18979,11 +18979,11 @@
       <c r="J351" s="19"/>
       <c r="K351" s="19"/>
       <c r="L351" s="19"/>
-      <c r="M351" s="83" t="s">
+      <c r="M351" s="84" t="s">
         <v>750</v>
       </c>
-      <c r="N351" s="83"/>
-      <c r="O351" s="83"/>
+      <c r="N351" s="84"/>
+      <c r="O351" s="84"/>
       <c r="P351" s="22" t="s">
         <v>1</v>
       </c>
@@ -19019,11 +19019,11 @@
       <c r="J352" s="19"/>
       <c r="K352" s="19"/>
       <c r="L352" s="19"/>
-      <c r="M352" s="83" t="s">
+      <c r="M352" s="84" t="s">
         <v>753</v>
       </c>
-      <c r="N352" s="83"/>
-      <c r="O352" s="83"/>
+      <c r="N352" s="84"/>
+      <c r="O352" s="84"/>
       <c r="P352" s="22" t="s">
         <v>1</v>
       </c>
@@ -19059,11 +19059,11 @@
       <c r="J353" s="19"/>
       <c r="K353" s="19"/>
       <c r="L353" s="19"/>
-      <c r="M353" s="83" t="s">
+      <c r="M353" s="84" t="s">
         <v>755</v>
       </c>
-      <c r="N353" s="83"/>
-      <c r="O353" s="83"/>
+      <c r="N353" s="84"/>
+      <c r="O353" s="84"/>
       <c r="P353" s="22" t="s">
         <v>1</v>
       </c>
@@ -19099,11 +19099,11 @@
       <c r="J354" s="19"/>
       <c r="K354" s="19"/>
       <c r="L354" s="19"/>
-      <c r="M354" s="83" t="s">
+      <c r="M354" s="84" t="s">
         <v>757</v>
       </c>
-      <c r="N354" s="83"/>
-      <c r="O354" s="83"/>
+      <c r="N354" s="84"/>
+      <c r="O354" s="84"/>
       <c r="P354" s="22" t="s">
         <v>1</v>
       </c>
@@ -19139,11 +19139,11 @@
       <c r="J355" s="19"/>
       <c r="K355" s="19"/>
       <c r="L355" s="19"/>
-      <c r="M355" s="83" t="s">
+      <c r="M355" s="84" t="s">
         <v>758</v>
       </c>
-      <c r="N355" s="83"/>
-      <c r="O355" s="83"/>
+      <c r="N355" s="84"/>
+      <c r="O355" s="84"/>
       <c r="P355" s="22" t="s">
         <v>1</v>
       </c>
@@ -19179,11 +19179,11 @@
       <c r="J356" s="19"/>
       <c r="K356" s="19"/>
       <c r="L356" s="19"/>
-      <c r="M356" s="83" t="s">
+      <c r="M356" s="84" t="s">
         <v>760</v>
       </c>
-      <c r="N356" s="83"/>
-      <c r="O356" s="83"/>
+      <c r="N356" s="84"/>
+      <c r="O356" s="84"/>
       <c r="P356" s="22" t="s">
         <v>1</v>
       </c>
@@ -19219,11 +19219,11 @@
       <c r="J357" s="19"/>
       <c r="K357" s="19"/>
       <c r="L357" s="19"/>
-      <c r="M357" s="83" t="s">
+      <c r="M357" s="84" t="s">
         <v>761</v>
       </c>
-      <c r="N357" s="83"/>
-      <c r="O357" s="83"/>
+      <c r="N357" s="84"/>
+      <c r="O357" s="84"/>
       <c r="P357" s="22" t="s">
         <v>1</v>
       </c>
@@ -19259,11 +19259,11 @@
       <c r="J358" s="19"/>
       <c r="K358" s="19"/>
       <c r="L358" s="19"/>
-      <c r="M358" s="83" t="s">
+      <c r="M358" s="84" t="s">
         <v>850</v>
       </c>
-      <c r="N358" s="83"/>
-      <c r="O358" s="83"/>
+      <c r="N358" s="84"/>
+      <c r="O358" s="84"/>
       <c r="P358" s="22" t="s">
         <v>1</v>
       </c>
@@ -19299,11 +19299,11 @@
       <c r="J359" s="19"/>
       <c r="K359" s="19"/>
       <c r="L359" s="19"/>
-      <c r="M359" s="83" t="s">
+      <c r="M359" s="84" t="s">
         <v>763</v>
       </c>
-      <c r="N359" s="83"/>
-      <c r="O359" s="83"/>
+      <c r="N359" s="84"/>
+      <c r="O359" s="84"/>
       <c r="P359" s="22" t="s">
         <v>1</v>
       </c>
@@ -19339,11 +19339,11 @@
       <c r="J360" s="19"/>
       <c r="K360" s="19"/>
       <c r="L360" s="19"/>
-      <c r="M360" s="83" t="s">
+      <c r="M360" s="84" t="s">
         <v>677</v>
       </c>
-      <c r="N360" s="83"/>
-      <c r="O360" s="83"/>
+      <c r="N360" s="84"/>
+      <c r="O360" s="84"/>
       <c r="P360" s="22" t="s">
         <v>1</v>
       </c>
@@ -19379,11 +19379,11 @@
       <c r="J361" s="19"/>
       <c r="K361" s="19"/>
       <c r="L361" s="19"/>
-      <c r="M361" s="83" t="s">
+      <c r="M361" s="84" t="s">
         <v>765</v>
       </c>
-      <c r="N361" s="83"/>
-      <c r="O361" s="83"/>
+      <c r="N361" s="84"/>
+      <c r="O361" s="84"/>
       <c r="P361" s="22" t="s">
         <v>1</v>
       </c>
@@ -19419,11 +19419,11 @@
       <c r="J362" s="19"/>
       <c r="K362" s="19"/>
       <c r="L362" s="19"/>
-      <c r="M362" s="83" t="s">
+      <c r="M362" s="84" t="s">
         <v>766</v>
       </c>
-      <c r="N362" s="83"/>
-      <c r="O362" s="83"/>
+      <c r="N362" s="84"/>
+      <c r="O362" s="84"/>
       <c r="P362" s="22" t="s">
         <v>1</v>
       </c>
@@ -19459,11 +19459,11 @@
       <c r="J363" s="19"/>
       <c r="K363" s="19"/>
       <c r="L363" s="19"/>
-      <c r="M363" s="83" t="s">
+      <c r="M363" s="84" t="s">
         <v>768</v>
       </c>
-      <c r="N363" s="83"/>
-      <c r="O363" s="83"/>
+      <c r="N363" s="84"/>
+      <c r="O363" s="84"/>
       <c r="P363" s="22" t="s">
         <v>1</v>
       </c>
@@ -19499,11 +19499,11 @@
       <c r="J364" s="19"/>
       <c r="K364" s="19"/>
       <c r="L364" s="19"/>
-      <c r="M364" s="83" t="s">
+      <c r="M364" s="84" t="s">
         <v>769</v>
       </c>
-      <c r="N364" s="83"/>
-      <c r="O364" s="83"/>
+      <c r="N364" s="84"/>
+      <c r="O364" s="84"/>
       <c r="P364" s="22" t="s">
         <v>1</v>
       </c>
@@ -19524,20 +19524,20 @@
     </row>
     <row r="365" spans="1:26" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A365" s="26"/>
-      <c r="B365" s="114"/>
-      <c r="C365" s="114"/>
-      <c r="D365" s="114"/>
-      <c r="E365" s="114"/>
-      <c r="F365" s="114"/>
-      <c r="G365" s="114"/>
-      <c r="H365" s="114"/>
-      <c r="I365" s="114"/>
-      <c r="J365" s="114"/>
-      <c r="K365" s="114"/>
-      <c r="L365" s="114"/>
-      <c r="M365" s="83"/>
-      <c r="N365" s="83"/>
-      <c r="O365" s="83"/>
+      <c r="B365" s="83"/>
+      <c r="C365" s="83"/>
+      <c r="D365" s="83"/>
+      <c r="E365" s="83"/>
+      <c r="F365" s="83"/>
+      <c r="G365" s="83"/>
+      <c r="H365" s="83"/>
+      <c r="I365" s="83"/>
+      <c r="J365" s="83"/>
+      <c r="K365" s="83"/>
+      <c r="L365" s="83"/>
+      <c r="M365" s="84"/>
+      <c r="N365" s="84"/>
+      <c r="O365" s="84"/>
       <c r="P365" s="22" t="s">
         <v>1</v>
       </c>
@@ -19569,11 +19569,11 @@
       <c r="J366" s="19"/>
       <c r="K366" s="19"/>
       <c r="L366" s="19"/>
-      <c r="M366" s="83" t="s">
+      <c r="M366" s="84" t="s">
         <v>777</v>
       </c>
-      <c r="N366" s="83"/>
-      <c r="O366" s="83"/>
+      <c r="N366" s="84"/>
+      <c r="O366" s="84"/>
       <c r="P366" s="28" t="s">
         <v>176</v>
       </c>
@@ -19609,11 +19609,11 @@
       <c r="J367" s="19"/>
       <c r="K367" s="19"/>
       <c r="L367" s="19"/>
-      <c r="M367" s="83" t="s">
+      <c r="M367" s="84" t="s">
         <v>778</v>
       </c>
-      <c r="N367" s="83"/>
-      <c r="O367" s="83"/>
+      <c r="N367" s="84"/>
+      <c r="O367" s="84"/>
       <c r="P367" s="22" t="s">
         <v>1</v>
       </c>
@@ -19649,11 +19649,11 @@
       <c r="J368" s="19"/>
       <c r="K368" s="19"/>
       <c r="L368" s="19"/>
-      <c r="M368" s="83" t="s">
+      <c r="M368" s="84" t="s">
         <v>780</v>
       </c>
-      <c r="N368" s="83"/>
-      <c r="O368" s="83"/>
+      <c r="N368" s="84"/>
+      <c r="O368" s="84"/>
       <c r="P368" s="22" t="s">
         <v>1</v>
       </c>
@@ -19689,11 +19689,11 @@
       <c r="J369" s="19"/>
       <c r="K369" s="19"/>
       <c r="L369" s="19"/>
-      <c r="M369" s="83" t="s">
+      <c r="M369" s="84" t="s">
         <v>781</v>
       </c>
-      <c r="N369" s="83"/>
-      <c r="O369" s="83"/>
+      <c r="N369" s="84"/>
+      <c r="O369" s="84"/>
       <c r="P369" s="22" t="s">
         <v>1</v>
       </c>
@@ -19729,11 +19729,11 @@
       <c r="J370" s="19"/>
       <c r="K370" s="19"/>
       <c r="L370" s="19"/>
-      <c r="M370" s="83" t="s">
+      <c r="M370" s="84" t="s">
         <v>783</v>
       </c>
-      <c r="N370" s="83"/>
-      <c r="O370" s="83"/>
+      <c r="N370" s="84"/>
+      <c r="O370" s="84"/>
       <c r="P370" s="28" t="s">
         <v>176</v>
       </c>
@@ -19769,11 +19769,11 @@
       <c r="J371" s="19"/>
       <c r="K371" s="19"/>
       <c r="L371" s="19"/>
-      <c r="M371" s="83" t="s">
+      <c r="M371" s="84" t="s">
         <v>784</v>
       </c>
-      <c r="N371" s="83"/>
-      <c r="O371" s="83"/>
+      <c r="N371" s="84"/>
+      <c r="O371" s="84"/>
       <c r="P371" s="28" t="s">
         <v>176</v>
       </c>
@@ -19809,11 +19809,11 @@
       <c r="J372" s="19"/>
       <c r="K372" s="19"/>
       <c r="L372" s="19"/>
-      <c r="M372" s="83" t="s">
+      <c r="M372" s="84" t="s">
         <v>785</v>
       </c>
-      <c r="N372" s="83"/>
-      <c r="O372" s="83"/>
+      <c r="N372" s="84"/>
+      <c r="O372" s="84"/>
       <c r="P372" s="22" t="s">
         <v>1</v>
       </c>
@@ -19849,11 +19849,11 @@
       <c r="J373" s="19"/>
       <c r="K373" s="19"/>
       <c r="L373" s="19"/>
-      <c r="M373" s="83" t="s">
+      <c r="M373" s="84" t="s">
         <v>786</v>
       </c>
-      <c r="N373" s="83"/>
-      <c r="O373" s="83"/>
+      <c r="N373" s="84"/>
+      <c r="O373" s="84"/>
       <c r="P373" s="22" t="s">
         <v>1</v>
       </c>
@@ -19889,11 +19889,11 @@
       <c r="J374" s="19"/>
       <c r="K374" s="19"/>
       <c r="L374" s="19"/>
-      <c r="M374" s="83" t="s">
+      <c r="M374" s="84" t="s">
         <v>787</v>
       </c>
-      <c r="N374" s="83"/>
-      <c r="O374" s="83"/>
+      <c r="N374" s="84"/>
+      <c r="O374" s="84"/>
       <c r="P374" s="22" t="s">
         <v>1</v>
       </c>
@@ -19929,11 +19929,11 @@
       <c r="J375" s="19"/>
       <c r="K375" s="19"/>
       <c r="L375" s="19"/>
-      <c r="M375" s="83" t="s">
+      <c r="M375" s="84" t="s">
         <v>788</v>
       </c>
-      <c r="N375" s="83"/>
-      <c r="O375" s="83"/>
+      <c r="N375" s="84"/>
+      <c r="O375" s="84"/>
       <c r="P375" s="22" t="s">
         <v>1</v>
       </c>
@@ -19969,11 +19969,11 @@
       <c r="J376" s="19"/>
       <c r="K376" s="19"/>
       <c r="L376" s="19"/>
-      <c r="M376" s="83" t="s">
+      <c r="M376" s="84" t="s">
         <v>789</v>
       </c>
-      <c r="N376" s="83"/>
-      <c r="O376" s="83"/>
+      <c r="N376" s="84"/>
+      <c r="O376" s="84"/>
       <c r="P376" s="22" t="s">
         <v>1</v>
       </c>
@@ -20009,11 +20009,11 @@
       <c r="J377" s="19"/>
       <c r="K377" s="19"/>
       <c r="L377" s="19"/>
-      <c r="M377" s="83" t="s">
+      <c r="M377" s="84" t="s">
         <v>790</v>
       </c>
-      <c r="N377" s="83"/>
-      <c r="O377" s="83"/>
+      <c r="N377" s="84"/>
+      <c r="O377" s="84"/>
       <c r="P377" s="22" t="s">
         <v>1</v>
       </c>
@@ -20049,11 +20049,11 @@
       <c r="J378" s="19"/>
       <c r="K378" s="19"/>
       <c r="L378" s="19"/>
-      <c r="M378" s="83" t="s">
+      <c r="M378" s="84" t="s">
         <v>791</v>
       </c>
-      <c r="N378" s="83"/>
-      <c r="O378" s="83"/>
+      <c r="N378" s="84"/>
+      <c r="O378" s="84"/>
       <c r="P378" s="22" t="s">
         <v>1</v>
       </c>
@@ -20089,11 +20089,11 @@
       <c r="J379" s="19"/>
       <c r="K379" s="19"/>
       <c r="L379" s="19"/>
-      <c r="M379" s="83" t="s">
+      <c r="M379" s="84" t="s">
         <v>793</v>
       </c>
-      <c r="N379" s="83"/>
-      <c r="O379" s="83"/>
+      <c r="N379" s="84"/>
+      <c r="O379" s="84"/>
       <c r="P379" s="22" t="s">
         <v>1</v>
       </c>
@@ -20129,11 +20129,11 @@
       <c r="J380" s="19"/>
       <c r="K380" s="19"/>
       <c r="L380" s="19"/>
-      <c r="M380" s="83" t="s">
+      <c r="M380" s="84" t="s">
         <v>794</v>
       </c>
-      <c r="N380" s="83"/>
-      <c r="O380" s="83"/>
+      <c r="N380" s="84"/>
+      <c r="O380" s="84"/>
       <c r="P380" s="22" t="s">
         <v>1</v>
       </c>
@@ -20169,11 +20169,11 @@
       <c r="J381" s="19"/>
       <c r="K381" s="19"/>
       <c r="L381" s="19"/>
-      <c r="M381" s="83" t="s">
+      <c r="M381" s="84" t="s">
         <v>795</v>
       </c>
-      <c r="N381" s="83"/>
-      <c r="O381" s="83"/>
+      <c r="N381" s="84"/>
+      <c r="O381" s="84"/>
       <c r="P381" s="22" t="s">
         <v>1</v>
       </c>
@@ -20209,11 +20209,11 @@
       <c r="J382" s="19"/>
       <c r="K382" s="19"/>
       <c r="L382" s="19"/>
-      <c r="M382" s="83" t="s">
+      <c r="M382" s="84" t="s">
         <v>797</v>
       </c>
-      <c r="N382" s="83"/>
-      <c r="O382" s="83"/>
+      <c r="N382" s="84"/>
+      <c r="O382" s="84"/>
       <c r="P382" s="22" t="s">
         <v>1</v>
       </c>
@@ -20249,11 +20249,11 @@
       <c r="J383" s="19"/>
       <c r="K383" s="19"/>
       <c r="L383" s="19"/>
-      <c r="M383" s="83" t="s">
+      <c r="M383" s="84" t="s">
         <v>798</v>
       </c>
-      <c r="N383" s="83"/>
-      <c r="O383" s="83"/>
+      <c r="N383" s="84"/>
+      <c r="O383" s="84"/>
       <c r="P383" s="22" t="s">
         <v>1</v>
       </c>
@@ -20289,11 +20289,11 @@
       <c r="J384" s="19"/>
       <c r="K384" s="19"/>
       <c r="L384" s="19"/>
-      <c r="M384" s="83" t="s">
+      <c r="M384" s="84" t="s">
         <v>800</v>
       </c>
-      <c r="N384" s="83"/>
-      <c r="O384" s="83"/>
+      <c r="N384" s="84"/>
+      <c r="O384" s="84"/>
       <c r="P384" s="28" t="s">
         <v>176</v>
       </c>
@@ -20329,11 +20329,11 @@
       <c r="J385" s="19"/>
       <c r="K385" s="19"/>
       <c r="L385" s="19"/>
-      <c r="M385" s="83" t="s">
+      <c r="M385" s="84" t="s">
         <v>801</v>
       </c>
-      <c r="N385" s="83"/>
-      <c r="O385" s="83"/>
+      <c r="N385" s="84"/>
+      <c r="O385" s="84"/>
       <c r="P385" s="28" t="s">
         <v>176</v>
       </c>
@@ -20369,11 +20369,11 @@
       <c r="J386" s="19"/>
       <c r="K386" s="19"/>
       <c r="L386" s="19"/>
-      <c r="M386" s="83" t="s">
+      <c r="M386" s="84" t="s">
         <v>802</v>
       </c>
-      <c r="N386" s="83"/>
-      <c r="O386" s="83"/>
+      <c r="N386" s="84"/>
+      <c r="O386" s="84"/>
       <c r="P386" s="22" t="s">
         <v>1</v>
       </c>
@@ -20409,11 +20409,11 @@
       <c r="J387" s="19"/>
       <c r="K387" s="19"/>
       <c r="L387" s="19"/>
-      <c r="M387" s="83" t="s">
+      <c r="M387" s="84" t="s">
         <v>803</v>
       </c>
-      <c r="N387" s="83"/>
-      <c r="O387" s="83"/>
+      <c r="N387" s="84"/>
+      <c r="O387" s="84"/>
       <c r="P387" s="22" t="s">
         <v>1</v>
       </c>
@@ -20449,11 +20449,11 @@
       <c r="J388" s="19"/>
       <c r="K388" s="19"/>
       <c r="L388" s="19"/>
-      <c r="M388" s="83" t="s">
+      <c r="M388" s="84" t="s">
         <v>804</v>
       </c>
-      <c r="N388" s="83"/>
-      <c r="O388" s="83"/>
+      <c r="N388" s="84"/>
+      <c r="O388" s="84"/>
       <c r="P388" s="22" t="s">
         <v>1</v>
       </c>
@@ -20489,11 +20489,11 @@
       <c r="J389" s="19"/>
       <c r="K389" s="19"/>
       <c r="L389" s="19"/>
-      <c r="M389" s="83" t="s">
+      <c r="M389" s="84" t="s">
         <v>805</v>
       </c>
-      <c r="N389" s="83"/>
-      <c r="O389" s="83"/>
+      <c r="N389" s="84"/>
+      <c r="O389" s="84"/>
       <c r="P389" s="22" t="s">
         <v>1</v>
       </c>
@@ -20529,11 +20529,11 @@
       <c r="J390" s="19"/>
       <c r="K390" s="19"/>
       <c r="L390" s="19"/>
-      <c r="M390" s="83" t="s">
+      <c r="M390" s="84" t="s">
         <v>806</v>
       </c>
-      <c r="N390" s="83"/>
-      <c r="O390" s="83"/>
+      <c r="N390" s="84"/>
+      <c r="O390" s="84"/>
       <c r="P390" s="22" t="s">
         <v>1</v>
       </c>
@@ -20569,11 +20569,11 @@
       <c r="J391" s="19"/>
       <c r="K391" s="19"/>
       <c r="L391" s="19"/>
-      <c r="M391" s="83" t="s">
+      <c r="M391" s="84" t="s">
         <v>807</v>
       </c>
-      <c r="N391" s="83"/>
-      <c r="O391" s="83"/>
+      <c r="N391" s="84"/>
+      <c r="O391" s="84"/>
       <c r="P391" s="22" t="s">
         <v>1</v>
       </c>
@@ -20609,11 +20609,11 @@
       <c r="J392" s="19"/>
       <c r="K392" s="19"/>
       <c r="L392" s="19"/>
-      <c r="M392" s="83" t="s">
+      <c r="M392" s="84" t="s">
         <v>808</v>
       </c>
-      <c r="N392" s="83"/>
-      <c r="O392" s="83"/>
+      <c r="N392" s="84"/>
+      <c r="O392" s="84"/>
       <c r="P392" s="22" t="s">
         <v>1</v>
       </c>
@@ -20649,11 +20649,11 @@
       <c r="J393" s="19"/>
       <c r="K393" s="19"/>
       <c r="L393" s="19"/>
-      <c r="M393" s="83" t="s">
+      <c r="M393" s="84" t="s">
         <v>810</v>
       </c>
-      <c r="N393" s="83"/>
-      <c r="O393" s="83"/>
+      <c r="N393" s="84"/>
+      <c r="O393" s="84"/>
       <c r="P393" s="22" t="s">
         <v>1</v>
       </c>
@@ -20689,11 +20689,11 @@
       <c r="J394" s="19"/>
       <c r="K394" s="19"/>
       <c r="L394" s="19"/>
-      <c r="M394" s="83" t="s">
+      <c r="M394" s="84" t="s">
         <v>812</v>
       </c>
-      <c r="N394" s="83"/>
-      <c r="O394" s="83"/>
+      <c r="N394" s="84"/>
+      <c r="O394" s="84"/>
       <c r="P394" s="28" t="s">
         <v>176</v>
       </c>
@@ -20729,11 +20729,11 @@
       <c r="J395" s="19"/>
       <c r="K395" s="19"/>
       <c r="L395" s="19"/>
-      <c r="M395" s="83" t="s">
+      <c r="M395" s="84" t="s">
         <v>813</v>
       </c>
-      <c r="N395" s="83"/>
-      <c r="O395" s="83"/>
+      <c r="N395" s="84"/>
+      <c r="O395" s="84"/>
       <c r="P395" s="28" t="s">
         <v>187</v>
       </c>
@@ -20769,11 +20769,11 @@
       <c r="J396" s="19"/>
       <c r="K396" s="19"/>
       <c r="L396" s="19"/>
-      <c r="M396" s="83" t="s">
+      <c r="M396" s="84" t="s">
         <v>814</v>
       </c>
-      <c r="N396" s="83"/>
-      <c r="O396" s="83"/>
+      <c r="N396" s="84"/>
+      <c r="O396" s="84"/>
       <c r="P396" s="22" t="s">
         <v>1</v>
       </c>
@@ -20809,11 +20809,11 @@
       <c r="J397" s="19"/>
       <c r="K397" s="19"/>
       <c r="L397" s="19"/>
-      <c r="M397" s="83" t="s">
+      <c r="M397" s="84" t="s">
         <v>816</v>
       </c>
-      <c r="N397" s="83"/>
-      <c r="O397" s="83"/>
+      <c r="N397" s="84"/>
+      <c r="O397" s="84"/>
       <c r="P397" s="22" t="s">
         <v>1</v>
       </c>
@@ -20849,11 +20849,11 @@
       <c r="J398" s="19"/>
       <c r="K398" s="19"/>
       <c r="L398" s="19"/>
-      <c r="M398" s="83" t="s">
+      <c r="M398" s="84" t="s">
         <v>817</v>
       </c>
-      <c r="N398" s="83"/>
-      <c r="O398" s="83"/>
+      <c r="N398" s="84"/>
+      <c r="O398" s="84"/>
       <c r="P398" s="22" t="s">
         <v>1</v>
       </c>
@@ -20889,11 +20889,11 @@
       <c r="J399" s="19"/>
       <c r="K399" s="19"/>
       <c r="L399" s="19"/>
-      <c r="M399" s="83" t="s">
+      <c r="M399" s="84" t="s">
         <v>818</v>
       </c>
-      <c r="N399" s="83"/>
-      <c r="O399" s="83"/>
+      <c r="N399" s="84"/>
+      <c r="O399" s="84"/>
       <c r="P399" s="22" t="s">
         <v>1</v>
       </c>
@@ -20929,11 +20929,11 @@
       <c r="J400" s="19"/>
       <c r="K400" s="19"/>
       <c r="L400" s="19"/>
-      <c r="M400" s="83" t="s">
+      <c r="M400" s="84" t="s">
         <v>844</v>
       </c>
-      <c r="N400" s="83"/>
-      <c r="O400" s="83"/>
+      <c r="N400" s="84"/>
+      <c r="O400" s="84"/>
       <c r="P400" s="22" t="s">
         <v>1</v>
       </c>
@@ -20969,11 +20969,11 @@
       <c r="J401" s="19"/>
       <c r="K401" s="19"/>
       <c r="L401" s="19"/>
-      <c r="M401" s="83" t="s">
+      <c r="M401" s="84" t="s">
         <v>821</v>
       </c>
-      <c r="N401" s="83"/>
-      <c r="O401" s="83"/>
+      <c r="N401" s="84"/>
+      <c r="O401" s="84"/>
       <c r="P401" s="22" t="s">
         <v>1</v>
       </c>
@@ -21009,11 +21009,11 @@
       <c r="J402" s="19"/>
       <c r="K402" s="19"/>
       <c r="L402" s="19"/>
-      <c r="M402" s="83" t="s">
+      <c r="M402" s="84" t="s">
         <v>822</v>
       </c>
-      <c r="N402" s="83"/>
-      <c r="O402" s="83"/>
+      <c r="N402" s="84"/>
+      <c r="O402" s="84"/>
       <c r="P402" s="22" t="s">
         <v>1</v>
       </c>
@@ -21049,11 +21049,11 @@
       <c r="J403" s="19"/>
       <c r="K403" s="19"/>
       <c r="L403" s="19"/>
-      <c r="M403" s="83" t="s">
+      <c r="M403" s="84" t="s">
         <v>823</v>
       </c>
-      <c r="N403" s="83"/>
-      <c r="O403" s="83"/>
+      <c r="N403" s="84"/>
+      <c r="O403" s="84"/>
       <c r="P403" s="22" t="s">
         <v>1</v>
       </c>
@@ -21089,11 +21089,11 @@
       <c r="J404" s="19"/>
       <c r="K404" s="19"/>
       <c r="L404" s="19"/>
-      <c r="M404" s="83" t="s">
+      <c r="M404" s="84" t="s">
         <v>845</v>
       </c>
-      <c r="N404" s="83"/>
-      <c r="O404" s="83"/>
+      <c r="N404" s="84"/>
+      <c r="O404" s="84"/>
       <c r="P404" s="22" t="s">
         <v>1</v>
       </c>
@@ -21129,11 +21129,11 @@
       <c r="J405" s="19"/>
       <c r="K405" s="19"/>
       <c r="L405" s="19"/>
-      <c r="M405" s="83" t="s">
+      <c r="M405" s="84" t="s">
         <v>826</v>
       </c>
-      <c r="N405" s="83"/>
-      <c r="O405" s="83"/>
+      <c r="N405" s="84"/>
+      <c r="O405" s="84"/>
       <c r="P405" s="22" t="s">
         <v>1</v>
       </c>
@@ -21169,11 +21169,11 @@
       <c r="J406" s="19"/>
       <c r="K406" s="19"/>
       <c r="L406" s="19"/>
-      <c r="M406" s="83" t="s">
+      <c r="M406" s="84" t="s">
         <v>827</v>
       </c>
-      <c r="N406" s="83"/>
-      <c r="O406" s="83"/>
+      <c r="N406" s="84"/>
+      <c r="O406" s="84"/>
       <c r="P406" s="22" t="s">
         <v>1</v>
       </c>
@@ -21209,11 +21209,11 @@
       <c r="J407" s="19"/>
       <c r="K407" s="19"/>
       <c r="L407" s="19"/>
-      <c r="M407" s="83" t="s">
+      <c r="M407" s="84" t="s">
         <v>828</v>
       </c>
-      <c r="N407" s="83"/>
-      <c r="O407" s="83"/>
+      <c r="N407" s="84"/>
+      <c r="O407" s="84"/>
       <c r="P407" s="22" t="s">
         <v>1</v>
       </c>
@@ -21249,11 +21249,11 @@
       <c r="J408" s="19"/>
       <c r="K408" s="19"/>
       <c r="L408" s="19"/>
-      <c r="M408" s="83" t="s">
+      <c r="M408" s="84" t="s">
         <v>830</v>
       </c>
-      <c r="N408" s="83"/>
-      <c r="O408" s="83"/>
+      <c r="N408" s="84"/>
+      <c r="O408" s="84"/>
       <c r="P408" s="22" t="s">
         <v>1</v>
       </c>
@@ -21289,11 +21289,11 @@
       <c r="J409" s="19"/>
       <c r="K409" s="19"/>
       <c r="L409" s="19"/>
-      <c r="M409" s="83" t="s">
+      <c r="M409" s="84" t="s">
         <v>831</v>
       </c>
-      <c r="N409" s="83"/>
-      <c r="O409" s="83"/>
+      <c r="N409" s="84"/>
+      <c r="O409" s="84"/>
       <c r="P409" s="22" t="s">
         <v>1</v>
       </c>
@@ -21329,11 +21329,11 @@
       <c r="J410" s="19"/>
       <c r="K410" s="19"/>
       <c r="L410" s="19"/>
-      <c r="M410" s="83" t="s">
+      <c r="M410" s="84" t="s">
         <v>832</v>
       </c>
-      <c r="N410" s="83"/>
-      <c r="O410" s="83"/>
+      <c r="N410" s="84"/>
+      <c r="O410" s="84"/>
       <c r="P410" s="22" t="s">
         <v>1</v>
       </c>
@@ -21369,11 +21369,11 @@
       <c r="J411" s="19"/>
       <c r="K411" s="19"/>
       <c r="L411" s="19"/>
-      <c r="M411" s="83" t="s">
+      <c r="M411" s="84" t="s">
         <v>846</v>
       </c>
-      <c r="N411" s="83"/>
-      <c r="O411" s="83"/>
+      <c r="N411" s="84"/>
+      <c r="O411" s="84"/>
       <c r="P411" s="22" t="s">
         <v>1</v>
       </c>
@@ -21409,11 +21409,11 @@
       <c r="J412" s="19"/>
       <c r="K412" s="19"/>
       <c r="L412" s="19"/>
-      <c r="M412" s="83" t="s">
+      <c r="M412" s="84" t="s">
         <v>835</v>
       </c>
-      <c r="N412" s="83"/>
-      <c r="O412" s="83"/>
+      <c r="N412" s="84"/>
+      <c r="O412" s="84"/>
       <c r="P412" s="22" t="s">
         <v>1</v>
       </c>
@@ -21449,11 +21449,11 @@
       <c r="J413" s="19"/>
       <c r="K413" s="19"/>
       <c r="L413" s="19"/>
-      <c r="M413" s="83" t="s">
+      <c r="M413" s="84" t="s">
         <v>836</v>
       </c>
-      <c r="N413" s="83"/>
-      <c r="O413" s="83"/>
+      <c r="N413" s="84"/>
+      <c r="O413" s="84"/>
       <c r="P413" s="22" t="s">
         <v>1</v>
       </c>
@@ -21489,11 +21489,11 @@
       <c r="J414" s="19"/>
       <c r="K414" s="19"/>
       <c r="L414" s="19"/>
-      <c r="M414" s="83" t="s">
+      <c r="M414" s="84" t="s">
         <v>837</v>
       </c>
-      <c r="N414" s="83"/>
-      <c r="O414" s="83"/>
+      <c r="N414" s="84"/>
+      <c r="O414" s="84"/>
       <c r="P414" s="22" t="s">
         <v>1</v>
       </c>
@@ -21529,11 +21529,11 @@
       <c r="J415" s="19"/>
       <c r="K415" s="19"/>
       <c r="L415" s="19"/>
-      <c r="M415" s="83" t="s">
+      <c r="M415" s="84" t="s">
         <v>847</v>
       </c>
-      <c r="N415" s="83"/>
-      <c r="O415" s="83"/>
+      <c r="N415" s="84"/>
+      <c r="O415" s="84"/>
       <c r="P415" s="22" t="s">
         <v>1</v>
       </c>
@@ -21569,11 +21569,11 @@
       <c r="J416" s="19"/>
       <c r="K416" s="19"/>
       <c r="L416" s="19"/>
-      <c r="M416" s="83" t="s">
+      <c r="M416" s="84" t="s">
         <v>840</v>
       </c>
-      <c r="N416" s="83"/>
-      <c r="O416" s="83"/>
+      <c r="N416" s="84"/>
+      <c r="O416" s="84"/>
       <c r="P416" s="22" t="s">
         <v>1</v>
       </c>
@@ -21609,11 +21609,11 @@
       <c r="J417" s="19"/>
       <c r="K417" s="19"/>
       <c r="L417" s="19"/>
-      <c r="M417" s="83" t="s">
+      <c r="M417" s="84" t="s">
         <v>841</v>
       </c>
-      <c r="N417" s="83"/>
-      <c r="O417" s="83"/>
+      <c r="N417" s="84"/>
+      <c r="O417" s="84"/>
       <c r="P417" s="22" t="s">
         <v>1</v>
       </c>
@@ -21649,11 +21649,11 @@
       <c r="J418" s="19"/>
       <c r="K418" s="19"/>
       <c r="L418" s="19"/>
-      <c r="M418" s="83" t="s">
+      <c r="M418" s="84" t="s">
         <v>842</v>
       </c>
-      <c r="N418" s="83"/>
-      <c r="O418" s="83"/>
+      <c r="N418" s="84"/>
+      <c r="O418" s="84"/>
       <c r="P418" s="22" t="s">
         <v>1</v>
       </c>
@@ -21685,9 +21685,9 @@
       <c r="J419" s="19"/>
       <c r="K419" s="19"/>
       <c r="L419" s="19"/>
-      <c r="M419" s="83"/>
-      <c r="N419" s="83"/>
-      <c r="O419" s="83"/>
+      <c r="M419" s="84"/>
+      <c r="N419" s="84"/>
+      <c r="O419" s="84"/>
       <c r="P419" s="22"/>
       <c r="Q419" s="22"/>
       <c r="R419" s="28"/>
@@ -21713,9 +21713,9 @@
       <c r="J420" s="19"/>
       <c r="K420" s="19"/>
       <c r="L420" s="19"/>
-      <c r="M420" s="83"/>
-      <c r="N420" s="83"/>
-      <c r="O420" s="83"/>
+      <c r="M420" s="84"/>
+      <c r="N420" s="84"/>
+      <c r="O420" s="84"/>
       <c r="P420" s="22"/>
       <c r="Q420" s="22"/>
       <c r="R420" s="28"/>
@@ -21741,9 +21741,9 @@
       <c r="J421" s="19"/>
       <c r="K421" s="19"/>
       <c r="L421" s="19"/>
-      <c r="M421" s="83"/>
-      <c r="N421" s="83"/>
-      <c r="O421" s="83"/>
+      <c r="M421" s="84"/>
+      <c r="N421" s="84"/>
+      <c r="O421" s="84"/>
       <c r="P421" s="22"/>
       <c r="Q421" s="22"/>
       <c r="R421" s="28"/>
@@ -21769,9 +21769,9 @@
       <c r="J422" s="19"/>
       <c r="K422" s="19"/>
       <c r="L422" s="19"/>
-      <c r="M422" s="83"/>
-      <c r="N422" s="83"/>
-      <c r="O422" s="83"/>
+      <c r="M422" s="84"/>
+      <c r="N422" s="84"/>
+      <c r="O422" s="84"/>
       <c r="P422" s="22"/>
       <c r="Q422" s="22"/>
       <c r="R422" s="28"/>
@@ -21797,9 +21797,9 @@
       <c r="J423" s="19"/>
       <c r="K423" s="19"/>
       <c r="L423" s="19"/>
-      <c r="M423" s="83"/>
-      <c r="N423" s="83"/>
-      <c r="O423" s="83"/>
+      <c r="M423" s="84"/>
+      <c r="N423" s="84"/>
+      <c r="O423" s="84"/>
       <c r="P423" s="22"/>
       <c r="Q423" s="22"/>
       <c r="R423" s="28"/>
@@ -21825,9 +21825,9 @@
       <c r="J424" s="19"/>
       <c r="K424" s="19"/>
       <c r="L424" s="19"/>
-      <c r="M424" s="83"/>
-      <c r="N424" s="83"/>
-      <c r="O424" s="83"/>
+      <c r="M424" s="84"/>
+      <c r="N424" s="84"/>
+      <c r="O424" s="84"/>
       <c r="P424" s="22"/>
       <c r="Q424" s="22"/>
       <c r="R424" s="28"/>
@@ -22188,6 +22188,269 @@
     </row>
   </sheetData>
   <mergeCells count="287">
+    <mergeCell ref="M347:O347"/>
+    <mergeCell ref="M348:O348"/>
+    <mergeCell ref="M346:O346"/>
+    <mergeCell ref="M312:O312"/>
+    <mergeCell ref="M313:O313"/>
+    <mergeCell ref="M317:O317"/>
+    <mergeCell ref="M318:O318"/>
+    <mergeCell ref="M322:O322"/>
+    <mergeCell ref="M323:O323"/>
+    <mergeCell ref="M327:O327"/>
+    <mergeCell ref="M328:O328"/>
+    <mergeCell ref="M332:O332"/>
+    <mergeCell ref="M333:O333"/>
+    <mergeCell ref="M337:O337"/>
+    <mergeCell ref="M338:O338"/>
+    <mergeCell ref="M342:O342"/>
+    <mergeCell ref="M343:O343"/>
+    <mergeCell ref="M331:O331"/>
+    <mergeCell ref="M334:O334"/>
+    <mergeCell ref="M335:O335"/>
+    <mergeCell ref="M336:O336"/>
+    <mergeCell ref="M339:O339"/>
+    <mergeCell ref="M340:O340"/>
+    <mergeCell ref="M341:O341"/>
+    <mergeCell ref="M344:O344"/>
+    <mergeCell ref="M345:O345"/>
+    <mergeCell ref="M316:O316"/>
+    <mergeCell ref="M319:O319"/>
+    <mergeCell ref="M320:O320"/>
+    <mergeCell ref="M321:O321"/>
+    <mergeCell ref="M324:O324"/>
+    <mergeCell ref="M325:O325"/>
+    <mergeCell ref="M326:O326"/>
+    <mergeCell ref="M329:O329"/>
+    <mergeCell ref="M330:O330"/>
+    <mergeCell ref="M307:O307"/>
+    <mergeCell ref="M308:O308"/>
+    <mergeCell ref="M309:O309"/>
+    <mergeCell ref="M310:O310"/>
+    <mergeCell ref="M311:O311"/>
+    <mergeCell ref="M278:O278"/>
+    <mergeCell ref="M279:O279"/>
+    <mergeCell ref="M314:O314"/>
+    <mergeCell ref="M315:O315"/>
+    <mergeCell ref="M298:O298"/>
+    <mergeCell ref="M299:O299"/>
+    <mergeCell ref="M300:O300"/>
+    <mergeCell ref="M301:O301"/>
+    <mergeCell ref="M302:O302"/>
+    <mergeCell ref="M303:O303"/>
+    <mergeCell ref="M304:O304"/>
+    <mergeCell ref="M305:O305"/>
+    <mergeCell ref="M306:O306"/>
+    <mergeCell ref="M289:O289"/>
+    <mergeCell ref="M290:O290"/>
+    <mergeCell ref="M291:O291"/>
+    <mergeCell ref="M292:O292"/>
+    <mergeCell ref="M293:O293"/>
+    <mergeCell ref="M294:O294"/>
+    <mergeCell ref="M295:O295"/>
+    <mergeCell ref="M296:O296"/>
+    <mergeCell ref="M297:O297"/>
+    <mergeCell ref="M280:O280"/>
+    <mergeCell ref="M281:O281"/>
+    <mergeCell ref="M282:O282"/>
+    <mergeCell ref="M283:O283"/>
+    <mergeCell ref="M284:O284"/>
+    <mergeCell ref="M285:O285"/>
+    <mergeCell ref="M286:O286"/>
+    <mergeCell ref="M287:O287"/>
+    <mergeCell ref="M288:O288"/>
+    <mergeCell ref="M269:O269"/>
+    <mergeCell ref="M270:O270"/>
+    <mergeCell ref="M271:O271"/>
+    <mergeCell ref="M272:O272"/>
+    <mergeCell ref="M273:O273"/>
+    <mergeCell ref="M274:O274"/>
+    <mergeCell ref="M275:O275"/>
+    <mergeCell ref="M276:O276"/>
+    <mergeCell ref="M277:O277"/>
+    <mergeCell ref="M262:O262"/>
+    <mergeCell ref="M263:O263"/>
+    <mergeCell ref="M264:O264"/>
+    <mergeCell ref="M265:O265"/>
+    <mergeCell ref="M266:O266"/>
+    <mergeCell ref="M267:O267"/>
+    <mergeCell ref="M268:O268"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="T79:T80"/>
+    <mergeCell ref="S120:S145"/>
+    <mergeCell ref="M200:O200"/>
+    <mergeCell ref="M190:O190"/>
+    <mergeCell ref="M191:O191"/>
+    <mergeCell ref="M192:O192"/>
+    <mergeCell ref="M194:O194"/>
+    <mergeCell ref="M195:O195"/>
+    <mergeCell ref="M193:O193"/>
+    <mergeCell ref="M185:O185"/>
+    <mergeCell ref="M186:O186"/>
+    <mergeCell ref="M187:O187"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="M189:O189"/>
+    <mergeCell ref="M196:O196"/>
+    <mergeCell ref="M197:O197"/>
+    <mergeCell ref="T65:T66"/>
+    <mergeCell ref="R178:T179"/>
+    <mergeCell ref="T53:T54"/>
+    <mergeCell ref="T55:T56"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="G47:K48"/>
+    <mergeCell ref="G49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="B178:L179"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="R6:R11"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="R82:R83"/>
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="G82:K83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="G26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="R75:R78"/>
+    <mergeCell ref="Q91:Q93"/>
+    <mergeCell ref="O91:O93"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="L91:L93"/>
+    <mergeCell ref="G91:K93"/>
+    <mergeCell ref="M91:M93"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="P91:P93"/>
+    <mergeCell ref="M198:O198"/>
+    <mergeCell ref="M199:O199"/>
+    <mergeCell ref="P178:P179"/>
+    <mergeCell ref="Q178:Q179"/>
+    <mergeCell ref="M178:O179"/>
+    <mergeCell ref="M180:O180"/>
+    <mergeCell ref="M181:O181"/>
+    <mergeCell ref="M182:O182"/>
+    <mergeCell ref="M183:O183"/>
+    <mergeCell ref="M184:O184"/>
+    <mergeCell ref="M206:O206"/>
+    <mergeCell ref="M207:O207"/>
+    <mergeCell ref="M208:O208"/>
+    <mergeCell ref="M209:O209"/>
+    <mergeCell ref="M210:O210"/>
+    <mergeCell ref="M201:O201"/>
+    <mergeCell ref="M202:O202"/>
+    <mergeCell ref="M203:O203"/>
+    <mergeCell ref="M204:O204"/>
+    <mergeCell ref="M205:O205"/>
+    <mergeCell ref="M216:O216"/>
+    <mergeCell ref="M217:O217"/>
+    <mergeCell ref="M218:O218"/>
+    <mergeCell ref="M219:O219"/>
+    <mergeCell ref="M220:O220"/>
+    <mergeCell ref="M211:O211"/>
+    <mergeCell ref="M212:O212"/>
+    <mergeCell ref="M213:O213"/>
+    <mergeCell ref="M214:O214"/>
+    <mergeCell ref="M215:O215"/>
+    <mergeCell ref="M226:O226"/>
+    <mergeCell ref="M227:O227"/>
+    <mergeCell ref="M228:O228"/>
+    <mergeCell ref="M229:O229"/>
+    <mergeCell ref="M230:O230"/>
+    <mergeCell ref="M221:O221"/>
+    <mergeCell ref="M222:O222"/>
+    <mergeCell ref="M223:O223"/>
+    <mergeCell ref="M224:O224"/>
+    <mergeCell ref="M225:O225"/>
+    <mergeCell ref="M236:O236"/>
+    <mergeCell ref="M237:O237"/>
+    <mergeCell ref="M238:O238"/>
+    <mergeCell ref="M239:O239"/>
+    <mergeCell ref="M240:O240"/>
+    <mergeCell ref="M231:O231"/>
+    <mergeCell ref="M232:O232"/>
+    <mergeCell ref="M233:O233"/>
+    <mergeCell ref="M234:O234"/>
+    <mergeCell ref="M235:O235"/>
+    <mergeCell ref="M249:O249"/>
+    <mergeCell ref="M250:O250"/>
+    <mergeCell ref="M251:O251"/>
+    <mergeCell ref="M241:O241"/>
+    <mergeCell ref="M242:O242"/>
+    <mergeCell ref="M246:O246"/>
+    <mergeCell ref="M247:O247"/>
+    <mergeCell ref="M248:O248"/>
+    <mergeCell ref="M257:O257"/>
+    <mergeCell ref="M258:O258"/>
+    <mergeCell ref="M259:O259"/>
+    <mergeCell ref="M260:O260"/>
+    <mergeCell ref="M261:O261"/>
+    <mergeCell ref="M252:O252"/>
+    <mergeCell ref="M253:O253"/>
+    <mergeCell ref="M254:O254"/>
+    <mergeCell ref="M255:O255"/>
+    <mergeCell ref="M256:O256"/>
+    <mergeCell ref="M349:O349"/>
+    <mergeCell ref="M350:O350"/>
+    <mergeCell ref="M351:O351"/>
+    <mergeCell ref="M352:O352"/>
+    <mergeCell ref="M353:O353"/>
+    <mergeCell ref="M354:O354"/>
+    <mergeCell ref="M355:O355"/>
+    <mergeCell ref="M356:O356"/>
+    <mergeCell ref="M357:O357"/>
+    <mergeCell ref="M358:O358"/>
+    <mergeCell ref="M359:O359"/>
+    <mergeCell ref="M360:O360"/>
+    <mergeCell ref="M361:O361"/>
+    <mergeCell ref="M362:O362"/>
+    <mergeCell ref="M363:O363"/>
+    <mergeCell ref="M364:O364"/>
+    <mergeCell ref="M365:O365"/>
+    <mergeCell ref="M366:O366"/>
+    <mergeCell ref="M367:O367"/>
+    <mergeCell ref="M368:O368"/>
+    <mergeCell ref="M369:O369"/>
+    <mergeCell ref="M370:O370"/>
+    <mergeCell ref="M371:O371"/>
+    <mergeCell ref="M372:O372"/>
+    <mergeCell ref="M373:O373"/>
+    <mergeCell ref="M374:O374"/>
+    <mergeCell ref="M375:O375"/>
+    <mergeCell ref="M376:O376"/>
+    <mergeCell ref="M377:O377"/>
+    <mergeCell ref="M378:O378"/>
+    <mergeCell ref="M379:O379"/>
+    <mergeCell ref="M380:O380"/>
+    <mergeCell ref="M381:O381"/>
+    <mergeCell ref="M382:O382"/>
+    <mergeCell ref="M383:O383"/>
+    <mergeCell ref="M384:O384"/>
+    <mergeCell ref="M395:O395"/>
+    <mergeCell ref="M396:O396"/>
+    <mergeCell ref="M397:O397"/>
+    <mergeCell ref="M398:O398"/>
+    <mergeCell ref="M399:O399"/>
+    <mergeCell ref="M400:O400"/>
+    <mergeCell ref="M401:O401"/>
+    <mergeCell ref="M402:O402"/>
+    <mergeCell ref="M385:O385"/>
+    <mergeCell ref="M386:O386"/>
+    <mergeCell ref="M387:O387"/>
+    <mergeCell ref="M388:O388"/>
+    <mergeCell ref="M389:O389"/>
+    <mergeCell ref="M390:O390"/>
+    <mergeCell ref="M391:O391"/>
+    <mergeCell ref="M392:O392"/>
+    <mergeCell ref="M393:O393"/>
     <mergeCell ref="B365:L365"/>
     <mergeCell ref="M421:O421"/>
     <mergeCell ref="M422:O422"/>
@@ -22212,269 +22475,6 @@
     <mergeCell ref="M410:O410"/>
     <mergeCell ref="M411:O411"/>
     <mergeCell ref="M394:O394"/>
-    <mergeCell ref="M395:O395"/>
-    <mergeCell ref="M396:O396"/>
-    <mergeCell ref="M397:O397"/>
-    <mergeCell ref="M398:O398"/>
-    <mergeCell ref="M399:O399"/>
-    <mergeCell ref="M400:O400"/>
-    <mergeCell ref="M401:O401"/>
-    <mergeCell ref="M402:O402"/>
-    <mergeCell ref="M385:O385"/>
-    <mergeCell ref="M386:O386"/>
-    <mergeCell ref="M387:O387"/>
-    <mergeCell ref="M388:O388"/>
-    <mergeCell ref="M389:O389"/>
-    <mergeCell ref="M390:O390"/>
-    <mergeCell ref="M391:O391"/>
-    <mergeCell ref="M392:O392"/>
-    <mergeCell ref="M393:O393"/>
-    <mergeCell ref="M376:O376"/>
-    <mergeCell ref="M377:O377"/>
-    <mergeCell ref="M378:O378"/>
-    <mergeCell ref="M379:O379"/>
-    <mergeCell ref="M380:O380"/>
-    <mergeCell ref="M381:O381"/>
-    <mergeCell ref="M382:O382"/>
-    <mergeCell ref="M383:O383"/>
-    <mergeCell ref="M384:O384"/>
-    <mergeCell ref="M367:O367"/>
-    <mergeCell ref="M368:O368"/>
-    <mergeCell ref="M369:O369"/>
-    <mergeCell ref="M370:O370"/>
-    <mergeCell ref="M371:O371"/>
-    <mergeCell ref="M372:O372"/>
-    <mergeCell ref="M373:O373"/>
-    <mergeCell ref="M374:O374"/>
-    <mergeCell ref="M375:O375"/>
-    <mergeCell ref="M358:O358"/>
-    <mergeCell ref="M359:O359"/>
-    <mergeCell ref="M360:O360"/>
-    <mergeCell ref="M361:O361"/>
-    <mergeCell ref="M362:O362"/>
-    <mergeCell ref="M363:O363"/>
-    <mergeCell ref="M364:O364"/>
-    <mergeCell ref="M365:O365"/>
-    <mergeCell ref="M366:O366"/>
-    <mergeCell ref="M349:O349"/>
-    <mergeCell ref="M350:O350"/>
-    <mergeCell ref="M351:O351"/>
-    <mergeCell ref="M352:O352"/>
-    <mergeCell ref="M353:O353"/>
-    <mergeCell ref="M354:O354"/>
-    <mergeCell ref="M355:O355"/>
-    <mergeCell ref="M356:O356"/>
-    <mergeCell ref="M357:O357"/>
-    <mergeCell ref="M258:O258"/>
-    <mergeCell ref="M259:O259"/>
-    <mergeCell ref="M260:O260"/>
-    <mergeCell ref="M261:O261"/>
-    <mergeCell ref="M252:O252"/>
-    <mergeCell ref="M253:O253"/>
-    <mergeCell ref="M254:O254"/>
-    <mergeCell ref="M255:O255"/>
-    <mergeCell ref="M256:O256"/>
-    <mergeCell ref="M249:O249"/>
-    <mergeCell ref="M250:O250"/>
-    <mergeCell ref="M251:O251"/>
-    <mergeCell ref="M241:O241"/>
-    <mergeCell ref="M242:O242"/>
-    <mergeCell ref="M246:O246"/>
-    <mergeCell ref="M247:O247"/>
-    <mergeCell ref="M248:O248"/>
-    <mergeCell ref="M257:O257"/>
-    <mergeCell ref="M236:O236"/>
-    <mergeCell ref="M237:O237"/>
-    <mergeCell ref="M238:O238"/>
-    <mergeCell ref="M239:O239"/>
-    <mergeCell ref="M240:O240"/>
-    <mergeCell ref="M231:O231"/>
-    <mergeCell ref="M232:O232"/>
-    <mergeCell ref="M233:O233"/>
-    <mergeCell ref="M234:O234"/>
-    <mergeCell ref="M235:O235"/>
-    <mergeCell ref="M226:O226"/>
-    <mergeCell ref="M227:O227"/>
-    <mergeCell ref="M228:O228"/>
-    <mergeCell ref="M229:O229"/>
-    <mergeCell ref="M230:O230"/>
-    <mergeCell ref="M221:O221"/>
-    <mergeCell ref="M222:O222"/>
-    <mergeCell ref="M223:O223"/>
-    <mergeCell ref="M224:O224"/>
-    <mergeCell ref="M225:O225"/>
-    <mergeCell ref="M216:O216"/>
-    <mergeCell ref="M217:O217"/>
-    <mergeCell ref="M218:O218"/>
-    <mergeCell ref="M219:O219"/>
-    <mergeCell ref="M220:O220"/>
-    <mergeCell ref="M211:O211"/>
-    <mergeCell ref="M212:O212"/>
-    <mergeCell ref="M213:O213"/>
-    <mergeCell ref="M214:O214"/>
-    <mergeCell ref="M215:O215"/>
-    <mergeCell ref="M206:O206"/>
-    <mergeCell ref="M207:O207"/>
-    <mergeCell ref="M208:O208"/>
-    <mergeCell ref="M209:O209"/>
-    <mergeCell ref="M210:O210"/>
-    <mergeCell ref="M201:O201"/>
-    <mergeCell ref="M202:O202"/>
-    <mergeCell ref="M203:O203"/>
-    <mergeCell ref="M204:O204"/>
-    <mergeCell ref="M205:O205"/>
-    <mergeCell ref="M198:O198"/>
-    <mergeCell ref="M199:O199"/>
-    <mergeCell ref="P178:P179"/>
-    <mergeCell ref="Q178:Q179"/>
-    <mergeCell ref="M178:O179"/>
-    <mergeCell ref="M180:O180"/>
-    <mergeCell ref="M181:O181"/>
-    <mergeCell ref="M182:O182"/>
-    <mergeCell ref="M183:O183"/>
-    <mergeCell ref="M184:O184"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="G26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="R75:R78"/>
-    <mergeCell ref="Q91:Q93"/>
-    <mergeCell ref="O91:O93"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="L91:L93"/>
-    <mergeCell ref="G91:K93"/>
-    <mergeCell ref="M91:M93"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="P91:P93"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="R6:R11"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="R82:R83"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="G82:K83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="T65:T66"/>
-    <mergeCell ref="R178:T179"/>
-    <mergeCell ref="T53:T54"/>
-    <mergeCell ref="T55:T56"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="G47:K48"/>
-    <mergeCell ref="G49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="B178:L179"/>
-    <mergeCell ref="M262:O262"/>
-    <mergeCell ref="M263:O263"/>
-    <mergeCell ref="M264:O264"/>
-    <mergeCell ref="M265:O265"/>
-    <mergeCell ref="M266:O266"/>
-    <mergeCell ref="M267:O267"/>
-    <mergeCell ref="M268:O268"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="T79:T80"/>
-    <mergeCell ref="S120:S145"/>
-    <mergeCell ref="M200:O200"/>
-    <mergeCell ref="M190:O190"/>
-    <mergeCell ref="M191:O191"/>
-    <mergeCell ref="M192:O192"/>
-    <mergeCell ref="M194:O194"/>
-    <mergeCell ref="M195:O195"/>
-    <mergeCell ref="M193:O193"/>
-    <mergeCell ref="M185:O185"/>
-    <mergeCell ref="M186:O186"/>
-    <mergeCell ref="M187:O187"/>
-    <mergeCell ref="M188:O188"/>
-    <mergeCell ref="M189:O189"/>
-    <mergeCell ref="M196:O196"/>
-    <mergeCell ref="M197:O197"/>
-    <mergeCell ref="M269:O269"/>
-    <mergeCell ref="M270:O270"/>
-    <mergeCell ref="M271:O271"/>
-    <mergeCell ref="M272:O272"/>
-    <mergeCell ref="M273:O273"/>
-    <mergeCell ref="M274:O274"/>
-    <mergeCell ref="M275:O275"/>
-    <mergeCell ref="M276:O276"/>
-    <mergeCell ref="M277:O277"/>
-    <mergeCell ref="M295:O295"/>
-    <mergeCell ref="M296:O296"/>
-    <mergeCell ref="M297:O297"/>
-    <mergeCell ref="M280:O280"/>
-    <mergeCell ref="M281:O281"/>
-    <mergeCell ref="M282:O282"/>
-    <mergeCell ref="M283:O283"/>
-    <mergeCell ref="M284:O284"/>
-    <mergeCell ref="M285:O285"/>
-    <mergeCell ref="M286:O286"/>
-    <mergeCell ref="M287:O287"/>
-    <mergeCell ref="M288:O288"/>
-    <mergeCell ref="M307:O307"/>
-    <mergeCell ref="M308:O308"/>
-    <mergeCell ref="M309:O309"/>
-    <mergeCell ref="M310:O310"/>
-    <mergeCell ref="M311:O311"/>
-    <mergeCell ref="M278:O278"/>
-    <mergeCell ref="M279:O279"/>
-    <mergeCell ref="M314:O314"/>
-    <mergeCell ref="M315:O315"/>
-    <mergeCell ref="M298:O298"/>
-    <mergeCell ref="M299:O299"/>
-    <mergeCell ref="M300:O300"/>
-    <mergeCell ref="M301:O301"/>
-    <mergeCell ref="M302:O302"/>
-    <mergeCell ref="M303:O303"/>
-    <mergeCell ref="M304:O304"/>
-    <mergeCell ref="M305:O305"/>
-    <mergeCell ref="M306:O306"/>
-    <mergeCell ref="M289:O289"/>
-    <mergeCell ref="M290:O290"/>
-    <mergeCell ref="M291:O291"/>
-    <mergeCell ref="M292:O292"/>
-    <mergeCell ref="M293:O293"/>
-    <mergeCell ref="M294:O294"/>
-    <mergeCell ref="M344:O344"/>
-    <mergeCell ref="M345:O345"/>
-    <mergeCell ref="M316:O316"/>
-    <mergeCell ref="M319:O319"/>
-    <mergeCell ref="M320:O320"/>
-    <mergeCell ref="M321:O321"/>
-    <mergeCell ref="M324:O324"/>
-    <mergeCell ref="M325:O325"/>
-    <mergeCell ref="M326:O326"/>
-    <mergeCell ref="M329:O329"/>
-    <mergeCell ref="M330:O330"/>
-    <mergeCell ref="M347:O347"/>
-    <mergeCell ref="M348:O348"/>
-    <mergeCell ref="M346:O346"/>
-    <mergeCell ref="M312:O312"/>
-    <mergeCell ref="M313:O313"/>
-    <mergeCell ref="M317:O317"/>
-    <mergeCell ref="M318:O318"/>
-    <mergeCell ref="M322:O322"/>
-    <mergeCell ref="M323:O323"/>
-    <mergeCell ref="M327:O327"/>
-    <mergeCell ref="M328:O328"/>
-    <mergeCell ref="M332:O332"/>
-    <mergeCell ref="M333:O333"/>
-    <mergeCell ref="M337:O337"/>
-    <mergeCell ref="M338:O338"/>
-    <mergeCell ref="M342:O342"/>
-    <mergeCell ref="M343:O343"/>
-    <mergeCell ref="M331:O331"/>
-    <mergeCell ref="M334:O334"/>
-    <mergeCell ref="M335:O335"/>
-    <mergeCell ref="M336:O336"/>
-    <mergeCell ref="M339:O339"/>
-    <mergeCell ref="M340:O340"/>
-    <mergeCell ref="M341:O341"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G41" r:id="rId1" xr:uid="{28F9BDB3-7E69-4EA9-B145-1143B2C8E8EB}"/>
@@ -22784,9 +22784,21 @@
     <hyperlink ref="B257" r:id="rId305" xr:uid="{BDB9C184-85EB-47EA-A928-533244511A52}"/>
     <hyperlink ref="B258" r:id="rId306" xr:uid="{B4CFFF2B-531C-43EB-94C7-9D27EADBE94F}"/>
     <hyperlink ref="B259" r:id="rId307" xr:uid="{4F1DBB4E-7500-4B57-B791-845FA6087B12}"/>
+    <hyperlink ref="B260" r:id="rId308" xr:uid="{C3EB4F83-C4F5-4332-9D2D-D68085D8BA2F}"/>
+    <hyperlink ref="B261" r:id="rId309" xr:uid="{5371947E-ECFA-404E-A3AB-8F61EC9AD0E8}"/>
+    <hyperlink ref="B262" r:id="rId310" xr:uid="{A2C7BB7E-E5CF-49B5-BF98-BD0613016165}"/>
+    <hyperlink ref="B263" r:id="rId311" xr:uid="{F9781BDE-F3C7-4AB4-8554-91BCCE42C6DF}"/>
+    <hyperlink ref="B264" r:id="rId312" xr:uid="{F4085AE3-366B-4AAC-9603-3E9A2A74312A}"/>
+    <hyperlink ref="B265" r:id="rId313" xr:uid="{BE56BFB4-C422-4787-8E5E-2423B3C8D98C}"/>
+    <hyperlink ref="B266" r:id="rId314" xr:uid="{05BE2729-96A8-4D04-A1E9-FED29FE5FFD9}"/>
+    <hyperlink ref="B267" r:id="rId315" xr:uid="{D808E782-84BC-41FA-B7A3-0A602EFF1F20}"/>
+    <hyperlink ref="B268" r:id="rId316" xr:uid="{860D59F3-59AA-4788-A037-93218E836168}"/>
+    <hyperlink ref="B269" r:id="rId317" xr:uid="{1CB03279-09F2-4B64-96C4-CF266C0B2EB1}"/>
+    <hyperlink ref="B270" r:id="rId318" xr:uid="{27BB42F0-8FB0-4FC8-811D-B698A1B95B75}"/>
+    <hyperlink ref="B271" r:id="rId319" xr:uid="{9504632E-299D-4225-B1FC-7E3DAAEC286D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId308"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId320"/>
 </worksheet>
 </file>
 

--- a/The_.STL_Files/Excel_Spreadsheet_.stl_files/QUEEN_Printed_Part_Reference.xlsx
+++ b/The_.STL_Files/Excel_Spreadsheet_.stl_files/QUEEN_Printed_Part_Reference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repo3\Voron2.4_My_Build_Log\The_.STL_Files\Excel_Spreadsheet_.stl_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D2143C-D1CB-40F1-8151-EE388AD3A65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EF1E36-7D3F-407F-96B3-A1A68C583EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="330" windowWidth="23760" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6675" yWindow="330" windowWidth="21135" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V2.4 QUEEN .STL List" sheetId="3" r:id="rId1"/>
@@ -3088,10 +3088,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3100,22 +3096,25 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -3126,11 +3125,19 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3138,15 +3145,30 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3166,48 +3188,26 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3534,11 +3534,11 @@
   <dimension ref="A1:Z436"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7320" ySplit="2400" topLeftCell="A248" activePane="bottomRight"/>
+      <pane xSplit="7320" ySplit="2400" topLeftCell="A290" activePane="bottomRight"/>
       <selection activeCell="U98" sqref="U98"/>
       <selection pane="topRight" activeCell="U1" sqref="U1"/>
       <selection pane="bottomLeft" activeCell="M246" sqref="M246:O246"/>
-      <selection pane="bottomRight" activeCell="B271" sqref="B271"/>
+      <selection pane="bottomRight" activeCell="B312" sqref="B312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3695,17 +3695,17 @@
       <c r="B5" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="106" t="s">
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="101" t="s">
         <v>171</v>
       </c>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
       <c r="L5" s="11" t="s">
         <v>165</v>
       </c>
@@ -3778,7 +3778,7 @@
       <c r="Q6" s="23">
         <v>0</v>
       </c>
-      <c r="R6" s="109" t="s">
+      <c r="R6" s="88" t="s">
         <v>79</v>
       </c>
       <c r="S6" s="9"/>
@@ -3826,7 +3826,7 @@
       <c r="Q7" s="23">
         <v>0</v>
       </c>
-      <c r="R7" s="110"/>
+      <c r="R7" s="89"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="24" t="s">
@@ -3872,7 +3872,7 @@
       <c r="Q8" s="23">
         <v>0</v>
       </c>
-      <c r="R8" s="110"/>
+      <c r="R8" s="89"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
       <c r="U8" s="24" t="s">
@@ -3918,7 +3918,7 @@
       <c r="Q9" s="23">
         <v>0</v>
       </c>
-      <c r="R9" s="110"/>
+      <c r="R9" s="89"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="24" t="s">
@@ -3964,7 +3964,7 @@
       <c r="Q10" s="23">
         <v>0</v>
       </c>
-      <c r="R10" s="110"/>
+      <c r="R10" s="89"/>
       <c r="S10" s="9"/>
       <c r="T10" s="28" t="s">
         <v>163</v>
@@ -4012,7 +4012,7 @@
       <c r="Q11" s="22">
         <v>1</v>
       </c>
-      <c r="R11" s="111"/>
+      <c r="R11" s="90"/>
       <c r="S11" s="9"/>
       <c r="T11" s="28" t="s">
         <v>163</v>
@@ -4697,23 +4697,23 @@
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="93" t="s">
+      <c r="G26" s="94" t="s">
         <v>183</v>
       </c>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="95" t="s">
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="M26" s="96" t="s">
+      <c r="M26" s="99" t="s">
         <v>182</v>
       </c>
       <c r="N26" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="O26" s="85" t="s">
+      <c r="O26" s="84" t="s">
         <v>287</v>
       </c>
       <c r="P26" s="22" t="s">
@@ -4747,17 +4747,17 @@
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="96"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="99"/>
       <c r="N27" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="O27" s="85"/>
+      <c r="O27" s="84"/>
       <c r="P27" s="22" t="s">
         <v>1</v>
       </c>
@@ -5727,23 +5727,23 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="93" t="s">
+      <c r="G47" s="94" t="s">
         <v>179</v>
       </c>
-      <c r="H47" s="112"/>
-      <c r="I47" s="112"/>
-      <c r="J47" s="112"/>
-      <c r="K47" s="112"/>
-      <c r="L47" s="95" t="s">
+      <c r="H47" s="95"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="M47" s="96" t="s">
+      <c r="M47" s="99" t="s">
         <v>191</v>
       </c>
       <c r="N47" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="O47" s="85" t="s">
+      <c r="O47" s="84" t="s">
         <v>348</v>
       </c>
       <c r="P47" s="22" t="s">
@@ -5767,7 +5767,7 @@
       <c r="Z47" s="9"/>
     </row>
     <row r="48" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="104"/>
+      <c r="A48" s="93"/>
       <c r="B48" s="15" t="s">
         <v>23</v>
       </c>
@@ -5777,13 +5777,13 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="112"/>
-      <c r="I48" s="112"/>
-      <c r="J48" s="112"/>
-      <c r="K48" s="112"/>
-      <c r="L48" s="97"/>
-      <c r="M48" s="98"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="95"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="95"/>
+      <c r="K48" s="95"/>
+      <c r="L48" s="98"/>
+      <c r="M48" s="100"/>
       <c r="N48" s="22" t="s">
         <v>91</v>
       </c>
@@ -5821,23 +5821,23 @@
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="93" t="s">
+      <c r="G49" s="94" t="s">
         <v>179</v>
       </c>
-      <c r="H49" s="112"/>
-      <c r="I49" s="112"/>
-      <c r="J49" s="112"/>
-      <c r="K49" s="112"/>
-      <c r="L49" s="95" t="s">
+      <c r="H49" s="95"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="95"/>
+      <c r="K49" s="95"/>
+      <c r="L49" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="M49" s="96" t="s">
+      <c r="M49" s="99" t="s">
         <v>191</v>
       </c>
       <c r="N49" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="O49" s="85" t="s">
+      <c r="O49" s="84" t="s">
         <v>347</v>
       </c>
       <c r="P49" s="22" t="s">
@@ -5861,7 +5861,7 @@
       <c r="Z49" s="9"/>
     </row>
     <row r="50" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="104"/>
+      <c r="A50" s="93"/>
       <c r="B50" s="15" t="s">
         <v>23</v>
       </c>
@@ -5871,13 +5871,13 @@
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="113"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="112"/>
-      <c r="J50" s="112"/>
-      <c r="K50" s="112"/>
-      <c r="L50" s="97"/>
-      <c r="M50" s="98"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="95"/>
+      <c r="L50" s="98"/>
+      <c r="M50" s="100"/>
       <c r="N50" s="22" t="s">
         <v>93</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>199</v>
       </c>
       <c r="S53" s="9"/>
-      <c r="T53" s="105" t="s">
+      <c r="T53" s="87" t="s">
         <v>35</v>
       </c>
       <c r="U53" s="24"/>
@@ -6090,7 +6090,7 @@
         <v>166</v>
       </c>
       <c r="S54" s="9"/>
-      <c r="T54" s="108"/>
+      <c r="T54" s="86"/>
       <c r="U54" s="24" t="s">
         <v>535</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>2</v>
       </c>
       <c r="S55" s="9"/>
-      <c r="T55" s="105" t="s">
+      <c r="T55" s="87" t="s">
         <v>37</v>
       </c>
       <c r="U55" s="24"/>
@@ -6190,7 +6190,7 @@
         <v>2</v>
       </c>
       <c r="S56" s="9"/>
-      <c r="T56" s="108"/>
+      <c r="T56" s="86"/>
       <c r="U56" s="24" t="s">
         <v>535</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>2</v>
       </c>
       <c r="S65" s="9"/>
-      <c r="T65" s="105" t="s">
+      <c r="T65" s="87" t="s">
         <v>37</v>
       </c>
       <c r="U65" s="24"/>
@@ -6726,7 +6726,7 @@
         <v>166</v>
       </c>
       <c r="S66" s="9"/>
-      <c r="T66" s="108"/>
+      <c r="T66" s="86"/>
       <c r="U66" s="24" t="s">
         <v>536</v>
       </c>
@@ -7174,7 +7174,7 @@
       <c r="Q75" s="23">
         <v>0</v>
       </c>
-      <c r="R75" s="99" t="s">
+      <c r="R75" s="105" t="s">
         <v>215</v>
       </c>
       <c r="S75" s="9"/>
@@ -7228,7 +7228,7 @@
       <c r="Q76" s="23">
         <v>0</v>
       </c>
-      <c r="R76" s="100"/>
+      <c r="R76" s="106"/>
       <c r="S76" s="9"/>
       <c r="T76" s="9"/>
       <c r="U76" s="24" t="s">
@@ -7284,7 +7284,7 @@
       <c r="Q77" s="22">
         <v>1</v>
       </c>
-      <c r="R77" s="100"/>
+      <c r="R77" s="106"/>
       <c r="S77" s="9"/>
       <c r="T77" s="9"/>
       <c r="U77" s="24" t="s">
@@ -7340,7 +7340,7 @@
       <c r="Q78" s="22">
         <v>1</v>
       </c>
-      <c r="R78" s="101"/>
+      <c r="R78" s="107"/>
       <c r="S78" s="9"/>
       <c r="T78" s="9"/>
       <c r="U78" s="24" t="s">
@@ -7395,8 +7395,8 @@
       <c r="R79" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="S79" s="114"/>
-      <c r="T79" s="105" t="s">
+      <c r="S79" s="85"/>
+      <c r="T79" s="87" t="s">
         <v>7</v>
       </c>
       <c r="U79" s="24" t="s">
@@ -7451,8 +7451,8 @@
       <c r="R80" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="S80" s="108"/>
-      <c r="T80" s="108"/>
+      <c r="S80" s="86"/>
+      <c r="T80" s="86"/>
       <c r="U80" s="24" t="s">
         <v>539</v>
       </c>
@@ -7531,23 +7531,23 @@
       </c>
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
-      <c r="G82" s="93" t="s">
+      <c r="G82" s="94" t="s">
         <v>216</v>
       </c>
-      <c r="H82" s="112"/>
-      <c r="I82" s="112"/>
-      <c r="J82" s="112"/>
-      <c r="K82" s="112"/>
-      <c r="L82" s="95" t="s">
+      <c r="H82" s="95"/>
+      <c r="I82" s="95"/>
+      <c r="J82" s="95"/>
+      <c r="K82" s="95"/>
+      <c r="L82" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="M82" s="96" t="s">
+      <c r="M82" s="99" t="s">
         <v>214</v>
       </c>
       <c r="N82" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="O82" s="85" t="s">
+      <c r="O82" s="84" t="s">
         <v>379</v>
       </c>
       <c r="P82" s="103" t="s">
@@ -7556,7 +7556,7 @@
       <c r="Q82" s="22">
         <v>1</v>
       </c>
-      <c r="R82" s="85" t="s">
+      <c r="R82" s="84" t="s">
         <v>166</v>
       </c>
       <c r="S82" s="9"/>
@@ -7571,7 +7571,7 @@
       <c r="Z82" s="9"/>
     </row>
     <row r="83" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="104"/>
+      <c r="A83" s="93"/>
       <c r="B83" s="15" t="s">
         <v>23</v>
       </c>
@@ -7583,13 +7583,13 @@
       </c>
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
-      <c r="G83" s="113"/>
-      <c r="H83" s="112"/>
-      <c r="I83" s="112"/>
-      <c r="J83" s="112"/>
-      <c r="K83" s="112"/>
-      <c r="L83" s="97"/>
-      <c r="M83" s="98"/>
+      <c r="G83" s="96"/>
+      <c r="H83" s="95"/>
+      <c r="I83" s="95"/>
+      <c r="J83" s="95"/>
+      <c r="K83" s="95"/>
+      <c r="L83" s="98"/>
+      <c r="M83" s="100"/>
       <c r="N83" s="22" t="s">
         <v>52</v>
       </c>
@@ -7973,7 +7973,7 @@
       <c r="Z90" s="9"/>
     </row>
     <row r="91" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="104" t="s">
+      <c r="A91" s="93" t="s">
         <v>224</v>
       </c>
       <c r="B91" s="15" t="s">
@@ -7985,29 +7985,29 @@
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
-      <c r="G91" s="93" t="s">
+      <c r="G91" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="H91" s="94"/>
-      <c r="I91" s="94"/>
-      <c r="J91" s="94"/>
-      <c r="K91" s="94"/>
-      <c r="L91" s="95" t="s">
+      <c r="H91" s="104"/>
+      <c r="I91" s="104"/>
+      <c r="J91" s="104"/>
+      <c r="K91" s="104"/>
+      <c r="L91" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="M91" s="96" t="s">
+      <c r="M91" s="99" t="s">
         <v>224</v>
       </c>
       <c r="N91" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="O91" s="85" t="s">
+      <c r="O91" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="P91" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q91" s="102">
+      <c r="P91" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="108">
         <v>6</v>
       </c>
       <c r="R91" s="28" t="s">
@@ -8025,7 +8025,7 @@
       <c r="Z91" s="9"/>
     </row>
     <row r="92" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="104"/>
+      <c r="A92" s="93"/>
       <c r="B92" s="15" t="s">
         <v>23</v>
       </c>
@@ -8035,19 +8035,19 @@
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
-      <c r="G92" s="93"/>
-      <c r="H92" s="94"/>
-      <c r="I92" s="94"/>
-      <c r="J92" s="94"/>
-      <c r="K92" s="94"/>
-      <c r="L92" s="97"/>
-      <c r="M92" s="96"/>
+      <c r="G92" s="94"/>
+      <c r="H92" s="104"/>
+      <c r="I92" s="104"/>
+      <c r="J92" s="104"/>
+      <c r="K92" s="104"/>
+      <c r="L92" s="98"/>
+      <c r="M92" s="99"/>
       <c r="N92" s="22" t="s">
         <v>110</v>
       </c>
       <c r="O92" s="103"/>
-      <c r="P92" s="105"/>
-      <c r="Q92" s="102"/>
+      <c r="P92" s="87"/>
+      <c r="Q92" s="108"/>
       <c r="R92" s="28" t="s">
         <v>383</v>
       </c>
@@ -8065,7 +8065,7 @@
       <c r="Z92" s="9"/>
     </row>
     <row r="93" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="104"/>
+      <c r="A93" s="93"/>
       <c r="B93" s="15" t="s">
         <v>23</v>
       </c>
@@ -8075,19 +8075,19 @@
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
-      <c r="G93" s="93"/>
-      <c r="H93" s="94"/>
-      <c r="I93" s="94"/>
-      <c r="J93" s="94"/>
-      <c r="K93" s="94"/>
-      <c r="L93" s="97"/>
-      <c r="M93" s="96"/>
+      <c r="G93" s="94"/>
+      <c r="H93" s="104"/>
+      <c r="I93" s="104"/>
+      <c r="J93" s="104"/>
+      <c r="K93" s="104"/>
+      <c r="L93" s="98"/>
+      <c r="M93" s="99"/>
       <c r="N93" s="22" t="s">
         <v>112</v>
       </c>
       <c r="O93" s="103"/>
-      <c r="P93" s="105"/>
-      <c r="Q93" s="102"/>
+      <c r="P93" s="87"/>
+      <c r="Q93" s="108"/>
       <c r="R93" s="28" t="s">
         <v>166</v>
       </c>
@@ -9459,7 +9459,7 @@
       <c r="R120" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S120" s="109" t="s">
+      <c r="S120" s="88" t="s">
         <v>128</v>
       </c>
       <c r="T120" s="28" t="s">
@@ -9515,7 +9515,7 @@
       <c r="R121" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S121" s="110"/>
+      <c r="S121" s="89"/>
       <c r="T121" s="54" t="s">
         <v>268</v>
       </c>
@@ -9569,7 +9569,7 @@
       <c r="R122" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S122" s="110"/>
+      <c r="S122" s="89"/>
       <c r="T122" s="54" t="s">
         <v>273</v>
       </c>
@@ -9623,7 +9623,7 @@
       <c r="R123" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S123" s="110"/>
+      <c r="S123" s="89"/>
       <c r="T123" s="54" t="s">
         <v>274</v>
       </c>
@@ -9671,7 +9671,7 @@
       <c r="R124" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S124" s="110"/>
+      <c r="S124" s="89"/>
       <c r="T124" s="9" t="s">
         <v>269</v>
       </c>
@@ -9719,7 +9719,7 @@
       <c r="R125" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S125" s="110"/>
+      <c r="S125" s="89"/>
       <c r="T125" s="9" t="s">
         <v>270</v>
       </c>
@@ -9767,7 +9767,7 @@
       <c r="R126" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S126" s="110"/>
+      <c r="S126" s="89"/>
       <c r="T126" s="54" t="s">
         <v>275</v>
       </c>
@@ -9815,7 +9815,7 @@
       <c r="R127" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S127" s="110"/>
+      <c r="S127" s="89"/>
       <c r="T127" s="54"/>
       <c r="U127" s="28" t="s">
         <v>560</v>
@@ -9861,7 +9861,7 @@
       <c r="R128" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S128" s="110"/>
+      <c r="S128" s="89"/>
       <c r="T128" s="54"/>
       <c r="U128" s="28" t="s">
         <v>560</v>
@@ -9907,7 +9907,7 @@
       <c r="R129" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S129" s="110"/>
+      <c r="S129" s="89"/>
       <c r="T129" s="54"/>
       <c r="U129" s="28" t="s">
         <v>560</v>
@@ -9953,7 +9953,7 @@
       <c r="R130" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S130" s="110"/>
+      <c r="S130" s="89"/>
       <c r="T130" s="54"/>
       <c r="U130" s="28" t="s">
         <v>560</v>
@@ -9999,7 +9999,7 @@
       <c r="R131" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S131" s="110"/>
+      <c r="S131" s="89"/>
       <c r="T131" s="54"/>
       <c r="U131" s="28" t="s">
         <v>560</v>
@@ -10045,7 +10045,7 @@
       <c r="R132" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S132" s="110"/>
+      <c r="S132" s="89"/>
       <c r="T132" s="54" t="s">
         <v>276</v>
       </c>
@@ -10093,7 +10093,7 @@
       <c r="R133" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S133" s="110"/>
+      <c r="S133" s="89"/>
       <c r="T133" s="54" t="s">
         <v>277</v>
       </c>
@@ -10141,7 +10141,7 @@
       <c r="R134" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S134" s="110"/>
+      <c r="S134" s="89"/>
       <c r="T134" s="54" t="s">
         <v>278</v>
       </c>
@@ -10189,7 +10189,7 @@
       <c r="R135" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S135" s="110"/>
+      <c r="S135" s="89"/>
       <c r="T135" s="54"/>
       <c r="U135" s="54" t="s">
         <v>563</v>
@@ -10235,7 +10235,7 @@
       <c r="R136" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S136" s="110"/>
+      <c r="S136" s="89"/>
       <c r="T136" s="54" t="s">
         <v>271</v>
       </c>
@@ -10283,7 +10283,7 @@
       <c r="R137" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S137" s="110"/>
+      <c r="S137" s="89"/>
       <c r="T137" s="54" t="s">
         <v>272</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>0</v>
       </c>
       <c r="R138" s="9"/>
-      <c r="S138" s="110"/>
+      <c r="S138" s="89"/>
       <c r="T138" s="54"/>
       <c r="U138" s="24" t="s">
         <v>566</v>
@@ -10377,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="R139" s="9"/>
-      <c r="S139" s="110"/>
+      <c r="S139" s="89"/>
       <c r="T139" s="54"/>
       <c r="U139" s="24" t="s">
         <v>567</v>
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="R140" s="9"/>
-      <c r="S140" s="110"/>
+      <c r="S140" s="89"/>
       <c r="T140" s="54"/>
       <c r="U140" s="24" t="s">
         <v>568</v>
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="R141" s="9"/>
-      <c r="S141" s="110"/>
+      <c r="S141" s="89"/>
       <c r="T141" s="54"/>
       <c r="U141" s="24" t="s">
         <v>569</v>
@@ -10515,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="R142" s="9"/>
-      <c r="S142" s="110"/>
+      <c r="S142" s="89"/>
       <c r="T142" s="54"/>
       <c r="U142" s="24" t="s">
         <v>570</v>
@@ -10561,7 +10561,7 @@
         <v>0</v>
       </c>
       <c r="R143" s="9"/>
-      <c r="S143" s="110"/>
+      <c r="S143" s="89"/>
       <c r="T143" s="54"/>
       <c r="U143" s="24" t="s">
         <v>571</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R144" s="9"/>
-      <c r="S144" s="110"/>
+      <c r="S144" s="89"/>
       <c r="T144" s="9"/>
       <c r="U144" s="24" t="s">
         <v>572</v>
@@ -10653,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="R145" s="9"/>
-      <c r="S145" s="111"/>
+      <c r="S145" s="90"/>
       <c r="T145" s="9"/>
       <c r="U145" s="24" t="s">
         <v>573</v>
@@ -12094,25 +12094,25 @@
       <c r="A178" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="B178" s="106" t="s">
+      <c r="B178" s="101" t="s">
         <v>171</v>
       </c>
-      <c r="C178" s="106"/>
-      <c r="D178" s="106"/>
-      <c r="E178" s="106"/>
-      <c r="F178" s="106"/>
-      <c r="G178" s="106"/>
-      <c r="H178" s="106"/>
-      <c r="I178" s="106"/>
-      <c r="J178" s="106"/>
-      <c r="K178" s="106"/>
-      <c r="L178" s="106"/>
+      <c r="C178" s="101"/>
+      <c r="D178" s="101"/>
+      <c r="E178" s="101"/>
+      <c r="F178" s="101"/>
+      <c r="G178" s="101"/>
+      <c r="H178" s="101"/>
+      <c r="I178" s="101"/>
+      <c r="J178" s="101"/>
+      <c r="K178" s="101"/>
+      <c r="L178" s="101"/>
       <c r="M178" s="91" t="s">
         <v>328</v>
       </c>
       <c r="N178" s="91"/>
       <c r="O178" s="91"/>
-      <c r="P178" s="90" t="s">
+      <c r="P178" s="109" t="s">
         <v>0</v>
       </c>
       <c r="Q178" s="91" t="s">
@@ -12134,21 +12134,21 @@
       <c r="A179" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="B179" s="106"/>
-      <c r="C179" s="106"/>
-      <c r="D179" s="106"/>
-      <c r="E179" s="106"/>
-      <c r="F179" s="106"/>
-      <c r="G179" s="106"/>
-      <c r="H179" s="106"/>
-      <c r="I179" s="106"/>
-      <c r="J179" s="106"/>
-      <c r="K179" s="106"/>
-      <c r="L179" s="106"/>
+      <c r="B179" s="101"/>
+      <c r="C179" s="101"/>
+      <c r="D179" s="101"/>
+      <c r="E179" s="101"/>
+      <c r="F179" s="101"/>
+      <c r="G179" s="101"/>
+      <c r="H179" s="101"/>
+      <c r="I179" s="101"/>
+      <c r="J179" s="101"/>
+      <c r="K179" s="101"/>
+      <c r="L179" s="101"/>
       <c r="M179" s="91"/>
       <c r="N179" s="91"/>
       <c r="O179" s="91"/>
-      <c r="P179" s="90"/>
+      <c r="P179" s="109"/>
       <c r="Q179" s="91"/>
       <c r="R179" s="91"/>
       <c r="S179" s="91"/>
@@ -12179,11 +12179,11 @@
       <c r="J180" s="19"/>
       <c r="K180" s="19"/>
       <c r="L180" s="19"/>
-      <c r="M180" s="85" t="s">
+      <c r="M180" s="84" t="s">
         <v>408</v>
       </c>
-      <c r="N180" s="85"/>
-      <c r="O180" s="85"/>
+      <c r="N180" s="84"/>
+      <c r="O180" s="84"/>
       <c r="P180" s="22" t="s">
         <v>1</v>
       </c>
@@ -12219,11 +12219,11 @@
       <c r="J181" s="19"/>
       <c r="K181" s="19"/>
       <c r="L181" s="19"/>
-      <c r="M181" s="85" t="s">
+      <c r="M181" s="84" t="s">
         <v>407</v>
       </c>
-      <c r="N181" s="85"/>
-      <c r="O181" s="85"/>
+      <c r="N181" s="84"/>
+      <c r="O181" s="84"/>
       <c r="P181" s="22" t="s">
         <v>1</v>
       </c>
@@ -12259,11 +12259,11 @@
       <c r="J182" s="19"/>
       <c r="K182" s="19"/>
       <c r="L182" s="19"/>
-      <c r="M182" s="85" t="s">
+      <c r="M182" s="84" t="s">
         <v>406</v>
       </c>
-      <c r="N182" s="85"/>
-      <c r="O182" s="85"/>
+      <c r="N182" s="84"/>
+      <c r="O182" s="84"/>
       <c r="P182" s="22" t="s">
         <v>1</v>
       </c>
@@ -12299,11 +12299,11 @@
       <c r="J183" s="19"/>
       <c r="K183" s="19"/>
       <c r="L183" s="19"/>
-      <c r="M183" s="85" t="s">
+      <c r="M183" s="84" t="s">
         <v>405</v>
       </c>
-      <c r="N183" s="85"/>
-      <c r="O183" s="85"/>
+      <c r="N183" s="84"/>
+      <c r="O183" s="84"/>
       <c r="P183" s="22" t="s">
         <v>1</v>
       </c>
@@ -12339,11 +12339,11 @@
       <c r="J184" s="19"/>
       <c r="K184" s="19"/>
       <c r="L184" s="19"/>
-      <c r="M184" s="85" t="s">
+      <c r="M184" s="84" t="s">
         <v>403</v>
       </c>
-      <c r="N184" s="85"/>
-      <c r="O184" s="85"/>
+      <c r="N184" s="84"/>
+      <c r="O184" s="84"/>
       <c r="P184" s="22" t="s">
         <v>1</v>
       </c>
@@ -12379,11 +12379,11 @@
       <c r="J185" s="19"/>
       <c r="K185" s="19"/>
       <c r="L185" s="19"/>
-      <c r="M185" s="85" t="s">
+      <c r="M185" s="84" t="s">
         <v>404</v>
       </c>
-      <c r="N185" s="85"/>
-      <c r="O185" s="85"/>
+      <c r="N185" s="84"/>
+      <c r="O185" s="84"/>
       <c r="P185" s="22" t="s">
         <v>1</v>
       </c>
@@ -12419,11 +12419,11 @@
       <c r="J186" s="19"/>
       <c r="K186" s="19"/>
       <c r="L186" s="19"/>
-      <c r="M186" s="85" t="s">
+      <c r="M186" s="84" t="s">
         <v>409</v>
       </c>
-      <c r="N186" s="85"/>
-      <c r="O186" s="85"/>
+      <c r="N186" s="84"/>
+      <c r="O186" s="84"/>
       <c r="P186" s="28" t="s">
         <v>176</v>
       </c>
@@ -12459,11 +12459,11 @@
       <c r="J187" s="19"/>
       <c r="K187" s="19"/>
       <c r="L187" s="19"/>
-      <c r="M187" s="85" t="s">
+      <c r="M187" s="84" t="s">
         <v>410</v>
       </c>
-      <c r="N187" s="85"/>
-      <c r="O187" s="85"/>
+      <c r="N187" s="84"/>
+      <c r="O187" s="84"/>
       <c r="P187" s="22" t="s">
         <v>1</v>
       </c>
@@ -12499,11 +12499,11 @@
       <c r="J188" s="19"/>
       <c r="K188" s="19"/>
       <c r="L188" s="19"/>
-      <c r="M188" s="85" t="s">
+      <c r="M188" s="84" t="s">
         <v>411</v>
       </c>
-      <c r="N188" s="85"/>
-      <c r="O188" s="85"/>
+      <c r="N188" s="84"/>
+      <c r="O188" s="84"/>
       <c r="P188" s="22" t="s">
         <v>1</v>
       </c>
@@ -12539,11 +12539,11 @@
       <c r="J189" s="19"/>
       <c r="K189" s="19"/>
       <c r="L189" s="19"/>
-      <c r="M189" s="85" t="s">
+      <c r="M189" s="84" t="s">
         <v>377</v>
       </c>
-      <c r="N189" s="85"/>
-      <c r="O189" s="85"/>
+      <c r="N189" s="84"/>
+      <c r="O189" s="84"/>
       <c r="P189" s="22" t="s">
         <v>1</v>
       </c>
@@ -12581,11 +12581,11 @@
       <c r="J190" s="19"/>
       <c r="K190" s="19"/>
       <c r="L190" s="19"/>
-      <c r="M190" s="85" t="s">
+      <c r="M190" s="84" t="s">
         <v>378</v>
       </c>
-      <c r="N190" s="85"/>
-      <c r="O190" s="85"/>
+      <c r="N190" s="84"/>
+      <c r="O190" s="84"/>
       <c r="P190" s="22" t="s">
         <v>1</v>
       </c>
@@ -12623,11 +12623,11 @@
       <c r="J191" s="19"/>
       <c r="K191" s="19"/>
       <c r="L191" s="19"/>
-      <c r="M191" s="85" t="s">
+      <c r="M191" s="84" t="s">
         <v>414</v>
       </c>
-      <c r="N191" s="85"/>
-      <c r="O191" s="85"/>
+      <c r="N191" s="84"/>
+      <c r="O191" s="84"/>
       <c r="P191" s="28" t="s">
         <v>176</v>
       </c>
@@ -12663,11 +12663,11 @@
       <c r="J192" s="19"/>
       <c r="K192" s="19"/>
       <c r="L192" s="19"/>
-      <c r="M192" s="85" t="s">
+      <c r="M192" s="84" t="s">
         <v>415</v>
       </c>
-      <c r="N192" s="85"/>
-      <c r="O192" s="85"/>
+      <c r="N192" s="84"/>
+      <c r="O192" s="84"/>
       <c r="P192" s="28" t="s">
         <v>176</v>
       </c>
@@ -12703,11 +12703,11 @@
       <c r="J193" s="19"/>
       <c r="K193" s="19"/>
       <c r="L193" s="19"/>
-      <c r="M193" s="85" t="s">
+      <c r="M193" s="84" t="s">
         <v>417</v>
       </c>
-      <c r="N193" s="85"/>
-      <c r="O193" s="85"/>
+      <c r="N193" s="84"/>
+      <c r="O193" s="84"/>
       <c r="P193" s="22" t="s">
         <v>1</v>
       </c>
@@ -12743,11 +12743,11 @@
       <c r="J194" s="19"/>
       <c r="K194" s="19"/>
       <c r="L194" s="19"/>
-      <c r="M194" s="85" t="s">
+      <c r="M194" s="84" t="s">
         <v>418</v>
       </c>
-      <c r="N194" s="85"/>
-      <c r="O194" s="85"/>
+      <c r="N194" s="84"/>
+      <c r="O194" s="84"/>
       <c r="P194" s="22" t="s">
         <v>1</v>
       </c>
@@ -12783,11 +12783,11 @@
       <c r="J195" s="19"/>
       <c r="K195" s="19"/>
       <c r="L195" s="19"/>
-      <c r="M195" s="85" t="s">
+      <c r="M195" s="84" t="s">
         <v>419</v>
       </c>
-      <c r="N195" s="85"/>
-      <c r="O195" s="85"/>
+      <c r="N195" s="84"/>
+      <c r="O195" s="84"/>
       <c r="P195" s="22" t="s">
         <v>1</v>
       </c>
@@ -12823,11 +12823,11 @@
       <c r="J196" s="19"/>
       <c r="K196" s="19"/>
       <c r="L196" s="19"/>
-      <c r="M196" s="84" t="s">
+      <c r="M196" s="83" t="s">
         <v>420</v>
       </c>
-      <c r="N196" s="84"/>
-      <c r="O196" s="84"/>
+      <c r="N196" s="83"/>
+      <c r="O196" s="83"/>
       <c r="P196" s="22" t="s">
         <v>1</v>
       </c>
@@ -12863,11 +12863,11 @@
       <c r="J197" s="19"/>
       <c r="K197" s="19"/>
       <c r="L197" s="19"/>
-      <c r="M197" s="84" t="s">
+      <c r="M197" s="83" t="s">
         <v>421</v>
       </c>
-      <c r="N197" s="84"/>
-      <c r="O197" s="84"/>
+      <c r="N197" s="83"/>
+      <c r="O197" s="83"/>
       <c r="P197" s="28" t="s">
         <v>187</v>
       </c>
@@ -12903,11 +12903,11 @@
       <c r="J198" s="19"/>
       <c r="K198" s="19"/>
       <c r="L198" s="19"/>
-      <c r="M198" s="84" t="s">
+      <c r="M198" s="83" t="s">
         <v>423</v>
       </c>
-      <c r="N198" s="84"/>
-      <c r="O198" s="84"/>
+      <c r="N198" s="83"/>
+      <c r="O198" s="83"/>
       <c r="P198" s="28" t="s">
         <v>187</v>
       </c>
@@ -12943,11 +12943,11 @@
       <c r="J199" s="19"/>
       <c r="K199" s="19"/>
       <c r="L199" s="19"/>
-      <c r="M199" s="84" t="s">
+      <c r="M199" s="83" t="s">
         <v>424</v>
       </c>
-      <c r="N199" s="84"/>
-      <c r="O199" s="84"/>
+      <c r="N199" s="83"/>
+      <c r="O199" s="83"/>
       <c r="P199" s="22" t="s">
         <v>1</v>
       </c>
@@ -12983,11 +12983,11 @@
       <c r="J200" s="19"/>
       <c r="K200" s="19"/>
       <c r="L200" s="19"/>
-      <c r="M200" s="84" t="s">
+      <c r="M200" s="83" t="s">
         <v>425</v>
       </c>
-      <c r="N200" s="84"/>
-      <c r="O200" s="84"/>
+      <c r="N200" s="83"/>
+      <c r="O200" s="83"/>
       <c r="P200" s="22" t="s">
         <v>1</v>
       </c>
@@ -13023,11 +13023,11 @@
       <c r="J201" s="19"/>
       <c r="K201" s="19"/>
       <c r="L201" s="19"/>
-      <c r="M201" s="85" t="s">
+      <c r="M201" s="84" t="s">
         <v>426</v>
       </c>
-      <c r="N201" s="85"/>
-      <c r="O201" s="85"/>
+      <c r="N201" s="84"/>
+      <c r="O201" s="84"/>
       <c r="P201" s="22" t="s">
         <v>1</v>
       </c>
@@ -13063,11 +13063,11 @@
       <c r="J202" s="19"/>
       <c r="K202" s="19"/>
       <c r="L202" s="19"/>
-      <c r="M202" s="85" t="s">
+      <c r="M202" s="84" t="s">
         <v>427</v>
       </c>
-      <c r="N202" s="85"/>
-      <c r="O202" s="85"/>
+      <c r="N202" s="84"/>
+      <c r="O202" s="84"/>
       <c r="P202" s="22" t="s">
         <v>1</v>
       </c>
@@ -13103,11 +13103,11 @@
       <c r="J203" s="19"/>
       <c r="K203" s="19"/>
       <c r="L203" s="19"/>
-      <c r="M203" s="85" t="s">
+      <c r="M203" s="84" t="s">
         <v>428</v>
       </c>
-      <c r="N203" s="85"/>
-      <c r="O203" s="85"/>
+      <c r="N203" s="84"/>
+      <c r="O203" s="84"/>
       <c r="P203" s="22" t="s">
         <v>1</v>
       </c>
@@ -13143,11 +13143,11 @@
       <c r="J204" s="19"/>
       <c r="K204" s="19"/>
       <c r="L204" s="19"/>
-      <c r="M204" s="85" t="s">
+      <c r="M204" s="84" t="s">
         <v>429</v>
       </c>
-      <c r="N204" s="85"/>
-      <c r="O204" s="85"/>
+      <c r="N204" s="84"/>
+      <c r="O204" s="84"/>
       <c r="P204" s="22" t="s">
         <v>1</v>
       </c>
@@ -13183,11 +13183,11 @@
       <c r="J205" s="19"/>
       <c r="K205" s="19"/>
       <c r="L205" s="19"/>
-      <c r="M205" s="85" t="s">
+      <c r="M205" s="84" t="s">
         <v>430</v>
       </c>
-      <c r="N205" s="85"/>
-      <c r="O205" s="85"/>
+      <c r="N205" s="84"/>
+      <c r="O205" s="84"/>
       <c r="P205" s="22" t="s">
         <v>1</v>
       </c>
@@ -13223,11 +13223,11 @@
       <c r="J206" s="19"/>
       <c r="K206" s="19"/>
       <c r="L206" s="19"/>
-      <c r="M206" s="85" t="s">
+      <c r="M206" s="84" t="s">
         <v>431</v>
       </c>
-      <c r="N206" s="85"/>
-      <c r="O206" s="85"/>
+      <c r="N206" s="84"/>
+      <c r="O206" s="84"/>
       <c r="P206" s="22" t="s">
         <v>1</v>
       </c>
@@ -13263,11 +13263,11 @@
       <c r="J207" s="19"/>
       <c r="K207" s="19"/>
       <c r="L207" s="19"/>
-      <c r="M207" s="85" t="s">
+      <c r="M207" s="84" t="s">
         <v>432</v>
       </c>
-      <c r="N207" s="85"/>
-      <c r="O207" s="85"/>
+      <c r="N207" s="84"/>
+      <c r="O207" s="84"/>
       <c r="P207" s="22" t="s">
         <v>1</v>
       </c>
@@ -13303,11 +13303,11 @@
       <c r="J208" s="19"/>
       <c r="K208" s="19"/>
       <c r="L208" s="19"/>
-      <c r="M208" s="85" t="s">
+      <c r="M208" s="84" t="s">
         <v>433</v>
       </c>
-      <c r="N208" s="85"/>
-      <c r="O208" s="85"/>
+      <c r="N208" s="84"/>
+      <c r="O208" s="84"/>
       <c r="P208" s="22" t="s">
         <v>1</v>
       </c>
@@ -13343,11 +13343,11 @@
       <c r="J209" s="19"/>
       <c r="K209" s="19"/>
       <c r="L209" s="19"/>
-      <c r="M209" s="85" t="s">
+      <c r="M209" s="84" t="s">
         <v>434</v>
       </c>
-      <c r="N209" s="85"/>
-      <c r="O209" s="85"/>
+      <c r="N209" s="84"/>
+      <c r="O209" s="84"/>
       <c r="P209" s="22" t="s">
         <v>1</v>
       </c>
@@ -13383,11 +13383,11 @@
       <c r="J210" s="19"/>
       <c r="K210" s="19"/>
       <c r="L210" s="19"/>
-      <c r="M210" s="85" t="s">
+      <c r="M210" s="84" t="s">
         <v>443</v>
       </c>
-      <c r="N210" s="85"/>
-      <c r="O210" s="85"/>
+      <c r="N210" s="84"/>
+      <c r="O210" s="84"/>
       <c r="P210" s="22" t="s">
         <v>1</v>
       </c>
@@ -13423,11 +13423,11 @@
       <c r="J211" s="19"/>
       <c r="K211" s="19"/>
       <c r="L211" s="19"/>
-      <c r="M211" s="85" t="s">
+      <c r="M211" s="84" t="s">
         <v>444</v>
       </c>
-      <c r="N211" s="85"/>
-      <c r="O211" s="85"/>
+      <c r="N211" s="84"/>
+      <c r="O211" s="84"/>
       <c r="P211" s="22" t="s">
         <v>1</v>
       </c>
@@ -13463,11 +13463,11 @@
       <c r="J212" s="19"/>
       <c r="K212" s="19"/>
       <c r="L212" s="19"/>
-      <c r="M212" s="85" t="s">
+      <c r="M212" s="84" t="s">
         <v>445</v>
       </c>
-      <c r="N212" s="85"/>
-      <c r="O212" s="85"/>
+      <c r="N212" s="84"/>
+      <c r="O212" s="84"/>
       <c r="P212" s="28" t="s">
         <v>176</v>
       </c>
@@ -13503,11 +13503,11 @@
       <c r="J213" s="19"/>
       <c r="K213" s="19"/>
       <c r="L213" s="19"/>
-      <c r="M213" s="85" t="s">
+      <c r="M213" s="84" t="s">
         <v>446</v>
       </c>
-      <c r="N213" s="85"/>
-      <c r="O213" s="85"/>
+      <c r="N213" s="84"/>
+      <c r="O213" s="84"/>
       <c r="P213" s="28" t="s">
         <v>176</v>
       </c>
@@ -13543,11 +13543,11 @@
       <c r="J214" s="19"/>
       <c r="K214" s="19"/>
       <c r="L214" s="19"/>
-      <c r="M214" s="85" t="s">
+      <c r="M214" s="84" t="s">
         <v>439</v>
       </c>
-      <c r="N214" s="85"/>
-      <c r="O214" s="85"/>
+      <c r="N214" s="84"/>
+      <c r="O214" s="84"/>
       <c r="P214" s="22" t="s">
         <v>1</v>
       </c>
@@ -13583,11 +13583,11 @@
       <c r="J215" s="19"/>
       <c r="K215" s="19"/>
       <c r="L215" s="19"/>
-      <c r="M215" s="85" t="s">
+      <c r="M215" s="84" t="s">
         <v>442</v>
       </c>
-      <c r="N215" s="85"/>
-      <c r="O215" s="85"/>
+      <c r="N215" s="84"/>
+      <c r="O215" s="84"/>
       <c r="P215" s="28" t="s">
         <v>176</v>
       </c>
@@ -13623,11 +13623,11 @@
       <c r="J216" s="19"/>
       <c r="K216" s="19"/>
       <c r="L216" s="19"/>
-      <c r="M216" s="84" t="s">
+      <c r="M216" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="N216" s="84"/>
-      <c r="O216" s="84"/>
+      <c r="N216" s="83"/>
+      <c r="O216" s="83"/>
       <c r="P216" s="22" t="s">
         <v>1</v>
       </c>
@@ -13663,11 +13663,11 @@
       <c r="J217" s="19"/>
       <c r="K217" s="19"/>
       <c r="L217" s="19"/>
-      <c r="M217" s="84" t="s">
+      <c r="M217" s="83" t="s">
         <v>450</v>
       </c>
-      <c r="N217" s="84"/>
-      <c r="O217" s="84"/>
+      <c r="N217" s="83"/>
+      <c r="O217" s="83"/>
       <c r="P217" s="22" t="s">
         <v>1</v>
       </c>
@@ -13703,11 +13703,11 @@
       <c r="J218" s="19"/>
       <c r="K218" s="19"/>
       <c r="L218" s="19"/>
-      <c r="M218" s="84" t="s">
+      <c r="M218" s="83" t="s">
         <v>451</v>
       </c>
-      <c r="N218" s="84"/>
-      <c r="O218" s="84"/>
+      <c r="N218" s="83"/>
+      <c r="O218" s="83"/>
       <c r="P218" s="28" t="s">
         <v>176</v>
       </c>
@@ -13743,11 +13743,11 @@
       <c r="J219" s="19"/>
       <c r="K219" s="19"/>
       <c r="L219" s="19"/>
-      <c r="M219" s="84" t="s">
+      <c r="M219" s="83" t="s">
         <v>456</v>
       </c>
-      <c r="N219" s="84"/>
-      <c r="O219" s="84"/>
+      <c r="N219" s="83"/>
+      <c r="O219" s="83"/>
       <c r="P219" s="28" t="s">
         <v>176</v>
       </c>
@@ -13783,11 +13783,11 @@
       <c r="J220" s="19"/>
       <c r="K220" s="19"/>
       <c r="L220" s="19"/>
-      <c r="M220" s="84" t="s">
+      <c r="M220" s="83" t="s">
         <v>459</v>
       </c>
-      <c r="N220" s="84"/>
-      <c r="O220" s="84"/>
+      <c r="N220" s="83"/>
+      <c r="O220" s="83"/>
       <c r="P220" s="22" t="s">
         <v>1</v>
       </c>
@@ -13823,11 +13823,11 @@
       <c r="J221" s="19"/>
       <c r="K221" s="19"/>
       <c r="L221" s="19"/>
-      <c r="M221" s="85" t="s">
+      <c r="M221" s="84" t="s">
         <v>464</v>
       </c>
-      <c r="N221" s="85"/>
-      <c r="O221" s="85"/>
+      <c r="N221" s="84"/>
+      <c r="O221" s="84"/>
       <c r="P221" s="22" t="s">
         <v>1</v>
       </c>
@@ -13863,11 +13863,11 @@
       <c r="J222" s="19"/>
       <c r="K222" s="19"/>
       <c r="L222" s="19"/>
-      <c r="M222" s="85" t="s">
+      <c r="M222" s="84" t="s">
         <v>465</v>
       </c>
-      <c r="N222" s="85"/>
-      <c r="O222" s="85"/>
+      <c r="N222" s="84"/>
+      <c r="O222" s="84"/>
       <c r="P222" s="22" t="s">
         <v>1</v>
       </c>
@@ -13903,11 +13903,11 @@
       <c r="J223" s="19"/>
       <c r="K223" s="19"/>
       <c r="L223" s="19"/>
-      <c r="M223" s="85" t="s">
+      <c r="M223" s="84" t="s">
         <v>466</v>
       </c>
-      <c r="N223" s="85"/>
-      <c r="O223" s="85"/>
+      <c r="N223" s="84"/>
+      <c r="O223" s="84"/>
       <c r="P223" s="22" t="s">
         <v>1</v>
       </c>
@@ -13943,11 +13943,11 @@
       <c r="J224" s="19"/>
       <c r="K224" s="19"/>
       <c r="L224" s="19"/>
-      <c r="M224" s="85" t="s">
+      <c r="M224" s="84" t="s">
         <v>467</v>
       </c>
-      <c r="N224" s="85"/>
-      <c r="O224" s="85"/>
+      <c r="N224" s="84"/>
+      <c r="O224" s="84"/>
       <c r="P224" s="22" t="s">
         <v>1</v>
       </c>
@@ -13983,11 +13983,11 @@
       <c r="J225" s="19"/>
       <c r="K225" s="19"/>
       <c r="L225" s="19"/>
-      <c r="M225" s="85" t="s">
+      <c r="M225" s="84" t="s">
         <v>468</v>
       </c>
-      <c r="N225" s="85"/>
-      <c r="O225" s="85"/>
+      <c r="N225" s="84"/>
+      <c r="O225" s="84"/>
       <c r="P225" s="22" t="s">
         <v>1</v>
       </c>
@@ -14023,11 +14023,11 @@
       <c r="J226" s="19"/>
       <c r="K226" s="19"/>
       <c r="L226" s="19"/>
-      <c r="M226" s="85" t="s">
+      <c r="M226" s="84" t="s">
         <v>469</v>
       </c>
-      <c r="N226" s="85"/>
-      <c r="O226" s="85"/>
+      <c r="N226" s="84"/>
+      <c r="O226" s="84"/>
       <c r="P226" s="22" t="s">
         <v>1</v>
       </c>
@@ -14063,11 +14063,11 @@
       <c r="J227" s="19"/>
       <c r="K227" s="19"/>
       <c r="L227" s="19"/>
-      <c r="M227" s="85" t="s">
+      <c r="M227" s="84" t="s">
         <v>470</v>
       </c>
-      <c r="N227" s="85"/>
-      <c r="O227" s="85"/>
+      <c r="N227" s="84"/>
+      <c r="O227" s="84"/>
       <c r="P227" s="22" t="s">
         <v>1</v>
       </c>
@@ -14103,11 +14103,11 @@
       <c r="J228" s="19"/>
       <c r="K228" s="19"/>
       <c r="L228" s="19"/>
-      <c r="M228" s="85" t="s">
+      <c r="M228" s="84" t="s">
         <v>471</v>
       </c>
-      <c r="N228" s="85"/>
-      <c r="O228" s="85"/>
+      <c r="N228" s="84"/>
+      <c r="O228" s="84"/>
       <c r="P228" s="22" t="s">
         <v>1</v>
       </c>
@@ -14143,11 +14143,11 @@
       <c r="J229" s="19"/>
       <c r="K229" s="19"/>
       <c r="L229" s="19"/>
-      <c r="M229" s="85" t="s">
+      <c r="M229" s="84" t="s">
         <v>472</v>
       </c>
-      <c r="N229" s="85"/>
-      <c r="O229" s="85"/>
+      <c r="N229" s="84"/>
+      <c r="O229" s="84"/>
       <c r="P229" s="22" t="s">
         <v>1</v>
       </c>
@@ -14183,11 +14183,11 @@
       <c r="J230" s="19"/>
       <c r="K230" s="19"/>
       <c r="L230" s="19"/>
-      <c r="M230" s="85" t="s">
+      <c r="M230" s="84" t="s">
         <v>473</v>
       </c>
-      <c r="N230" s="85"/>
-      <c r="O230" s="85"/>
+      <c r="N230" s="84"/>
+      <c r="O230" s="84"/>
       <c r="P230" s="22" t="s">
         <v>1</v>
       </c>
@@ -14223,11 +14223,11 @@
       <c r="J231" s="19"/>
       <c r="K231" s="19"/>
       <c r="L231" s="19"/>
-      <c r="M231" s="85" t="s">
+      <c r="M231" s="84" t="s">
         <v>474</v>
       </c>
-      <c r="N231" s="85"/>
-      <c r="O231" s="85"/>
+      <c r="N231" s="84"/>
+      <c r="O231" s="84"/>
       <c r="P231" s="22" t="s">
         <v>1</v>
       </c>
@@ -14263,11 +14263,11 @@
       <c r="J232" s="19"/>
       <c r="K232" s="19"/>
       <c r="L232" s="19"/>
-      <c r="M232" s="85" t="s">
+      <c r="M232" s="84" t="s">
         <v>475</v>
       </c>
-      <c r="N232" s="85"/>
-      <c r="O232" s="85"/>
+      <c r="N232" s="84"/>
+      <c r="O232" s="84"/>
       <c r="P232" s="22" t="s">
         <v>1</v>
       </c>
@@ -14303,11 +14303,11 @@
       <c r="J233" s="19"/>
       <c r="K233" s="19"/>
       <c r="L233" s="19"/>
-      <c r="M233" s="85" t="s">
+      <c r="M233" s="84" t="s">
         <v>476</v>
       </c>
-      <c r="N233" s="85"/>
-      <c r="O233" s="85"/>
+      <c r="N233" s="84"/>
+      <c r="O233" s="84"/>
       <c r="P233" s="22" t="s">
         <v>1</v>
       </c>
@@ -14343,11 +14343,11 @@
       <c r="J234" s="19"/>
       <c r="K234" s="19"/>
       <c r="L234" s="19"/>
-      <c r="M234" s="85" t="s">
+      <c r="M234" s="84" t="s">
         <v>477</v>
       </c>
-      <c r="N234" s="85"/>
-      <c r="O234" s="85"/>
+      <c r="N234" s="84"/>
+      <c r="O234" s="84"/>
       <c r="P234" s="22" t="s">
         <v>1</v>
       </c>
@@ -14383,11 +14383,11 @@
       <c r="J235" s="19"/>
       <c r="K235" s="19"/>
       <c r="L235" s="19"/>
-      <c r="M235" s="85" t="s">
+      <c r="M235" s="84" t="s">
         <v>480</v>
       </c>
-      <c r="N235" s="85"/>
-      <c r="O235" s="85"/>
+      <c r="N235" s="84"/>
+      <c r="O235" s="84"/>
       <c r="P235" s="28" t="s">
         <v>176</v>
       </c>
@@ -14423,11 +14423,11 @@
       <c r="J236" s="19"/>
       <c r="K236" s="19"/>
       <c r="L236" s="19"/>
-      <c r="M236" s="84" t="s">
+      <c r="M236" s="83" t="s">
         <v>481</v>
       </c>
-      <c r="N236" s="84"/>
-      <c r="O236" s="84"/>
+      <c r="N236" s="83"/>
+      <c r="O236" s="83"/>
       <c r="P236" s="28" t="s">
         <v>187</v>
       </c>
@@ -14463,11 +14463,11 @@
       <c r="J237" s="19"/>
       <c r="K237" s="19"/>
       <c r="L237" s="19"/>
-      <c r="M237" s="84" t="s">
+      <c r="M237" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="N237" s="84"/>
-      <c r="O237" s="84"/>
+      <c r="N237" s="83"/>
+      <c r="O237" s="83"/>
       <c r="P237" s="22" t="s">
         <v>1</v>
       </c>
@@ -14503,11 +14503,11 @@
       <c r="J238" s="19"/>
       <c r="K238" s="19"/>
       <c r="L238" s="19"/>
-      <c r="M238" s="84" t="s">
+      <c r="M238" s="83" t="s">
         <v>485</v>
       </c>
-      <c r="N238" s="84"/>
-      <c r="O238" s="84"/>
+      <c r="N238" s="83"/>
+      <c r="O238" s="83"/>
       <c r="P238" s="22" t="s">
         <v>1</v>
       </c>
@@ -14543,11 +14543,11 @@
       <c r="J239" s="19"/>
       <c r="K239" s="19"/>
       <c r="L239" s="19"/>
-      <c r="M239" s="84" t="s">
+      <c r="M239" s="83" t="s">
         <v>488</v>
       </c>
-      <c r="N239" s="84"/>
-      <c r="O239" s="84"/>
+      <c r="N239" s="83"/>
+      <c r="O239" s="83"/>
       <c r="P239" s="22" t="s">
         <v>1</v>
       </c>
@@ -14583,11 +14583,11 @@
       <c r="J240" s="19"/>
       <c r="K240" s="19"/>
       <c r="L240" s="19"/>
-      <c r="M240" s="84" t="s">
+      <c r="M240" s="83" t="s">
         <v>492</v>
       </c>
-      <c r="N240" s="84"/>
-      <c r="O240" s="84"/>
+      <c r="N240" s="83"/>
+      <c r="O240" s="83"/>
       <c r="P240" s="22" t="s">
         <v>1</v>
       </c>
@@ -14623,11 +14623,11 @@
       <c r="J241" s="19"/>
       <c r="K241" s="19"/>
       <c r="L241" s="19"/>
-      <c r="M241" s="85" t="s">
+      <c r="M241" s="84" t="s">
         <v>495</v>
       </c>
-      <c r="N241" s="85"/>
-      <c r="O241" s="85"/>
+      <c r="N241" s="84"/>
+      <c r="O241" s="84"/>
       <c r="P241" s="22" t="s">
         <v>1</v>
       </c>
@@ -14663,11 +14663,11 @@
       <c r="J242" s="19"/>
       <c r="K242" s="19"/>
       <c r="L242" s="19"/>
-      <c r="M242" s="85" t="s">
+      <c r="M242" s="84" t="s">
         <v>496</v>
       </c>
-      <c r="N242" s="85"/>
-      <c r="O242" s="85"/>
+      <c r="N242" s="84"/>
+      <c r="O242" s="84"/>
       <c r="P242" s="22" t="s">
         <v>1</v>
       </c>
@@ -14807,9 +14807,9 @@
       <c r="J246" s="67"/>
       <c r="K246" s="67"/>
       <c r="L246" s="67"/>
-      <c r="M246" s="89"/>
-      <c r="N246" s="89"/>
-      <c r="O246" s="89"/>
+      <c r="M246" s="112"/>
+      <c r="N246" s="112"/>
+      <c r="O246" s="112"/>
       <c r="P246" s="68"/>
       <c r="Q246" s="68"/>
       <c r="R246" s="69"/>
@@ -14837,9 +14837,9 @@
       <c r="J247" s="19"/>
       <c r="K247" s="19"/>
       <c r="L247" s="19"/>
-      <c r="M247" s="85"/>
-      <c r="N247" s="85"/>
-      <c r="O247" s="85"/>
+      <c r="M247" s="84"/>
+      <c r="N247" s="84"/>
+      <c r="O247" s="84"/>
       <c r="P247" s="22"/>
       <c r="Q247" s="22"/>
       <c r="R247" s="70"/>
@@ -14865,9 +14865,9 @@
       <c r="J248" s="19"/>
       <c r="K248" s="19"/>
       <c r="L248" s="19"/>
-      <c r="M248" s="85"/>
-      <c r="N248" s="85"/>
-      <c r="O248" s="85"/>
+      <c r="M248" s="84"/>
+      <c r="N248" s="84"/>
+      <c r="O248" s="84"/>
       <c r="P248" s="22"/>
       <c r="Q248" s="22"/>
       <c r="R248" s="64"/>
@@ -14897,11 +14897,11 @@
       <c r="J249" s="19"/>
       <c r="K249" s="19"/>
       <c r="L249" s="19"/>
-      <c r="M249" s="87" t="s">
+      <c r="M249" s="110" t="s">
         <v>849</v>
       </c>
-      <c r="N249" s="88"/>
-      <c r="O249" s="88"/>
+      <c r="N249" s="111"/>
+      <c r="O249" s="111"/>
       <c r="P249" s="22" t="s">
         <v>1</v>
       </c>
@@ -14937,11 +14937,11 @@
       <c r="J250" s="19"/>
       <c r="K250" s="19"/>
       <c r="L250" s="19"/>
-      <c r="M250" s="85" t="s">
+      <c r="M250" s="84" t="s">
         <v>522</v>
       </c>
-      <c r="N250" s="85"/>
-      <c r="O250" s="85"/>
+      <c r="N250" s="84"/>
+      <c r="O250" s="84"/>
       <c r="P250" s="22" t="s">
         <v>1</v>
       </c>
@@ -14977,11 +14977,11 @@
       <c r="J251" s="19"/>
       <c r="K251" s="19"/>
       <c r="L251" s="19"/>
-      <c r="M251" s="85" t="s">
+      <c r="M251" s="84" t="s">
         <v>523</v>
       </c>
-      <c r="N251" s="85"/>
-      <c r="O251" s="85"/>
+      <c r="N251" s="84"/>
+      <c r="O251" s="84"/>
       <c r="P251" s="22" t="s">
         <v>1</v>
       </c>
@@ -15017,11 +15017,11 @@
       <c r="J252" s="19"/>
       <c r="K252" s="19"/>
       <c r="L252" s="19"/>
-      <c r="M252" s="85" t="s">
+      <c r="M252" s="84" t="s">
         <v>848</v>
       </c>
-      <c r="N252" s="85"/>
-      <c r="O252" s="85"/>
+      <c r="N252" s="84"/>
+      <c r="O252" s="84"/>
       <c r="P252" s="22" t="s">
         <v>1</v>
       </c>
@@ -15055,11 +15055,11 @@
       <c r="J253" s="75"/>
       <c r="K253" s="75"/>
       <c r="L253" s="75"/>
-      <c r="M253" s="86" t="s">
+      <c r="M253" s="113" t="s">
         <v>851</v>
       </c>
-      <c r="N253" s="86"/>
-      <c r="O253" s="86"/>
+      <c r="N253" s="113"/>
+      <c r="O253" s="113"/>
       <c r="P253" s="76" t="s">
         <v>1</v>
       </c>
@@ -15097,11 +15097,11 @@
       <c r="J254" s="19"/>
       <c r="K254" s="19"/>
       <c r="L254" s="19"/>
-      <c r="M254" s="85" t="s">
+      <c r="M254" s="84" t="s">
         <v>677</v>
       </c>
-      <c r="N254" s="85"/>
-      <c r="O254" s="85"/>
+      <c r="N254" s="84"/>
+      <c r="O254" s="84"/>
       <c r="P254" s="22" t="s">
         <v>1</v>
       </c>
@@ -15137,11 +15137,11 @@
       <c r="J255" s="19"/>
       <c r="K255" s="19"/>
       <c r="L255" s="19"/>
-      <c r="M255" s="85" t="s">
+      <c r="M255" s="84" t="s">
         <v>662</v>
       </c>
-      <c r="N255" s="85"/>
-      <c r="O255" s="85"/>
+      <c r="N255" s="84"/>
+      <c r="O255" s="84"/>
       <c r="P255" s="22" t="s">
         <v>1</v>
       </c>
@@ -15177,11 +15177,11 @@
       <c r="J256" s="19"/>
       <c r="K256" s="19"/>
       <c r="L256" s="19"/>
-      <c r="M256" s="85" t="s">
+      <c r="M256" s="84" t="s">
         <v>664</v>
       </c>
-      <c r="N256" s="85"/>
-      <c r="O256" s="85"/>
+      <c r="N256" s="84"/>
+      <c r="O256" s="84"/>
       <c r="P256" s="22" t="s">
         <v>1</v>
       </c>
@@ -15217,11 +15217,11 @@
       <c r="J257" s="19"/>
       <c r="K257" s="19"/>
       <c r="L257" s="19"/>
-      <c r="M257" s="84" t="s">
+      <c r="M257" s="83" t="s">
         <v>666</v>
       </c>
-      <c r="N257" s="84"/>
-      <c r="O257" s="84"/>
+      <c r="N257" s="83"/>
+      <c r="O257" s="83"/>
       <c r="P257" s="22" t="s">
         <v>1</v>
       </c>
@@ -15257,11 +15257,11 @@
       <c r="J258" s="19"/>
       <c r="K258" s="19"/>
       <c r="L258" s="19"/>
-      <c r="M258" s="84" t="s">
+      <c r="M258" s="83" t="s">
         <v>667</v>
       </c>
-      <c r="N258" s="84"/>
-      <c r="O258" s="84"/>
+      <c r="N258" s="83"/>
+      <c r="O258" s="83"/>
       <c r="P258" s="22" t="s">
         <v>1</v>
       </c>
@@ -15297,11 +15297,11 @@
       <c r="J259" s="19"/>
       <c r="K259" s="19"/>
       <c r="L259" s="19"/>
-      <c r="M259" s="84" t="s">
+      <c r="M259" s="83" t="s">
         <v>668</v>
       </c>
-      <c r="N259" s="84"/>
-      <c r="O259" s="84"/>
+      <c r="N259" s="83"/>
+      <c r="O259" s="83"/>
       <c r="P259" s="22" t="s">
         <v>1</v>
       </c>
@@ -15337,11 +15337,11 @@
       <c r="J260" s="19"/>
       <c r="K260" s="19"/>
       <c r="L260" s="19"/>
-      <c r="M260" s="84" t="s">
+      <c r="M260" s="83" t="s">
         <v>670</v>
       </c>
-      <c r="N260" s="84"/>
-      <c r="O260" s="84"/>
+      <c r="N260" s="83"/>
+      <c r="O260" s="83"/>
       <c r="P260" s="22" t="s">
         <v>1</v>
       </c>
@@ -15377,11 +15377,11 @@
       <c r="J261" s="19"/>
       <c r="K261" s="19"/>
       <c r="L261" s="19"/>
-      <c r="M261" s="84" t="s">
+      <c r="M261" s="83" t="s">
         <v>671</v>
       </c>
-      <c r="N261" s="84"/>
-      <c r="O261" s="84"/>
+      <c r="N261" s="83"/>
+      <c r="O261" s="83"/>
       <c r="P261" s="22" t="s">
         <v>1</v>
       </c>
@@ -15417,11 +15417,11 @@
       <c r="J262" s="19"/>
       <c r="K262" s="19"/>
       <c r="L262" s="19"/>
-      <c r="M262" s="85" t="s">
+      <c r="M262" s="84" t="s">
         <v>672</v>
       </c>
-      <c r="N262" s="85"/>
-      <c r="O262" s="85"/>
+      <c r="N262" s="84"/>
+      <c r="O262" s="84"/>
       <c r="P262" s="22" t="s">
         <v>1</v>
       </c>
@@ -15457,11 +15457,11 @@
       <c r="J263" s="19"/>
       <c r="K263" s="19"/>
       <c r="L263" s="19"/>
-      <c r="M263" s="85" t="s">
+      <c r="M263" s="84" t="s">
         <v>613</v>
       </c>
-      <c r="N263" s="85"/>
-      <c r="O263" s="85"/>
+      <c r="N263" s="84"/>
+      <c r="O263" s="84"/>
       <c r="P263" s="22" t="s">
         <v>1</v>
       </c>
@@ -15497,11 +15497,11 @@
       <c r="J264" s="19"/>
       <c r="K264" s="19"/>
       <c r="L264" s="19"/>
-      <c r="M264" s="85" t="s">
+      <c r="M264" s="84" t="s">
         <v>614</v>
       </c>
-      <c r="N264" s="85"/>
-      <c r="O264" s="85"/>
+      <c r="N264" s="84"/>
+      <c r="O264" s="84"/>
       <c r="P264" s="22" t="s">
         <v>1</v>
       </c>
@@ -15537,11 +15537,11 @@
       <c r="J265" s="19"/>
       <c r="K265" s="19"/>
       <c r="L265" s="19"/>
-      <c r="M265" s="85" t="s">
+      <c r="M265" s="84" t="s">
         <v>615</v>
       </c>
-      <c r="N265" s="85"/>
-      <c r="O265" s="85"/>
+      <c r="N265" s="84"/>
+      <c r="O265" s="84"/>
       <c r="P265" s="22" t="s">
         <v>1</v>
       </c>
@@ -15577,11 +15577,11 @@
       <c r="J266" s="19"/>
       <c r="K266" s="19"/>
       <c r="L266" s="19"/>
-      <c r="M266" s="85" t="s">
+      <c r="M266" s="84" t="s">
         <v>616</v>
       </c>
-      <c r="N266" s="85"/>
-      <c r="O266" s="85"/>
+      <c r="N266" s="84"/>
+      <c r="O266" s="84"/>
       <c r="P266" s="22" t="s">
         <v>1</v>
       </c>
@@ -15617,11 +15617,11 @@
       <c r="J267" s="19"/>
       <c r="K267" s="19"/>
       <c r="L267" s="19"/>
-      <c r="M267" s="85" t="s">
+      <c r="M267" s="84" t="s">
         <v>617</v>
       </c>
-      <c r="N267" s="85"/>
-      <c r="O267" s="85"/>
+      <c r="N267" s="84"/>
+      <c r="O267" s="84"/>
       <c r="P267" s="22" t="s">
         <v>1</v>
       </c>
@@ -15657,11 +15657,11 @@
       <c r="J268" s="19"/>
       <c r="K268" s="19"/>
       <c r="L268" s="19"/>
-      <c r="M268" s="85" t="s">
+      <c r="M268" s="84" t="s">
         <v>618</v>
       </c>
-      <c r="N268" s="85"/>
-      <c r="O268" s="85"/>
+      <c r="N268" s="84"/>
+      <c r="O268" s="84"/>
       <c r="P268" s="22" t="s">
         <v>1</v>
       </c>
@@ -15697,11 +15697,11 @@
       <c r="J269" s="19"/>
       <c r="K269" s="19"/>
       <c r="L269" s="19"/>
-      <c r="M269" s="85" t="s">
+      <c r="M269" s="84" t="s">
         <v>619</v>
       </c>
-      <c r="N269" s="85"/>
-      <c r="O269" s="85"/>
+      <c r="N269" s="84"/>
+      <c r="O269" s="84"/>
       <c r="P269" s="22" t="s">
         <v>1</v>
       </c>
@@ -15737,11 +15737,11 @@
       <c r="J270" s="19"/>
       <c r="K270" s="19"/>
       <c r="L270" s="19"/>
-      <c r="M270" s="85" t="s">
+      <c r="M270" s="84" t="s">
         <v>620</v>
       </c>
-      <c r="N270" s="85"/>
-      <c r="O270" s="85"/>
+      <c r="N270" s="84"/>
+      <c r="O270" s="84"/>
       <c r="P270" s="22" t="s">
         <v>1</v>
       </c>
@@ -15777,11 +15777,11 @@
       <c r="J271" s="19"/>
       <c r="K271" s="19"/>
       <c r="L271" s="19"/>
-      <c r="M271" s="85" t="s">
+      <c r="M271" s="84" t="s">
         <v>621</v>
       </c>
-      <c r="N271" s="85"/>
-      <c r="O271" s="85"/>
+      <c r="N271" s="84"/>
+      <c r="O271" s="84"/>
       <c r="P271" s="22" t="s">
         <v>1</v>
       </c>
@@ -15804,7 +15804,7 @@
       <c r="A272" s="26" t="s">
         <v>679</v>
       </c>
-      <c r="B272" s="29" t="s">
+      <c r="B272" s="27" t="s">
         <v>627</v>
       </c>
       <c r="C272" s="29"/>
@@ -15817,11 +15817,11 @@
       <c r="J272" s="19"/>
       <c r="K272" s="19"/>
       <c r="L272" s="19"/>
-      <c r="M272" s="85" t="s">
+      <c r="M272" s="84" t="s">
         <v>627</v>
       </c>
-      <c r="N272" s="85"/>
-      <c r="O272" s="85"/>
+      <c r="N272" s="84"/>
+      <c r="O272" s="84"/>
       <c r="P272" s="22" t="s">
         <v>1</v>
       </c>
@@ -15844,7 +15844,7 @@
       <c r="A273" s="26" t="s">
         <v>679</v>
       </c>
-      <c r="B273" s="29" t="s">
+      <c r="B273" s="27" t="s">
         <v>628</v>
       </c>
       <c r="C273" s="29"/>
@@ -15857,11 +15857,11 @@
       <c r="J273" s="19"/>
       <c r="K273" s="19"/>
       <c r="L273" s="19"/>
-      <c r="M273" s="84" t="s">
+      <c r="M273" s="83" t="s">
         <v>628</v>
       </c>
-      <c r="N273" s="84"/>
-      <c r="O273" s="84"/>
+      <c r="N273" s="83"/>
+      <c r="O273" s="83"/>
       <c r="P273" s="22" t="s">
         <v>1</v>
       </c>
@@ -15884,7 +15884,7 @@
       <c r="A274" s="26" t="s">
         <v>679</v>
       </c>
-      <c r="B274" s="29" t="s">
+      <c r="B274" s="27" t="s">
         <v>629</v>
       </c>
       <c r="C274" s="29"/>
@@ -15897,11 +15897,11 @@
       <c r="J274" s="19"/>
       <c r="K274" s="19"/>
       <c r="L274" s="19"/>
-      <c r="M274" s="84" t="s">
+      <c r="M274" s="83" t="s">
         <v>629</v>
       </c>
-      <c r="N274" s="84"/>
-      <c r="O274" s="84"/>
+      <c r="N274" s="83"/>
+      <c r="O274" s="83"/>
       <c r="P274" s="22" t="s">
         <v>1</v>
       </c>
@@ -15924,7 +15924,7 @@
       <c r="A275" s="26" t="s">
         <v>679</v>
       </c>
-      <c r="B275" s="29" t="s">
+      <c r="B275" s="27" t="s">
         <v>630</v>
       </c>
       <c r="C275" s="29"/>
@@ -15937,11 +15937,11 @@
       <c r="J275" s="19"/>
       <c r="K275" s="19"/>
       <c r="L275" s="19"/>
-      <c r="M275" s="84" t="s">
+      <c r="M275" s="83" t="s">
         <v>630</v>
       </c>
-      <c r="N275" s="84"/>
-      <c r="O275" s="84"/>
+      <c r="N275" s="83"/>
+      <c r="O275" s="83"/>
       <c r="P275" s="22" t="s">
         <v>1</v>
       </c>
@@ -15964,7 +15964,7 @@
       <c r="A276" s="26" t="s">
         <v>679</v>
       </c>
-      <c r="B276" s="29" t="s">
+      <c r="B276" s="27" t="s">
         <v>631</v>
       </c>
       <c r="C276" s="29"/>
@@ -15977,11 +15977,11 @@
       <c r="J276" s="19"/>
       <c r="K276" s="19"/>
       <c r="L276" s="19"/>
-      <c r="M276" s="84" t="s">
+      <c r="M276" s="83" t="s">
         <v>631</v>
       </c>
-      <c r="N276" s="84"/>
-      <c r="O276" s="84"/>
+      <c r="N276" s="83"/>
+      <c r="O276" s="83"/>
       <c r="P276" s="22" t="s">
         <v>1</v>
       </c>
@@ -16004,7 +16004,7 @@
       <c r="A277" s="26" t="s">
         <v>679</v>
       </c>
-      <c r="B277" s="29" t="s">
+      <c r="B277" s="27" t="s">
         <v>632</v>
       </c>
       <c r="C277" s="29"/>
@@ -16017,11 +16017,11 @@
       <c r="J277" s="19"/>
       <c r="K277" s="19"/>
       <c r="L277" s="19"/>
-      <c r="M277" s="84" t="s">
+      <c r="M277" s="83" t="s">
         <v>632</v>
       </c>
-      <c r="N277" s="84"/>
-      <c r="O277" s="84"/>
+      <c r="N277" s="83"/>
+      <c r="O277" s="83"/>
       <c r="P277" s="22" t="s">
         <v>1</v>
       </c>
@@ -16044,7 +16044,7 @@
       <c r="A278" s="26" t="s">
         <v>633</v>
       </c>
-      <c r="B278" s="29" t="s">
+      <c r="B278" s="27" t="s">
         <v>634</v>
       </c>
       <c r="C278" s="29"/>
@@ -16057,11 +16057,11 @@
       <c r="J278" s="19"/>
       <c r="K278" s="19"/>
       <c r="L278" s="19"/>
-      <c r="M278" s="84" t="s">
+      <c r="M278" s="83" t="s">
         <v>634</v>
       </c>
-      <c r="N278" s="84"/>
-      <c r="O278" s="84"/>
+      <c r="N278" s="83"/>
+      <c r="O278" s="83"/>
       <c r="P278" s="22" t="s">
         <v>1</v>
       </c>
@@ -16084,7 +16084,7 @@
       <c r="A279" s="26" t="s">
         <v>633</v>
       </c>
-      <c r="B279" s="29" t="s">
+      <c r="B279" s="27" t="s">
         <v>635</v>
       </c>
       <c r="C279" s="29"/>
@@ -16097,11 +16097,11 @@
       <c r="J279" s="19"/>
       <c r="K279" s="19"/>
       <c r="L279" s="19"/>
-      <c r="M279" s="84" t="s">
+      <c r="M279" s="83" t="s">
         <v>635</v>
       </c>
-      <c r="N279" s="84"/>
-      <c r="O279" s="84"/>
+      <c r="N279" s="83"/>
+      <c r="O279" s="83"/>
       <c r="P279" s="22" t="s">
         <v>1</v>
       </c>
@@ -16124,7 +16124,7 @@
       <c r="A280" s="26" t="s">
         <v>633</v>
       </c>
-      <c r="B280" s="29" t="s">
+      <c r="B280" s="27" t="s">
         <v>637</v>
       </c>
       <c r="C280" s="29"/>
@@ -16137,11 +16137,11 @@
       <c r="J280" s="19"/>
       <c r="K280" s="19"/>
       <c r="L280" s="19"/>
-      <c r="M280" s="85" t="s">
+      <c r="M280" s="84" t="s">
         <v>637</v>
       </c>
-      <c r="N280" s="85"/>
-      <c r="O280" s="85"/>
+      <c r="N280" s="84"/>
+      <c r="O280" s="84"/>
       <c r="P280" s="22" t="s">
         <v>1</v>
       </c>
@@ -16164,7 +16164,7 @@
       <c r="A281" s="26" t="s">
         <v>633</v>
       </c>
-      <c r="B281" s="29" t="s">
+      <c r="B281" s="27" t="s">
         <v>638</v>
       </c>
       <c r="C281" s="29"/>
@@ -16177,11 +16177,11 @@
       <c r="J281" s="19"/>
       <c r="K281" s="19"/>
       <c r="L281" s="19"/>
-      <c r="M281" s="85" t="s">
+      <c r="M281" s="84" t="s">
         <v>638</v>
       </c>
-      <c r="N281" s="85"/>
-      <c r="O281" s="85"/>
+      <c r="N281" s="84"/>
+      <c r="O281" s="84"/>
       <c r="P281" s="22" t="s">
         <v>1</v>
       </c>
@@ -16204,7 +16204,7 @@
       <c r="A282" s="26" t="s">
         <v>633</v>
       </c>
-      <c r="B282" s="29" t="s">
+      <c r="B282" s="27" t="s">
         <v>640</v>
       </c>
       <c r="C282" s="29"/>
@@ -16217,11 +16217,11 @@
       <c r="J282" s="19"/>
       <c r="K282" s="19"/>
       <c r="L282" s="19"/>
-      <c r="M282" s="85" t="s">
+      <c r="M282" s="84" t="s">
         <v>640</v>
       </c>
-      <c r="N282" s="85"/>
-      <c r="O282" s="85"/>
+      <c r="N282" s="84"/>
+      <c r="O282" s="84"/>
       <c r="P282" s="22" t="s">
         <v>1</v>
       </c>
@@ -16244,7 +16244,7 @@
       <c r="A283" s="26" t="s">
         <v>633</v>
       </c>
-      <c r="B283" s="29" t="s">
+      <c r="B283" s="27" t="s">
         <v>641</v>
       </c>
       <c r="C283" s="29"/>
@@ -16257,11 +16257,11 @@
       <c r="J283" s="19"/>
       <c r="K283" s="19"/>
       <c r="L283" s="19"/>
-      <c r="M283" s="85" t="s">
+      <c r="M283" s="84" t="s">
         <v>641</v>
       </c>
-      <c r="N283" s="85"/>
-      <c r="O283" s="85"/>
+      <c r="N283" s="84"/>
+      <c r="O283" s="84"/>
       <c r="P283" s="22" t="s">
         <v>1</v>
       </c>
@@ -16284,7 +16284,7 @@
       <c r="A284" s="26" t="s">
         <v>633</v>
       </c>
-      <c r="B284" s="29" t="s">
+      <c r="B284" s="27" t="s">
         <v>642</v>
       </c>
       <c r="C284" s="29"/>
@@ -16297,11 +16297,11 @@
       <c r="J284" s="19"/>
       <c r="K284" s="19"/>
       <c r="L284" s="19"/>
-      <c r="M284" s="85" t="s">
+      <c r="M284" s="84" t="s">
         <v>642</v>
       </c>
-      <c r="N284" s="85"/>
-      <c r="O284" s="85"/>
+      <c r="N284" s="84"/>
+      <c r="O284" s="84"/>
       <c r="P284" s="22" t="s">
         <v>1</v>
       </c>
@@ -16324,7 +16324,7 @@
       <c r="A285" s="26" t="s">
         <v>633</v>
       </c>
-      <c r="B285" s="29" t="s">
+      <c r="B285" s="27" t="s">
         <v>644</v>
       </c>
       <c r="C285" s="29"/>
@@ -16337,11 +16337,11 @@
       <c r="J285" s="19"/>
       <c r="K285" s="19"/>
       <c r="L285" s="19"/>
-      <c r="M285" s="85" t="s">
+      <c r="M285" s="84" t="s">
         <v>644</v>
       </c>
-      <c r="N285" s="85"/>
-      <c r="O285" s="85"/>
+      <c r="N285" s="84"/>
+      <c r="O285" s="84"/>
       <c r="P285" s="22" t="s">
         <v>1</v>
       </c>
@@ -16364,7 +16364,7 @@
       <c r="A286" s="26" t="s">
         <v>633</v>
       </c>
-      <c r="B286" s="29" t="s">
+      <c r="B286" s="27" t="s">
         <v>645</v>
       </c>
       <c r="C286" s="29"/>
@@ -16377,11 +16377,11 @@
       <c r="J286" s="19"/>
       <c r="K286" s="19"/>
       <c r="L286" s="19"/>
-      <c r="M286" s="85" t="s">
+      <c r="M286" s="84" t="s">
         <v>645</v>
       </c>
-      <c r="N286" s="85"/>
-      <c r="O286" s="85"/>
+      <c r="N286" s="84"/>
+      <c r="O286" s="84"/>
       <c r="P286" s="22" t="s">
         <v>1</v>
       </c>
@@ -16404,7 +16404,7 @@
       <c r="A287" s="26" t="s">
         <v>633</v>
       </c>
-      <c r="B287" s="29" t="s">
+      <c r="B287" s="27" t="s">
         <v>646</v>
       </c>
       <c r="C287" s="29"/>
@@ -16417,11 +16417,11 @@
       <c r="J287" s="19"/>
       <c r="K287" s="19"/>
       <c r="L287" s="19"/>
-      <c r="M287" s="85" t="s">
+      <c r="M287" s="84" t="s">
         <v>646</v>
       </c>
-      <c r="N287" s="85"/>
-      <c r="O287" s="85"/>
+      <c r="N287" s="84"/>
+      <c r="O287" s="84"/>
       <c r="P287" s="22" t="s">
         <v>1</v>
       </c>
@@ -16444,7 +16444,7 @@
       <c r="A288" s="26" t="s">
         <v>648</v>
       </c>
-      <c r="B288" s="29" t="s">
+      <c r="B288" s="27" t="s">
         <v>649</v>
       </c>
       <c r="C288" s="29"/>
@@ -16457,11 +16457,11 @@
       <c r="J288" s="19"/>
       <c r="K288" s="19"/>
       <c r="L288" s="19"/>
-      <c r="M288" s="85" t="s">
+      <c r="M288" s="84" t="s">
         <v>649</v>
       </c>
-      <c r="N288" s="85"/>
-      <c r="O288" s="85"/>
+      <c r="N288" s="84"/>
+      <c r="O288" s="84"/>
       <c r="P288" s="22" t="s">
         <v>1</v>
       </c>
@@ -16484,7 +16484,7 @@
       <c r="A289" s="26" t="s">
         <v>648</v>
       </c>
-      <c r="B289" s="29" t="s">
+      <c r="B289" s="27" t="s">
         <v>650</v>
       </c>
       <c r="C289" s="29"/>
@@ -16497,11 +16497,11 @@
       <c r="J289" s="19"/>
       <c r="K289" s="19"/>
       <c r="L289" s="19"/>
-      <c r="M289" s="85" t="s">
+      <c r="M289" s="84" t="s">
         <v>650</v>
       </c>
-      <c r="N289" s="85"/>
-      <c r="O289" s="85"/>
+      <c r="N289" s="84"/>
+      <c r="O289" s="84"/>
       <c r="P289" s="22" t="s">
         <v>1</v>
       </c>
@@ -16524,7 +16524,7 @@
       <c r="A290" s="26" t="s">
         <v>648</v>
       </c>
-      <c r="B290" s="29" t="s">
+      <c r="B290" s="27" t="s">
         <v>653</v>
       </c>
       <c r="C290" s="29"/>
@@ -16537,11 +16537,11 @@
       <c r="J290" s="19"/>
       <c r="K290" s="19"/>
       <c r="L290" s="19"/>
-      <c r="M290" s="85" t="s">
+      <c r="M290" s="84" t="s">
         <v>653</v>
       </c>
-      <c r="N290" s="85"/>
-      <c r="O290" s="85"/>
+      <c r="N290" s="84"/>
+      <c r="O290" s="84"/>
       <c r="P290" s="22" t="s">
         <v>1</v>
       </c>
@@ -16564,7 +16564,7 @@
       <c r="A291" s="26" t="s">
         <v>648</v>
       </c>
-      <c r="B291" s="29" t="s">
+      <c r="B291" s="27" t="s">
         <v>654</v>
       </c>
       <c r="C291" s="29"/>
@@ -16577,11 +16577,11 @@
       <c r="J291" s="19"/>
       <c r="K291" s="19"/>
       <c r="L291" s="19"/>
-      <c r="M291" s="84" t="s">
+      <c r="M291" s="83" t="s">
         <v>654</v>
       </c>
-      <c r="N291" s="84"/>
-      <c r="O291" s="84"/>
+      <c r="N291" s="83"/>
+      <c r="O291" s="83"/>
       <c r="P291" s="22" t="s">
         <v>1</v>
       </c>
@@ -16604,7 +16604,7 @@
       <c r="A292" s="26" t="s">
         <v>648</v>
       </c>
-      <c r="B292" s="29" t="s">
+      <c r="B292" s="27" t="s">
         <v>655</v>
       </c>
       <c r="C292" s="29"/>
@@ -16617,11 +16617,11 @@
       <c r="J292" s="19"/>
       <c r="K292" s="19"/>
       <c r="L292" s="19"/>
-      <c r="M292" s="84" t="s">
+      <c r="M292" s="83" t="s">
         <v>655</v>
       </c>
-      <c r="N292" s="84"/>
-      <c r="O292" s="84"/>
+      <c r="N292" s="83"/>
+      <c r="O292" s="83"/>
       <c r="P292" s="22" t="s">
         <v>1</v>
       </c>
@@ -16644,7 +16644,7 @@
       <c r="A293" s="26" t="s">
         <v>648</v>
       </c>
-      <c r="B293" s="29" t="s">
+      <c r="B293" s="27" t="s">
         <v>657</v>
       </c>
       <c r="C293" s="29"/>
@@ -16657,11 +16657,11 @@
       <c r="J293" s="19"/>
       <c r="K293" s="19"/>
       <c r="L293" s="19"/>
-      <c r="M293" s="84" t="s">
+      <c r="M293" s="83" t="s">
         <v>657</v>
       </c>
-      <c r="N293" s="84"/>
-      <c r="O293" s="84"/>
+      <c r="N293" s="83"/>
+      <c r="O293" s="83"/>
       <c r="P293" s="22" t="s">
         <v>1</v>
       </c>
@@ -16684,7 +16684,7 @@
       <c r="A294" s="26" t="s">
         <v>648</v>
       </c>
-      <c r="B294" s="29" t="s">
+      <c r="B294" s="27" t="s">
         <v>658</v>
       </c>
       <c r="C294" s="29"/>
@@ -16697,11 +16697,11 @@
       <c r="J294" s="19"/>
       <c r="K294" s="19"/>
       <c r="L294" s="19"/>
-      <c r="M294" s="84" t="s">
+      <c r="M294" s="83" t="s">
         <v>658</v>
       </c>
-      <c r="N294" s="84"/>
-      <c r="O294" s="84"/>
+      <c r="N294" s="83"/>
+      <c r="O294" s="83"/>
       <c r="P294" s="22" t="s">
         <v>1</v>
       </c>
@@ -16724,7 +16724,7 @@
       <c r="A295" s="26" t="s">
         <v>648</v>
       </c>
-      <c r="B295" s="29" t="s">
+      <c r="B295" s="27" t="s">
         <v>659</v>
       </c>
       <c r="C295" s="29"/>
@@ -16737,11 +16737,11 @@
       <c r="J295" s="19"/>
       <c r="K295" s="19"/>
       <c r="L295" s="19"/>
-      <c r="M295" s="84" t="s">
+      <c r="M295" s="83" t="s">
         <v>659</v>
       </c>
-      <c r="N295" s="84"/>
-      <c r="O295" s="84"/>
+      <c r="N295" s="83"/>
+      <c r="O295" s="83"/>
       <c r="P295" s="22" t="s">
         <v>1</v>
       </c>
@@ -16764,7 +16764,7 @@
       <c r="A296" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="B296" s="29" t="s">
+      <c r="B296" s="27" t="s">
         <v>676</v>
       </c>
       <c r="C296" s="29"/>
@@ -16777,11 +16777,11 @@
       <c r="J296" s="19"/>
       <c r="K296" s="19"/>
       <c r="L296" s="19"/>
-      <c r="M296" s="85" t="s">
+      <c r="M296" s="84" t="s">
         <v>676</v>
       </c>
-      <c r="N296" s="85"/>
-      <c r="O296" s="85"/>
+      <c r="N296" s="84"/>
+      <c r="O296" s="84"/>
       <c r="P296" s="28" t="s">
         <v>176</v>
       </c>
@@ -16804,7 +16804,7 @@
       <c r="A297" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="B297" s="29" t="s">
+      <c r="B297" s="27" t="s">
         <v>684</v>
       </c>
       <c r="C297" s="29"/>
@@ -16817,11 +16817,11 @@
       <c r="J297" s="19"/>
       <c r="K297" s="19"/>
       <c r="L297" s="19"/>
-      <c r="M297" s="85" t="s">
+      <c r="M297" s="84" t="s">
         <v>684</v>
       </c>
-      <c r="N297" s="85"/>
-      <c r="O297" s="85"/>
+      <c r="N297" s="84"/>
+      <c r="O297" s="84"/>
       <c r="P297" s="22" t="s">
         <v>1</v>
       </c>
@@ -16844,7 +16844,7 @@
       <c r="A298" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="B298" s="29" t="s">
+      <c r="B298" s="27" t="s">
         <v>512</v>
       </c>
       <c r="C298" s="29"/>
@@ -16857,11 +16857,11 @@
       <c r="J298" s="19"/>
       <c r="K298" s="19"/>
       <c r="L298" s="19"/>
-      <c r="M298" s="85" t="s">
+      <c r="M298" s="84" t="s">
         <v>512</v>
       </c>
-      <c r="N298" s="85"/>
-      <c r="O298" s="85"/>
+      <c r="N298" s="84"/>
+      <c r="O298" s="84"/>
       <c r="P298" s="22" t="s">
         <v>1</v>
       </c>
@@ -16884,7 +16884,7 @@
       <c r="A299" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="B299" s="29" t="s">
+      <c r="B299" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C299" s="29"/>
@@ -16897,11 +16897,11 @@
       <c r="J299" s="19"/>
       <c r="K299" s="19"/>
       <c r="L299" s="19"/>
-      <c r="M299" s="85" t="s">
+      <c r="M299" s="84" t="s">
         <v>513</v>
       </c>
-      <c r="N299" s="85"/>
-      <c r="O299" s="85"/>
+      <c r="N299" s="84"/>
+      <c r="O299" s="84"/>
       <c r="P299" s="22" t="s">
         <v>1</v>
       </c>
@@ -16924,7 +16924,7 @@
       <c r="A300" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="B300" s="29" t="s">
+      <c r="B300" s="27" t="s">
         <v>518</v>
       </c>
       <c r="C300" s="29"/>
@@ -16937,11 +16937,11 @@
       <c r="J300" s="19"/>
       <c r="K300" s="19"/>
       <c r="L300" s="19"/>
-      <c r="M300" s="85" t="s">
+      <c r="M300" s="84" t="s">
         <v>518</v>
       </c>
-      <c r="N300" s="85"/>
-      <c r="O300" s="85"/>
+      <c r="N300" s="84"/>
+      <c r="O300" s="84"/>
       <c r="P300" s="22" t="s">
         <v>1</v>
       </c>
@@ -16964,7 +16964,7 @@
       <c r="A301" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="B301" s="29" t="s">
+      <c r="B301" s="27" t="s">
         <v>520</v>
       </c>
       <c r="C301" s="29"/>
@@ -16977,11 +16977,11 @@
       <c r="J301" s="19"/>
       <c r="K301" s="19"/>
       <c r="L301" s="19"/>
-      <c r="M301" s="85" t="s">
+      <c r="M301" s="84" t="s">
         <v>520</v>
       </c>
-      <c r="N301" s="85"/>
-      <c r="O301" s="85"/>
+      <c r="N301" s="84"/>
+      <c r="O301" s="84"/>
       <c r="P301" s="22" t="s">
         <v>1</v>
       </c>
@@ -17004,7 +17004,7 @@
       <c r="A302" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="B302" s="29" t="s">
+      <c r="B302" s="27" t="s">
         <v>519</v>
       </c>
       <c r="C302" s="29"/>
@@ -17017,11 +17017,11 @@
       <c r="J302" s="19"/>
       <c r="K302" s="19"/>
       <c r="L302" s="19"/>
-      <c r="M302" s="85" t="s">
+      <c r="M302" s="84" t="s">
         <v>519</v>
       </c>
-      <c r="N302" s="85"/>
-      <c r="O302" s="85"/>
+      <c r="N302" s="84"/>
+      <c r="O302" s="84"/>
       <c r="P302" s="22" t="s">
         <v>1</v>
       </c>
@@ -17044,7 +17044,7 @@
       <c r="A303" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="B303" s="29" t="s">
+      <c r="B303" s="27" t="s">
         <v>521</v>
       </c>
       <c r="C303" s="29"/>
@@ -17057,11 +17057,11 @@
       <c r="J303" s="19"/>
       <c r="K303" s="19"/>
       <c r="L303" s="19"/>
-      <c r="M303" s="85" t="s">
+      <c r="M303" s="84" t="s">
         <v>521</v>
       </c>
-      <c r="N303" s="85"/>
-      <c r="O303" s="85"/>
+      <c r="N303" s="84"/>
+      <c r="O303" s="84"/>
       <c r="P303" s="22" t="s">
         <v>1</v>
       </c>
@@ -17084,7 +17084,7 @@
       <c r="A304" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="B304" s="29" t="s">
+      <c r="B304" s="27" t="s">
         <v>514</v>
       </c>
       <c r="C304" s="29"/>
@@ -17097,11 +17097,11 @@
       <c r="J304" s="19"/>
       <c r="K304" s="19"/>
       <c r="L304" s="19"/>
-      <c r="M304" s="85" t="s">
+      <c r="M304" s="84" t="s">
         <v>514</v>
       </c>
-      <c r="N304" s="85"/>
-      <c r="O304" s="85"/>
+      <c r="N304" s="84"/>
+      <c r="O304" s="84"/>
       <c r="P304" s="22" t="s">
         <v>1</v>
       </c>
@@ -17124,7 +17124,7 @@
       <c r="A305" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="B305" s="29" t="s">
+      <c r="B305" s="27" t="s">
         <v>515</v>
       </c>
       <c r="C305" s="29"/>
@@ -17137,11 +17137,11 @@
       <c r="J305" s="19"/>
       <c r="K305" s="19"/>
       <c r="L305" s="19"/>
-      <c r="M305" s="85" t="s">
+      <c r="M305" s="84" t="s">
         <v>515</v>
       </c>
-      <c r="N305" s="85"/>
-      <c r="O305" s="85"/>
+      <c r="N305" s="84"/>
+      <c r="O305" s="84"/>
       <c r="P305" s="22" t="s">
         <v>1</v>
       </c>
@@ -17164,7 +17164,7 @@
       <c r="A306" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="B306" s="29" t="s">
+      <c r="B306" s="27" t="s">
         <v>516</v>
       </c>
       <c r="C306" s="29"/>
@@ -17177,11 +17177,11 @@
       <c r="J306" s="19"/>
       <c r="K306" s="19"/>
       <c r="L306" s="19"/>
-      <c r="M306" s="85" t="s">
+      <c r="M306" s="84" t="s">
         <v>516</v>
       </c>
-      <c r="N306" s="85"/>
-      <c r="O306" s="85"/>
+      <c r="N306" s="84"/>
+      <c r="O306" s="84"/>
       <c r="P306" s="22" t="s">
         <v>1</v>
       </c>
@@ -17204,7 +17204,7 @@
       <c r="A307" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="B307" s="29" t="s">
+      <c r="B307" s="27" t="s">
         <v>517</v>
       </c>
       <c r="C307" s="29"/>
@@ -17217,11 +17217,11 @@
       <c r="J307" s="19"/>
       <c r="K307" s="19"/>
       <c r="L307" s="19"/>
-      <c r="M307" s="84" t="s">
+      <c r="M307" s="83" t="s">
         <v>517</v>
       </c>
-      <c r="N307" s="84"/>
-      <c r="O307" s="84"/>
+      <c r="N307" s="83"/>
+      <c r="O307" s="83"/>
       <c r="P307" s="22" t="s">
         <v>1</v>
       </c>
@@ -17244,7 +17244,7 @@
       <c r="A308" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="B308" s="29" t="s">
+      <c r="B308" s="27" t="s">
         <v>685</v>
       </c>
       <c r="C308" s="29"/>
@@ -17257,11 +17257,11 @@
       <c r="J308" s="19"/>
       <c r="K308" s="19"/>
       <c r="L308" s="19"/>
-      <c r="M308" s="84" t="s">
+      <c r="M308" s="83" t="s">
         <v>685</v>
       </c>
-      <c r="N308" s="84"/>
-      <c r="O308" s="84"/>
+      <c r="N308" s="83"/>
+      <c r="O308" s="83"/>
       <c r="P308" s="22" t="s">
         <v>1</v>
       </c>
@@ -17284,7 +17284,7 @@
       <c r="A309" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="B309" s="29" t="s">
+      <c r="B309" s="27" t="s">
         <v>686</v>
       </c>
       <c r="C309" s="29"/>
@@ -17297,11 +17297,11 @@
       <c r="J309" s="19"/>
       <c r="K309" s="19"/>
       <c r="L309" s="19"/>
-      <c r="M309" s="84" t="s">
+      <c r="M309" s="83" t="s">
         <v>686</v>
       </c>
-      <c r="N309" s="84"/>
-      <c r="O309" s="84"/>
+      <c r="N309" s="83"/>
+      <c r="O309" s="83"/>
       <c r="P309" s="22" t="s">
         <v>1</v>
       </c>
@@ -17324,7 +17324,7 @@
       <c r="A310" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="B310" s="29" t="s">
+      <c r="B310" s="27" t="s">
         <v>687</v>
       </c>
       <c r="C310" s="29"/>
@@ -17337,11 +17337,11 @@
       <c r="J310" s="19"/>
       <c r="K310" s="19"/>
       <c r="L310" s="19"/>
-      <c r="M310" s="84" t="s">
+      <c r="M310" s="83" t="s">
         <v>687</v>
       </c>
-      <c r="N310" s="84"/>
-      <c r="O310" s="84"/>
+      <c r="N310" s="83"/>
+      <c r="O310" s="83"/>
       <c r="P310" s="22" t="s">
         <v>1</v>
       </c>
@@ -17364,7 +17364,7 @@
       <c r="A311" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="B311" s="29" t="s">
+      <c r="B311" s="27" t="s">
         <v>510</v>
       </c>
       <c r="C311" s="29"/>
@@ -17377,11 +17377,11 @@
       <c r="J311" s="19"/>
       <c r="K311" s="19"/>
       <c r="L311" s="19"/>
-      <c r="M311" s="84" t="s">
+      <c r="M311" s="83" t="s">
         <v>510</v>
       </c>
-      <c r="N311" s="84"/>
-      <c r="O311" s="84"/>
+      <c r="N311" s="83"/>
+      <c r="O311" s="83"/>
       <c r="P311" s="22" t="s">
         <v>1</v>
       </c>
@@ -17404,7 +17404,7 @@
       <c r="A312" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="B312" s="29" t="s">
+      <c r="B312" s="27" t="s">
         <v>675</v>
       </c>
       <c r="C312" s="29"/>
@@ -17417,11 +17417,11 @@
       <c r="J312" s="19"/>
       <c r="K312" s="19"/>
       <c r="L312" s="19"/>
-      <c r="M312" s="84" t="s">
+      <c r="M312" s="83" t="s">
         <v>675</v>
       </c>
-      <c r="N312" s="84"/>
-      <c r="O312" s="84"/>
+      <c r="N312" s="83"/>
+      <c r="O312" s="83"/>
       <c r="P312" s="22" t="s">
         <v>1</v>
       </c>
@@ -17457,11 +17457,11 @@
       <c r="J313" s="19"/>
       <c r="K313" s="19"/>
       <c r="L313" s="19"/>
-      <c r="M313" s="84" t="s">
+      <c r="M313" s="83" t="s">
         <v>688</v>
       </c>
-      <c r="N313" s="84"/>
-      <c r="O313" s="84"/>
+      <c r="N313" s="83"/>
+      <c r="O313" s="83"/>
       <c r="P313" s="22" t="s">
         <v>1</v>
       </c>
@@ -17497,11 +17497,11 @@
       <c r="J314" s="19"/>
       <c r="K314" s="19"/>
       <c r="L314" s="19"/>
-      <c r="M314" s="84" t="s">
+      <c r="M314" s="83" t="s">
         <v>689</v>
       </c>
-      <c r="N314" s="84"/>
-      <c r="O314" s="84"/>
+      <c r="N314" s="83"/>
+      <c r="O314" s="83"/>
       <c r="P314" s="22" t="s">
         <v>1</v>
       </c>
@@ -17537,11 +17537,11 @@
       <c r="J315" s="19"/>
       <c r="K315" s="19"/>
       <c r="L315" s="19"/>
-      <c r="M315" s="84" t="s">
+      <c r="M315" s="83" t="s">
         <v>690</v>
       </c>
-      <c r="N315" s="84"/>
-      <c r="O315" s="84"/>
+      <c r="N315" s="83"/>
+      <c r="O315" s="83"/>
       <c r="P315" s="22" t="s">
         <v>1</v>
       </c>
@@ -17577,11 +17577,11 @@
       <c r="J316" s="19"/>
       <c r="K316" s="19"/>
       <c r="L316" s="19"/>
-      <c r="M316" s="84" t="s">
+      <c r="M316" s="83" t="s">
         <v>691</v>
       </c>
-      <c r="N316" s="84"/>
-      <c r="O316" s="84"/>
+      <c r="N316" s="83"/>
+      <c r="O316" s="83"/>
       <c r="P316" s="22" t="s">
         <v>1</v>
       </c>
@@ -17617,11 +17617,11 @@
       <c r="J317" s="19"/>
       <c r="K317" s="19"/>
       <c r="L317" s="19"/>
-      <c r="M317" s="84" t="s">
+      <c r="M317" s="83" t="s">
         <v>692</v>
       </c>
-      <c r="N317" s="84"/>
-      <c r="O317" s="84"/>
+      <c r="N317" s="83"/>
+      <c r="O317" s="83"/>
       <c r="P317" s="22" t="s">
         <v>1</v>
       </c>
@@ -17657,11 +17657,11 @@
       <c r="J318" s="19"/>
       <c r="K318" s="19"/>
       <c r="L318" s="19"/>
-      <c r="M318" s="84" t="s">
+      <c r="M318" s="83" t="s">
         <v>693</v>
       </c>
-      <c r="N318" s="84"/>
-      <c r="O318" s="84"/>
+      <c r="N318" s="83"/>
+      <c r="O318" s="83"/>
       <c r="P318" s="22" t="s">
         <v>1</v>
       </c>
@@ -17697,11 +17697,11 @@
       <c r="J319" s="19"/>
       <c r="K319" s="19"/>
       <c r="L319" s="19"/>
-      <c r="M319" s="84" t="s">
+      <c r="M319" s="83" t="s">
         <v>694</v>
       </c>
-      <c r="N319" s="84"/>
-      <c r="O319" s="84"/>
+      <c r="N319" s="83"/>
+      <c r="O319" s="83"/>
       <c r="P319" s="22" t="s">
         <v>1</v>
       </c>
@@ -17739,11 +17739,11 @@
       <c r="J320" s="19"/>
       <c r="K320" s="19"/>
       <c r="L320" s="19"/>
-      <c r="M320" s="84" t="s">
+      <c r="M320" s="83" t="s">
         <v>725</v>
       </c>
-      <c r="N320" s="84"/>
-      <c r="O320" s="84"/>
+      <c r="N320" s="83"/>
+      <c r="O320" s="83"/>
       <c r="P320" s="28" t="s">
         <v>176</v>
       </c>
@@ -17779,11 +17779,11 @@
       <c r="J321" s="19"/>
       <c r="K321" s="19"/>
       <c r="L321" s="19"/>
-      <c r="M321" s="84" t="s">
+      <c r="M321" s="83" t="s">
         <v>695</v>
       </c>
-      <c r="N321" s="84"/>
-      <c r="O321" s="84"/>
+      <c r="N321" s="83"/>
+      <c r="O321" s="83"/>
       <c r="P321" s="22" t="s">
         <v>1</v>
       </c>
@@ -17819,11 +17819,11 @@
       <c r="J322" s="19"/>
       <c r="K322" s="19"/>
       <c r="L322" s="19"/>
-      <c r="M322" s="84" t="s">
+      <c r="M322" s="83" t="s">
         <v>505</v>
       </c>
-      <c r="N322" s="84"/>
-      <c r="O322" s="84"/>
+      <c r="N322" s="83"/>
+      <c r="O322" s="83"/>
       <c r="P322" s="22" t="s">
         <v>1</v>
       </c>
@@ -17859,11 +17859,11 @@
       <c r="J323" s="19"/>
       <c r="K323" s="19"/>
       <c r="L323" s="19"/>
-      <c r="M323" s="84" t="s">
+      <c r="M323" s="83" t="s">
         <v>507</v>
       </c>
-      <c r="N323" s="84"/>
-      <c r="O323" s="84"/>
+      <c r="N323" s="83"/>
+      <c r="O323" s="83"/>
       <c r="P323" s="28" t="s">
         <v>187</v>
       </c>
@@ -17899,11 +17899,11 @@
       <c r="J324" s="19"/>
       <c r="K324" s="19"/>
       <c r="L324" s="19"/>
-      <c r="M324" s="84" t="s">
+      <c r="M324" s="83" t="s">
         <v>697</v>
       </c>
-      <c r="N324" s="84"/>
-      <c r="O324" s="84"/>
+      <c r="N324" s="83"/>
+      <c r="O324" s="83"/>
       <c r="P324" s="28" t="s">
         <v>187</v>
       </c>
@@ -17939,11 +17939,11 @@
       <c r="J325" s="19"/>
       <c r="K325" s="19"/>
       <c r="L325" s="19"/>
-      <c r="M325" s="84" t="s">
+      <c r="M325" s="83" t="s">
         <v>699</v>
       </c>
-      <c r="N325" s="84"/>
-      <c r="O325" s="84"/>
+      <c r="N325" s="83"/>
+      <c r="O325" s="83"/>
       <c r="P325" s="22" t="s">
         <v>1</v>
       </c>
@@ -17979,11 +17979,11 @@
       <c r="J326" s="19"/>
       <c r="K326" s="19"/>
       <c r="L326" s="19"/>
-      <c r="M326" s="84" t="s">
+      <c r="M326" s="83" t="s">
         <v>700</v>
       </c>
-      <c r="N326" s="84"/>
-      <c r="O326" s="84"/>
+      <c r="N326" s="83"/>
+      <c r="O326" s="83"/>
       <c r="P326" s="22" t="s">
         <v>1</v>
       </c>
@@ -18019,11 +18019,11 @@
       <c r="J327" s="19"/>
       <c r="K327" s="19"/>
       <c r="L327" s="19"/>
-      <c r="M327" s="84" t="s">
+      <c r="M327" s="83" t="s">
         <v>701</v>
       </c>
-      <c r="N327" s="84"/>
-      <c r="O327" s="84"/>
+      <c r="N327" s="83"/>
+      <c r="O327" s="83"/>
       <c r="P327" s="22" t="s">
         <v>1</v>
       </c>
@@ -18059,11 +18059,11 @@
       <c r="J328" s="19"/>
       <c r="K328" s="19"/>
       <c r="L328" s="19"/>
-      <c r="M328" s="84" t="s">
+      <c r="M328" s="83" t="s">
         <v>506</v>
       </c>
-      <c r="N328" s="84"/>
-      <c r="O328" s="84"/>
+      <c r="N328" s="83"/>
+      <c r="O328" s="83"/>
       <c r="P328" s="22" t="s">
         <v>1</v>
       </c>
@@ -18099,11 +18099,11 @@
       <c r="J329" s="19"/>
       <c r="K329" s="19"/>
       <c r="L329" s="19"/>
-      <c r="M329" s="84" t="s">
+      <c r="M329" s="83" t="s">
         <v>705</v>
       </c>
-      <c r="N329" s="84"/>
-      <c r="O329" s="84"/>
+      <c r="N329" s="83"/>
+      <c r="O329" s="83"/>
       <c r="P329" s="22" t="s">
         <v>1</v>
       </c>
@@ -18139,11 +18139,11 @@
       <c r="J330" s="19"/>
       <c r="K330" s="19"/>
       <c r="L330" s="19"/>
-      <c r="M330" s="84" t="s">
+      <c r="M330" s="83" t="s">
         <v>706</v>
       </c>
-      <c r="N330" s="84"/>
-      <c r="O330" s="84"/>
+      <c r="N330" s="83"/>
+      <c r="O330" s="83"/>
       <c r="P330" s="22" t="s">
         <v>1</v>
       </c>
@@ -18179,11 +18179,11 @@
       <c r="J331" s="19"/>
       <c r="K331" s="19"/>
       <c r="L331" s="19"/>
-      <c r="M331" s="84" t="s">
+      <c r="M331" s="83" t="s">
         <v>708</v>
       </c>
-      <c r="N331" s="84"/>
-      <c r="O331" s="84"/>
+      <c r="N331" s="83"/>
+      <c r="O331" s="83"/>
       <c r="P331" s="28" t="s">
         <v>187</v>
       </c>
@@ -18219,11 +18219,11 @@
       <c r="J332" s="19"/>
       <c r="K332" s="19"/>
       <c r="L332" s="19"/>
-      <c r="M332" s="84" t="s">
+      <c r="M332" s="83" t="s">
         <v>508</v>
       </c>
-      <c r="N332" s="84"/>
-      <c r="O332" s="84"/>
+      <c r="N332" s="83"/>
+      <c r="O332" s="83"/>
       <c r="P332" s="28" t="s">
         <v>187</v>
       </c>
@@ -18259,11 +18259,11 @@
       <c r="J333" s="19"/>
       <c r="K333" s="19"/>
       <c r="L333" s="19"/>
-      <c r="M333" s="84" t="s">
+      <c r="M333" s="83" t="s">
         <v>710</v>
       </c>
-      <c r="N333" s="84"/>
-      <c r="O333" s="84"/>
+      <c r="N333" s="83"/>
+      <c r="O333" s="83"/>
       <c r="P333" s="22" t="s">
         <v>1</v>
       </c>
@@ -18299,11 +18299,11 @@
       <c r="J334" s="19"/>
       <c r="K334" s="19"/>
       <c r="L334" s="19"/>
-      <c r="M334" s="84" t="s">
+      <c r="M334" s="83" t="s">
         <v>711</v>
       </c>
-      <c r="N334" s="84"/>
-      <c r="O334" s="84"/>
+      <c r="N334" s="83"/>
+      <c r="O334" s="83"/>
       <c r="P334" s="22" t="s">
         <v>1</v>
       </c>
@@ -18339,11 +18339,11 @@
       <c r="J335" s="19"/>
       <c r="K335" s="19"/>
       <c r="L335" s="19"/>
-      <c r="M335" s="84" t="s">
+      <c r="M335" s="83" t="s">
         <v>713</v>
       </c>
-      <c r="N335" s="84"/>
-      <c r="O335" s="84"/>
+      <c r="N335" s="83"/>
+      <c r="O335" s="83"/>
       <c r="P335" s="22" t="s">
         <v>1</v>
       </c>
@@ -18379,11 +18379,11 @@
       <c r="J336" s="19"/>
       <c r="K336" s="19"/>
       <c r="L336" s="19"/>
-      <c r="M336" s="84" t="s">
+      <c r="M336" s="83" t="s">
         <v>714</v>
       </c>
-      <c r="N336" s="84"/>
-      <c r="O336" s="84"/>
+      <c r="N336" s="83"/>
+      <c r="O336" s="83"/>
       <c r="P336" s="22" t="s">
         <v>1</v>
       </c>
@@ -18419,11 +18419,11 @@
       <c r="J337" s="19"/>
       <c r="K337" s="19"/>
       <c r="L337" s="19"/>
-      <c r="M337" s="84" t="s">
+      <c r="M337" s="83" t="s">
         <v>716</v>
       </c>
-      <c r="N337" s="84"/>
-      <c r="O337" s="84"/>
+      <c r="N337" s="83"/>
+      <c r="O337" s="83"/>
       <c r="P337" s="22" t="s">
         <v>1</v>
       </c>
@@ -18459,11 +18459,11 @@
       <c r="J338" s="19"/>
       <c r="K338" s="19"/>
       <c r="L338" s="19"/>
-      <c r="M338" s="84" t="s">
+      <c r="M338" s="83" t="s">
         <v>717</v>
       </c>
-      <c r="N338" s="84"/>
-      <c r="O338" s="84"/>
+      <c r="N338" s="83"/>
+      <c r="O338" s="83"/>
       <c r="P338" s="22" t="s">
         <v>1</v>
       </c>
@@ -18499,11 +18499,11 @@
       <c r="J339" s="19"/>
       <c r="K339" s="19"/>
       <c r="L339" s="19"/>
-      <c r="M339" s="84" t="s">
+      <c r="M339" s="83" t="s">
         <v>719</v>
       </c>
-      <c r="N339" s="84"/>
-      <c r="O339" s="84"/>
+      <c r="N339" s="83"/>
+      <c r="O339" s="83"/>
       <c r="P339" s="22" t="s">
         <v>1</v>
       </c>
@@ -18539,11 +18539,11 @@
       <c r="J340" s="19"/>
       <c r="K340" s="19"/>
       <c r="L340" s="19"/>
-      <c r="M340" s="84" t="s">
+      <c r="M340" s="83" t="s">
         <v>720</v>
       </c>
-      <c r="N340" s="84"/>
-      <c r="O340" s="84"/>
+      <c r="N340" s="83"/>
+      <c r="O340" s="83"/>
       <c r="P340" s="22" t="s">
         <v>1</v>
       </c>
@@ -18579,11 +18579,11 @@
       <c r="J341" s="19"/>
       <c r="K341" s="19"/>
       <c r="L341" s="19"/>
-      <c r="M341" s="84" t="s">
+      <c r="M341" s="83" t="s">
         <v>721</v>
       </c>
-      <c r="N341" s="84"/>
-      <c r="O341" s="84"/>
+      <c r="N341" s="83"/>
+      <c r="O341" s="83"/>
       <c r="P341" s="22" t="s">
         <v>1</v>
       </c>
@@ -18619,11 +18619,11 @@
       <c r="J342" s="19"/>
       <c r="K342" s="19"/>
       <c r="L342" s="19"/>
-      <c r="M342" s="84" t="s">
+      <c r="M342" s="83" t="s">
         <v>722</v>
       </c>
-      <c r="N342" s="84"/>
-      <c r="O342" s="84"/>
+      <c r="N342" s="83"/>
+      <c r="O342" s="83"/>
       <c r="P342" s="22" t="s">
         <v>1</v>
       </c>
@@ -18659,11 +18659,11 @@
       <c r="J343" s="19"/>
       <c r="K343" s="19"/>
       <c r="L343" s="19"/>
-      <c r="M343" s="84" t="s">
+      <c r="M343" s="83" t="s">
         <v>724</v>
       </c>
-      <c r="N343" s="84"/>
-      <c r="O343" s="84"/>
+      <c r="N343" s="83"/>
+      <c r="O343" s="83"/>
       <c r="P343" s="22" t="s">
         <v>1</v>
       </c>
@@ -18699,11 +18699,11 @@
       <c r="J344" s="19"/>
       <c r="K344" s="19"/>
       <c r="L344" s="19"/>
-      <c r="M344" s="84" t="s">
+      <c r="M344" s="83" t="s">
         <v>727</v>
       </c>
-      <c r="N344" s="84"/>
-      <c r="O344" s="84"/>
+      <c r="N344" s="83"/>
+      <c r="O344" s="83"/>
       <c r="P344" s="22" t="s">
         <v>1</v>
       </c>
@@ -18739,11 +18739,11 @@
       <c r="J345" s="19"/>
       <c r="K345" s="19"/>
       <c r="L345" s="19"/>
-      <c r="M345" s="84" t="s">
+      <c r="M345" s="83" t="s">
         <v>732</v>
       </c>
-      <c r="N345" s="84"/>
-      <c r="O345" s="84"/>
+      <c r="N345" s="83"/>
+      <c r="O345" s="83"/>
       <c r="P345" s="22" t="s">
         <v>1</v>
       </c>
@@ -18779,11 +18779,11 @@
       <c r="J346" s="19"/>
       <c r="K346" s="19"/>
       <c r="L346" s="19"/>
-      <c r="M346" s="84" t="s">
+      <c r="M346" s="83" t="s">
         <v>736</v>
       </c>
-      <c r="N346" s="84"/>
-      <c r="O346" s="84"/>
+      <c r="N346" s="83"/>
+      <c r="O346" s="83"/>
       <c r="P346" s="22" t="s">
         <v>1</v>
       </c>
@@ -18819,11 +18819,11 @@
       <c r="J347" s="19"/>
       <c r="K347" s="19"/>
       <c r="L347" s="19"/>
-      <c r="M347" s="84" t="s">
+      <c r="M347" s="83" t="s">
         <v>737</v>
       </c>
-      <c r="N347" s="84"/>
-      <c r="O347" s="84"/>
+      <c r="N347" s="83"/>
+      <c r="O347" s="83"/>
       <c r="P347" s="22" t="s">
         <v>1</v>
       </c>
@@ -18859,11 +18859,11 @@
       <c r="J348" s="19"/>
       <c r="K348" s="19"/>
       <c r="L348" s="19"/>
-      <c r="M348" s="84" t="s">
+      <c r="M348" s="83" t="s">
         <v>741</v>
       </c>
-      <c r="N348" s="84"/>
-      <c r="O348" s="84"/>
+      <c r="N348" s="83"/>
+      <c r="O348" s="83"/>
       <c r="P348" s="22" t="s">
         <v>1</v>
       </c>
@@ -18899,11 +18899,11 @@
       <c r="J349" s="19"/>
       <c r="K349" s="19"/>
       <c r="L349" s="19"/>
-      <c r="M349" s="84" t="s">
+      <c r="M349" s="83" t="s">
         <v>744</v>
       </c>
-      <c r="N349" s="84"/>
-      <c r="O349" s="84"/>
+      <c r="N349" s="83"/>
+      <c r="O349" s="83"/>
       <c r="P349" s="22" t="s">
         <v>1</v>
       </c>
@@ -18939,11 +18939,11 @@
       <c r="J350" s="19"/>
       <c r="K350" s="19"/>
       <c r="L350" s="19"/>
-      <c r="M350" s="84" t="s">
+      <c r="M350" s="83" t="s">
         <v>747</v>
       </c>
-      <c r="N350" s="84"/>
-      <c r="O350" s="84"/>
+      <c r="N350" s="83"/>
+      <c r="O350" s="83"/>
       <c r="P350" s="22" t="s">
         <v>1</v>
       </c>
@@ -18979,11 +18979,11 @@
       <c r="J351" s="19"/>
       <c r="K351" s="19"/>
       <c r="L351" s="19"/>
-      <c r="M351" s="84" t="s">
+      <c r="M351" s="83" t="s">
         <v>750</v>
       </c>
-      <c r="N351" s="84"/>
-      <c r="O351" s="84"/>
+      <c r="N351" s="83"/>
+      <c r="O351" s="83"/>
       <c r="P351" s="22" t="s">
         <v>1</v>
       </c>
@@ -19019,11 +19019,11 @@
       <c r="J352" s="19"/>
       <c r="K352" s="19"/>
       <c r="L352" s="19"/>
-      <c r="M352" s="84" t="s">
+      <c r="M352" s="83" t="s">
         <v>753</v>
       </c>
-      <c r="N352" s="84"/>
-      <c r="O352" s="84"/>
+      <c r="N352" s="83"/>
+      <c r="O352" s="83"/>
       <c r="P352" s="22" t="s">
         <v>1</v>
       </c>
@@ -19059,11 +19059,11 @@
       <c r="J353" s="19"/>
       <c r="K353" s="19"/>
       <c r="L353" s="19"/>
-      <c r="M353" s="84" t="s">
+      <c r="M353" s="83" t="s">
         <v>755</v>
       </c>
-      <c r="N353" s="84"/>
-      <c r="O353" s="84"/>
+      <c r="N353" s="83"/>
+      <c r="O353" s="83"/>
       <c r="P353" s="22" t="s">
         <v>1</v>
       </c>
@@ -19099,11 +19099,11 @@
       <c r="J354" s="19"/>
       <c r="K354" s="19"/>
       <c r="L354" s="19"/>
-      <c r="M354" s="84" t="s">
+      <c r="M354" s="83" t="s">
         <v>757</v>
       </c>
-      <c r="N354" s="84"/>
-      <c r="O354" s="84"/>
+      <c r="N354" s="83"/>
+      <c r="O354" s="83"/>
       <c r="P354" s="22" t="s">
         <v>1</v>
       </c>
@@ -19139,11 +19139,11 @@
       <c r="J355" s="19"/>
       <c r="K355" s="19"/>
       <c r="L355" s="19"/>
-      <c r="M355" s="84" t="s">
+      <c r="M355" s="83" t="s">
         <v>758</v>
       </c>
-      <c r="N355" s="84"/>
-      <c r="O355" s="84"/>
+      <c r="N355" s="83"/>
+      <c r="O355" s="83"/>
       <c r="P355" s="22" t="s">
         <v>1</v>
       </c>
@@ -19179,11 +19179,11 @@
       <c r="J356" s="19"/>
       <c r="K356" s="19"/>
       <c r="L356" s="19"/>
-      <c r="M356" s="84" t="s">
+      <c r="M356" s="83" t="s">
         <v>760</v>
       </c>
-      <c r="N356" s="84"/>
-      <c r="O356" s="84"/>
+      <c r="N356" s="83"/>
+      <c r="O356" s="83"/>
       <c r="P356" s="22" t="s">
         <v>1</v>
       </c>
@@ -19219,11 +19219,11 @@
       <c r="J357" s="19"/>
       <c r="K357" s="19"/>
       <c r="L357" s="19"/>
-      <c r="M357" s="84" t="s">
+      <c r="M357" s="83" t="s">
         <v>761</v>
       </c>
-      <c r="N357" s="84"/>
-      <c r="O357" s="84"/>
+      <c r="N357" s="83"/>
+      <c r="O357" s="83"/>
       <c r="P357" s="22" t="s">
         <v>1</v>
       </c>
@@ -19259,11 +19259,11 @@
       <c r="J358" s="19"/>
       <c r="K358" s="19"/>
       <c r="L358" s="19"/>
-      <c r="M358" s="84" t="s">
+      <c r="M358" s="83" t="s">
         <v>850</v>
       </c>
-      <c r="N358" s="84"/>
-      <c r="O358" s="84"/>
+      <c r="N358" s="83"/>
+      <c r="O358" s="83"/>
       <c r="P358" s="22" t="s">
         <v>1</v>
       </c>
@@ -19299,11 +19299,11 @@
       <c r="J359" s="19"/>
       <c r="K359" s="19"/>
       <c r="L359" s="19"/>
-      <c r="M359" s="84" t="s">
+      <c r="M359" s="83" t="s">
         <v>763</v>
       </c>
-      <c r="N359" s="84"/>
-      <c r="O359" s="84"/>
+      <c r="N359" s="83"/>
+      <c r="O359" s="83"/>
       <c r="P359" s="22" t="s">
         <v>1</v>
       </c>
@@ -19339,11 +19339,11 @@
       <c r="J360" s="19"/>
       <c r="K360" s="19"/>
       <c r="L360" s="19"/>
-      <c r="M360" s="84" t="s">
+      <c r="M360" s="83" t="s">
         <v>677</v>
       </c>
-      <c r="N360" s="84"/>
-      <c r="O360" s="84"/>
+      <c r="N360" s="83"/>
+      <c r="O360" s="83"/>
       <c r="P360" s="22" t="s">
         <v>1</v>
       </c>
@@ -19379,11 +19379,11 @@
       <c r="J361" s="19"/>
       <c r="K361" s="19"/>
       <c r="L361" s="19"/>
-      <c r="M361" s="84" t="s">
+      <c r="M361" s="83" t="s">
         <v>765</v>
       </c>
-      <c r="N361" s="84"/>
-      <c r="O361" s="84"/>
+      <c r="N361" s="83"/>
+      <c r="O361" s="83"/>
       <c r="P361" s="22" t="s">
         <v>1</v>
       </c>
@@ -19419,11 +19419,11 @@
       <c r="J362" s="19"/>
       <c r="K362" s="19"/>
       <c r="L362" s="19"/>
-      <c r="M362" s="84" t="s">
+      <c r="M362" s="83" t="s">
         <v>766</v>
       </c>
-      <c r="N362" s="84"/>
-      <c r="O362" s="84"/>
+      <c r="N362" s="83"/>
+      <c r="O362" s="83"/>
       <c r="P362" s="22" t="s">
         <v>1</v>
       </c>
@@ -19459,11 +19459,11 @@
       <c r="J363" s="19"/>
       <c r="K363" s="19"/>
       <c r="L363" s="19"/>
-      <c r="M363" s="84" t="s">
+      <c r="M363" s="83" t="s">
         <v>768</v>
       </c>
-      <c r="N363" s="84"/>
-      <c r="O363" s="84"/>
+      <c r="N363" s="83"/>
+      <c r="O363" s="83"/>
       <c r="P363" s="22" t="s">
         <v>1</v>
       </c>
@@ -19499,11 +19499,11 @@
       <c r="J364" s="19"/>
       <c r="K364" s="19"/>
       <c r="L364" s="19"/>
-      <c r="M364" s="84" t="s">
+      <c r="M364" s="83" t="s">
         <v>769</v>
       </c>
-      <c r="N364" s="84"/>
-      <c r="O364" s="84"/>
+      <c r="N364" s="83"/>
+      <c r="O364" s="83"/>
       <c r="P364" s="22" t="s">
         <v>1</v>
       </c>
@@ -19524,20 +19524,20 @@
     </row>
     <row r="365" spans="1:26" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A365" s="26"/>
-      <c r="B365" s="83"/>
-      <c r="C365" s="83"/>
-      <c r="D365" s="83"/>
-      <c r="E365" s="83"/>
-      <c r="F365" s="83"/>
-      <c r="G365" s="83"/>
-      <c r="H365" s="83"/>
-      <c r="I365" s="83"/>
-      <c r="J365" s="83"/>
-      <c r="K365" s="83"/>
-      <c r="L365" s="83"/>
-      <c r="M365" s="84"/>
-      <c r="N365" s="84"/>
-      <c r="O365" s="84"/>
+      <c r="B365" s="114"/>
+      <c r="C365" s="114"/>
+      <c r="D365" s="114"/>
+      <c r="E365" s="114"/>
+      <c r="F365" s="114"/>
+      <c r="G365" s="114"/>
+      <c r="H365" s="114"/>
+      <c r="I365" s="114"/>
+      <c r="J365" s="114"/>
+      <c r="K365" s="114"/>
+      <c r="L365" s="114"/>
+      <c r="M365" s="83"/>
+      <c r="N365" s="83"/>
+      <c r="O365" s="83"/>
       <c r="P365" s="22" t="s">
         <v>1</v>
       </c>
@@ -19569,11 +19569,11 @@
       <c r="J366" s="19"/>
       <c r="K366" s="19"/>
       <c r="L366" s="19"/>
-      <c r="M366" s="84" t="s">
+      <c r="M366" s="83" t="s">
         <v>777</v>
       </c>
-      <c r="N366" s="84"/>
-      <c r="O366" s="84"/>
+      <c r="N366" s="83"/>
+      <c r="O366" s="83"/>
       <c r="P366" s="28" t="s">
         <v>176</v>
       </c>
@@ -19609,11 +19609,11 @@
       <c r="J367" s="19"/>
       <c r="K367" s="19"/>
       <c r="L367" s="19"/>
-      <c r="M367" s="84" t="s">
+      <c r="M367" s="83" t="s">
         <v>778</v>
       </c>
-      <c r="N367" s="84"/>
-      <c r="O367" s="84"/>
+      <c r="N367" s="83"/>
+      <c r="O367" s="83"/>
       <c r="P367" s="22" t="s">
         <v>1</v>
       </c>
@@ -19649,11 +19649,11 @@
       <c r="J368" s="19"/>
       <c r="K368" s="19"/>
       <c r="L368" s="19"/>
-      <c r="M368" s="84" t="s">
+      <c r="M368" s="83" t="s">
         <v>780</v>
       </c>
-      <c r="N368" s="84"/>
-      <c r="O368" s="84"/>
+      <c r="N368" s="83"/>
+      <c r="O368" s="83"/>
       <c r="P368" s="22" t="s">
         <v>1</v>
       </c>
@@ -19689,11 +19689,11 @@
       <c r="J369" s="19"/>
       <c r="K369" s="19"/>
       <c r="L369" s="19"/>
-      <c r="M369" s="84" t="s">
+      <c r="M369" s="83" t="s">
         <v>781</v>
       </c>
-      <c r="N369" s="84"/>
-      <c r="O369" s="84"/>
+      <c r="N369" s="83"/>
+      <c r="O369" s="83"/>
       <c r="P369" s="22" t="s">
         <v>1</v>
       </c>
@@ -19729,11 +19729,11 @@
       <c r="J370" s="19"/>
       <c r="K370" s="19"/>
       <c r="L370" s="19"/>
-      <c r="M370" s="84" t="s">
+      <c r="M370" s="83" t="s">
         <v>783</v>
       </c>
-      <c r="N370" s="84"/>
-      <c r="O370" s="84"/>
+      <c r="N370" s="83"/>
+      <c r="O370" s="83"/>
       <c r="P370" s="28" t="s">
         <v>176</v>
       </c>
@@ -19769,11 +19769,11 @@
       <c r="J371" s="19"/>
       <c r="K371" s="19"/>
       <c r="L371" s="19"/>
-      <c r="M371" s="84" t="s">
+      <c r="M371" s="83" t="s">
         <v>784</v>
       </c>
-      <c r="N371" s="84"/>
-      <c r="O371" s="84"/>
+      <c r="N371" s="83"/>
+      <c r="O371" s="83"/>
       <c r="P371" s="28" t="s">
         <v>176</v>
       </c>
@@ -19809,11 +19809,11 @@
       <c r="J372" s="19"/>
       <c r="K372" s="19"/>
       <c r="L372" s="19"/>
-      <c r="M372" s="84" t="s">
+      <c r="M372" s="83" t="s">
         <v>785</v>
       </c>
-      <c r="N372" s="84"/>
-      <c r="O372" s="84"/>
+      <c r="N372" s="83"/>
+      <c r="O372" s="83"/>
       <c r="P372" s="22" t="s">
         <v>1</v>
       </c>
@@ -19849,11 +19849,11 @@
       <c r="J373" s="19"/>
       <c r="K373" s="19"/>
       <c r="L373" s="19"/>
-      <c r="M373" s="84" t="s">
+      <c r="M373" s="83" t="s">
         <v>786</v>
       </c>
-      <c r="N373" s="84"/>
-      <c r="O373" s="84"/>
+      <c r="N373" s="83"/>
+      <c r="O373" s="83"/>
       <c r="P373" s="22" t="s">
         <v>1</v>
       </c>
@@ -19889,11 +19889,11 @@
       <c r="J374" s="19"/>
       <c r="K374" s="19"/>
       <c r="L374" s="19"/>
-      <c r="M374" s="84" t="s">
+      <c r="M374" s="83" t="s">
         <v>787</v>
       </c>
-      <c r="N374" s="84"/>
-      <c r="O374" s="84"/>
+      <c r="N374" s="83"/>
+      <c r="O374" s="83"/>
       <c r="P374" s="22" t="s">
         <v>1</v>
       </c>
@@ -19929,11 +19929,11 @@
       <c r="J375" s="19"/>
       <c r="K375" s="19"/>
       <c r="L375" s="19"/>
-      <c r="M375" s="84" t="s">
+      <c r="M375" s="83" t="s">
         <v>788</v>
       </c>
-      <c r="N375" s="84"/>
-      <c r="O375" s="84"/>
+      <c r="N375" s="83"/>
+      <c r="O375" s="83"/>
       <c r="P375" s="22" t="s">
         <v>1</v>
       </c>
@@ -19969,11 +19969,11 @@
       <c r="J376" s="19"/>
       <c r="K376" s="19"/>
       <c r="L376" s="19"/>
-      <c r="M376" s="84" t="s">
+      <c r="M376" s="83" t="s">
         <v>789</v>
       </c>
-      <c r="N376" s="84"/>
-      <c r="O376" s="84"/>
+      <c r="N376" s="83"/>
+      <c r="O376" s="83"/>
       <c r="P376" s="22" t="s">
         <v>1</v>
       </c>
@@ -20009,11 +20009,11 @@
       <c r="J377" s="19"/>
       <c r="K377" s="19"/>
       <c r="L377" s="19"/>
-      <c r="M377" s="84" t="s">
+      <c r="M377" s="83" t="s">
         <v>790</v>
       </c>
-      <c r="N377" s="84"/>
-      <c r="O377" s="84"/>
+      <c r="N377" s="83"/>
+      <c r="O377" s="83"/>
       <c r="P377" s="22" t="s">
         <v>1</v>
       </c>
@@ -20049,11 +20049,11 @@
       <c r="J378" s="19"/>
       <c r="K378" s="19"/>
       <c r="L378" s="19"/>
-      <c r="M378" s="84" t="s">
+      <c r="M378" s="83" t="s">
         <v>791</v>
       </c>
-      <c r="N378" s="84"/>
-      <c r="O378" s="84"/>
+      <c r="N378" s="83"/>
+      <c r="O378" s="83"/>
       <c r="P378" s="22" t="s">
         <v>1</v>
       </c>
@@ -20089,11 +20089,11 @@
       <c r="J379" s="19"/>
       <c r="K379" s="19"/>
       <c r="L379" s="19"/>
-      <c r="M379" s="84" t="s">
+      <c r="M379" s="83" t="s">
         <v>793</v>
       </c>
-      <c r="N379" s="84"/>
-      <c r="O379" s="84"/>
+      <c r="N379" s="83"/>
+      <c r="O379" s="83"/>
       <c r="P379" s="22" t="s">
         <v>1</v>
       </c>
@@ -20129,11 +20129,11 @@
       <c r="J380" s="19"/>
       <c r="K380" s="19"/>
       <c r="L380" s="19"/>
-      <c r="M380" s="84" t="s">
+      <c r="M380" s="83" t="s">
         <v>794</v>
       </c>
-      <c r="N380" s="84"/>
-      <c r="O380" s="84"/>
+      <c r="N380" s="83"/>
+      <c r="O380" s="83"/>
       <c r="P380" s="22" t="s">
         <v>1</v>
       </c>
@@ -20169,11 +20169,11 @@
       <c r="J381" s="19"/>
       <c r="K381" s="19"/>
       <c r="L381" s="19"/>
-      <c r="M381" s="84" t="s">
+      <c r="M381" s="83" t="s">
         <v>795</v>
       </c>
-      <c r="N381" s="84"/>
-      <c r="O381" s="84"/>
+      <c r="N381" s="83"/>
+      <c r="O381" s="83"/>
       <c r="P381" s="22" t="s">
         <v>1</v>
       </c>
@@ -20209,11 +20209,11 @@
       <c r="J382" s="19"/>
       <c r="K382" s="19"/>
       <c r="L382" s="19"/>
-      <c r="M382" s="84" t="s">
+      <c r="M382" s="83" t="s">
         <v>797</v>
       </c>
-      <c r="N382" s="84"/>
-      <c r="O382" s="84"/>
+      <c r="N382" s="83"/>
+      <c r="O382" s="83"/>
       <c r="P382" s="22" t="s">
         <v>1</v>
       </c>
@@ -20249,11 +20249,11 @@
       <c r="J383" s="19"/>
       <c r="K383" s="19"/>
       <c r="L383" s="19"/>
-      <c r="M383" s="84" t="s">
+      <c r="M383" s="83" t="s">
         <v>798</v>
       </c>
-      <c r="N383" s="84"/>
-      <c r="O383" s="84"/>
+      <c r="N383" s="83"/>
+      <c r="O383" s="83"/>
       <c r="P383" s="22" t="s">
         <v>1</v>
       </c>
@@ -20289,11 +20289,11 @@
       <c r="J384" s="19"/>
       <c r="K384" s="19"/>
       <c r="L384" s="19"/>
-      <c r="M384" s="84" t="s">
+      <c r="M384" s="83" t="s">
         <v>800</v>
       </c>
-      <c r="N384" s="84"/>
-      <c r="O384" s="84"/>
+      <c r="N384" s="83"/>
+      <c r="O384" s="83"/>
       <c r="P384" s="28" t="s">
         <v>176</v>
       </c>
@@ -20329,11 +20329,11 @@
       <c r="J385" s="19"/>
       <c r="K385" s="19"/>
       <c r="L385" s="19"/>
-      <c r="M385" s="84" t="s">
+      <c r="M385" s="83" t="s">
         <v>801</v>
       </c>
-      <c r="N385" s="84"/>
-      <c r="O385" s="84"/>
+      <c r="N385" s="83"/>
+      <c r="O385" s="83"/>
       <c r="P385" s="28" t="s">
         <v>176</v>
       </c>
@@ -20369,11 +20369,11 @@
       <c r="J386" s="19"/>
       <c r="K386" s="19"/>
       <c r="L386" s="19"/>
-      <c r="M386" s="84" t="s">
+      <c r="M386" s="83" t="s">
         <v>802</v>
       </c>
-      <c r="N386" s="84"/>
-      <c r="O386" s="84"/>
+      <c r="N386" s="83"/>
+      <c r="O386" s="83"/>
       <c r="P386" s="22" t="s">
         <v>1</v>
       </c>
@@ -20409,11 +20409,11 @@
       <c r="J387" s="19"/>
       <c r="K387" s="19"/>
       <c r="L387" s="19"/>
-      <c r="M387" s="84" t="s">
+      <c r="M387" s="83" t="s">
         <v>803</v>
       </c>
-      <c r="N387" s="84"/>
-      <c r="O387" s="84"/>
+      <c r="N387" s="83"/>
+      <c r="O387" s="83"/>
       <c r="P387" s="22" t="s">
         <v>1</v>
       </c>
@@ -20449,11 +20449,11 @@
       <c r="J388" s="19"/>
       <c r="K388" s="19"/>
       <c r="L388" s="19"/>
-      <c r="M388" s="84" t="s">
+      <c r="M388" s="83" t="s">
         <v>804</v>
       </c>
-      <c r="N388" s="84"/>
-      <c r="O388" s="84"/>
+      <c r="N388" s="83"/>
+      <c r="O388" s="83"/>
       <c r="P388" s="22" t="s">
         <v>1</v>
       </c>
@@ -20489,11 +20489,11 @@
       <c r="J389" s="19"/>
       <c r="K389" s="19"/>
       <c r="L389" s="19"/>
-      <c r="M389" s="84" t="s">
+      <c r="M389" s="83" t="s">
         <v>805</v>
       </c>
-      <c r="N389" s="84"/>
-      <c r="O389" s="84"/>
+      <c r="N389" s="83"/>
+      <c r="O389" s="83"/>
       <c r="P389" s="22" t="s">
         <v>1</v>
       </c>
@@ -20529,11 +20529,11 @@
       <c r="J390" s="19"/>
       <c r="K390" s="19"/>
       <c r="L390" s="19"/>
-      <c r="M390" s="84" t="s">
+      <c r="M390" s="83" t="s">
         <v>806</v>
       </c>
-      <c r="N390" s="84"/>
-      <c r="O390" s="84"/>
+      <c r="N390" s="83"/>
+      <c r="O390" s="83"/>
       <c r="P390" s="22" t="s">
         <v>1</v>
       </c>
@@ -20569,11 +20569,11 @@
       <c r="J391" s="19"/>
       <c r="K391" s="19"/>
       <c r="L391" s="19"/>
-      <c r="M391" s="84" t="s">
+      <c r="M391" s="83" t="s">
         <v>807</v>
       </c>
-      <c r="N391" s="84"/>
-      <c r="O391" s="84"/>
+      <c r="N391" s="83"/>
+      <c r="O391" s="83"/>
       <c r="P391" s="22" t="s">
         <v>1</v>
       </c>
@@ -20609,11 +20609,11 @@
       <c r="J392" s="19"/>
       <c r="K392" s="19"/>
       <c r="L392" s="19"/>
-      <c r="M392" s="84" t="s">
+      <c r="M392" s="83" t="s">
         <v>808</v>
       </c>
-      <c r="N392" s="84"/>
-      <c r="O392" s="84"/>
+      <c r="N392" s="83"/>
+      <c r="O392" s="83"/>
       <c r="P392" s="22" t="s">
         <v>1</v>
       </c>
@@ -20649,11 +20649,11 @@
       <c r="J393" s="19"/>
       <c r="K393" s="19"/>
       <c r="L393" s="19"/>
-      <c r="M393" s="84" t="s">
+      <c r="M393" s="83" t="s">
         <v>810</v>
       </c>
-      <c r="N393" s="84"/>
-      <c r="O393" s="84"/>
+      <c r="N393" s="83"/>
+      <c r="O393" s="83"/>
       <c r="P393" s="22" t="s">
         <v>1</v>
       </c>
@@ -20689,11 +20689,11 @@
       <c r="J394" s="19"/>
       <c r="K394" s="19"/>
       <c r="L394" s="19"/>
-      <c r="M394" s="84" t="s">
+      <c r="M394" s="83" t="s">
         <v>812</v>
       </c>
-      <c r="N394" s="84"/>
-      <c r="O394" s="84"/>
+      <c r="N394" s="83"/>
+      <c r="O394" s="83"/>
       <c r="P394" s="28" t="s">
         <v>176</v>
       </c>
@@ -20729,11 +20729,11 @@
       <c r="J395" s="19"/>
       <c r="K395" s="19"/>
       <c r="L395" s="19"/>
-      <c r="M395" s="84" t="s">
+      <c r="M395" s="83" t="s">
         <v>813</v>
       </c>
-      <c r="N395" s="84"/>
-      <c r="O395" s="84"/>
+      <c r="N395" s="83"/>
+      <c r="O395" s="83"/>
       <c r="P395" s="28" t="s">
         <v>187</v>
       </c>
@@ -20769,11 +20769,11 @@
       <c r="J396" s="19"/>
       <c r="K396" s="19"/>
       <c r="L396" s="19"/>
-      <c r="M396" s="84" t="s">
+      <c r="M396" s="83" t="s">
         <v>814</v>
       </c>
-      <c r="N396" s="84"/>
-      <c r="O396" s="84"/>
+      <c r="N396" s="83"/>
+      <c r="O396" s="83"/>
       <c r="P396" s="22" t="s">
         <v>1</v>
       </c>
@@ -20809,11 +20809,11 @@
       <c r="J397" s="19"/>
       <c r="K397" s="19"/>
       <c r="L397" s="19"/>
-      <c r="M397" s="84" t="s">
+      <c r="M397" s="83" t="s">
         <v>816</v>
       </c>
-      <c r="N397" s="84"/>
-      <c r="O397" s="84"/>
+      <c r="N397" s="83"/>
+      <c r="O397" s="83"/>
       <c r="P397" s="22" t="s">
         <v>1</v>
       </c>
@@ -20849,11 +20849,11 @@
       <c r="J398" s="19"/>
       <c r="K398" s="19"/>
       <c r="L398" s="19"/>
-      <c r="M398" s="84" t="s">
+      <c r="M398" s="83" t="s">
         <v>817</v>
       </c>
-      <c r="N398" s="84"/>
-      <c r="O398" s="84"/>
+      <c r="N398" s="83"/>
+      <c r="O398" s="83"/>
       <c r="P398" s="22" t="s">
         <v>1</v>
       </c>
@@ -20889,11 +20889,11 @@
       <c r="J399" s="19"/>
       <c r="K399" s="19"/>
       <c r="L399" s="19"/>
-      <c r="M399" s="84" t="s">
+      <c r="M399" s="83" t="s">
         <v>818</v>
       </c>
-      <c r="N399" s="84"/>
-      <c r="O399" s="84"/>
+      <c r="N399" s="83"/>
+      <c r="O399" s="83"/>
       <c r="P399" s="22" t="s">
         <v>1</v>
       </c>
@@ -20929,11 +20929,11 @@
       <c r="J400" s="19"/>
       <c r="K400" s="19"/>
       <c r="L400" s="19"/>
-      <c r="M400" s="84" t="s">
+      <c r="M400" s="83" t="s">
         <v>844</v>
       </c>
-      <c r="N400" s="84"/>
-      <c r="O400" s="84"/>
+      <c r="N400" s="83"/>
+      <c r="O400" s="83"/>
       <c r="P400" s="22" t="s">
         <v>1</v>
       </c>
@@ -20969,11 +20969,11 @@
       <c r="J401" s="19"/>
       <c r="K401" s="19"/>
       <c r="L401" s="19"/>
-      <c r="M401" s="84" t="s">
+      <c r="M401" s="83" t="s">
         <v>821</v>
       </c>
-      <c r="N401" s="84"/>
-      <c r="O401" s="84"/>
+      <c r="N401" s="83"/>
+      <c r="O401" s="83"/>
       <c r="P401" s="22" t="s">
         <v>1</v>
       </c>
@@ -21009,11 +21009,11 @@
       <c r="J402" s="19"/>
       <c r="K402" s="19"/>
       <c r="L402" s="19"/>
-      <c r="M402" s="84" t="s">
+      <c r="M402" s="83" t="s">
         <v>822</v>
       </c>
-      <c r="N402" s="84"/>
-      <c r="O402" s="84"/>
+      <c r="N402" s="83"/>
+      <c r="O402" s="83"/>
       <c r="P402" s="22" t="s">
         <v>1</v>
       </c>
@@ -21049,11 +21049,11 @@
       <c r="J403" s="19"/>
       <c r="K403" s="19"/>
       <c r="L403" s="19"/>
-      <c r="M403" s="84" t="s">
+      <c r="M403" s="83" t="s">
         <v>823</v>
       </c>
-      <c r="N403" s="84"/>
-      <c r="O403" s="84"/>
+      <c r="N403" s="83"/>
+      <c r="O403" s="83"/>
       <c r="P403" s="22" t="s">
         <v>1</v>
       </c>
@@ -21089,11 +21089,11 @@
       <c r="J404" s="19"/>
       <c r="K404" s="19"/>
       <c r="L404" s="19"/>
-      <c r="M404" s="84" t="s">
+      <c r="M404" s="83" t="s">
         <v>845</v>
       </c>
-      <c r="N404" s="84"/>
-      <c r="O404" s="84"/>
+      <c r="N404" s="83"/>
+      <c r="O404" s="83"/>
       <c r="P404" s="22" t="s">
         <v>1</v>
       </c>
@@ -21129,11 +21129,11 @@
       <c r="J405" s="19"/>
       <c r="K405" s="19"/>
       <c r="L405" s="19"/>
-      <c r="M405" s="84" t="s">
+      <c r="M405" s="83" t="s">
         <v>826</v>
       </c>
-      <c r="N405" s="84"/>
-      <c r="O405" s="84"/>
+      <c r="N405" s="83"/>
+      <c r="O405" s="83"/>
       <c r="P405" s="22" t="s">
         <v>1</v>
       </c>
@@ -21169,11 +21169,11 @@
       <c r="J406" s="19"/>
       <c r="K406" s="19"/>
       <c r="L406" s="19"/>
-      <c r="M406" s="84" t="s">
+      <c r="M406" s="83" t="s">
         <v>827</v>
       </c>
-      <c r="N406" s="84"/>
-      <c r="O406" s="84"/>
+      <c r="N406" s="83"/>
+      <c r="O406" s="83"/>
       <c r="P406" s="22" t="s">
         <v>1</v>
       </c>
@@ -21209,11 +21209,11 @@
       <c r="J407" s="19"/>
       <c r="K407" s="19"/>
       <c r="L407" s="19"/>
-      <c r="M407" s="84" t="s">
+      <c r="M407" s="83" t="s">
         <v>828</v>
       </c>
-      <c r="N407" s="84"/>
-      <c r="O407" s="84"/>
+      <c r="N407" s="83"/>
+      <c r="O407" s="83"/>
       <c r="P407" s="22" t="s">
         <v>1</v>
       </c>
@@ -21249,11 +21249,11 @@
       <c r="J408" s="19"/>
       <c r="K408" s="19"/>
       <c r="L408" s="19"/>
-      <c r="M408" s="84" t="s">
+      <c r="M408" s="83" t="s">
         <v>830</v>
       </c>
-      <c r="N408" s="84"/>
-      <c r="O408" s="84"/>
+      <c r="N408" s="83"/>
+      <c r="O408" s="83"/>
       <c r="P408" s="22" t="s">
         <v>1</v>
       </c>
@@ -21289,11 +21289,11 @@
       <c r="J409" s="19"/>
       <c r="K409" s="19"/>
       <c r="L409" s="19"/>
-      <c r="M409" s="84" t="s">
+      <c r="M409" s="83" t="s">
         <v>831</v>
       </c>
-      <c r="N409" s="84"/>
-      <c r="O409" s="84"/>
+      <c r="N409" s="83"/>
+      <c r="O409" s="83"/>
       <c r="P409" s="22" t="s">
         <v>1</v>
       </c>
@@ -21329,11 +21329,11 @@
       <c r="J410" s="19"/>
       <c r="K410" s="19"/>
       <c r="L410" s="19"/>
-      <c r="M410" s="84" t="s">
+      <c r="M410" s="83" t="s">
         <v>832</v>
       </c>
-      <c r="N410" s="84"/>
-      <c r="O410" s="84"/>
+      <c r="N410" s="83"/>
+      <c r="O410" s="83"/>
       <c r="P410" s="22" t="s">
         <v>1</v>
       </c>
@@ -21369,11 +21369,11 @@
       <c r="J411" s="19"/>
       <c r="K411" s="19"/>
       <c r="L411" s="19"/>
-      <c r="M411" s="84" t="s">
+      <c r="M411" s="83" t="s">
         <v>846</v>
       </c>
-      <c r="N411" s="84"/>
-      <c r="O411" s="84"/>
+      <c r="N411" s="83"/>
+      <c r="O411" s="83"/>
       <c r="P411" s="22" t="s">
         <v>1</v>
       </c>
@@ -21409,11 +21409,11 @@
       <c r="J412" s="19"/>
       <c r="K412" s="19"/>
       <c r="L412" s="19"/>
-      <c r="M412" s="84" t="s">
+      <c r="M412" s="83" t="s">
         <v>835</v>
       </c>
-      <c r="N412" s="84"/>
-      <c r="O412" s="84"/>
+      <c r="N412" s="83"/>
+      <c r="O412" s="83"/>
       <c r="P412" s="22" t="s">
         <v>1</v>
       </c>
@@ -21449,11 +21449,11 @@
       <c r="J413" s="19"/>
       <c r="K413" s="19"/>
       <c r="L413" s="19"/>
-      <c r="M413" s="84" t="s">
+      <c r="M413" s="83" t="s">
         <v>836</v>
       </c>
-      <c r="N413" s="84"/>
-      <c r="O413" s="84"/>
+      <c r="N413" s="83"/>
+      <c r="O413" s="83"/>
       <c r="P413" s="22" t="s">
         <v>1</v>
       </c>
@@ -21489,11 +21489,11 @@
       <c r="J414" s="19"/>
       <c r="K414" s="19"/>
       <c r="L414" s="19"/>
-      <c r="M414" s="84" t="s">
+      <c r="M414" s="83" t="s">
         <v>837</v>
       </c>
-      <c r="N414" s="84"/>
-      <c r="O414" s="84"/>
+      <c r="N414" s="83"/>
+      <c r="O414" s="83"/>
       <c r="P414" s="22" t="s">
         <v>1</v>
       </c>
@@ -21529,11 +21529,11 @@
       <c r="J415" s="19"/>
       <c r="K415" s="19"/>
       <c r="L415" s="19"/>
-      <c r="M415" s="84" t="s">
+      <c r="M415" s="83" t="s">
         <v>847</v>
       </c>
-      <c r="N415" s="84"/>
-      <c r="O415" s="84"/>
+      <c r="N415" s="83"/>
+      <c r="O415" s="83"/>
       <c r="P415" s="22" t="s">
         <v>1</v>
       </c>
@@ -21569,11 +21569,11 @@
       <c r="J416" s="19"/>
       <c r="K416" s="19"/>
       <c r="L416" s="19"/>
-      <c r="M416" s="84" t="s">
+      <c r="M416" s="83" t="s">
         <v>840</v>
       </c>
-      <c r="N416" s="84"/>
-      <c r="O416" s="84"/>
+      <c r="N416" s="83"/>
+      <c r="O416" s="83"/>
       <c r="P416" s="22" t="s">
         <v>1</v>
       </c>
@@ -21609,11 +21609,11 @@
       <c r="J417" s="19"/>
       <c r="K417" s="19"/>
       <c r="L417" s="19"/>
-      <c r="M417" s="84" t="s">
+      <c r="M417" s="83" t="s">
         <v>841</v>
       </c>
-      <c r="N417" s="84"/>
-      <c r="O417" s="84"/>
+      <c r="N417" s="83"/>
+      <c r="O417" s="83"/>
       <c r="P417" s="22" t="s">
         <v>1</v>
       </c>
@@ -21649,11 +21649,11 @@
       <c r="J418" s="19"/>
       <c r="K418" s="19"/>
       <c r="L418" s="19"/>
-      <c r="M418" s="84" t="s">
+      <c r="M418" s="83" t="s">
         <v>842</v>
       </c>
-      <c r="N418" s="84"/>
-      <c r="O418" s="84"/>
+      <c r="N418" s="83"/>
+      <c r="O418" s="83"/>
       <c r="P418" s="22" t="s">
         <v>1</v>
       </c>
@@ -21685,9 +21685,9 @@
       <c r="J419" s="19"/>
       <c r="K419" s="19"/>
       <c r="L419" s="19"/>
-      <c r="M419" s="84"/>
-      <c r="N419" s="84"/>
-      <c r="O419" s="84"/>
+      <c r="M419" s="83"/>
+      <c r="N419" s="83"/>
+      <c r="O419" s="83"/>
       <c r="P419" s="22"/>
       <c r="Q419" s="22"/>
       <c r="R419" s="28"/>
@@ -21713,9 +21713,9 @@
       <c r="J420" s="19"/>
       <c r="K420" s="19"/>
       <c r="L420" s="19"/>
-      <c r="M420" s="84"/>
-      <c r="N420" s="84"/>
-      <c r="O420" s="84"/>
+      <c r="M420" s="83"/>
+      <c r="N420" s="83"/>
+      <c r="O420" s="83"/>
       <c r="P420" s="22"/>
       <c r="Q420" s="22"/>
       <c r="R420" s="28"/>
@@ -21741,9 +21741,9 @@
       <c r="J421" s="19"/>
       <c r="K421" s="19"/>
       <c r="L421" s="19"/>
-      <c r="M421" s="84"/>
-      <c r="N421" s="84"/>
-      <c r="O421" s="84"/>
+      <c r="M421" s="83"/>
+      <c r="N421" s="83"/>
+      <c r="O421" s="83"/>
       <c r="P421" s="22"/>
       <c r="Q421" s="22"/>
       <c r="R421" s="28"/>
@@ -21769,9 +21769,9 @@
       <c r="J422" s="19"/>
       <c r="K422" s="19"/>
       <c r="L422" s="19"/>
-      <c r="M422" s="84"/>
-      <c r="N422" s="84"/>
-      <c r="O422" s="84"/>
+      <c r="M422" s="83"/>
+      <c r="N422" s="83"/>
+      <c r="O422" s="83"/>
       <c r="P422" s="22"/>
       <c r="Q422" s="22"/>
       <c r="R422" s="28"/>
@@ -21797,9 +21797,9 @@
       <c r="J423" s="19"/>
       <c r="K423" s="19"/>
       <c r="L423" s="19"/>
-      <c r="M423" s="84"/>
-      <c r="N423" s="84"/>
-      <c r="O423" s="84"/>
+      <c r="M423" s="83"/>
+      <c r="N423" s="83"/>
+      <c r="O423" s="83"/>
       <c r="P423" s="22"/>
       <c r="Q423" s="22"/>
       <c r="R423" s="28"/>
@@ -21825,9 +21825,9 @@
       <c r="J424" s="19"/>
       <c r="K424" s="19"/>
       <c r="L424" s="19"/>
-      <c r="M424" s="84"/>
-      <c r="N424" s="84"/>
-      <c r="O424" s="84"/>
+      <c r="M424" s="83"/>
+      <c r="N424" s="83"/>
+      <c r="O424" s="83"/>
       <c r="P424" s="22"/>
       <c r="Q424" s="22"/>
       <c r="R424" s="28"/>
@@ -22188,6 +22188,269 @@
     </row>
   </sheetData>
   <mergeCells count="287">
+    <mergeCell ref="B365:L365"/>
+    <mergeCell ref="M421:O421"/>
+    <mergeCell ref="M422:O422"/>
+    <mergeCell ref="M423:O423"/>
+    <mergeCell ref="M424:O424"/>
+    <mergeCell ref="M412:O412"/>
+    <mergeCell ref="M413:O413"/>
+    <mergeCell ref="M414:O414"/>
+    <mergeCell ref="M415:O415"/>
+    <mergeCell ref="M416:O416"/>
+    <mergeCell ref="M417:O417"/>
+    <mergeCell ref="M418:O418"/>
+    <mergeCell ref="M419:O419"/>
+    <mergeCell ref="M420:O420"/>
+    <mergeCell ref="M403:O403"/>
+    <mergeCell ref="M404:O404"/>
+    <mergeCell ref="M405:O405"/>
+    <mergeCell ref="M406:O406"/>
+    <mergeCell ref="M407:O407"/>
+    <mergeCell ref="M408:O408"/>
+    <mergeCell ref="M409:O409"/>
+    <mergeCell ref="M410:O410"/>
+    <mergeCell ref="M411:O411"/>
+    <mergeCell ref="M394:O394"/>
+    <mergeCell ref="M395:O395"/>
+    <mergeCell ref="M396:O396"/>
+    <mergeCell ref="M397:O397"/>
+    <mergeCell ref="M398:O398"/>
+    <mergeCell ref="M399:O399"/>
+    <mergeCell ref="M400:O400"/>
+    <mergeCell ref="M401:O401"/>
+    <mergeCell ref="M402:O402"/>
+    <mergeCell ref="M385:O385"/>
+    <mergeCell ref="M386:O386"/>
+    <mergeCell ref="M387:O387"/>
+    <mergeCell ref="M388:O388"/>
+    <mergeCell ref="M389:O389"/>
+    <mergeCell ref="M390:O390"/>
+    <mergeCell ref="M391:O391"/>
+    <mergeCell ref="M392:O392"/>
+    <mergeCell ref="M393:O393"/>
+    <mergeCell ref="M376:O376"/>
+    <mergeCell ref="M377:O377"/>
+    <mergeCell ref="M378:O378"/>
+    <mergeCell ref="M379:O379"/>
+    <mergeCell ref="M380:O380"/>
+    <mergeCell ref="M381:O381"/>
+    <mergeCell ref="M382:O382"/>
+    <mergeCell ref="M383:O383"/>
+    <mergeCell ref="M384:O384"/>
+    <mergeCell ref="M367:O367"/>
+    <mergeCell ref="M368:O368"/>
+    <mergeCell ref="M369:O369"/>
+    <mergeCell ref="M370:O370"/>
+    <mergeCell ref="M371:O371"/>
+    <mergeCell ref="M372:O372"/>
+    <mergeCell ref="M373:O373"/>
+    <mergeCell ref="M374:O374"/>
+    <mergeCell ref="M375:O375"/>
+    <mergeCell ref="M358:O358"/>
+    <mergeCell ref="M359:O359"/>
+    <mergeCell ref="M360:O360"/>
+    <mergeCell ref="M361:O361"/>
+    <mergeCell ref="M362:O362"/>
+    <mergeCell ref="M363:O363"/>
+    <mergeCell ref="M364:O364"/>
+    <mergeCell ref="M365:O365"/>
+    <mergeCell ref="M366:O366"/>
+    <mergeCell ref="M349:O349"/>
+    <mergeCell ref="M350:O350"/>
+    <mergeCell ref="M351:O351"/>
+    <mergeCell ref="M352:O352"/>
+    <mergeCell ref="M353:O353"/>
+    <mergeCell ref="M354:O354"/>
+    <mergeCell ref="M355:O355"/>
+    <mergeCell ref="M356:O356"/>
+    <mergeCell ref="M357:O357"/>
+    <mergeCell ref="M258:O258"/>
+    <mergeCell ref="M259:O259"/>
+    <mergeCell ref="M260:O260"/>
+    <mergeCell ref="M261:O261"/>
+    <mergeCell ref="M252:O252"/>
+    <mergeCell ref="M253:O253"/>
+    <mergeCell ref="M254:O254"/>
+    <mergeCell ref="M255:O255"/>
+    <mergeCell ref="M256:O256"/>
+    <mergeCell ref="M249:O249"/>
+    <mergeCell ref="M250:O250"/>
+    <mergeCell ref="M251:O251"/>
+    <mergeCell ref="M241:O241"/>
+    <mergeCell ref="M242:O242"/>
+    <mergeCell ref="M246:O246"/>
+    <mergeCell ref="M247:O247"/>
+    <mergeCell ref="M248:O248"/>
+    <mergeCell ref="M257:O257"/>
+    <mergeCell ref="M236:O236"/>
+    <mergeCell ref="M237:O237"/>
+    <mergeCell ref="M238:O238"/>
+    <mergeCell ref="M239:O239"/>
+    <mergeCell ref="M240:O240"/>
+    <mergeCell ref="M231:O231"/>
+    <mergeCell ref="M232:O232"/>
+    <mergeCell ref="M233:O233"/>
+    <mergeCell ref="M234:O234"/>
+    <mergeCell ref="M235:O235"/>
+    <mergeCell ref="M226:O226"/>
+    <mergeCell ref="M227:O227"/>
+    <mergeCell ref="M228:O228"/>
+    <mergeCell ref="M229:O229"/>
+    <mergeCell ref="M230:O230"/>
+    <mergeCell ref="M221:O221"/>
+    <mergeCell ref="M222:O222"/>
+    <mergeCell ref="M223:O223"/>
+    <mergeCell ref="M224:O224"/>
+    <mergeCell ref="M225:O225"/>
+    <mergeCell ref="M216:O216"/>
+    <mergeCell ref="M217:O217"/>
+    <mergeCell ref="M218:O218"/>
+    <mergeCell ref="M219:O219"/>
+    <mergeCell ref="M220:O220"/>
+    <mergeCell ref="M211:O211"/>
+    <mergeCell ref="M212:O212"/>
+    <mergeCell ref="M213:O213"/>
+    <mergeCell ref="M214:O214"/>
+    <mergeCell ref="M215:O215"/>
+    <mergeCell ref="M206:O206"/>
+    <mergeCell ref="M207:O207"/>
+    <mergeCell ref="M208:O208"/>
+    <mergeCell ref="M209:O209"/>
+    <mergeCell ref="M210:O210"/>
+    <mergeCell ref="M201:O201"/>
+    <mergeCell ref="M202:O202"/>
+    <mergeCell ref="M203:O203"/>
+    <mergeCell ref="M204:O204"/>
+    <mergeCell ref="M205:O205"/>
+    <mergeCell ref="M198:O198"/>
+    <mergeCell ref="M199:O199"/>
+    <mergeCell ref="P178:P179"/>
+    <mergeCell ref="Q178:Q179"/>
+    <mergeCell ref="M178:O179"/>
+    <mergeCell ref="M180:O180"/>
+    <mergeCell ref="M181:O181"/>
+    <mergeCell ref="M182:O182"/>
+    <mergeCell ref="M183:O183"/>
+    <mergeCell ref="M184:O184"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="G26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="R75:R78"/>
+    <mergeCell ref="Q91:Q93"/>
+    <mergeCell ref="O91:O93"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="L91:L93"/>
+    <mergeCell ref="G91:K93"/>
+    <mergeCell ref="M91:M93"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="P91:P93"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="R6:R11"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="R82:R83"/>
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="G82:K83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="T65:T66"/>
+    <mergeCell ref="R178:T179"/>
+    <mergeCell ref="T53:T54"/>
+    <mergeCell ref="T55:T56"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="G47:K48"/>
+    <mergeCell ref="G49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="B178:L179"/>
+    <mergeCell ref="M262:O262"/>
+    <mergeCell ref="M263:O263"/>
+    <mergeCell ref="M264:O264"/>
+    <mergeCell ref="M265:O265"/>
+    <mergeCell ref="M266:O266"/>
+    <mergeCell ref="M267:O267"/>
+    <mergeCell ref="M268:O268"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="T79:T80"/>
+    <mergeCell ref="S120:S145"/>
+    <mergeCell ref="M200:O200"/>
+    <mergeCell ref="M190:O190"/>
+    <mergeCell ref="M191:O191"/>
+    <mergeCell ref="M192:O192"/>
+    <mergeCell ref="M194:O194"/>
+    <mergeCell ref="M195:O195"/>
+    <mergeCell ref="M193:O193"/>
+    <mergeCell ref="M185:O185"/>
+    <mergeCell ref="M186:O186"/>
+    <mergeCell ref="M187:O187"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="M189:O189"/>
+    <mergeCell ref="M196:O196"/>
+    <mergeCell ref="M197:O197"/>
+    <mergeCell ref="M269:O269"/>
+    <mergeCell ref="M270:O270"/>
+    <mergeCell ref="M271:O271"/>
+    <mergeCell ref="M272:O272"/>
+    <mergeCell ref="M273:O273"/>
+    <mergeCell ref="M274:O274"/>
+    <mergeCell ref="M275:O275"/>
+    <mergeCell ref="M276:O276"/>
+    <mergeCell ref="M277:O277"/>
+    <mergeCell ref="M295:O295"/>
+    <mergeCell ref="M296:O296"/>
+    <mergeCell ref="M297:O297"/>
+    <mergeCell ref="M280:O280"/>
+    <mergeCell ref="M281:O281"/>
+    <mergeCell ref="M282:O282"/>
+    <mergeCell ref="M283:O283"/>
+    <mergeCell ref="M284:O284"/>
+    <mergeCell ref="M285:O285"/>
+    <mergeCell ref="M286:O286"/>
+    <mergeCell ref="M287:O287"/>
+    <mergeCell ref="M288:O288"/>
+    <mergeCell ref="M307:O307"/>
+    <mergeCell ref="M308:O308"/>
+    <mergeCell ref="M309:O309"/>
+    <mergeCell ref="M310:O310"/>
+    <mergeCell ref="M311:O311"/>
+    <mergeCell ref="M278:O278"/>
+    <mergeCell ref="M279:O279"/>
+    <mergeCell ref="M314:O314"/>
+    <mergeCell ref="M315:O315"/>
+    <mergeCell ref="M298:O298"/>
+    <mergeCell ref="M299:O299"/>
+    <mergeCell ref="M300:O300"/>
+    <mergeCell ref="M301:O301"/>
+    <mergeCell ref="M302:O302"/>
+    <mergeCell ref="M303:O303"/>
+    <mergeCell ref="M304:O304"/>
+    <mergeCell ref="M305:O305"/>
+    <mergeCell ref="M306:O306"/>
+    <mergeCell ref="M289:O289"/>
+    <mergeCell ref="M290:O290"/>
+    <mergeCell ref="M291:O291"/>
+    <mergeCell ref="M292:O292"/>
+    <mergeCell ref="M293:O293"/>
+    <mergeCell ref="M294:O294"/>
+    <mergeCell ref="M344:O344"/>
+    <mergeCell ref="M345:O345"/>
+    <mergeCell ref="M316:O316"/>
+    <mergeCell ref="M319:O319"/>
+    <mergeCell ref="M320:O320"/>
+    <mergeCell ref="M321:O321"/>
+    <mergeCell ref="M324:O324"/>
+    <mergeCell ref="M325:O325"/>
+    <mergeCell ref="M326:O326"/>
+    <mergeCell ref="M329:O329"/>
+    <mergeCell ref="M330:O330"/>
     <mergeCell ref="M347:O347"/>
     <mergeCell ref="M348:O348"/>
     <mergeCell ref="M346:O346"/>
@@ -22212,269 +22475,6 @@
     <mergeCell ref="M339:O339"/>
     <mergeCell ref="M340:O340"/>
     <mergeCell ref="M341:O341"/>
-    <mergeCell ref="M344:O344"/>
-    <mergeCell ref="M345:O345"/>
-    <mergeCell ref="M316:O316"/>
-    <mergeCell ref="M319:O319"/>
-    <mergeCell ref="M320:O320"/>
-    <mergeCell ref="M321:O321"/>
-    <mergeCell ref="M324:O324"/>
-    <mergeCell ref="M325:O325"/>
-    <mergeCell ref="M326:O326"/>
-    <mergeCell ref="M329:O329"/>
-    <mergeCell ref="M330:O330"/>
-    <mergeCell ref="M307:O307"/>
-    <mergeCell ref="M308:O308"/>
-    <mergeCell ref="M309:O309"/>
-    <mergeCell ref="M310:O310"/>
-    <mergeCell ref="M311:O311"/>
-    <mergeCell ref="M278:O278"/>
-    <mergeCell ref="M279:O279"/>
-    <mergeCell ref="M314:O314"/>
-    <mergeCell ref="M315:O315"/>
-    <mergeCell ref="M298:O298"/>
-    <mergeCell ref="M299:O299"/>
-    <mergeCell ref="M300:O300"/>
-    <mergeCell ref="M301:O301"/>
-    <mergeCell ref="M302:O302"/>
-    <mergeCell ref="M303:O303"/>
-    <mergeCell ref="M304:O304"/>
-    <mergeCell ref="M305:O305"/>
-    <mergeCell ref="M306:O306"/>
-    <mergeCell ref="M289:O289"/>
-    <mergeCell ref="M290:O290"/>
-    <mergeCell ref="M291:O291"/>
-    <mergeCell ref="M292:O292"/>
-    <mergeCell ref="M293:O293"/>
-    <mergeCell ref="M294:O294"/>
-    <mergeCell ref="M295:O295"/>
-    <mergeCell ref="M296:O296"/>
-    <mergeCell ref="M297:O297"/>
-    <mergeCell ref="M280:O280"/>
-    <mergeCell ref="M281:O281"/>
-    <mergeCell ref="M282:O282"/>
-    <mergeCell ref="M283:O283"/>
-    <mergeCell ref="M284:O284"/>
-    <mergeCell ref="M285:O285"/>
-    <mergeCell ref="M286:O286"/>
-    <mergeCell ref="M287:O287"/>
-    <mergeCell ref="M288:O288"/>
-    <mergeCell ref="M269:O269"/>
-    <mergeCell ref="M270:O270"/>
-    <mergeCell ref="M271:O271"/>
-    <mergeCell ref="M272:O272"/>
-    <mergeCell ref="M273:O273"/>
-    <mergeCell ref="M274:O274"/>
-    <mergeCell ref="M275:O275"/>
-    <mergeCell ref="M276:O276"/>
-    <mergeCell ref="M277:O277"/>
-    <mergeCell ref="M262:O262"/>
-    <mergeCell ref="M263:O263"/>
-    <mergeCell ref="M264:O264"/>
-    <mergeCell ref="M265:O265"/>
-    <mergeCell ref="M266:O266"/>
-    <mergeCell ref="M267:O267"/>
-    <mergeCell ref="M268:O268"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="T79:T80"/>
-    <mergeCell ref="S120:S145"/>
-    <mergeCell ref="M200:O200"/>
-    <mergeCell ref="M190:O190"/>
-    <mergeCell ref="M191:O191"/>
-    <mergeCell ref="M192:O192"/>
-    <mergeCell ref="M194:O194"/>
-    <mergeCell ref="M195:O195"/>
-    <mergeCell ref="M193:O193"/>
-    <mergeCell ref="M185:O185"/>
-    <mergeCell ref="M186:O186"/>
-    <mergeCell ref="M187:O187"/>
-    <mergeCell ref="M188:O188"/>
-    <mergeCell ref="M189:O189"/>
-    <mergeCell ref="M196:O196"/>
-    <mergeCell ref="M197:O197"/>
-    <mergeCell ref="T65:T66"/>
-    <mergeCell ref="R178:T179"/>
-    <mergeCell ref="T53:T54"/>
-    <mergeCell ref="T55:T56"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="G47:K48"/>
-    <mergeCell ref="G49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="B178:L179"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="R6:R11"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="R82:R83"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="G82:K83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="G26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="R75:R78"/>
-    <mergeCell ref="Q91:Q93"/>
-    <mergeCell ref="O91:O93"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="L91:L93"/>
-    <mergeCell ref="G91:K93"/>
-    <mergeCell ref="M91:M93"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="P91:P93"/>
-    <mergeCell ref="M198:O198"/>
-    <mergeCell ref="M199:O199"/>
-    <mergeCell ref="P178:P179"/>
-    <mergeCell ref="Q178:Q179"/>
-    <mergeCell ref="M178:O179"/>
-    <mergeCell ref="M180:O180"/>
-    <mergeCell ref="M181:O181"/>
-    <mergeCell ref="M182:O182"/>
-    <mergeCell ref="M183:O183"/>
-    <mergeCell ref="M184:O184"/>
-    <mergeCell ref="M206:O206"/>
-    <mergeCell ref="M207:O207"/>
-    <mergeCell ref="M208:O208"/>
-    <mergeCell ref="M209:O209"/>
-    <mergeCell ref="M210:O210"/>
-    <mergeCell ref="M201:O201"/>
-    <mergeCell ref="M202:O202"/>
-    <mergeCell ref="M203:O203"/>
-    <mergeCell ref="M204:O204"/>
-    <mergeCell ref="M205:O205"/>
-    <mergeCell ref="M216:O216"/>
-    <mergeCell ref="M217:O217"/>
-    <mergeCell ref="M218:O218"/>
-    <mergeCell ref="M219:O219"/>
-    <mergeCell ref="M220:O220"/>
-    <mergeCell ref="M211:O211"/>
-    <mergeCell ref="M212:O212"/>
-    <mergeCell ref="M213:O213"/>
-    <mergeCell ref="M214:O214"/>
-    <mergeCell ref="M215:O215"/>
-    <mergeCell ref="M226:O226"/>
-    <mergeCell ref="M227:O227"/>
-    <mergeCell ref="M228:O228"/>
-    <mergeCell ref="M229:O229"/>
-    <mergeCell ref="M230:O230"/>
-    <mergeCell ref="M221:O221"/>
-    <mergeCell ref="M222:O222"/>
-    <mergeCell ref="M223:O223"/>
-    <mergeCell ref="M224:O224"/>
-    <mergeCell ref="M225:O225"/>
-    <mergeCell ref="M236:O236"/>
-    <mergeCell ref="M237:O237"/>
-    <mergeCell ref="M238:O238"/>
-    <mergeCell ref="M239:O239"/>
-    <mergeCell ref="M240:O240"/>
-    <mergeCell ref="M231:O231"/>
-    <mergeCell ref="M232:O232"/>
-    <mergeCell ref="M233:O233"/>
-    <mergeCell ref="M234:O234"/>
-    <mergeCell ref="M235:O235"/>
-    <mergeCell ref="M249:O249"/>
-    <mergeCell ref="M250:O250"/>
-    <mergeCell ref="M251:O251"/>
-    <mergeCell ref="M241:O241"/>
-    <mergeCell ref="M242:O242"/>
-    <mergeCell ref="M246:O246"/>
-    <mergeCell ref="M247:O247"/>
-    <mergeCell ref="M248:O248"/>
-    <mergeCell ref="M257:O257"/>
-    <mergeCell ref="M258:O258"/>
-    <mergeCell ref="M259:O259"/>
-    <mergeCell ref="M260:O260"/>
-    <mergeCell ref="M261:O261"/>
-    <mergeCell ref="M252:O252"/>
-    <mergeCell ref="M253:O253"/>
-    <mergeCell ref="M254:O254"/>
-    <mergeCell ref="M255:O255"/>
-    <mergeCell ref="M256:O256"/>
-    <mergeCell ref="M349:O349"/>
-    <mergeCell ref="M350:O350"/>
-    <mergeCell ref="M351:O351"/>
-    <mergeCell ref="M352:O352"/>
-    <mergeCell ref="M353:O353"/>
-    <mergeCell ref="M354:O354"/>
-    <mergeCell ref="M355:O355"/>
-    <mergeCell ref="M356:O356"/>
-    <mergeCell ref="M357:O357"/>
-    <mergeCell ref="M358:O358"/>
-    <mergeCell ref="M359:O359"/>
-    <mergeCell ref="M360:O360"/>
-    <mergeCell ref="M361:O361"/>
-    <mergeCell ref="M362:O362"/>
-    <mergeCell ref="M363:O363"/>
-    <mergeCell ref="M364:O364"/>
-    <mergeCell ref="M365:O365"/>
-    <mergeCell ref="M366:O366"/>
-    <mergeCell ref="M367:O367"/>
-    <mergeCell ref="M368:O368"/>
-    <mergeCell ref="M369:O369"/>
-    <mergeCell ref="M370:O370"/>
-    <mergeCell ref="M371:O371"/>
-    <mergeCell ref="M372:O372"/>
-    <mergeCell ref="M373:O373"/>
-    <mergeCell ref="M374:O374"/>
-    <mergeCell ref="M375:O375"/>
-    <mergeCell ref="M376:O376"/>
-    <mergeCell ref="M377:O377"/>
-    <mergeCell ref="M378:O378"/>
-    <mergeCell ref="M379:O379"/>
-    <mergeCell ref="M380:O380"/>
-    <mergeCell ref="M381:O381"/>
-    <mergeCell ref="M382:O382"/>
-    <mergeCell ref="M383:O383"/>
-    <mergeCell ref="M384:O384"/>
-    <mergeCell ref="M395:O395"/>
-    <mergeCell ref="M396:O396"/>
-    <mergeCell ref="M397:O397"/>
-    <mergeCell ref="M398:O398"/>
-    <mergeCell ref="M399:O399"/>
-    <mergeCell ref="M400:O400"/>
-    <mergeCell ref="M401:O401"/>
-    <mergeCell ref="M402:O402"/>
-    <mergeCell ref="M385:O385"/>
-    <mergeCell ref="M386:O386"/>
-    <mergeCell ref="M387:O387"/>
-    <mergeCell ref="M388:O388"/>
-    <mergeCell ref="M389:O389"/>
-    <mergeCell ref="M390:O390"/>
-    <mergeCell ref="M391:O391"/>
-    <mergeCell ref="M392:O392"/>
-    <mergeCell ref="M393:O393"/>
-    <mergeCell ref="B365:L365"/>
-    <mergeCell ref="M421:O421"/>
-    <mergeCell ref="M422:O422"/>
-    <mergeCell ref="M423:O423"/>
-    <mergeCell ref="M424:O424"/>
-    <mergeCell ref="M412:O412"/>
-    <mergeCell ref="M413:O413"/>
-    <mergeCell ref="M414:O414"/>
-    <mergeCell ref="M415:O415"/>
-    <mergeCell ref="M416:O416"/>
-    <mergeCell ref="M417:O417"/>
-    <mergeCell ref="M418:O418"/>
-    <mergeCell ref="M419:O419"/>
-    <mergeCell ref="M420:O420"/>
-    <mergeCell ref="M403:O403"/>
-    <mergeCell ref="M404:O404"/>
-    <mergeCell ref="M405:O405"/>
-    <mergeCell ref="M406:O406"/>
-    <mergeCell ref="M407:O407"/>
-    <mergeCell ref="M408:O408"/>
-    <mergeCell ref="M409:O409"/>
-    <mergeCell ref="M410:O410"/>
-    <mergeCell ref="M411:O411"/>
-    <mergeCell ref="M394:O394"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G41" r:id="rId1" xr:uid="{28F9BDB3-7E69-4EA9-B145-1143B2C8E8EB}"/>
@@ -22796,9 +22796,50 @@
     <hyperlink ref="B269" r:id="rId317" xr:uid="{1CB03279-09F2-4B64-96C4-CF266C0B2EB1}"/>
     <hyperlink ref="B270" r:id="rId318" xr:uid="{27BB42F0-8FB0-4FC8-811D-B698A1B95B75}"/>
     <hyperlink ref="B271" r:id="rId319" xr:uid="{9504632E-299D-4225-B1FC-7E3DAAEC286D}"/>
+    <hyperlink ref="B272" r:id="rId320" xr:uid="{6FB047F2-0E6B-402A-AACA-BAC4443A579B}"/>
+    <hyperlink ref="B273" r:id="rId321" xr:uid="{7B268F7C-3A9C-4D97-B2DF-6FBFA4CF3E9F}"/>
+    <hyperlink ref="B274" r:id="rId322" xr:uid="{F6E1BDE6-04C5-48FE-9D96-10453DCD1667}"/>
+    <hyperlink ref="B275" r:id="rId323" xr:uid="{23B1C698-1261-40D8-BABF-32DCC92E4194}"/>
+    <hyperlink ref="B276" r:id="rId324" xr:uid="{C46B31F2-EF0D-446B-868C-B4DB690A0CB8}"/>
+    <hyperlink ref="B277" r:id="rId325" xr:uid="{5E9E72F4-7235-47C9-ADF8-DC8BE04B29D4}"/>
+    <hyperlink ref="B278" r:id="rId326" xr:uid="{90FF5CE3-6002-4455-8BEA-04D3FDF0AB6F}"/>
+    <hyperlink ref="B279" r:id="rId327" xr:uid="{7AE9755A-348D-4322-94C7-EDE63BCE9533}"/>
+    <hyperlink ref="B280" r:id="rId328" xr:uid="{D10D2C36-580C-42C0-9070-BC6B72001B2E}"/>
+    <hyperlink ref="B281" r:id="rId329" xr:uid="{EE15468D-FA2C-4F17-8689-B5BD4A353402}"/>
+    <hyperlink ref="B282" r:id="rId330" xr:uid="{5DABBBA2-42A4-4048-93F3-64CD16C2DE56}"/>
+    <hyperlink ref="B283" r:id="rId331" xr:uid="{249118A2-55EB-4B99-96C6-5C565F5A4B68}"/>
+    <hyperlink ref="B284" r:id="rId332" xr:uid="{85FDADE5-3D73-483D-8588-8699A04B3967}"/>
+    <hyperlink ref="B285" r:id="rId333" xr:uid="{7312944C-4FFE-4193-81BF-01CCA4152CC6}"/>
+    <hyperlink ref="B286" r:id="rId334" xr:uid="{A9328CAE-45EA-4E8B-86BE-E81EA76F444D}"/>
+    <hyperlink ref="B287" r:id="rId335" xr:uid="{7ED59817-0F62-4AAB-ABC1-7AC46D88AB60}"/>
+    <hyperlink ref="B288" r:id="rId336" xr:uid="{53D15590-DE43-41AE-8B2B-9861A42184EC}"/>
+    <hyperlink ref="B289" r:id="rId337" xr:uid="{0E1A7555-F884-42F9-AF6B-E59DE1F87A34}"/>
+    <hyperlink ref="B290" r:id="rId338" xr:uid="{064CD2CF-6028-4447-AD6F-8F6F58FAC2DA}"/>
+    <hyperlink ref="B291" r:id="rId339" xr:uid="{53D7E363-479C-4B20-9CB0-638346213B71}"/>
+    <hyperlink ref="B292" r:id="rId340" xr:uid="{21912843-1AA7-48E9-8724-1C4304B64D64}"/>
+    <hyperlink ref="B293" r:id="rId341" xr:uid="{DDA4A5DE-027E-4F04-8D81-AD419D9D527D}"/>
+    <hyperlink ref="B294" r:id="rId342" xr:uid="{5B2AD7C3-613D-405F-936F-C141676DFDF5}"/>
+    <hyperlink ref="B295" r:id="rId343" xr:uid="{2B6BFBF6-E4B1-4C2B-B9A6-8DA80C718CC5}"/>
+    <hyperlink ref="B296" r:id="rId344" xr:uid="{6E055E91-934A-4EF6-99BD-6CC8C5992439}"/>
+    <hyperlink ref="B297" r:id="rId345" xr:uid="{5C21F62F-516B-4AA4-9992-8AB9F4A081E4}"/>
+    <hyperlink ref="B298" r:id="rId346" xr:uid="{CE8DAAA8-8966-4BAB-9F26-788FFB3D905E}"/>
+    <hyperlink ref="B299" r:id="rId347" xr:uid="{03DE3F68-53C9-451D-87ED-1BB2FF5F82E5}"/>
+    <hyperlink ref="B300" r:id="rId348" xr:uid="{C187293A-82AE-4AA9-8702-DAB9A1B1D267}"/>
+    <hyperlink ref="B301" r:id="rId349" xr:uid="{A7D34E34-DED8-4745-9934-6150D064D07A}"/>
+    <hyperlink ref="B302" r:id="rId350" xr:uid="{D9F28F1C-AC33-4491-98F6-BA4B5B15F204}"/>
+    <hyperlink ref="B303" r:id="rId351" xr:uid="{32B2A041-D9CA-40F7-86D5-7341BAE7CED1}"/>
+    <hyperlink ref="B304" r:id="rId352" xr:uid="{E51F595D-B929-4ECD-852B-092678CDAB30}"/>
+    <hyperlink ref="B305" r:id="rId353" xr:uid="{529F1026-126F-4D89-BAF3-5D5D55AB9588}"/>
+    <hyperlink ref="B306" r:id="rId354" xr:uid="{154FBDEA-AFC6-49DD-A788-DCD4B19A39EE}"/>
+    <hyperlink ref="B307" r:id="rId355" xr:uid="{11071537-A96F-4443-9D95-243597E553DC}"/>
+    <hyperlink ref="B308" r:id="rId356" xr:uid="{A811247A-E584-4BFE-9842-5141BD9082AD}"/>
+    <hyperlink ref="B309" r:id="rId357" xr:uid="{A9956828-4F4E-46B1-8808-B0F4ADA1694B}"/>
+    <hyperlink ref="B310" r:id="rId358" xr:uid="{C12306B4-9552-4342-B63B-CFA015540180}"/>
+    <hyperlink ref="B311" r:id="rId359" xr:uid="{E9E3656F-2713-40C4-832A-93325F98DEA2}"/>
+    <hyperlink ref="B312" r:id="rId360" xr:uid="{F3F35B20-BFF7-49EA-B827-0101F167C089}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId320"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId361"/>
 </worksheet>
 </file>
 

--- a/The_.STL_Files/Excel_Spreadsheet_.stl_files/QUEEN_Printed_Part_Reference.xlsx
+++ b/The_.STL_Files/Excel_Spreadsheet_.stl_files/QUEEN_Printed_Part_Reference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repo3\Voron2.4_My_Build_Log\The_.STL_Files\Excel_Spreadsheet_.stl_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8C8124-C606-4783-90A3-EBA0A03A79B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08EAAD6-9CB2-4158-BA74-3A656CBF47E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6675" yWindow="330" windowWidth="21135" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7020" yWindow="675" windowWidth="21135" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V2.4 QUEEN .STL List" sheetId="3" r:id="rId1"/>
@@ -2584,6 +2584,63 @@
   </si>
   <si>
     <t>KVP website:</t>
+  </si>
+  <si>
+    <t>Interface_to_modified_Trident_UHP_200_Clip_x2.stl</t>
+  </si>
+  <si>
+    <t>Modified_Trident_UHP_200_Mount_Clip_x2.stl</t>
+  </si>
+  <si>
+    <t>Trident_UHP_500_Mount_x4.stl</t>
+  </si>
+  <si>
+    <t>Interface_to_modified_Trident_UHP_500_Clip_x4.stl</t>
+  </si>
+  <si>
+    <t>Modified_Trident_UHP_500_Mount_Clip_x4.stl</t>
+  </si>
+  <si>
+    <t>Voron 2.4 RS25 PSU Bracket Legacy</t>
+  </si>
+  <si>
+    <t>Tident Octopus Brackets</t>
+  </si>
+  <si>
+    <t>rs25_psu_bracket.stl</t>
+  </si>
+  <si>
+    <t>raspberrypi_bracket.stl</t>
+  </si>
+  <si>
+    <t>Trident Raspberrypi Bracket</t>
+  </si>
+  <si>
+    <t>https://github.com/VoronDesign/Voron-Trident/blob/main/STLs/ElectronicsBay/raspberrypi_bracket.stl</t>
+  </si>
+  <si>
+    <t>panel_holder_4mm_x2.stl</t>
+  </si>
+  <si>
+    <t>panel_holder_6mm_x2.stl</t>
+  </si>
+  <si>
+    <t>GA_Lock_Body_4mm_x3.stl</t>
+  </si>
+  <si>
+    <t>GA_Lock_Body_6mm_x3.stl</t>
+  </si>
+  <si>
+    <t>[a2]_GA_Latch_4mm_x3.stl</t>
+  </si>
+  <si>
+    <t>[a2]_GA_Latch_6mm_x3.stl</t>
+  </si>
+  <si>
+    <t>website URL:</t>
+  </si>
+  <si>
+    <t>https://www.villageplastics.com/product/abs/</t>
   </si>
   <si>
     <r>
@@ -2603,65 +2660,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 3D printed Parts List: ( PIF parts and Modified parts), this spread is locked so that the column's heights and widths will not change, the  password is QUEEN if you want to edit this file.</t>
+      <t xml:space="preserve"> 3D printed Parts List: ( PIF parts and Modified parts), this spreadsheet is locked so that the column's heights and widths will not change, the  password is QUEEN if you want to edit this file.</t>
     </r>
-  </si>
-  <si>
-    <t>Interface_to_modified_Trident_UHP_200_Clip_x2.stl</t>
-  </si>
-  <si>
-    <t>Modified_Trident_UHP_200_Mount_Clip_x2.stl</t>
-  </si>
-  <si>
-    <t>Trident_UHP_500_Mount_x4.stl</t>
-  </si>
-  <si>
-    <t>Interface_to_modified_Trident_UHP_500_Clip_x4.stl</t>
-  </si>
-  <si>
-    <t>Modified_Trident_UHP_500_Mount_Clip_x4.stl</t>
-  </si>
-  <si>
-    <t>Voron 2.4 RS25 PSU Bracket Legacy</t>
-  </si>
-  <si>
-    <t>Tident Octopus Brackets</t>
-  </si>
-  <si>
-    <t>rs25_psu_bracket.stl</t>
-  </si>
-  <si>
-    <t>raspberrypi_bracket.stl</t>
-  </si>
-  <si>
-    <t>Trident Raspberrypi Bracket</t>
-  </si>
-  <si>
-    <t>https://github.com/VoronDesign/Voron-Trident/blob/main/STLs/ElectronicsBay/raspberrypi_bracket.stl</t>
-  </si>
-  <si>
-    <t>panel_holder_4mm_x2.stl</t>
-  </si>
-  <si>
-    <t>panel_holder_6mm_x2.stl</t>
-  </si>
-  <si>
-    <t>GA_Lock_Body_4mm_x3.stl</t>
-  </si>
-  <si>
-    <t>GA_Lock_Body_6mm_x3.stl</t>
-  </si>
-  <si>
-    <t>[a2]_GA_Latch_4mm_x3.stl</t>
-  </si>
-  <si>
-    <t>[a2]_GA_Latch_6mm_x3.stl</t>
-  </si>
-  <si>
-    <t>website URL:</t>
-  </si>
-  <si>
-    <t>https://www.villageplastics.com/product/abs/</t>
   </si>
 </sst>
 </file>
@@ -3152,6 +3152,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3160,25 +3164,22 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -3189,19 +3190,11 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3209,30 +3202,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3252,26 +3230,48 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3597,8 +3597,8 @@
   </sheetPr>
   <dimension ref="A1:Z447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3628,7 +3628,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>852</v>
+        <v>871</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -3665,10 +3665,10 @@
       <c r="C2" s="9"/>
       <c r="E2" s="9"/>
       <c r="H2" s="24" t="s">
+        <v>869</v>
+      </c>
+      <c r="I2" s="79" t="s">
         <v>870</v>
-      </c>
-      <c r="I2" s="79" t="s">
-        <v>871</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -3698,10 +3698,10 @@
       <c r="C3" s="9"/>
       <c r="E3" s="9"/>
       <c r="H3" s="24" t="s">
+        <v>869</v>
+      </c>
+      <c r="I3" s="79" t="s">
         <v>870</v>
-      </c>
-      <c r="I3" s="79" t="s">
-        <v>871</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -3731,10 +3731,10 @@
       <c r="C4" s="9"/>
       <c r="E4" s="9"/>
       <c r="H4" s="24" t="s">
+        <v>869</v>
+      </c>
+      <c r="I4" s="79" t="s">
         <v>870</v>
-      </c>
-      <c r="I4" s="79" t="s">
-        <v>871</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -3761,17 +3761,17 @@
       <c r="B5" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="105" t="s">
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
       <c r="L5" s="11" t="s">
         <v>164</v>
       </c>
@@ -3844,7 +3844,7 @@
       <c r="Q6" s="23">
         <v>0</v>
       </c>
-      <c r="R6" s="92" t="s">
+      <c r="R6" s="113" t="s">
         <v>79</v>
       </c>
       <c r="S6" s="9"/>
@@ -3892,7 +3892,7 @@
       <c r="Q7" s="23">
         <v>0</v>
       </c>
-      <c r="R7" s="93"/>
+      <c r="R7" s="114"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="24" t="s">
@@ -3938,7 +3938,7 @@
       <c r="Q8" s="23">
         <v>0</v>
       </c>
-      <c r="R8" s="93"/>
+      <c r="R8" s="114"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
       <c r="U8" s="24" t="s">
@@ -3984,7 +3984,7 @@
       <c r="Q9" s="23">
         <v>0</v>
       </c>
-      <c r="R9" s="93"/>
+      <c r="R9" s="114"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="24" t="s">
@@ -4030,7 +4030,7 @@
       <c r="Q10" s="23">
         <v>0</v>
       </c>
-      <c r="R10" s="93"/>
+      <c r="R10" s="114"/>
       <c r="S10" s="9"/>
       <c r="T10" s="28" t="s">
         <v>162</v>
@@ -4078,7 +4078,7 @@
       <c r="Q11" s="22">
         <v>1</v>
       </c>
-      <c r="R11" s="94"/>
+      <c r="R11" s="115"/>
       <c r="S11" s="9"/>
       <c r="T11" s="28" t="s">
         <v>162</v>
@@ -4763,23 +4763,23 @@
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="98" t="s">
+      <c r="G26" s="97" t="s">
         <v>182</v>
       </c>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="101" t="s">
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="M26" s="103" t="s">
+      <c r="M26" s="100" t="s">
         <v>181</v>
       </c>
       <c r="N26" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="O26" s="88" t="s">
+      <c r="O26" s="89" t="s">
         <v>286</v>
       </c>
       <c r="P26" s="22" t="s">
@@ -4813,17 +4813,17 @@
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="103"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="100"/>
       <c r="N27" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="O27" s="88"/>
+      <c r="O27" s="89"/>
       <c r="P27" s="22" t="s">
         <v>1</v>
       </c>
@@ -5793,23 +5793,23 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="98" t="s">
+      <c r="G47" s="97" t="s">
         <v>178</v>
       </c>
-      <c r="H47" s="99"/>
-      <c r="I47" s="99"/>
-      <c r="J47" s="99"/>
-      <c r="K47" s="99"/>
-      <c r="L47" s="101" t="s">
+      <c r="H47" s="116"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="116"/>
+      <c r="L47" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="M47" s="103" t="s">
+      <c r="M47" s="100" t="s">
         <v>190</v>
       </c>
       <c r="N47" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="O47" s="88" t="s">
+      <c r="O47" s="89" t="s">
         <v>347</v>
       </c>
       <c r="P47" s="22" t="s">
@@ -5833,7 +5833,7 @@
       <c r="Z47" s="9"/>
     </row>
     <row r="48" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="97"/>
+      <c r="A48" s="108"/>
       <c r="B48" s="15" t="s">
         <v>23</v>
       </c>
@@ -5843,13 +5843,13 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="99"/>
-      <c r="I48" s="99"/>
-      <c r="J48" s="99"/>
-      <c r="K48" s="99"/>
-      <c r="L48" s="102"/>
-      <c r="M48" s="104"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="116"/>
+      <c r="I48" s="116"/>
+      <c r="J48" s="116"/>
+      <c r="K48" s="116"/>
+      <c r="L48" s="101"/>
+      <c r="M48" s="102"/>
       <c r="N48" s="22" t="s">
         <v>91</v>
       </c>
@@ -5887,23 +5887,23 @@
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="98" t="s">
+      <c r="G49" s="97" t="s">
         <v>178</v>
       </c>
-      <c r="H49" s="99"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="99"/>
-      <c r="K49" s="99"/>
-      <c r="L49" s="101" t="s">
+      <c r="H49" s="116"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="116"/>
+      <c r="L49" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="M49" s="103" t="s">
+      <c r="M49" s="100" t="s">
         <v>190</v>
       </c>
       <c r="N49" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="O49" s="88" t="s">
+      <c r="O49" s="89" t="s">
         <v>346</v>
       </c>
       <c r="P49" s="22" t="s">
@@ -5927,7 +5927,7 @@
       <c r="Z49" s="9"/>
     </row>
     <row r="50" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="97"/>
+      <c r="A50" s="108"/>
       <c r="B50" s="15" t="s">
         <v>23</v>
       </c>
@@ -5937,13 +5937,13 @@
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="99"/>
-      <c r="I50" s="99"/>
-      <c r="J50" s="99"/>
-      <c r="K50" s="99"/>
-      <c r="L50" s="102"/>
-      <c r="M50" s="104"/>
+      <c r="G50" s="117"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116"/>
+      <c r="J50" s="116"/>
+      <c r="K50" s="116"/>
+      <c r="L50" s="101"/>
+      <c r="M50" s="102"/>
       <c r="N50" s="22" t="s">
         <v>93</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>198</v>
       </c>
       <c r="S53" s="9"/>
-      <c r="T53" s="91" t="s">
+      <c r="T53" s="109" t="s">
         <v>35</v>
       </c>
       <c r="U53" s="24"/>
@@ -6156,7 +6156,7 @@
         <v>165</v>
       </c>
       <c r="S54" s="9"/>
-      <c r="T54" s="90"/>
+      <c r="T54" s="112"/>
       <c r="U54" s="24" t="s">
         <v>533</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>2</v>
       </c>
       <c r="S55" s="9"/>
-      <c r="T55" s="91" t="s">
+      <c r="T55" s="109" t="s">
         <v>37</v>
       </c>
       <c r="U55" s="24"/>
@@ -6256,7 +6256,7 @@
         <v>2</v>
       </c>
       <c r="S56" s="9"/>
-      <c r="T56" s="90"/>
+      <c r="T56" s="112"/>
       <c r="U56" s="24" t="s">
         <v>533</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>2</v>
       </c>
       <c r="S65" s="9"/>
-      <c r="T65" s="91" t="s">
+      <c r="T65" s="109" t="s">
         <v>37</v>
       </c>
       <c r="U65" s="24"/>
@@ -6792,7 +6792,7 @@
         <v>165</v>
       </c>
       <c r="S66" s="9"/>
-      <c r="T66" s="90"/>
+      <c r="T66" s="112"/>
       <c r="U66" s="24" t="s">
         <v>534</v>
       </c>
@@ -7240,7 +7240,7 @@
       <c r="Q75" s="23">
         <v>0</v>
       </c>
-      <c r="R75" s="109" t="s">
+      <c r="R75" s="103" t="s">
         <v>214</v>
       </c>
       <c r="S75" s="9"/>
@@ -7294,7 +7294,7 @@
       <c r="Q76" s="23">
         <v>0</v>
       </c>
-      <c r="R76" s="110"/>
+      <c r="R76" s="104"/>
       <c r="S76" s="9"/>
       <c r="T76" s="9"/>
       <c r="U76" s="24" t="s">
@@ -7350,7 +7350,7 @@
       <c r="Q77" s="22">
         <v>1</v>
       </c>
-      <c r="R77" s="110"/>
+      <c r="R77" s="104"/>
       <c r="S77" s="9"/>
       <c r="T77" s="9"/>
       <c r="U77" s="24" t="s">
@@ -7406,7 +7406,7 @@
       <c r="Q78" s="22">
         <v>1</v>
       </c>
-      <c r="R78" s="111"/>
+      <c r="R78" s="105"/>
       <c r="S78" s="9"/>
       <c r="T78" s="9"/>
       <c r="U78" s="24" t="s">
@@ -7461,8 +7461,8 @@
       <c r="R79" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="S79" s="89"/>
-      <c r="T79" s="91" t="s">
+      <c r="S79" s="118"/>
+      <c r="T79" s="109" t="s">
         <v>7</v>
       </c>
       <c r="U79" s="24" t="s">
@@ -7517,8 +7517,8 @@
       <c r="R80" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="S80" s="90"/>
-      <c r="T80" s="90"/>
+      <c r="S80" s="112"/>
+      <c r="T80" s="112"/>
       <c r="U80" s="24" t="s">
         <v>537</v>
       </c>
@@ -7597,23 +7597,23 @@
       </c>
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
-      <c r="G82" s="98" t="s">
+      <c r="G82" s="97" t="s">
         <v>215</v>
       </c>
-      <c r="H82" s="99"/>
-      <c r="I82" s="99"/>
-      <c r="J82" s="99"/>
-      <c r="K82" s="99"/>
-      <c r="L82" s="101" t="s">
+      <c r="H82" s="116"/>
+      <c r="I82" s="116"/>
+      <c r="J82" s="116"/>
+      <c r="K82" s="116"/>
+      <c r="L82" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="M82" s="103" t="s">
+      <c r="M82" s="100" t="s">
         <v>213</v>
       </c>
       <c r="N82" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="O82" s="88" t="s">
+      <c r="O82" s="89" t="s">
         <v>378</v>
       </c>
       <c r="P82" s="107" t="s">
@@ -7622,7 +7622,7 @@
       <c r="Q82" s="22">
         <v>1</v>
       </c>
-      <c r="R82" s="88" t="s">
+      <c r="R82" s="89" t="s">
         <v>165</v>
       </c>
       <c r="S82" s="9"/>
@@ -7637,7 +7637,7 @@
       <c r="Z82" s="9"/>
     </row>
     <row r="83" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="97"/>
+      <c r="A83" s="108"/>
       <c r="B83" s="15" t="s">
         <v>23</v>
       </c>
@@ -7649,13 +7649,13 @@
       </c>
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
-      <c r="G83" s="100"/>
-      <c r="H83" s="99"/>
-      <c r="I83" s="99"/>
-      <c r="J83" s="99"/>
-      <c r="K83" s="99"/>
-      <c r="L83" s="102"/>
-      <c r="M83" s="104"/>
+      <c r="G83" s="117"/>
+      <c r="H83" s="116"/>
+      <c r="I83" s="116"/>
+      <c r="J83" s="116"/>
+      <c r="K83" s="116"/>
+      <c r="L83" s="101"/>
+      <c r="M83" s="102"/>
       <c r="N83" s="22" t="s">
         <v>52</v>
       </c>
@@ -8039,7 +8039,7 @@
       <c r="Z90" s="9"/>
     </row>
     <row r="91" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="97" t="s">
+      <c r="A91" s="108" t="s">
         <v>223</v>
       </c>
       <c r="B91" s="15" t="s">
@@ -8051,29 +8051,29 @@
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
-      <c r="G91" s="98" t="s">
+      <c r="G91" s="97" t="s">
         <v>224</v>
       </c>
-      <c r="H91" s="108"/>
-      <c r="I91" s="108"/>
-      <c r="J91" s="108"/>
-      <c r="K91" s="108"/>
-      <c r="L91" s="101" t="s">
+      <c r="H91" s="98"/>
+      <c r="I91" s="98"/>
+      <c r="J91" s="98"/>
+      <c r="K91" s="98"/>
+      <c r="L91" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="M91" s="103" t="s">
+      <c r="M91" s="100" t="s">
         <v>223</v>
       </c>
       <c r="N91" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="O91" s="88" t="s">
+      <c r="O91" s="89" t="s">
         <v>380</v>
       </c>
-      <c r="P91" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q91" s="112">
+      <c r="P91" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="106">
         <v>6</v>
       </c>
       <c r="R91" s="28" t="s">
@@ -8091,7 +8091,7 @@
       <c r="Z91" s="9"/>
     </row>
     <row r="92" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="97"/>
+      <c r="A92" s="108"/>
       <c r="B92" s="15" t="s">
         <v>23</v>
       </c>
@@ -8101,19 +8101,19 @@
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
-      <c r="G92" s="98"/>
-      <c r="H92" s="108"/>
-      <c r="I92" s="108"/>
-      <c r="J92" s="108"/>
-      <c r="K92" s="108"/>
-      <c r="L92" s="102"/>
-      <c r="M92" s="103"/>
+      <c r="G92" s="97"/>
+      <c r="H92" s="98"/>
+      <c r="I92" s="98"/>
+      <c r="J92" s="98"/>
+      <c r="K92" s="98"/>
+      <c r="L92" s="101"/>
+      <c r="M92" s="100"/>
       <c r="N92" s="22" t="s">
         <v>110</v>
       </c>
       <c r="O92" s="107"/>
-      <c r="P92" s="91"/>
-      <c r="Q92" s="112"/>
+      <c r="P92" s="109"/>
+      <c r="Q92" s="106"/>
       <c r="R92" s="28" t="s">
         <v>382</v>
       </c>
@@ -8131,7 +8131,7 @@
       <c r="Z92" s="9"/>
     </row>
     <row r="93" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="97"/>
+      <c r="A93" s="108"/>
       <c r="B93" s="15" t="s">
         <v>23</v>
       </c>
@@ -8141,19 +8141,19 @@
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
-      <c r="G93" s="98"/>
-      <c r="H93" s="108"/>
-      <c r="I93" s="108"/>
-      <c r="J93" s="108"/>
-      <c r="K93" s="108"/>
-      <c r="L93" s="102"/>
-      <c r="M93" s="103"/>
+      <c r="G93" s="97"/>
+      <c r="H93" s="98"/>
+      <c r="I93" s="98"/>
+      <c r="J93" s="98"/>
+      <c r="K93" s="98"/>
+      <c r="L93" s="101"/>
+      <c r="M93" s="100"/>
       <c r="N93" s="22" t="s">
         <v>112</v>
       </c>
       <c r="O93" s="107"/>
-      <c r="P93" s="91"/>
-      <c r="Q93" s="112"/>
+      <c r="P93" s="109"/>
+      <c r="Q93" s="106"/>
       <c r="R93" s="28" t="s">
         <v>165</v>
       </c>
@@ -9525,7 +9525,7 @@
       <c r="R120" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="S120" s="92" t="s">
+      <c r="S120" s="113" t="s">
         <v>128</v>
       </c>
       <c r="T120" s="28" t="s">
@@ -9581,7 +9581,7 @@
       <c r="R121" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="S121" s="93"/>
+      <c r="S121" s="114"/>
       <c r="T121" s="54" t="s">
         <v>267</v>
       </c>
@@ -9635,7 +9635,7 @@
       <c r="R122" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="S122" s="93"/>
+      <c r="S122" s="114"/>
       <c r="T122" s="54" t="s">
         <v>272</v>
       </c>
@@ -9689,7 +9689,7 @@
       <c r="R123" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="S123" s="93"/>
+      <c r="S123" s="114"/>
       <c r="T123" s="54" t="s">
         <v>273</v>
       </c>
@@ -9737,7 +9737,7 @@
       <c r="R124" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="S124" s="93"/>
+      <c r="S124" s="114"/>
       <c r="T124" s="9" t="s">
         <v>268</v>
       </c>
@@ -9785,7 +9785,7 @@
       <c r="R125" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="S125" s="93"/>
+      <c r="S125" s="114"/>
       <c r="T125" s="9" t="s">
         <v>269</v>
       </c>
@@ -9833,7 +9833,7 @@
       <c r="R126" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="S126" s="93"/>
+      <c r="S126" s="114"/>
       <c r="T126" s="54" t="s">
         <v>274</v>
       </c>
@@ -9881,7 +9881,7 @@
       <c r="R127" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="S127" s="93"/>
+      <c r="S127" s="114"/>
       <c r="T127" s="54"/>
       <c r="U127" s="28" t="s">
         <v>558</v>
@@ -9927,7 +9927,7 @@
       <c r="R128" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="S128" s="93"/>
+      <c r="S128" s="114"/>
       <c r="T128" s="54"/>
       <c r="U128" s="28" t="s">
         <v>558</v>
@@ -9973,7 +9973,7 @@
       <c r="R129" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="S129" s="93"/>
+      <c r="S129" s="114"/>
       <c r="T129" s="54"/>
       <c r="U129" s="28" t="s">
         <v>558</v>
@@ -10019,7 +10019,7 @@
       <c r="R130" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="S130" s="93"/>
+      <c r="S130" s="114"/>
       <c r="T130" s="54"/>
       <c r="U130" s="28" t="s">
         <v>558</v>
@@ -10065,7 +10065,7 @@
       <c r="R131" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="S131" s="93"/>
+      <c r="S131" s="114"/>
       <c r="T131" s="54"/>
       <c r="U131" s="28" t="s">
         <v>558</v>
@@ -10111,7 +10111,7 @@
       <c r="R132" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="S132" s="93"/>
+      <c r="S132" s="114"/>
       <c r="T132" s="54" t="s">
         <v>275</v>
       </c>
@@ -10159,7 +10159,7 @@
       <c r="R133" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="S133" s="93"/>
+      <c r="S133" s="114"/>
       <c r="T133" s="54" t="s">
         <v>276</v>
       </c>
@@ -10207,7 +10207,7 @@
       <c r="R134" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="S134" s="93"/>
+      <c r="S134" s="114"/>
       <c r="T134" s="54" t="s">
         <v>277</v>
       </c>
@@ -10255,7 +10255,7 @@
       <c r="R135" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="S135" s="93"/>
+      <c r="S135" s="114"/>
       <c r="T135" s="54"/>
       <c r="U135" s="54" t="s">
         <v>561</v>
@@ -10301,7 +10301,7 @@
       <c r="R136" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="S136" s="93"/>
+      <c r="S136" s="114"/>
       <c r="T136" s="54" t="s">
         <v>270</v>
       </c>
@@ -10349,7 +10349,7 @@
       <c r="R137" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="S137" s="93"/>
+      <c r="S137" s="114"/>
       <c r="T137" s="54" t="s">
         <v>271</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="R138" s="9"/>
-      <c r="S138" s="93"/>
+      <c r="S138" s="114"/>
       <c r="T138" s="54"/>
       <c r="U138" s="24" t="s">
         <v>564</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="R139" s="9"/>
-      <c r="S139" s="93"/>
+      <c r="S139" s="114"/>
       <c r="T139" s="54"/>
       <c r="U139" s="24" t="s">
         <v>565</v>
@@ -10489,7 +10489,7 @@
         <v>0</v>
       </c>
       <c r="R140" s="9"/>
-      <c r="S140" s="93"/>
+      <c r="S140" s="114"/>
       <c r="T140" s="54"/>
       <c r="U140" s="24" t="s">
         <v>566</v>
@@ -10535,7 +10535,7 @@
         <v>0</v>
       </c>
       <c r="R141" s="9"/>
-      <c r="S141" s="93"/>
+      <c r="S141" s="114"/>
       <c r="T141" s="54"/>
       <c r="U141" s="24" t="s">
         <v>567</v>
@@ -10581,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="R142" s="9"/>
-      <c r="S142" s="93"/>
+      <c r="S142" s="114"/>
       <c r="T142" s="54"/>
       <c r="U142" s="24" t="s">
         <v>568</v>
@@ -10627,7 +10627,7 @@
         <v>0</v>
       </c>
       <c r="R143" s="9"/>
-      <c r="S143" s="93"/>
+      <c r="S143" s="114"/>
       <c r="T143" s="54"/>
       <c r="U143" s="24" t="s">
         <v>569</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="R144" s="9"/>
-      <c r="S144" s="93"/>
+      <c r="S144" s="114"/>
       <c r="T144" s="9"/>
       <c r="U144" s="24" t="s">
         <v>570</v>
@@ -10719,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="R145" s="9"/>
-      <c r="S145" s="94"/>
+      <c r="S145" s="115"/>
       <c r="T145" s="9"/>
       <c r="U145" s="24" t="s">
         <v>571</v>
@@ -12162,25 +12162,25 @@
       <c r="A178" s="61" t="s">
         <v>326</v>
       </c>
-      <c r="B178" s="105" t="s">
+      <c r="B178" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="C178" s="105"/>
-      <c r="D178" s="105"/>
-      <c r="E178" s="105"/>
-      <c r="F178" s="105"/>
-      <c r="G178" s="105"/>
-      <c r="H178" s="105"/>
-      <c r="I178" s="105"/>
-      <c r="J178" s="105"/>
-      <c r="K178" s="105"/>
-      <c r="L178" s="105"/>
+      <c r="C178" s="110"/>
+      <c r="D178" s="110"/>
+      <c r="E178" s="110"/>
+      <c r="F178" s="110"/>
+      <c r="G178" s="110"/>
+      <c r="H178" s="110"/>
+      <c r="I178" s="110"/>
+      <c r="J178" s="110"/>
+      <c r="K178" s="110"/>
+      <c r="L178" s="110"/>
       <c r="M178" s="95" t="s">
         <v>327</v>
       </c>
       <c r="N178" s="95"/>
       <c r="O178" s="95"/>
-      <c r="P178" s="113" t="s">
+      <c r="P178" s="94" t="s">
         <v>0</v>
       </c>
       <c r="Q178" s="95" t="s">
@@ -12202,21 +12202,21 @@
       <c r="A179" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="B179" s="105"/>
-      <c r="C179" s="105"/>
-      <c r="D179" s="105"/>
-      <c r="E179" s="105"/>
-      <c r="F179" s="105"/>
-      <c r="G179" s="105"/>
-      <c r="H179" s="105"/>
-      <c r="I179" s="105"/>
-      <c r="J179" s="105"/>
-      <c r="K179" s="105"/>
-      <c r="L179" s="105"/>
+      <c r="B179" s="110"/>
+      <c r="C179" s="110"/>
+      <c r="D179" s="110"/>
+      <c r="E179" s="110"/>
+      <c r="F179" s="110"/>
+      <c r="G179" s="110"/>
+      <c r="H179" s="110"/>
+      <c r="I179" s="110"/>
+      <c r="J179" s="110"/>
+      <c r="K179" s="110"/>
+      <c r="L179" s="110"/>
       <c r="M179" s="95"/>
       <c r="N179" s="95"/>
       <c r="O179" s="95"/>
-      <c r="P179" s="113"/>
+      <c r="P179" s="94"/>
       <c r="Q179" s="95"/>
       <c r="R179" s="95"/>
       <c r="S179" s="95"/>
@@ -12247,11 +12247,11 @@
       <c r="J180" s="19"/>
       <c r="K180" s="19"/>
       <c r="L180" s="19"/>
-      <c r="M180" s="88" t="s">
+      <c r="M180" s="89" t="s">
         <v>407</v>
       </c>
-      <c r="N180" s="88"/>
-      <c r="O180" s="88"/>
+      <c r="N180" s="89"/>
+      <c r="O180" s="89"/>
       <c r="P180" s="22" t="s">
         <v>1</v>
       </c>
@@ -12287,11 +12287,11 @@
       <c r="J181" s="19"/>
       <c r="K181" s="19"/>
       <c r="L181" s="19"/>
-      <c r="M181" s="88" t="s">
+      <c r="M181" s="89" t="s">
         <v>406</v>
       </c>
-      <c r="N181" s="88"/>
-      <c r="O181" s="88"/>
+      <c r="N181" s="89"/>
+      <c r="O181" s="89"/>
       <c r="P181" s="22" t="s">
         <v>1</v>
       </c>
@@ -12327,11 +12327,11 @@
       <c r="J182" s="19"/>
       <c r="K182" s="19"/>
       <c r="L182" s="19"/>
-      <c r="M182" s="88" t="s">
+      <c r="M182" s="89" t="s">
         <v>405</v>
       </c>
-      <c r="N182" s="88"/>
-      <c r="O182" s="88"/>
+      <c r="N182" s="89"/>
+      <c r="O182" s="89"/>
       <c r="P182" s="22" t="s">
         <v>1</v>
       </c>
@@ -12367,11 +12367,11 @@
       <c r="J183" s="19"/>
       <c r="K183" s="19"/>
       <c r="L183" s="19"/>
-      <c r="M183" s="88" t="s">
+      <c r="M183" s="89" t="s">
         <v>404</v>
       </c>
-      <c r="N183" s="88"/>
-      <c r="O183" s="88"/>
+      <c r="N183" s="89"/>
+      <c r="O183" s="89"/>
       <c r="P183" s="22" t="s">
         <v>1</v>
       </c>
@@ -12407,11 +12407,11 @@
       <c r="J184" s="19"/>
       <c r="K184" s="19"/>
       <c r="L184" s="19"/>
-      <c r="M184" s="88" t="s">
+      <c r="M184" s="89" t="s">
         <v>402</v>
       </c>
-      <c r="N184" s="88"/>
-      <c r="O184" s="88"/>
+      <c r="N184" s="89"/>
+      <c r="O184" s="89"/>
       <c r="P184" s="22" t="s">
         <v>1</v>
       </c>
@@ -12447,11 +12447,11 @@
       <c r="J185" s="19"/>
       <c r="K185" s="19"/>
       <c r="L185" s="19"/>
-      <c r="M185" s="88" t="s">
+      <c r="M185" s="89" t="s">
         <v>403</v>
       </c>
-      <c r="N185" s="88"/>
-      <c r="O185" s="88"/>
+      <c r="N185" s="89"/>
+      <c r="O185" s="89"/>
       <c r="P185" s="22" t="s">
         <v>1</v>
       </c>
@@ -12487,11 +12487,11 @@
       <c r="J186" s="19"/>
       <c r="K186" s="19"/>
       <c r="L186" s="19"/>
-      <c r="M186" s="88" t="s">
+      <c r="M186" s="89" t="s">
         <v>408</v>
       </c>
-      <c r="N186" s="88"/>
-      <c r="O186" s="88"/>
+      <c r="N186" s="89"/>
+      <c r="O186" s="89"/>
       <c r="P186" s="28" t="s">
         <v>175</v>
       </c>
@@ -12527,11 +12527,11 @@
       <c r="J187" s="19"/>
       <c r="K187" s="19"/>
       <c r="L187" s="19"/>
-      <c r="M187" s="88" t="s">
+      <c r="M187" s="89" t="s">
         <v>409</v>
       </c>
-      <c r="N187" s="88"/>
-      <c r="O187" s="88"/>
+      <c r="N187" s="89"/>
+      <c r="O187" s="89"/>
       <c r="P187" s="22" t="s">
         <v>1</v>
       </c>
@@ -12567,11 +12567,11 @@
       <c r="J188" s="19"/>
       <c r="K188" s="19"/>
       <c r="L188" s="19"/>
-      <c r="M188" s="88" t="s">
+      <c r="M188" s="89" t="s">
         <v>410</v>
       </c>
-      <c r="N188" s="88"/>
-      <c r="O188" s="88"/>
+      <c r="N188" s="89"/>
+      <c r="O188" s="89"/>
       <c r="P188" s="22" t="s">
         <v>1</v>
       </c>
@@ -12607,11 +12607,11 @@
       <c r="J189" s="19"/>
       <c r="K189" s="19"/>
       <c r="L189" s="19"/>
-      <c r="M189" s="88" t="s">
+      <c r="M189" s="89" t="s">
         <v>376</v>
       </c>
-      <c r="N189" s="88"/>
-      <c r="O189" s="88"/>
+      <c r="N189" s="89"/>
+      <c r="O189" s="89"/>
       <c r="P189" s="22" t="s">
         <v>1</v>
       </c>
@@ -12649,11 +12649,11 @@
       <c r="J190" s="19"/>
       <c r="K190" s="19"/>
       <c r="L190" s="19"/>
-      <c r="M190" s="88" t="s">
+      <c r="M190" s="89" t="s">
         <v>377</v>
       </c>
-      <c r="N190" s="88"/>
-      <c r="O190" s="88"/>
+      <c r="N190" s="89"/>
+      <c r="O190" s="89"/>
       <c r="P190" s="22" t="s">
         <v>1</v>
       </c>
@@ -12691,11 +12691,11 @@
       <c r="J191" s="19"/>
       <c r="K191" s="19"/>
       <c r="L191" s="19"/>
-      <c r="M191" s="88" t="s">
+      <c r="M191" s="89" t="s">
         <v>413</v>
       </c>
-      <c r="N191" s="88"/>
-      <c r="O191" s="88"/>
+      <c r="N191" s="89"/>
+      <c r="O191" s="89"/>
       <c r="P191" s="28" t="s">
         <v>175</v>
       </c>
@@ -12731,11 +12731,11 @@
       <c r="J192" s="19"/>
       <c r="K192" s="19"/>
       <c r="L192" s="19"/>
-      <c r="M192" s="88" t="s">
+      <c r="M192" s="89" t="s">
         <v>414</v>
       </c>
-      <c r="N192" s="88"/>
-      <c r="O192" s="88"/>
+      <c r="N192" s="89"/>
+      <c r="O192" s="89"/>
       <c r="P192" s="28" t="s">
         <v>175</v>
       </c>
@@ -12771,11 +12771,11 @@
       <c r="J193" s="19"/>
       <c r="K193" s="19"/>
       <c r="L193" s="19"/>
-      <c r="M193" s="88" t="s">
+      <c r="M193" s="89" t="s">
         <v>416</v>
       </c>
-      <c r="N193" s="88"/>
-      <c r="O193" s="88"/>
+      <c r="N193" s="89"/>
+      <c r="O193" s="89"/>
       <c r="P193" s="22" t="s">
         <v>1</v>
       </c>
@@ -12811,11 +12811,11 @@
       <c r="J194" s="19"/>
       <c r="K194" s="19"/>
       <c r="L194" s="19"/>
-      <c r="M194" s="88" t="s">
+      <c r="M194" s="89" t="s">
         <v>417</v>
       </c>
-      <c r="N194" s="88"/>
-      <c r="O194" s="88"/>
+      <c r="N194" s="89"/>
+      <c r="O194" s="89"/>
       <c r="P194" s="22" t="s">
         <v>1</v>
       </c>
@@ -12851,11 +12851,11 @@
       <c r="J195" s="19"/>
       <c r="K195" s="19"/>
       <c r="L195" s="19"/>
-      <c r="M195" s="88" t="s">
+      <c r="M195" s="89" t="s">
         <v>418</v>
       </c>
-      <c r="N195" s="88"/>
-      <c r="O195" s="88"/>
+      <c r="N195" s="89"/>
+      <c r="O195" s="89"/>
       <c r="P195" s="22" t="s">
         <v>1</v>
       </c>
@@ -12891,11 +12891,11 @@
       <c r="J196" s="19"/>
       <c r="K196" s="19"/>
       <c r="L196" s="19"/>
-      <c r="M196" s="87" t="s">
+      <c r="M196" s="88" t="s">
         <v>419</v>
       </c>
-      <c r="N196" s="87"/>
-      <c r="O196" s="87"/>
+      <c r="N196" s="88"/>
+      <c r="O196" s="88"/>
       <c r="P196" s="22" t="s">
         <v>1</v>
       </c>
@@ -12931,11 +12931,11 @@
       <c r="J197" s="19"/>
       <c r="K197" s="19"/>
       <c r="L197" s="19"/>
-      <c r="M197" s="87" t="s">
+      <c r="M197" s="88" t="s">
         <v>420</v>
       </c>
-      <c r="N197" s="87"/>
-      <c r="O197" s="87"/>
+      <c r="N197" s="88"/>
+      <c r="O197" s="88"/>
       <c r="P197" s="28" t="s">
         <v>186</v>
       </c>
@@ -12971,11 +12971,11 @@
       <c r="J198" s="19"/>
       <c r="K198" s="19"/>
       <c r="L198" s="19"/>
-      <c r="M198" s="87" t="s">
+      <c r="M198" s="88" t="s">
         <v>422</v>
       </c>
-      <c r="N198" s="87"/>
-      <c r="O198" s="87"/>
+      <c r="N198" s="88"/>
+      <c r="O198" s="88"/>
       <c r="P198" s="28" t="s">
         <v>186</v>
       </c>
@@ -13011,11 +13011,11 @@
       <c r="J199" s="19"/>
       <c r="K199" s="19"/>
       <c r="L199" s="19"/>
-      <c r="M199" s="87" t="s">
+      <c r="M199" s="88" t="s">
         <v>423</v>
       </c>
-      <c r="N199" s="87"/>
-      <c r="O199" s="87"/>
+      <c r="N199" s="88"/>
+      <c r="O199" s="88"/>
       <c r="P199" s="22" t="s">
         <v>1</v>
       </c>
@@ -13051,11 +13051,11 @@
       <c r="J200" s="19"/>
       <c r="K200" s="19"/>
       <c r="L200" s="19"/>
-      <c r="M200" s="87" t="s">
+      <c r="M200" s="88" t="s">
         <v>424</v>
       </c>
-      <c r="N200" s="87"/>
-      <c r="O200" s="87"/>
+      <c r="N200" s="88"/>
+      <c r="O200" s="88"/>
       <c r="P200" s="22" t="s">
         <v>1</v>
       </c>
@@ -13091,11 +13091,11 @@
       <c r="J201" s="19"/>
       <c r="K201" s="19"/>
       <c r="L201" s="19"/>
-      <c r="M201" s="88" t="s">
+      <c r="M201" s="89" t="s">
         <v>425</v>
       </c>
-      <c r="N201" s="88"/>
-      <c r="O201" s="88"/>
+      <c r="N201" s="89"/>
+      <c r="O201" s="89"/>
       <c r="P201" s="22" t="s">
         <v>1</v>
       </c>
@@ -13131,11 +13131,11 @@
       <c r="J202" s="19"/>
       <c r="K202" s="19"/>
       <c r="L202" s="19"/>
-      <c r="M202" s="88" t="s">
+      <c r="M202" s="89" t="s">
         <v>426</v>
       </c>
-      <c r="N202" s="88"/>
-      <c r="O202" s="88"/>
+      <c r="N202" s="89"/>
+      <c r="O202" s="89"/>
       <c r="P202" s="22" t="s">
         <v>1</v>
       </c>
@@ -13171,11 +13171,11 @@
       <c r="J203" s="19"/>
       <c r="K203" s="19"/>
       <c r="L203" s="19"/>
-      <c r="M203" s="88" t="s">
+      <c r="M203" s="89" t="s">
         <v>427</v>
       </c>
-      <c r="N203" s="88"/>
-      <c r="O203" s="88"/>
+      <c r="N203" s="89"/>
+      <c r="O203" s="89"/>
       <c r="P203" s="22" t="s">
         <v>1</v>
       </c>
@@ -13211,11 +13211,11 @@
       <c r="J204" s="19"/>
       <c r="K204" s="19"/>
       <c r="L204" s="19"/>
-      <c r="M204" s="88" t="s">
+      <c r="M204" s="89" t="s">
         <v>428</v>
       </c>
-      <c r="N204" s="88"/>
-      <c r="O204" s="88"/>
+      <c r="N204" s="89"/>
+      <c r="O204" s="89"/>
       <c r="P204" s="22" t="s">
         <v>1</v>
       </c>
@@ -13251,11 +13251,11 @@
       <c r="J205" s="19"/>
       <c r="K205" s="19"/>
       <c r="L205" s="19"/>
-      <c r="M205" s="88" t="s">
+      <c r="M205" s="89" t="s">
         <v>429</v>
       </c>
-      <c r="N205" s="88"/>
-      <c r="O205" s="88"/>
+      <c r="N205" s="89"/>
+      <c r="O205" s="89"/>
       <c r="P205" s="22" t="s">
         <v>1</v>
       </c>
@@ -13291,11 +13291,11 @@
       <c r="J206" s="19"/>
       <c r="K206" s="19"/>
       <c r="L206" s="19"/>
-      <c r="M206" s="88" t="s">
+      <c r="M206" s="89" t="s">
         <v>430</v>
       </c>
-      <c r="N206" s="88"/>
-      <c r="O206" s="88"/>
+      <c r="N206" s="89"/>
+      <c r="O206" s="89"/>
       <c r="P206" s="22" t="s">
         <v>1</v>
       </c>
@@ -13331,11 +13331,11 @@
       <c r="J207" s="19"/>
       <c r="K207" s="19"/>
       <c r="L207" s="19"/>
-      <c r="M207" s="88" t="s">
+      <c r="M207" s="89" t="s">
         <v>431</v>
       </c>
-      <c r="N207" s="88"/>
-      <c r="O207" s="88"/>
+      <c r="N207" s="89"/>
+      <c r="O207" s="89"/>
       <c r="P207" s="22" t="s">
         <v>1</v>
       </c>
@@ -13371,11 +13371,11 @@
       <c r="J208" s="19"/>
       <c r="K208" s="19"/>
       <c r="L208" s="19"/>
-      <c r="M208" s="88" t="s">
+      <c r="M208" s="89" t="s">
         <v>432</v>
       </c>
-      <c r="N208" s="88"/>
-      <c r="O208" s="88"/>
+      <c r="N208" s="89"/>
+      <c r="O208" s="89"/>
       <c r="P208" s="22" t="s">
         <v>1</v>
       </c>
@@ -13411,11 +13411,11 @@
       <c r="J209" s="19"/>
       <c r="K209" s="19"/>
       <c r="L209" s="19"/>
-      <c r="M209" s="88" t="s">
+      <c r="M209" s="89" t="s">
         <v>433</v>
       </c>
-      <c r="N209" s="88"/>
-      <c r="O209" s="88"/>
+      <c r="N209" s="89"/>
+      <c r="O209" s="89"/>
       <c r="P209" s="22" t="s">
         <v>1</v>
       </c>
@@ -13451,11 +13451,11 @@
       <c r="J210" s="19"/>
       <c r="K210" s="19"/>
       <c r="L210" s="19"/>
-      <c r="M210" s="88" t="s">
+      <c r="M210" s="89" t="s">
         <v>442</v>
       </c>
-      <c r="N210" s="88"/>
-      <c r="O210" s="88"/>
+      <c r="N210" s="89"/>
+      <c r="O210" s="89"/>
       <c r="P210" s="22" t="s">
         <v>1</v>
       </c>
@@ -13491,11 +13491,11 @@
       <c r="J211" s="19"/>
       <c r="K211" s="19"/>
       <c r="L211" s="19"/>
-      <c r="M211" s="88" t="s">
+      <c r="M211" s="89" t="s">
         <v>443</v>
       </c>
-      <c r="N211" s="88"/>
-      <c r="O211" s="88"/>
+      <c r="N211" s="89"/>
+      <c r="O211" s="89"/>
       <c r="P211" s="22" t="s">
         <v>1</v>
       </c>
@@ -13531,11 +13531,11 @@
       <c r="J212" s="19"/>
       <c r="K212" s="19"/>
       <c r="L212" s="19"/>
-      <c r="M212" s="88" t="s">
+      <c r="M212" s="89" t="s">
         <v>444</v>
       </c>
-      <c r="N212" s="88"/>
-      <c r="O212" s="88"/>
+      <c r="N212" s="89"/>
+      <c r="O212" s="89"/>
       <c r="P212" s="28" t="s">
         <v>175</v>
       </c>
@@ -13571,11 +13571,11 @@
       <c r="J213" s="19"/>
       <c r="K213" s="19"/>
       <c r="L213" s="19"/>
-      <c r="M213" s="88" t="s">
+      <c r="M213" s="89" t="s">
         <v>445</v>
       </c>
-      <c r="N213" s="88"/>
-      <c r="O213" s="88"/>
+      <c r="N213" s="89"/>
+      <c r="O213" s="89"/>
       <c r="P213" s="28" t="s">
         <v>175</v>
       </c>
@@ -13611,11 +13611,11 @@
       <c r="J214" s="19"/>
       <c r="K214" s="19"/>
       <c r="L214" s="19"/>
-      <c r="M214" s="88" t="s">
+      <c r="M214" s="89" t="s">
         <v>438</v>
       </c>
-      <c r="N214" s="88"/>
-      <c r="O214" s="88"/>
+      <c r="N214" s="89"/>
+      <c r="O214" s="89"/>
       <c r="P214" s="22" t="s">
         <v>1</v>
       </c>
@@ -13651,11 +13651,11 @@
       <c r="J215" s="19"/>
       <c r="K215" s="19"/>
       <c r="L215" s="19"/>
-      <c r="M215" s="88" t="s">
+      <c r="M215" s="89" t="s">
         <v>441</v>
       </c>
-      <c r="N215" s="88"/>
-      <c r="O215" s="88"/>
+      <c r="N215" s="89"/>
+      <c r="O215" s="89"/>
       <c r="P215" s="28" t="s">
         <v>175</v>
       </c>
@@ -13691,11 +13691,11 @@
       <c r="J216" s="19"/>
       <c r="K216" s="19"/>
       <c r="L216" s="19"/>
-      <c r="M216" s="87" t="s">
+      <c r="M216" s="88" t="s">
         <v>448</v>
       </c>
-      <c r="N216" s="87"/>
-      <c r="O216" s="87"/>
+      <c r="N216" s="88"/>
+      <c r="O216" s="88"/>
       <c r="P216" s="22" t="s">
         <v>1</v>
       </c>
@@ -13731,11 +13731,11 @@
       <c r="J217" s="19"/>
       <c r="K217" s="19"/>
       <c r="L217" s="19"/>
-      <c r="M217" s="87" t="s">
+      <c r="M217" s="88" t="s">
         <v>449</v>
       </c>
-      <c r="N217" s="87"/>
-      <c r="O217" s="87"/>
+      <c r="N217" s="88"/>
+      <c r="O217" s="88"/>
       <c r="P217" s="22" t="s">
         <v>1</v>
       </c>
@@ -13771,11 +13771,11 @@
       <c r="J218" s="19"/>
       <c r="K218" s="19"/>
       <c r="L218" s="19"/>
-      <c r="M218" s="87" t="s">
+      <c r="M218" s="88" t="s">
         <v>450</v>
       </c>
-      <c r="N218" s="87"/>
-      <c r="O218" s="87"/>
+      <c r="N218" s="88"/>
+      <c r="O218" s="88"/>
       <c r="P218" s="28" t="s">
         <v>175</v>
       </c>
@@ -13811,11 +13811,11 @@
       <c r="J219" s="19"/>
       <c r="K219" s="19"/>
       <c r="L219" s="19"/>
-      <c r="M219" s="87" t="s">
+      <c r="M219" s="88" t="s">
         <v>455</v>
       </c>
-      <c r="N219" s="87"/>
-      <c r="O219" s="87"/>
+      <c r="N219" s="88"/>
+      <c r="O219" s="88"/>
       <c r="P219" s="28" t="s">
         <v>175</v>
       </c>
@@ -13851,11 +13851,11 @@
       <c r="J220" s="19"/>
       <c r="K220" s="19"/>
       <c r="L220" s="19"/>
-      <c r="M220" s="87" t="s">
+      <c r="M220" s="88" t="s">
         <v>458</v>
       </c>
-      <c r="N220" s="87"/>
-      <c r="O220" s="87"/>
+      <c r="N220" s="88"/>
+      <c r="O220" s="88"/>
       <c r="P220" s="22" t="s">
         <v>1</v>
       </c>
@@ -13891,11 +13891,11 @@
       <c r="J221" s="19"/>
       <c r="K221" s="19"/>
       <c r="L221" s="19"/>
-      <c r="M221" s="88" t="s">
+      <c r="M221" s="89" t="s">
         <v>463</v>
       </c>
-      <c r="N221" s="88"/>
-      <c r="O221" s="88"/>
+      <c r="N221" s="89"/>
+      <c r="O221" s="89"/>
       <c r="P221" s="22" t="s">
         <v>1</v>
       </c>
@@ -13931,11 +13931,11 @@
       <c r="J222" s="19"/>
       <c r="K222" s="19"/>
       <c r="L222" s="19"/>
-      <c r="M222" s="88" t="s">
+      <c r="M222" s="89" t="s">
         <v>464</v>
       </c>
-      <c r="N222" s="88"/>
-      <c r="O222" s="88"/>
+      <c r="N222" s="89"/>
+      <c r="O222" s="89"/>
       <c r="P222" s="22" t="s">
         <v>1</v>
       </c>
@@ -13971,11 +13971,11 @@
       <c r="J223" s="19"/>
       <c r="K223" s="19"/>
       <c r="L223" s="19"/>
-      <c r="M223" s="88" t="s">
+      <c r="M223" s="89" t="s">
         <v>465</v>
       </c>
-      <c r="N223" s="88"/>
-      <c r="O223" s="88"/>
+      <c r="N223" s="89"/>
+      <c r="O223" s="89"/>
       <c r="P223" s="22" t="s">
         <v>1</v>
       </c>
@@ -14011,11 +14011,11 @@
       <c r="J224" s="19"/>
       <c r="K224" s="19"/>
       <c r="L224" s="19"/>
-      <c r="M224" s="88" t="s">
+      <c r="M224" s="89" t="s">
         <v>466</v>
       </c>
-      <c r="N224" s="88"/>
-      <c r="O224" s="88"/>
+      <c r="N224" s="89"/>
+      <c r="O224" s="89"/>
       <c r="P224" s="22" t="s">
         <v>1</v>
       </c>
@@ -14051,11 +14051,11 @@
       <c r="J225" s="19"/>
       <c r="K225" s="19"/>
       <c r="L225" s="19"/>
-      <c r="M225" s="88" t="s">
+      <c r="M225" s="89" t="s">
         <v>467</v>
       </c>
-      <c r="N225" s="88"/>
-      <c r="O225" s="88"/>
+      <c r="N225" s="89"/>
+      <c r="O225" s="89"/>
       <c r="P225" s="22" t="s">
         <v>1</v>
       </c>
@@ -14091,11 +14091,11 @@
       <c r="J226" s="19"/>
       <c r="K226" s="19"/>
       <c r="L226" s="19"/>
-      <c r="M226" s="88" t="s">
+      <c r="M226" s="89" t="s">
         <v>468</v>
       </c>
-      <c r="N226" s="88"/>
-      <c r="O226" s="88"/>
+      <c r="N226" s="89"/>
+      <c r="O226" s="89"/>
       <c r="P226" s="22" t="s">
         <v>1</v>
       </c>
@@ -14131,11 +14131,11 @@
       <c r="J227" s="19"/>
       <c r="K227" s="19"/>
       <c r="L227" s="19"/>
-      <c r="M227" s="88" t="s">
+      <c r="M227" s="89" t="s">
         <v>469</v>
       </c>
-      <c r="N227" s="88"/>
-      <c r="O227" s="88"/>
+      <c r="N227" s="89"/>
+      <c r="O227" s="89"/>
       <c r="P227" s="22" t="s">
         <v>1</v>
       </c>
@@ -14171,11 +14171,11 @@
       <c r="J228" s="19"/>
       <c r="K228" s="19"/>
       <c r="L228" s="19"/>
-      <c r="M228" s="88" t="s">
+      <c r="M228" s="89" t="s">
         <v>470</v>
       </c>
-      <c r="N228" s="88"/>
-      <c r="O228" s="88"/>
+      <c r="N228" s="89"/>
+      <c r="O228" s="89"/>
       <c r="P228" s="22" t="s">
         <v>1</v>
       </c>
@@ -14211,11 +14211,11 @@
       <c r="J229" s="19"/>
       <c r="K229" s="19"/>
       <c r="L229" s="19"/>
-      <c r="M229" s="88" t="s">
+      <c r="M229" s="89" t="s">
         <v>471</v>
       </c>
-      <c r="N229" s="88"/>
-      <c r="O229" s="88"/>
+      <c r="N229" s="89"/>
+      <c r="O229" s="89"/>
       <c r="P229" s="22" t="s">
         <v>1</v>
       </c>
@@ -14251,11 +14251,11 @@
       <c r="J230" s="19"/>
       <c r="K230" s="19"/>
       <c r="L230" s="19"/>
-      <c r="M230" s="88" t="s">
+      <c r="M230" s="89" t="s">
         <v>472</v>
       </c>
-      <c r="N230" s="88"/>
-      <c r="O230" s="88"/>
+      <c r="N230" s="89"/>
+      <c r="O230" s="89"/>
       <c r="P230" s="22" t="s">
         <v>1</v>
       </c>
@@ -14291,11 +14291,11 @@
       <c r="J231" s="19"/>
       <c r="K231" s="19"/>
       <c r="L231" s="19"/>
-      <c r="M231" s="88" t="s">
+      <c r="M231" s="89" t="s">
         <v>473</v>
       </c>
-      <c r="N231" s="88"/>
-      <c r="O231" s="88"/>
+      <c r="N231" s="89"/>
+      <c r="O231" s="89"/>
       <c r="P231" s="22" t="s">
         <v>1</v>
       </c>
@@ -14331,11 +14331,11 @@
       <c r="J232" s="19"/>
       <c r="K232" s="19"/>
       <c r="L232" s="19"/>
-      <c r="M232" s="88" t="s">
+      <c r="M232" s="89" t="s">
         <v>474</v>
       </c>
-      <c r="N232" s="88"/>
-      <c r="O232" s="88"/>
+      <c r="N232" s="89"/>
+      <c r="O232" s="89"/>
       <c r="P232" s="22" t="s">
         <v>1</v>
       </c>
@@ -14371,11 +14371,11 @@
       <c r="J233" s="19"/>
       <c r="K233" s="19"/>
       <c r="L233" s="19"/>
-      <c r="M233" s="88" t="s">
+      <c r="M233" s="89" t="s">
         <v>475</v>
       </c>
-      <c r="N233" s="88"/>
-      <c r="O233" s="88"/>
+      <c r="N233" s="89"/>
+      <c r="O233" s="89"/>
       <c r="P233" s="22" t="s">
         <v>1</v>
       </c>
@@ -14411,11 +14411,11 @@
       <c r="J234" s="19"/>
       <c r="K234" s="19"/>
       <c r="L234" s="19"/>
-      <c r="M234" s="88" t="s">
+      <c r="M234" s="89" t="s">
         <v>476</v>
       </c>
-      <c r="N234" s="88"/>
-      <c r="O234" s="88"/>
+      <c r="N234" s="89"/>
+      <c r="O234" s="89"/>
       <c r="P234" s="22" t="s">
         <v>1</v>
       </c>
@@ -14451,11 +14451,11 @@
       <c r="J235" s="19"/>
       <c r="K235" s="19"/>
       <c r="L235" s="19"/>
-      <c r="M235" s="88" t="s">
+      <c r="M235" s="89" t="s">
         <v>479</v>
       </c>
-      <c r="N235" s="88"/>
-      <c r="O235" s="88"/>
+      <c r="N235" s="89"/>
+      <c r="O235" s="89"/>
       <c r="P235" s="28" t="s">
         <v>175</v>
       </c>
@@ -14491,11 +14491,11 @@
       <c r="J236" s="19"/>
       <c r="K236" s="19"/>
       <c r="L236" s="19"/>
-      <c r="M236" s="87" t="s">
+      <c r="M236" s="88" t="s">
         <v>480</v>
       </c>
-      <c r="N236" s="87"/>
-      <c r="O236" s="87"/>
+      <c r="N236" s="88"/>
+      <c r="O236" s="88"/>
       <c r="P236" s="28" t="s">
         <v>186</v>
       </c>
@@ -14531,11 +14531,11 @@
       <c r="J237" s="19"/>
       <c r="K237" s="19"/>
       <c r="L237" s="19"/>
-      <c r="M237" s="87" t="s">
+      <c r="M237" s="88" t="s">
         <v>481</v>
       </c>
-      <c r="N237" s="87"/>
-      <c r="O237" s="87"/>
+      <c r="N237" s="88"/>
+      <c r="O237" s="88"/>
       <c r="P237" s="22" t="s">
         <v>1</v>
       </c>
@@ -14571,11 +14571,11 @@
       <c r="J238" s="19"/>
       <c r="K238" s="19"/>
       <c r="L238" s="19"/>
-      <c r="M238" s="87" t="s">
+      <c r="M238" s="88" t="s">
         <v>484</v>
       </c>
-      <c r="N238" s="87"/>
-      <c r="O238" s="87"/>
+      <c r="N238" s="88"/>
+      <c r="O238" s="88"/>
       <c r="P238" s="22" t="s">
         <v>1</v>
       </c>
@@ -14611,11 +14611,11 @@
       <c r="J239" s="19"/>
       <c r="K239" s="19"/>
       <c r="L239" s="19"/>
-      <c r="M239" s="87" t="s">
+      <c r="M239" s="88" t="s">
         <v>487</v>
       </c>
-      <c r="N239" s="87"/>
-      <c r="O239" s="87"/>
+      <c r="N239" s="88"/>
+      <c r="O239" s="88"/>
       <c r="P239" s="22" t="s">
         <v>1</v>
       </c>
@@ -14651,11 +14651,11 @@
       <c r="J240" s="19"/>
       <c r="K240" s="19"/>
       <c r="L240" s="19"/>
-      <c r="M240" s="87" t="s">
+      <c r="M240" s="88" t="s">
         <v>491</v>
       </c>
-      <c r="N240" s="87"/>
-      <c r="O240" s="87"/>
+      <c r="N240" s="88"/>
+      <c r="O240" s="88"/>
       <c r="P240" s="22" t="s">
         <v>1</v>
       </c>
@@ -14691,11 +14691,11 @@
       <c r="J241" s="19"/>
       <c r="K241" s="19"/>
       <c r="L241" s="19"/>
-      <c r="M241" s="88" t="s">
+      <c r="M241" s="89" t="s">
         <v>494</v>
       </c>
-      <c r="N241" s="88"/>
-      <c r="O241" s="88"/>
+      <c r="N241" s="89"/>
+      <c r="O241" s="89"/>
       <c r="P241" s="22" t="s">
         <v>1</v>
       </c>
@@ -14731,11 +14731,11 @@
       <c r="J242" s="19"/>
       <c r="K242" s="19"/>
       <c r="L242" s="19"/>
-      <c r="M242" s="88" t="s">
+      <c r="M242" s="89" t="s">
         <v>495</v>
       </c>
-      <c r="N242" s="88"/>
-      <c r="O242" s="88"/>
+      <c r="N242" s="89"/>
+      <c r="O242" s="89"/>
       <c r="P242" s="22" t="s">
         <v>1</v>
       </c>
@@ -14875,9 +14875,9 @@
       <c r="J246" s="67"/>
       <c r="K246" s="67"/>
       <c r="L246" s="67"/>
-      <c r="M246" s="116"/>
-      <c r="N246" s="116"/>
-      <c r="O246" s="116"/>
+      <c r="M246" s="93"/>
+      <c r="N246" s="93"/>
+      <c r="O246" s="93"/>
       <c r="P246" s="68"/>
       <c r="Q246" s="68"/>
       <c r="R246" s="69"/>
@@ -14905,9 +14905,9 @@
       <c r="J247" s="19"/>
       <c r="K247" s="19"/>
       <c r="L247" s="19"/>
-      <c r="M247" s="88"/>
-      <c r="N247" s="88"/>
-      <c r="O247" s="88"/>
+      <c r="M247" s="89"/>
+      <c r="N247" s="89"/>
+      <c r="O247" s="89"/>
       <c r="P247" s="22"/>
       <c r="Q247" s="22"/>
       <c r="R247" s="70"/>
@@ -14933,9 +14933,9 @@
       <c r="J248" s="19"/>
       <c r="K248" s="19"/>
       <c r="L248" s="19"/>
-      <c r="M248" s="88"/>
-      <c r="N248" s="88"/>
-      <c r="O248" s="88"/>
+      <c r="M248" s="89"/>
+      <c r="N248" s="89"/>
+      <c r="O248" s="89"/>
       <c r="P248" s="22"/>
       <c r="Q248" s="22"/>
       <c r="R248" s="64"/>
@@ -14965,11 +14965,11 @@
       <c r="J249" s="19"/>
       <c r="K249" s="19"/>
       <c r="L249" s="19"/>
-      <c r="M249" s="114" t="s">
+      <c r="M249" s="91" t="s">
         <v>845</v>
       </c>
-      <c r="N249" s="115"/>
-      <c r="O249" s="115"/>
+      <c r="N249" s="92"/>
+      <c r="O249" s="92"/>
       <c r="P249" s="22" t="s">
         <v>1</v>
       </c>
@@ -15005,11 +15005,11 @@
       <c r="J250" s="19"/>
       <c r="K250" s="19"/>
       <c r="L250" s="19"/>
-      <c r="M250" s="88" t="s">
+      <c r="M250" s="89" t="s">
         <v>520</v>
       </c>
-      <c r="N250" s="88"/>
-      <c r="O250" s="88"/>
+      <c r="N250" s="89"/>
+      <c r="O250" s="89"/>
       <c r="P250" s="22" t="s">
         <v>1</v>
       </c>
@@ -15045,11 +15045,11 @@
       <c r="J251" s="19"/>
       <c r="K251" s="19"/>
       <c r="L251" s="19"/>
-      <c r="M251" s="88" t="s">
+      <c r="M251" s="89" t="s">
         <v>521</v>
       </c>
-      <c r="N251" s="88"/>
-      <c r="O251" s="88"/>
+      <c r="N251" s="89"/>
+      <c r="O251" s="89"/>
       <c r="P251" s="22" t="s">
         <v>1</v>
       </c>
@@ -15085,11 +15085,11 @@
       <c r="J252" s="19"/>
       <c r="K252" s="19"/>
       <c r="L252" s="19"/>
-      <c r="M252" s="88" t="s">
+      <c r="M252" s="89" t="s">
         <v>844</v>
       </c>
-      <c r="N252" s="88"/>
-      <c r="O252" s="88"/>
+      <c r="N252" s="89"/>
+      <c r="O252" s="89"/>
       <c r="P252" s="22" t="s">
         <v>1</v>
       </c>
@@ -15123,11 +15123,11 @@
       <c r="J253" s="75"/>
       <c r="K253" s="75"/>
       <c r="L253" s="75"/>
-      <c r="M253" s="117" t="s">
+      <c r="M253" s="90" t="s">
         <v>847</v>
       </c>
-      <c r="N253" s="117"/>
-      <c r="O253" s="117"/>
+      <c r="N253" s="90"/>
+      <c r="O253" s="90"/>
       <c r="P253" s="76" t="s">
         <v>1</v>
       </c>
@@ -15165,11 +15165,11 @@
       <c r="J254" s="19"/>
       <c r="K254" s="19"/>
       <c r="L254" s="19"/>
-      <c r="M254" s="88" t="s">
+      <c r="M254" s="89" t="s">
         <v>675</v>
       </c>
-      <c r="N254" s="88"/>
-      <c r="O254" s="88"/>
+      <c r="N254" s="89"/>
+      <c r="O254" s="89"/>
       <c r="P254" s="22" t="s">
         <v>1</v>
       </c>
@@ -15205,11 +15205,11 @@
       <c r="J255" s="19"/>
       <c r="K255" s="19"/>
       <c r="L255" s="19"/>
-      <c r="M255" s="88" t="s">
+      <c r="M255" s="89" t="s">
         <v>660</v>
       </c>
-      <c r="N255" s="88"/>
-      <c r="O255" s="88"/>
+      <c r="N255" s="89"/>
+      <c r="O255" s="89"/>
       <c r="P255" s="22" t="s">
         <v>1</v>
       </c>
@@ -15245,11 +15245,11 @@
       <c r="J256" s="19"/>
       <c r="K256" s="19"/>
       <c r="L256" s="19"/>
-      <c r="M256" s="88" t="s">
+      <c r="M256" s="89" t="s">
         <v>662</v>
       </c>
-      <c r="N256" s="88"/>
-      <c r="O256" s="88"/>
+      <c r="N256" s="89"/>
+      <c r="O256" s="89"/>
       <c r="P256" s="22" t="s">
         <v>1</v>
       </c>
@@ -15285,11 +15285,11 @@
       <c r="J257" s="19"/>
       <c r="K257" s="19"/>
       <c r="L257" s="19"/>
-      <c r="M257" s="87" t="s">
+      <c r="M257" s="88" t="s">
         <v>664</v>
       </c>
-      <c r="N257" s="87"/>
-      <c r="O257" s="87"/>
+      <c r="N257" s="88"/>
+      <c r="O257" s="88"/>
       <c r="P257" s="22" t="s">
         <v>1</v>
       </c>
@@ -15325,11 +15325,11 @@
       <c r="J258" s="19"/>
       <c r="K258" s="19"/>
       <c r="L258" s="19"/>
-      <c r="M258" s="87" t="s">
+      <c r="M258" s="88" t="s">
         <v>665</v>
       </c>
-      <c r="N258" s="87"/>
-      <c r="O258" s="87"/>
+      <c r="N258" s="88"/>
+      <c r="O258" s="88"/>
       <c r="P258" s="22" t="s">
         <v>1</v>
       </c>
@@ -15365,11 +15365,11 @@
       <c r="J259" s="19"/>
       <c r="K259" s="19"/>
       <c r="L259" s="19"/>
-      <c r="M259" s="87" t="s">
+      <c r="M259" s="88" t="s">
         <v>666</v>
       </c>
-      <c r="N259" s="87"/>
-      <c r="O259" s="87"/>
+      <c r="N259" s="88"/>
+      <c r="O259" s="88"/>
       <c r="P259" s="22" t="s">
         <v>1</v>
       </c>
@@ -15405,11 +15405,11 @@
       <c r="J260" s="19"/>
       <c r="K260" s="19"/>
       <c r="L260" s="19"/>
-      <c r="M260" s="87" t="s">
+      <c r="M260" s="88" t="s">
         <v>668</v>
       </c>
-      <c r="N260" s="87"/>
-      <c r="O260" s="87"/>
+      <c r="N260" s="88"/>
+      <c r="O260" s="88"/>
       <c r="P260" s="22" t="s">
         <v>1</v>
       </c>
@@ -15445,11 +15445,11 @@
       <c r="J261" s="19"/>
       <c r="K261" s="19"/>
       <c r="L261" s="19"/>
-      <c r="M261" s="87" t="s">
+      <c r="M261" s="88" t="s">
         <v>669</v>
       </c>
-      <c r="N261" s="87"/>
-      <c r="O261" s="87"/>
+      <c r="N261" s="88"/>
+      <c r="O261" s="88"/>
       <c r="P261" s="22" t="s">
         <v>1</v>
       </c>
@@ -15485,11 +15485,11 @@
       <c r="J262" s="19"/>
       <c r="K262" s="19"/>
       <c r="L262" s="19"/>
-      <c r="M262" s="88" t="s">
+      <c r="M262" s="89" t="s">
         <v>670</v>
       </c>
-      <c r="N262" s="88"/>
-      <c r="O262" s="88"/>
+      <c r="N262" s="89"/>
+      <c r="O262" s="89"/>
       <c r="P262" s="22" t="s">
         <v>1</v>
       </c>
@@ -15525,11 +15525,11 @@
       <c r="J263" s="19"/>
       <c r="K263" s="19"/>
       <c r="L263" s="19"/>
-      <c r="M263" s="88" t="s">
+      <c r="M263" s="89" t="s">
         <v>611</v>
       </c>
-      <c r="N263" s="88"/>
-      <c r="O263" s="88"/>
+      <c r="N263" s="89"/>
+      <c r="O263" s="89"/>
       <c r="P263" s="22" t="s">
         <v>1</v>
       </c>
@@ -15565,11 +15565,11 @@
       <c r="J264" s="19"/>
       <c r="K264" s="19"/>
       <c r="L264" s="19"/>
-      <c r="M264" s="88" t="s">
+      <c r="M264" s="89" t="s">
         <v>612</v>
       </c>
-      <c r="N264" s="88"/>
-      <c r="O264" s="88"/>
+      <c r="N264" s="89"/>
+      <c r="O264" s="89"/>
       <c r="P264" s="22" t="s">
         <v>1</v>
       </c>
@@ -15605,11 +15605,11 @@
       <c r="J265" s="19"/>
       <c r="K265" s="19"/>
       <c r="L265" s="19"/>
-      <c r="M265" s="88" t="s">
+      <c r="M265" s="89" t="s">
         <v>613</v>
       </c>
-      <c r="N265" s="88"/>
-      <c r="O265" s="88"/>
+      <c r="N265" s="89"/>
+      <c r="O265" s="89"/>
       <c r="P265" s="22" t="s">
         <v>1</v>
       </c>
@@ -15645,11 +15645,11 @@
       <c r="J266" s="19"/>
       <c r="K266" s="19"/>
       <c r="L266" s="19"/>
-      <c r="M266" s="88" t="s">
+      <c r="M266" s="89" t="s">
         <v>614</v>
       </c>
-      <c r="N266" s="88"/>
-      <c r="O266" s="88"/>
+      <c r="N266" s="89"/>
+      <c r="O266" s="89"/>
       <c r="P266" s="22" t="s">
         <v>1</v>
       </c>
@@ -15685,11 +15685,11 @@
       <c r="J267" s="19"/>
       <c r="K267" s="19"/>
       <c r="L267" s="19"/>
-      <c r="M267" s="88" t="s">
+      <c r="M267" s="89" t="s">
         <v>615</v>
       </c>
-      <c r="N267" s="88"/>
-      <c r="O267" s="88"/>
+      <c r="N267" s="89"/>
+      <c r="O267" s="89"/>
       <c r="P267" s="22" t="s">
         <v>1</v>
       </c>
@@ -15725,11 +15725,11 @@
       <c r="J268" s="19"/>
       <c r="K268" s="19"/>
       <c r="L268" s="19"/>
-      <c r="M268" s="88" t="s">
+      <c r="M268" s="89" t="s">
         <v>616</v>
       </c>
-      <c r="N268" s="88"/>
-      <c r="O268" s="88"/>
+      <c r="N268" s="89"/>
+      <c r="O268" s="89"/>
       <c r="P268" s="22" t="s">
         <v>1</v>
       </c>
@@ -15765,11 +15765,11 @@
       <c r="J269" s="19"/>
       <c r="K269" s="19"/>
       <c r="L269" s="19"/>
-      <c r="M269" s="88" t="s">
+      <c r="M269" s="89" t="s">
         <v>617</v>
       </c>
-      <c r="N269" s="88"/>
-      <c r="O269" s="88"/>
+      <c r="N269" s="89"/>
+      <c r="O269" s="89"/>
       <c r="P269" s="22" t="s">
         <v>1</v>
       </c>
@@ -15805,11 +15805,11 @@
       <c r="J270" s="19"/>
       <c r="K270" s="19"/>
       <c r="L270" s="19"/>
-      <c r="M270" s="88" t="s">
+      <c r="M270" s="89" t="s">
         <v>618</v>
       </c>
-      <c r="N270" s="88"/>
-      <c r="O270" s="88"/>
+      <c r="N270" s="89"/>
+      <c r="O270" s="89"/>
       <c r="P270" s="22" t="s">
         <v>1</v>
       </c>
@@ -15845,11 +15845,11 @@
       <c r="J271" s="19"/>
       <c r="K271" s="19"/>
       <c r="L271" s="19"/>
-      <c r="M271" s="88" t="s">
+      <c r="M271" s="89" t="s">
         <v>619</v>
       </c>
-      <c r="N271" s="88"/>
-      <c r="O271" s="88"/>
+      <c r="N271" s="89"/>
+      <c r="O271" s="89"/>
       <c r="P271" s="22" t="s">
         <v>1</v>
       </c>
@@ -15885,11 +15885,11 @@
       <c r="J272" s="19"/>
       <c r="K272" s="19"/>
       <c r="L272" s="19"/>
-      <c r="M272" s="88" t="s">
+      <c r="M272" s="89" t="s">
         <v>625</v>
       </c>
-      <c r="N272" s="88"/>
-      <c r="O272" s="88"/>
+      <c r="N272" s="89"/>
+      <c r="O272" s="89"/>
       <c r="P272" s="22" t="s">
         <v>1</v>
       </c>
@@ -15925,11 +15925,11 @@
       <c r="J273" s="19"/>
       <c r="K273" s="19"/>
       <c r="L273" s="19"/>
-      <c r="M273" s="87" t="s">
+      <c r="M273" s="88" t="s">
         <v>626</v>
       </c>
-      <c r="N273" s="87"/>
-      <c r="O273" s="87"/>
+      <c r="N273" s="88"/>
+      <c r="O273" s="88"/>
       <c r="P273" s="22" t="s">
         <v>1</v>
       </c>
@@ -15965,11 +15965,11 @@
       <c r="J274" s="19"/>
       <c r="K274" s="19"/>
       <c r="L274" s="19"/>
-      <c r="M274" s="87" t="s">
+      <c r="M274" s="88" t="s">
         <v>627</v>
       </c>
-      <c r="N274" s="87"/>
-      <c r="O274" s="87"/>
+      <c r="N274" s="88"/>
+      <c r="O274" s="88"/>
       <c r="P274" s="22" t="s">
         <v>1</v>
       </c>
@@ -16005,11 +16005,11 @@
       <c r="J275" s="19"/>
       <c r="K275" s="19"/>
       <c r="L275" s="19"/>
-      <c r="M275" s="87" t="s">
+      <c r="M275" s="88" t="s">
         <v>628</v>
       </c>
-      <c r="N275" s="87"/>
-      <c r="O275" s="87"/>
+      <c r="N275" s="88"/>
+      <c r="O275" s="88"/>
       <c r="P275" s="22" t="s">
         <v>1</v>
       </c>
@@ -16045,11 +16045,11 @@
       <c r="J276" s="19"/>
       <c r="K276" s="19"/>
       <c r="L276" s="19"/>
-      <c r="M276" s="87" t="s">
+      <c r="M276" s="88" t="s">
         <v>629</v>
       </c>
-      <c r="N276" s="87"/>
-      <c r="O276" s="87"/>
+      <c r="N276" s="88"/>
+      <c r="O276" s="88"/>
       <c r="P276" s="22" t="s">
         <v>1</v>
       </c>
@@ -16085,11 +16085,11 @@
       <c r="J277" s="19"/>
       <c r="K277" s="19"/>
       <c r="L277" s="19"/>
-      <c r="M277" s="87" t="s">
+      <c r="M277" s="88" t="s">
         <v>630</v>
       </c>
-      <c r="N277" s="87"/>
-      <c r="O277" s="87"/>
+      <c r="N277" s="88"/>
+      <c r="O277" s="88"/>
       <c r="P277" s="22" t="s">
         <v>1</v>
       </c>
@@ -16125,11 +16125,11 @@
       <c r="J278" s="19"/>
       <c r="K278" s="19"/>
       <c r="L278" s="19"/>
-      <c r="M278" s="87" t="s">
+      <c r="M278" s="88" t="s">
         <v>632</v>
       </c>
-      <c r="N278" s="87"/>
-      <c r="O278" s="87"/>
+      <c r="N278" s="88"/>
+      <c r="O278" s="88"/>
       <c r="P278" s="22" t="s">
         <v>1</v>
       </c>
@@ -16165,11 +16165,11 @@
       <c r="J279" s="19"/>
       <c r="K279" s="19"/>
       <c r="L279" s="19"/>
-      <c r="M279" s="87" t="s">
+      <c r="M279" s="88" t="s">
         <v>633</v>
       </c>
-      <c r="N279" s="87"/>
-      <c r="O279" s="87"/>
+      <c r="N279" s="88"/>
+      <c r="O279" s="88"/>
       <c r="P279" s="22" t="s">
         <v>1</v>
       </c>
@@ -16205,11 +16205,11 @@
       <c r="J280" s="19"/>
       <c r="K280" s="19"/>
       <c r="L280" s="19"/>
-      <c r="M280" s="88" t="s">
+      <c r="M280" s="89" t="s">
         <v>635</v>
       </c>
-      <c r="N280" s="88"/>
-      <c r="O280" s="88"/>
+      <c r="N280" s="89"/>
+      <c r="O280" s="89"/>
       <c r="P280" s="22" t="s">
         <v>1</v>
       </c>
@@ -16245,11 +16245,11 @@
       <c r="J281" s="19"/>
       <c r="K281" s="19"/>
       <c r="L281" s="19"/>
-      <c r="M281" s="88" t="s">
+      <c r="M281" s="89" t="s">
         <v>636</v>
       </c>
-      <c r="N281" s="88"/>
-      <c r="O281" s="88"/>
+      <c r="N281" s="89"/>
+      <c r="O281" s="89"/>
       <c r="P281" s="22" t="s">
         <v>1</v>
       </c>
@@ -16285,11 +16285,11 @@
       <c r="J282" s="19"/>
       <c r="K282" s="19"/>
       <c r="L282" s="19"/>
-      <c r="M282" s="88" t="s">
+      <c r="M282" s="89" t="s">
         <v>638</v>
       </c>
-      <c r="N282" s="88"/>
-      <c r="O282" s="88"/>
+      <c r="N282" s="89"/>
+      <c r="O282" s="89"/>
       <c r="P282" s="22" t="s">
         <v>1</v>
       </c>
@@ -16325,11 +16325,11 @@
       <c r="J283" s="19"/>
       <c r="K283" s="19"/>
       <c r="L283" s="19"/>
-      <c r="M283" s="88" t="s">
+      <c r="M283" s="89" t="s">
         <v>639</v>
       </c>
-      <c r="N283" s="88"/>
-      <c r="O283" s="88"/>
+      <c r="N283" s="89"/>
+      <c r="O283" s="89"/>
       <c r="P283" s="22" t="s">
         <v>1</v>
       </c>
@@ -16365,11 +16365,11 @@
       <c r="J284" s="19"/>
       <c r="K284" s="19"/>
       <c r="L284" s="19"/>
-      <c r="M284" s="88" t="s">
+      <c r="M284" s="89" t="s">
         <v>640</v>
       </c>
-      <c r="N284" s="88"/>
-      <c r="O284" s="88"/>
+      <c r="N284" s="89"/>
+      <c r="O284" s="89"/>
       <c r="P284" s="22" t="s">
         <v>1</v>
       </c>
@@ -16405,11 +16405,11 @@
       <c r="J285" s="19"/>
       <c r="K285" s="19"/>
       <c r="L285" s="19"/>
-      <c r="M285" s="88" t="s">
+      <c r="M285" s="89" t="s">
         <v>642</v>
       </c>
-      <c r="N285" s="88"/>
-      <c r="O285" s="88"/>
+      <c r="N285" s="89"/>
+      <c r="O285" s="89"/>
       <c r="P285" s="22" t="s">
         <v>1</v>
       </c>
@@ -16445,11 +16445,11 @@
       <c r="J286" s="19"/>
       <c r="K286" s="19"/>
       <c r="L286" s="19"/>
-      <c r="M286" s="88" t="s">
+      <c r="M286" s="89" t="s">
         <v>643</v>
       </c>
-      <c r="N286" s="88"/>
-      <c r="O286" s="88"/>
+      <c r="N286" s="89"/>
+      <c r="O286" s="89"/>
       <c r="P286" s="22" t="s">
         <v>1</v>
       </c>
@@ -16485,11 +16485,11 @@
       <c r="J287" s="19"/>
       <c r="K287" s="19"/>
       <c r="L287" s="19"/>
-      <c r="M287" s="88" t="s">
+      <c r="M287" s="89" t="s">
         <v>644</v>
       </c>
-      <c r="N287" s="88"/>
-      <c r="O287" s="88"/>
+      <c r="N287" s="89"/>
+      <c r="O287" s="89"/>
       <c r="P287" s="22" t="s">
         <v>1</v>
       </c>
@@ -16525,11 +16525,11 @@
       <c r="J288" s="19"/>
       <c r="K288" s="19"/>
       <c r="L288" s="19"/>
-      <c r="M288" s="88" t="s">
+      <c r="M288" s="89" t="s">
         <v>647</v>
       </c>
-      <c r="N288" s="88"/>
-      <c r="O288" s="88"/>
+      <c r="N288" s="89"/>
+      <c r="O288" s="89"/>
       <c r="P288" s="22" t="s">
         <v>1</v>
       </c>
@@ -16565,11 +16565,11 @@
       <c r="J289" s="19"/>
       <c r="K289" s="19"/>
       <c r="L289" s="19"/>
-      <c r="M289" s="88" t="s">
+      <c r="M289" s="89" t="s">
         <v>648</v>
       </c>
-      <c r="N289" s="88"/>
-      <c r="O289" s="88"/>
+      <c r="N289" s="89"/>
+      <c r="O289" s="89"/>
       <c r="P289" s="22" t="s">
         <v>1</v>
       </c>
@@ -16605,11 +16605,11 @@
       <c r="J290" s="19"/>
       <c r="K290" s="19"/>
       <c r="L290" s="19"/>
-      <c r="M290" s="88" t="s">
+      <c r="M290" s="89" t="s">
         <v>651</v>
       </c>
-      <c r="N290" s="88"/>
-      <c r="O290" s="88"/>
+      <c r="N290" s="89"/>
+      <c r="O290" s="89"/>
       <c r="P290" s="22" t="s">
         <v>1</v>
       </c>
@@ -16645,11 +16645,11 @@
       <c r="J291" s="19"/>
       <c r="K291" s="19"/>
       <c r="L291" s="19"/>
-      <c r="M291" s="87" t="s">
+      <c r="M291" s="88" t="s">
         <v>652</v>
       </c>
-      <c r="N291" s="87"/>
-      <c r="O291" s="87"/>
+      <c r="N291" s="88"/>
+      <c r="O291" s="88"/>
       <c r="P291" s="22" t="s">
         <v>1</v>
       </c>
@@ -16685,11 +16685,11 @@
       <c r="J292" s="19"/>
       <c r="K292" s="19"/>
       <c r="L292" s="19"/>
-      <c r="M292" s="87" t="s">
+      <c r="M292" s="88" t="s">
         <v>653</v>
       </c>
-      <c r="N292" s="87"/>
-      <c r="O292" s="87"/>
+      <c r="N292" s="88"/>
+      <c r="O292" s="88"/>
       <c r="P292" s="22" t="s">
         <v>1</v>
       </c>
@@ -16725,11 +16725,11 @@
       <c r="J293" s="19"/>
       <c r="K293" s="19"/>
       <c r="L293" s="19"/>
-      <c r="M293" s="87" t="s">
+      <c r="M293" s="88" t="s">
         <v>655</v>
       </c>
-      <c r="N293" s="87"/>
-      <c r="O293" s="87"/>
+      <c r="N293" s="88"/>
+      <c r="O293" s="88"/>
       <c r="P293" s="22" t="s">
         <v>1</v>
       </c>
@@ -16765,11 +16765,11 @@
       <c r="J294" s="19"/>
       <c r="K294" s="19"/>
       <c r="L294" s="19"/>
-      <c r="M294" s="87" t="s">
+      <c r="M294" s="88" t="s">
         <v>656</v>
       </c>
-      <c r="N294" s="87"/>
-      <c r="O294" s="87"/>
+      <c r="N294" s="88"/>
+      <c r="O294" s="88"/>
       <c r="P294" s="22" t="s">
         <v>1</v>
       </c>
@@ -16805,11 +16805,11 @@
       <c r="J295" s="19"/>
       <c r="K295" s="19"/>
       <c r="L295" s="19"/>
-      <c r="M295" s="87" t="s">
+      <c r="M295" s="88" t="s">
         <v>657</v>
       </c>
-      <c r="N295" s="87"/>
-      <c r="O295" s="87"/>
+      <c r="N295" s="88"/>
+      <c r="O295" s="88"/>
       <c r="P295" s="22" t="s">
         <v>1</v>
       </c>
@@ -16845,11 +16845,11 @@
       <c r="J296" s="19"/>
       <c r="K296" s="19"/>
       <c r="L296" s="19"/>
-      <c r="M296" s="88" t="s">
+      <c r="M296" s="89" t="s">
         <v>674</v>
       </c>
-      <c r="N296" s="88"/>
-      <c r="O296" s="88"/>
+      <c r="N296" s="89"/>
+      <c r="O296" s="89"/>
       <c r="P296" s="28" t="s">
         <v>175</v>
       </c>
@@ -16885,11 +16885,11 @@
       <c r="J297" s="19"/>
       <c r="K297" s="19"/>
       <c r="L297" s="19"/>
-      <c r="M297" s="88" t="s">
+      <c r="M297" s="89" t="s">
         <v>682</v>
       </c>
-      <c r="N297" s="88"/>
-      <c r="O297" s="88"/>
+      <c r="N297" s="89"/>
+      <c r="O297" s="89"/>
       <c r="P297" s="22" t="s">
         <v>1</v>
       </c>
@@ -16925,11 +16925,11 @@
       <c r="J298" s="19"/>
       <c r="K298" s="19"/>
       <c r="L298" s="19"/>
-      <c r="M298" s="88" t="s">
+      <c r="M298" s="89" t="s">
         <v>510</v>
       </c>
-      <c r="N298" s="88"/>
-      <c r="O298" s="88"/>
+      <c r="N298" s="89"/>
+      <c r="O298" s="89"/>
       <c r="P298" s="22" t="s">
         <v>1</v>
       </c>
@@ -16965,11 +16965,11 @@
       <c r="J299" s="19"/>
       <c r="K299" s="19"/>
       <c r="L299" s="19"/>
-      <c r="M299" s="88" t="s">
+      <c r="M299" s="89" t="s">
         <v>511</v>
       </c>
-      <c r="N299" s="88"/>
-      <c r="O299" s="88"/>
+      <c r="N299" s="89"/>
+      <c r="O299" s="89"/>
       <c r="P299" s="22" t="s">
         <v>1</v>
       </c>
@@ -17005,11 +17005,11 @@
       <c r="J300" s="19"/>
       <c r="K300" s="19"/>
       <c r="L300" s="19"/>
-      <c r="M300" s="88" t="s">
+      <c r="M300" s="89" t="s">
         <v>516</v>
       </c>
-      <c r="N300" s="88"/>
-      <c r="O300" s="88"/>
+      <c r="N300" s="89"/>
+      <c r="O300" s="89"/>
       <c r="P300" s="22" t="s">
         <v>1</v>
       </c>
@@ -17045,11 +17045,11 @@
       <c r="J301" s="19"/>
       <c r="K301" s="19"/>
       <c r="L301" s="19"/>
-      <c r="M301" s="88" t="s">
+      <c r="M301" s="89" t="s">
         <v>518</v>
       </c>
-      <c r="N301" s="88"/>
-      <c r="O301" s="88"/>
+      <c r="N301" s="89"/>
+      <c r="O301" s="89"/>
       <c r="P301" s="22" t="s">
         <v>1</v>
       </c>
@@ -17085,11 +17085,11 @@
       <c r="J302" s="19"/>
       <c r="K302" s="19"/>
       <c r="L302" s="19"/>
-      <c r="M302" s="88" t="s">
+      <c r="M302" s="89" t="s">
         <v>517</v>
       </c>
-      <c r="N302" s="88"/>
-      <c r="O302" s="88"/>
+      <c r="N302" s="89"/>
+      <c r="O302" s="89"/>
       <c r="P302" s="22" t="s">
         <v>1</v>
       </c>
@@ -17125,11 +17125,11 @@
       <c r="J303" s="19"/>
       <c r="K303" s="19"/>
       <c r="L303" s="19"/>
-      <c r="M303" s="88" t="s">
+      <c r="M303" s="89" t="s">
         <v>519</v>
       </c>
-      <c r="N303" s="88"/>
-      <c r="O303" s="88"/>
+      <c r="N303" s="89"/>
+      <c r="O303" s="89"/>
       <c r="P303" s="22" t="s">
         <v>1</v>
       </c>
@@ -17165,11 +17165,11 @@
       <c r="J304" s="19"/>
       <c r="K304" s="19"/>
       <c r="L304" s="19"/>
-      <c r="M304" s="88" t="s">
+      <c r="M304" s="89" t="s">
         <v>512</v>
       </c>
-      <c r="N304" s="88"/>
-      <c r="O304" s="88"/>
+      <c r="N304" s="89"/>
+      <c r="O304" s="89"/>
       <c r="P304" s="22" t="s">
         <v>1</v>
       </c>
@@ -17205,11 +17205,11 @@
       <c r="J305" s="19"/>
       <c r="K305" s="19"/>
       <c r="L305" s="19"/>
-      <c r="M305" s="88" t="s">
+      <c r="M305" s="89" t="s">
         <v>513</v>
       </c>
-      <c r="N305" s="88"/>
-      <c r="O305" s="88"/>
+      <c r="N305" s="89"/>
+      <c r="O305" s="89"/>
       <c r="P305" s="22" t="s">
         <v>1</v>
       </c>
@@ -17245,11 +17245,11 @@
       <c r="J306" s="19"/>
       <c r="K306" s="19"/>
       <c r="L306" s="19"/>
-      <c r="M306" s="88" t="s">
+      <c r="M306" s="89" t="s">
         <v>514</v>
       </c>
-      <c r="N306" s="88"/>
-      <c r="O306" s="88"/>
+      <c r="N306" s="89"/>
+      <c r="O306" s="89"/>
       <c r="P306" s="22" t="s">
         <v>1</v>
       </c>
@@ -17285,11 +17285,11 @@
       <c r="J307" s="19"/>
       <c r="K307" s="19"/>
       <c r="L307" s="19"/>
-      <c r="M307" s="87" t="s">
+      <c r="M307" s="88" t="s">
         <v>515</v>
       </c>
-      <c r="N307" s="87"/>
-      <c r="O307" s="87"/>
+      <c r="N307" s="88"/>
+      <c r="O307" s="88"/>
       <c r="P307" s="22" t="s">
         <v>1</v>
       </c>
@@ -17325,11 +17325,11 @@
       <c r="J308" s="19"/>
       <c r="K308" s="19"/>
       <c r="L308" s="19"/>
-      <c r="M308" s="87" t="s">
+      <c r="M308" s="88" t="s">
         <v>683</v>
       </c>
-      <c r="N308" s="87"/>
-      <c r="O308" s="87"/>
+      <c r="N308" s="88"/>
+      <c r="O308" s="88"/>
       <c r="P308" s="22" t="s">
         <v>1</v>
       </c>
@@ -17365,11 +17365,11 @@
       <c r="J309" s="19"/>
       <c r="K309" s="19"/>
       <c r="L309" s="19"/>
-      <c r="M309" s="87" t="s">
+      <c r="M309" s="88" t="s">
         <v>684</v>
       </c>
-      <c r="N309" s="87"/>
-      <c r="O309" s="87"/>
+      <c r="N309" s="88"/>
+      <c r="O309" s="88"/>
       <c r="P309" s="22" t="s">
         <v>1</v>
       </c>
@@ -17405,11 +17405,11 @@
       <c r="J310" s="19"/>
       <c r="K310" s="19"/>
       <c r="L310" s="19"/>
-      <c r="M310" s="87" t="s">
+      <c r="M310" s="88" t="s">
         <v>685</v>
       </c>
-      <c r="N310" s="87"/>
-      <c r="O310" s="87"/>
+      <c r="N310" s="88"/>
+      <c r="O310" s="88"/>
       <c r="P310" s="22" t="s">
         <v>1</v>
       </c>
@@ -17445,11 +17445,11 @@
       <c r="J311" s="19"/>
       <c r="K311" s="19"/>
       <c r="L311" s="19"/>
-      <c r="M311" s="87" t="s">
+      <c r="M311" s="88" t="s">
         <v>508</v>
       </c>
-      <c r="N311" s="87"/>
-      <c r="O311" s="87"/>
+      <c r="N311" s="88"/>
+      <c r="O311" s="88"/>
       <c r="P311" s="22" t="s">
         <v>1</v>
       </c>
@@ -17485,11 +17485,11 @@
       <c r="J312" s="19"/>
       <c r="K312" s="19"/>
       <c r="L312" s="19"/>
-      <c r="M312" s="87" t="s">
+      <c r="M312" s="88" t="s">
         <v>673</v>
       </c>
-      <c r="N312" s="87"/>
-      <c r="O312" s="87"/>
+      <c r="N312" s="88"/>
+      <c r="O312" s="88"/>
       <c r="P312" s="22" t="s">
         <v>1</v>
       </c>
@@ -17525,11 +17525,11 @@
       <c r="J313" s="19"/>
       <c r="K313" s="19"/>
       <c r="L313" s="19"/>
-      <c r="M313" s="87" t="s">
+      <c r="M313" s="88" t="s">
         <v>686</v>
       </c>
-      <c r="N313" s="87"/>
-      <c r="O313" s="87"/>
+      <c r="N313" s="88"/>
+      <c r="O313" s="88"/>
       <c r="P313" s="22" t="s">
         <v>1</v>
       </c>
@@ -17565,11 +17565,11 @@
       <c r="J314" s="19"/>
       <c r="K314" s="19"/>
       <c r="L314" s="19"/>
-      <c r="M314" s="87" t="s">
+      <c r="M314" s="88" t="s">
         <v>687</v>
       </c>
-      <c r="N314" s="87"/>
-      <c r="O314" s="87"/>
+      <c r="N314" s="88"/>
+      <c r="O314" s="88"/>
       <c r="P314" s="22" t="s">
         <v>1</v>
       </c>
@@ -17605,11 +17605,11 @@
       <c r="J315" s="19"/>
       <c r="K315" s="19"/>
       <c r="L315" s="19"/>
-      <c r="M315" s="87" t="s">
+      <c r="M315" s="88" t="s">
         <v>688</v>
       </c>
-      <c r="N315" s="87"/>
-      <c r="O315" s="87"/>
+      <c r="N315" s="88"/>
+      <c r="O315" s="88"/>
       <c r="P315" s="22" t="s">
         <v>1</v>
       </c>
@@ -17645,11 +17645,11 @@
       <c r="J316" s="19"/>
       <c r="K316" s="19"/>
       <c r="L316" s="19"/>
-      <c r="M316" s="87" t="s">
+      <c r="M316" s="88" t="s">
         <v>689</v>
       </c>
-      <c r="N316" s="87"/>
-      <c r="O316" s="87"/>
+      <c r="N316" s="88"/>
+      <c r="O316" s="88"/>
       <c r="P316" s="22" t="s">
         <v>1</v>
       </c>
@@ -17685,11 +17685,11 @@
       <c r="J317" s="19"/>
       <c r="K317" s="19"/>
       <c r="L317" s="19"/>
-      <c r="M317" s="87" t="s">
+      <c r="M317" s="88" t="s">
         <v>690</v>
       </c>
-      <c r="N317" s="87"/>
-      <c r="O317" s="87"/>
+      <c r="N317" s="88"/>
+      <c r="O317" s="88"/>
       <c r="P317" s="22" t="s">
         <v>1</v>
       </c>
@@ -17725,11 +17725,11 @@
       <c r="J318" s="19"/>
       <c r="K318" s="19"/>
       <c r="L318" s="19"/>
-      <c r="M318" s="87" t="s">
+      <c r="M318" s="88" t="s">
         <v>691</v>
       </c>
-      <c r="N318" s="87"/>
-      <c r="O318" s="87"/>
+      <c r="N318" s="88"/>
+      <c r="O318" s="88"/>
       <c r="P318" s="22" t="s">
         <v>1</v>
       </c>
@@ -17765,11 +17765,11 @@
       <c r="J319" s="19"/>
       <c r="K319" s="19"/>
       <c r="L319" s="19"/>
-      <c r="M319" s="87" t="s">
+      <c r="M319" s="88" t="s">
         <v>692</v>
       </c>
-      <c r="N319" s="87"/>
-      <c r="O319" s="87"/>
+      <c r="N319" s="88"/>
+      <c r="O319" s="88"/>
       <c r="P319" s="22" t="s">
         <v>1</v>
       </c>
@@ -17792,7 +17792,7 @@
     </row>
     <row r="320" spans="1:26" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="26" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B320" s="27" t="s">
         <v>722</v>
@@ -17807,11 +17807,11 @@
       <c r="J320" s="19"/>
       <c r="K320" s="19"/>
       <c r="L320" s="19"/>
-      <c r="M320" s="87" t="s">
+      <c r="M320" s="88" t="s">
         <v>722</v>
       </c>
-      <c r="N320" s="87"/>
-      <c r="O320" s="87"/>
+      <c r="N320" s="88"/>
+      <c r="O320" s="88"/>
       <c r="P320" s="28" t="s">
         <v>175</v>
       </c>
@@ -17847,11 +17847,11 @@
       <c r="J321" s="19"/>
       <c r="K321" s="19"/>
       <c r="L321" s="19"/>
-      <c r="M321" s="87" t="s">
+      <c r="M321" s="88" t="s">
         <v>693</v>
       </c>
-      <c r="N321" s="87"/>
-      <c r="O321" s="87"/>
+      <c r="N321" s="88"/>
+      <c r="O321" s="88"/>
       <c r="P321" s="22" t="s">
         <v>1</v>
       </c>
@@ -17875,7 +17875,7 @@
         <v>503</v>
       </c>
       <c r="B322" s="27" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C322" s="29"/>
       <c r="D322" s="29"/>
@@ -17888,7 +17888,7 @@
       <c r="K322" s="19"/>
       <c r="L322" s="19"/>
       <c r="M322" s="83" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="N322" s="83"/>
       <c r="O322" s="83"/>
@@ -17915,7 +17915,7 @@
         <v>503</v>
       </c>
       <c r="B323" s="27" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C323" s="29"/>
       <c r="D323" s="29"/>
@@ -17928,7 +17928,7 @@
       <c r="K323" s="19"/>
       <c r="L323" s="19"/>
       <c r="M323" s="83" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="N323" s="83"/>
       <c r="O323" s="83"/>
@@ -17967,11 +17967,11 @@
       <c r="J324" s="19"/>
       <c r="K324" s="19"/>
       <c r="L324" s="19"/>
-      <c r="M324" s="87" t="s">
+      <c r="M324" s="88" t="s">
         <v>504</v>
       </c>
-      <c r="N324" s="87"/>
-      <c r="O324" s="87"/>
+      <c r="N324" s="88"/>
+      <c r="O324" s="88"/>
       <c r="P324" s="22" t="s">
         <v>1</v>
       </c>
@@ -18007,11 +18007,11 @@
       <c r="J325" s="19"/>
       <c r="K325" s="19"/>
       <c r="L325" s="19"/>
-      <c r="M325" s="87" t="s">
+      <c r="M325" s="88" t="s">
         <v>505</v>
       </c>
-      <c r="N325" s="87"/>
-      <c r="O325" s="87"/>
+      <c r="N325" s="88"/>
+      <c r="O325" s="88"/>
       <c r="P325" s="28" t="s">
         <v>186</v>
       </c>
@@ -18047,11 +18047,11 @@
       <c r="J326" s="19"/>
       <c r="K326" s="19"/>
       <c r="L326" s="19"/>
-      <c r="M326" s="87" t="s">
+      <c r="M326" s="88" t="s">
         <v>695</v>
       </c>
-      <c r="N326" s="87"/>
-      <c r="O326" s="87"/>
+      <c r="N326" s="88"/>
+      <c r="O326" s="88"/>
       <c r="P326" s="28" t="s">
         <v>186</v>
       </c>
@@ -18087,11 +18087,11 @@
       <c r="J327" s="19"/>
       <c r="K327" s="19"/>
       <c r="L327" s="19"/>
-      <c r="M327" s="87" t="s">
+      <c r="M327" s="88" t="s">
         <v>697</v>
       </c>
-      <c r="N327" s="87"/>
-      <c r="O327" s="87"/>
+      <c r="N327" s="88"/>
+      <c r="O327" s="88"/>
       <c r="P327" s="22" t="s">
         <v>1</v>
       </c>
@@ -18127,11 +18127,11 @@
       <c r="J328" s="19"/>
       <c r="K328" s="19"/>
       <c r="L328" s="19"/>
-      <c r="M328" s="87" t="s">
+      <c r="M328" s="88" t="s">
         <v>698</v>
       </c>
-      <c r="N328" s="87"/>
-      <c r="O328" s="87"/>
+      <c r="N328" s="88"/>
+      <c r="O328" s="88"/>
       <c r="P328" s="22" t="s">
         <v>1</v>
       </c>
@@ -18167,11 +18167,11 @@
       <c r="J329" s="19"/>
       <c r="K329" s="19"/>
       <c r="L329" s="19"/>
-      <c r="M329" s="87" t="s">
+      <c r="M329" s="88" t="s">
         <v>699</v>
       </c>
-      <c r="N329" s="87"/>
-      <c r="O329" s="87"/>
+      <c r="N329" s="88"/>
+      <c r="O329" s="88"/>
       <c r="P329" s="22" t="s">
         <v>1</v>
       </c>
@@ -18195,7 +18195,7 @@
         <v>701</v>
       </c>
       <c r="B330" s="27" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C330" s="29"/>
       <c r="D330" s="29"/>
@@ -18207,11 +18207,11 @@
       <c r="J330" s="19"/>
       <c r="K330" s="19"/>
       <c r="L330" s="19"/>
-      <c r="M330" s="87" t="s">
-        <v>855</v>
-      </c>
-      <c r="N330" s="87"/>
-      <c r="O330" s="87"/>
+      <c r="M330" s="88" t="s">
+        <v>854</v>
+      </c>
+      <c r="N330" s="88"/>
+      <c r="O330" s="88"/>
       <c r="P330" s="22" t="s">
         <v>1</v>
       </c>
@@ -18235,7 +18235,7 @@
         <v>701</v>
       </c>
       <c r="B331" s="27" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C331" s="29"/>
       <c r="D331" s="29"/>
@@ -18248,7 +18248,7 @@
       <c r="K331" s="19"/>
       <c r="L331" s="19"/>
       <c r="M331" s="83" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="N331" s="83"/>
       <c r="O331" s="83"/>
@@ -18275,7 +18275,7 @@
         <v>701</v>
       </c>
       <c r="B332" s="27" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C332" s="29"/>
       <c r="D332" s="29"/>
@@ -18288,7 +18288,7 @@
       <c r="K332" s="19"/>
       <c r="L332" s="19"/>
       <c r="M332" s="83" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N332" s="83"/>
       <c r="O332" s="83"/>
@@ -18327,11 +18327,11 @@
       <c r="J333" s="19"/>
       <c r="K333" s="19"/>
       <c r="L333" s="19"/>
-      <c r="M333" s="87" t="s">
+      <c r="M333" s="88" t="s">
         <v>703</v>
       </c>
-      <c r="N333" s="87"/>
-      <c r="O333" s="87"/>
+      <c r="N333" s="88"/>
+      <c r="O333" s="88"/>
       <c r="P333" s="22" t="s">
         <v>1</v>
       </c>
@@ -18367,11 +18367,11 @@
       <c r="J334" s="19"/>
       <c r="K334" s="19"/>
       <c r="L334" s="19"/>
-      <c r="M334" s="87" t="s">
+      <c r="M334" s="88" t="s">
         <v>704</v>
       </c>
-      <c r="N334" s="87"/>
-      <c r="O334" s="87"/>
+      <c r="N334" s="88"/>
+      <c r="O334" s="88"/>
       <c r="P334" s="22" t="s">
         <v>1</v>
       </c>
@@ -18407,11 +18407,11 @@
       <c r="J335" s="19"/>
       <c r="K335" s="19"/>
       <c r="L335" s="19"/>
-      <c r="M335" s="87" t="s">
+      <c r="M335" s="88" t="s">
         <v>706</v>
       </c>
-      <c r="N335" s="87"/>
-      <c r="O335" s="87"/>
+      <c r="N335" s="88"/>
+      <c r="O335" s="88"/>
       <c r="P335" s="28" t="s">
         <v>186</v>
       </c>
@@ -18447,11 +18447,11 @@
       <c r="J336" s="19"/>
       <c r="K336" s="19"/>
       <c r="L336" s="19"/>
-      <c r="M336" s="87" t="s">
+      <c r="M336" s="88" t="s">
         <v>506</v>
       </c>
-      <c r="N336" s="87"/>
-      <c r="O336" s="87"/>
+      <c r="N336" s="88"/>
+      <c r="O336" s="88"/>
       <c r="P336" s="28" t="s">
         <v>186</v>
       </c>
@@ -18472,7 +18472,7 @@
     </row>
     <row r="337" spans="1:26" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="85" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B337" s="27" t="s">
         <v>750</v>
@@ -18527,11 +18527,11 @@
       <c r="J338" s="19"/>
       <c r="K338" s="19"/>
       <c r="L338" s="19"/>
-      <c r="M338" s="87" t="s">
+      <c r="M338" s="88" t="s">
         <v>708</v>
       </c>
-      <c r="N338" s="87"/>
-      <c r="O338" s="87"/>
+      <c r="N338" s="88"/>
+      <c r="O338" s="88"/>
       <c r="P338" s="22" t="s">
         <v>1</v>
       </c>
@@ -18567,11 +18567,11 @@
       <c r="J339" s="19"/>
       <c r="K339" s="19"/>
       <c r="L339" s="19"/>
-      <c r="M339" s="87" t="s">
+      <c r="M339" s="88" t="s">
         <v>709</v>
       </c>
-      <c r="N339" s="87"/>
-      <c r="O339" s="87"/>
+      <c r="N339" s="88"/>
+      <c r="O339" s="88"/>
       <c r="P339" s="22" t="s">
         <v>1</v>
       </c>
@@ -18607,11 +18607,11 @@
       <c r="J340" s="19"/>
       <c r="K340" s="19"/>
       <c r="L340" s="19"/>
-      <c r="M340" s="87" t="s">
+      <c r="M340" s="88" t="s">
         <v>711</v>
       </c>
-      <c r="N340" s="87"/>
-      <c r="O340" s="87"/>
+      <c r="N340" s="88"/>
+      <c r="O340" s="88"/>
       <c r="P340" s="22" t="s">
         <v>1</v>
       </c>
@@ -18647,11 +18647,11 @@
       <c r="J341" s="19"/>
       <c r="K341" s="19"/>
       <c r="L341" s="19"/>
-      <c r="M341" s="87" t="s">
+      <c r="M341" s="88" t="s">
         <v>712</v>
       </c>
-      <c r="N341" s="87"/>
-      <c r="O341" s="87"/>
+      <c r="N341" s="88"/>
+      <c r="O341" s="88"/>
       <c r="P341" s="22" t="s">
         <v>1</v>
       </c>
@@ -18687,11 +18687,11 @@
       <c r="J342" s="19"/>
       <c r="K342" s="19"/>
       <c r="L342" s="19"/>
-      <c r="M342" s="87" t="s">
+      <c r="M342" s="88" t="s">
         <v>714</v>
       </c>
-      <c r="N342" s="87"/>
-      <c r="O342" s="87"/>
+      <c r="N342" s="88"/>
+      <c r="O342" s="88"/>
       <c r="P342" s="22" t="s">
         <v>1</v>
       </c>
@@ -18727,11 +18727,11 @@
       <c r="J343" s="19"/>
       <c r="K343" s="19"/>
       <c r="L343" s="19"/>
-      <c r="M343" s="87" t="s">
+      <c r="M343" s="88" t="s">
         <v>715</v>
       </c>
-      <c r="N343" s="87"/>
-      <c r="O343" s="87"/>
+      <c r="N343" s="88"/>
+      <c r="O343" s="88"/>
       <c r="P343" s="22" t="s">
         <v>1</v>
       </c>
@@ -18767,11 +18767,11 @@
       <c r="J344" s="19"/>
       <c r="K344" s="19"/>
       <c r="L344" s="19"/>
-      <c r="M344" s="87" t="s">
+      <c r="M344" s="88" t="s">
         <v>717</v>
       </c>
-      <c r="N344" s="87"/>
-      <c r="O344" s="87"/>
+      <c r="N344" s="88"/>
+      <c r="O344" s="88"/>
       <c r="P344" s="22" t="s">
         <v>1</v>
       </c>
@@ -18807,11 +18807,11 @@
       <c r="J345" s="19"/>
       <c r="K345" s="19"/>
       <c r="L345" s="19"/>
-      <c r="M345" s="87" t="s">
+      <c r="M345" s="88" t="s">
         <v>718</v>
       </c>
-      <c r="N345" s="87"/>
-      <c r="O345" s="87"/>
+      <c r="N345" s="88"/>
+      <c r="O345" s="88"/>
       <c r="P345" s="22" t="s">
         <v>1</v>
       </c>
@@ -18847,11 +18847,11 @@
       <c r="J346" s="19"/>
       <c r="K346" s="19"/>
       <c r="L346" s="19"/>
-      <c r="M346" s="87" t="s">
+      <c r="M346" s="88" t="s">
         <v>719</v>
       </c>
-      <c r="N346" s="87"/>
-      <c r="O346" s="87"/>
+      <c r="N346" s="88"/>
+      <c r="O346" s="88"/>
       <c r="P346" s="22" t="s">
         <v>1</v>
       </c>
@@ -18887,11 +18887,11 @@
       <c r="J347" s="19"/>
       <c r="K347" s="19"/>
       <c r="L347" s="19"/>
-      <c r="M347" s="87" t="s">
+      <c r="M347" s="88" t="s">
         <v>720</v>
       </c>
-      <c r="N347" s="87"/>
-      <c r="O347" s="87"/>
+      <c r="N347" s="88"/>
+      <c r="O347" s="88"/>
       <c r="P347" s="22" t="s">
         <v>1</v>
       </c>
@@ -18915,7 +18915,7 @@
         <v>727</v>
       </c>
       <c r="B348" s="27" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C348" s="29"/>
       <c r="D348" s="29"/>
@@ -18927,11 +18927,11 @@
       <c r="J348" s="19"/>
       <c r="K348" s="19"/>
       <c r="L348" s="19"/>
-      <c r="M348" s="87" t="s">
-        <v>860</v>
-      </c>
-      <c r="N348" s="87"/>
-      <c r="O348" s="87"/>
+      <c r="M348" s="88" t="s">
+        <v>859</v>
+      </c>
+      <c r="N348" s="88"/>
+      <c r="O348" s="88"/>
       <c r="P348" s="22" t="s">
         <v>1</v>
       </c>
@@ -18967,11 +18967,11 @@
       <c r="J349" s="19"/>
       <c r="K349" s="19"/>
       <c r="L349" s="19"/>
-      <c r="M349" s="87" t="s">
+      <c r="M349" s="88" t="s">
         <v>724</v>
       </c>
-      <c r="N349" s="87"/>
-      <c r="O349" s="87"/>
+      <c r="N349" s="88"/>
+      <c r="O349" s="88"/>
       <c r="P349" s="22" t="s">
         <v>1</v>
       </c>
@@ -19007,11 +19007,11 @@
       <c r="J350" s="19"/>
       <c r="K350" s="19"/>
       <c r="L350" s="19"/>
-      <c r="M350" s="87" t="s">
+      <c r="M350" s="88" t="s">
         <v>729</v>
       </c>
-      <c r="N350" s="87"/>
-      <c r="O350" s="87"/>
+      <c r="N350" s="88"/>
+      <c r="O350" s="88"/>
       <c r="P350" s="22" t="s">
         <v>1</v>
       </c>
@@ -19047,11 +19047,11 @@
       <c r="J351" s="19"/>
       <c r="K351" s="19"/>
       <c r="L351" s="19"/>
-      <c r="M351" s="87" t="s">
+      <c r="M351" s="88" t="s">
         <v>733</v>
       </c>
-      <c r="N351" s="87"/>
-      <c r="O351" s="87"/>
+      <c r="N351" s="88"/>
+      <c r="O351" s="88"/>
       <c r="P351" s="22" t="s">
         <v>1</v>
       </c>
@@ -19087,11 +19087,11 @@
       <c r="J352" s="19"/>
       <c r="K352" s="19"/>
       <c r="L352" s="19"/>
-      <c r="M352" s="87" t="s">
+      <c r="M352" s="88" t="s">
         <v>734</v>
       </c>
-      <c r="N352" s="87"/>
-      <c r="O352" s="87"/>
+      <c r="N352" s="88"/>
+      <c r="O352" s="88"/>
       <c r="P352" s="22" t="s">
         <v>1</v>
       </c>
@@ -19127,11 +19127,11 @@
       <c r="J353" s="19"/>
       <c r="K353" s="19"/>
       <c r="L353" s="19"/>
-      <c r="M353" s="87" t="s">
+      <c r="M353" s="88" t="s">
         <v>738</v>
       </c>
-      <c r="N353" s="87"/>
-      <c r="O353" s="87"/>
+      <c r="N353" s="88"/>
+      <c r="O353" s="88"/>
       <c r="P353" s="22" t="s">
         <v>1</v>
       </c>
@@ -19167,11 +19167,11 @@
       <c r="J354" s="19"/>
       <c r="K354" s="19"/>
       <c r="L354" s="19"/>
-      <c r="M354" s="87" t="s">
+      <c r="M354" s="88" t="s">
         <v>741</v>
       </c>
-      <c r="N354" s="87"/>
-      <c r="O354" s="87"/>
+      <c r="N354" s="88"/>
+      <c r="O354" s="88"/>
       <c r="P354" s="22" t="s">
         <v>1</v>
       </c>
@@ -19207,11 +19207,11 @@
       <c r="J355" s="19"/>
       <c r="K355" s="19"/>
       <c r="L355" s="19"/>
-      <c r="M355" s="87" t="s">
+      <c r="M355" s="88" t="s">
         <v>744</v>
       </c>
-      <c r="N355" s="87"/>
-      <c r="O355" s="87"/>
+      <c r="N355" s="88"/>
+      <c r="O355" s="88"/>
       <c r="P355" s="22" t="s">
         <v>1</v>
       </c>
@@ -19247,11 +19247,11 @@
       <c r="J356" s="19"/>
       <c r="K356" s="19"/>
       <c r="L356" s="19"/>
-      <c r="M356" s="87" t="s">
+      <c r="M356" s="88" t="s">
         <v>747</v>
       </c>
-      <c r="N356" s="87"/>
-      <c r="O356" s="87"/>
+      <c r="N356" s="88"/>
+      <c r="O356" s="88"/>
       <c r="P356" s="22" t="s">
         <v>1</v>
       </c>
@@ -19287,11 +19287,11 @@
       <c r="J357" s="19"/>
       <c r="K357" s="19"/>
       <c r="L357" s="19"/>
-      <c r="M357" s="87" t="s">
+      <c r="M357" s="88" t="s">
         <v>750</v>
       </c>
-      <c r="N357" s="87"/>
-      <c r="O357" s="87"/>
+      <c r="N357" s="88"/>
+      <c r="O357" s="88"/>
       <c r="P357" s="22" t="s">
         <v>1</v>
       </c>
@@ -19327,11 +19327,11 @@
       <c r="J358" s="19"/>
       <c r="K358" s="19"/>
       <c r="L358" s="19"/>
-      <c r="M358" s="87" t="s">
+      <c r="M358" s="88" t="s">
         <v>752</v>
       </c>
-      <c r="N358" s="87"/>
-      <c r="O358" s="87"/>
+      <c r="N358" s="88"/>
+      <c r="O358" s="88"/>
       <c r="P358" s="22" t="s">
         <v>1</v>
       </c>
@@ -19352,10 +19352,10 @@
     </row>
     <row r="359" spans="1:26" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="85" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B359" s="27" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C359" s="29"/>
       <c r="D359" s="29"/>
@@ -19368,7 +19368,7 @@
       <c r="K359" s="19"/>
       <c r="L359" s="19"/>
       <c r="M359" s="83" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="N359" s="83"/>
       <c r="O359" s="83"/>
@@ -19379,7 +19379,7 @@
         <v>0</v>
       </c>
       <c r="R359" s="79" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="S359" s="22"/>
       <c r="T359" s="84"/>
@@ -19407,11 +19407,11 @@
       <c r="J360" s="19"/>
       <c r="K360" s="19"/>
       <c r="L360" s="19"/>
-      <c r="M360" s="87" t="s">
+      <c r="M360" s="88" t="s">
         <v>754</v>
       </c>
-      <c r="N360" s="87"/>
-      <c r="O360" s="87"/>
+      <c r="N360" s="88"/>
+      <c r="O360" s="88"/>
       <c r="P360" s="22" t="s">
         <v>1</v>
       </c>
@@ -19447,11 +19447,11 @@
       <c r="J361" s="19"/>
       <c r="K361" s="19"/>
       <c r="L361" s="19"/>
-      <c r="M361" s="87" t="s">
+      <c r="M361" s="88" t="s">
         <v>755</v>
       </c>
-      <c r="N361" s="87"/>
-      <c r="O361" s="87"/>
+      <c r="N361" s="88"/>
+      <c r="O361" s="88"/>
       <c r="P361" s="22" t="s">
         <v>1</v>
       </c>
@@ -19487,11 +19487,11 @@
       <c r="J362" s="19"/>
       <c r="K362" s="19"/>
       <c r="L362" s="19"/>
-      <c r="M362" s="87" t="s">
+      <c r="M362" s="88" t="s">
         <v>757</v>
       </c>
-      <c r="N362" s="87"/>
-      <c r="O362" s="87"/>
+      <c r="N362" s="88"/>
+      <c r="O362" s="88"/>
       <c r="P362" s="22" t="s">
         <v>1</v>
       </c>
@@ -19527,11 +19527,11 @@
       <c r="J363" s="19"/>
       <c r="K363" s="19"/>
       <c r="L363" s="19"/>
-      <c r="M363" s="87" t="s">
+      <c r="M363" s="88" t="s">
         <v>758</v>
       </c>
-      <c r="N363" s="87"/>
-      <c r="O363" s="87"/>
+      <c r="N363" s="88"/>
+      <c r="O363" s="88"/>
       <c r="P363" s="22" t="s">
         <v>1</v>
       </c>
@@ -19567,11 +19567,11 @@
       <c r="J364" s="19"/>
       <c r="K364" s="19"/>
       <c r="L364" s="19"/>
-      <c r="M364" s="87" t="s">
+      <c r="M364" s="88" t="s">
         <v>846</v>
       </c>
-      <c r="N364" s="87"/>
-      <c r="O364" s="87"/>
+      <c r="N364" s="88"/>
+      <c r="O364" s="88"/>
       <c r="P364" s="22" t="s">
         <v>1</v>
       </c>
@@ -19607,11 +19607,11 @@
       <c r="J365" s="19"/>
       <c r="K365" s="19"/>
       <c r="L365" s="19"/>
-      <c r="M365" s="87" t="s">
+      <c r="M365" s="88" t="s">
         <v>760</v>
       </c>
-      <c r="N365" s="87"/>
-      <c r="O365" s="87"/>
+      <c r="N365" s="88"/>
+      <c r="O365" s="88"/>
       <c r="P365" s="22" t="s">
         <v>1</v>
       </c>
@@ -19647,11 +19647,11 @@
       <c r="J366" s="19"/>
       <c r="K366" s="19"/>
       <c r="L366" s="19"/>
-      <c r="M366" s="87" t="s">
+      <c r="M366" s="88" t="s">
         <v>675</v>
       </c>
-      <c r="N366" s="87"/>
-      <c r="O366" s="87"/>
+      <c r="N366" s="88"/>
+      <c r="O366" s="88"/>
       <c r="P366" s="22" t="s">
         <v>1</v>
       </c>
@@ -19687,11 +19687,11 @@
       <c r="J367" s="19"/>
       <c r="K367" s="19"/>
       <c r="L367" s="19"/>
-      <c r="M367" s="87" t="s">
+      <c r="M367" s="88" t="s">
         <v>762</v>
       </c>
-      <c r="N367" s="87"/>
-      <c r="O367" s="87"/>
+      <c r="N367" s="88"/>
+      <c r="O367" s="88"/>
       <c r="P367" s="22" t="s">
         <v>1</v>
       </c>
@@ -19727,11 +19727,11 @@
       <c r="J368" s="19"/>
       <c r="K368" s="19"/>
       <c r="L368" s="19"/>
-      <c r="M368" s="87" t="s">
+      <c r="M368" s="88" t="s">
         <v>763</v>
       </c>
-      <c r="N368" s="87"/>
-      <c r="O368" s="87"/>
+      <c r="N368" s="88"/>
+      <c r="O368" s="88"/>
       <c r="P368" s="22" t="s">
         <v>1</v>
       </c>
@@ -19767,11 +19767,11 @@
       <c r="J369" s="19"/>
       <c r="K369" s="19"/>
       <c r="L369" s="19"/>
-      <c r="M369" s="87" t="s">
+      <c r="M369" s="88" t="s">
         <v>765</v>
       </c>
-      <c r="N369" s="87"/>
-      <c r="O369" s="87"/>
+      <c r="N369" s="88"/>
+      <c r="O369" s="88"/>
       <c r="P369" s="22" t="s">
         <v>1</v>
       </c>
@@ -19807,11 +19807,11 @@
       <c r="J370" s="19"/>
       <c r="K370" s="19"/>
       <c r="L370" s="19"/>
-      <c r="M370" s="87" t="s">
+      <c r="M370" s="88" t="s">
         <v>766</v>
       </c>
-      <c r="N370" s="87"/>
-      <c r="O370" s="87"/>
+      <c r="N370" s="88"/>
+      <c r="O370" s="88"/>
       <c r="P370" s="22" t="s">
         <v>1</v>
       </c>
@@ -19832,20 +19832,20 @@
     </row>
     <row r="371" spans="1:26" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A371" s="26"/>
-      <c r="B371" s="118"/>
-      <c r="C371" s="118"/>
-      <c r="D371" s="118"/>
-      <c r="E371" s="118"/>
-      <c r="F371" s="118"/>
-      <c r="G371" s="118"/>
-      <c r="H371" s="118"/>
-      <c r="I371" s="118"/>
-      <c r="J371" s="118"/>
-      <c r="K371" s="118"/>
-      <c r="L371" s="118"/>
-      <c r="M371" s="87"/>
-      <c r="N371" s="87"/>
-      <c r="O371" s="87"/>
+      <c r="B371" s="87"/>
+      <c r="C371" s="87"/>
+      <c r="D371" s="87"/>
+      <c r="E371" s="87"/>
+      <c r="F371" s="87"/>
+      <c r="G371" s="87"/>
+      <c r="H371" s="87"/>
+      <c r="I371" s="87"/>
+      <c r="J371" s="87"/>
+      <c r="K371" s="87"/>
+      <c r="L371" s="87"/>
+      <c r="M371" s="88"/>
+      <c r="N371" s="88"/>
+      <c r="O371" s="88"/>
       <c r="P371" s="28"/>
       <c r="Q371" s="80"/>
       <c r="R371" s="28"/>
@@ -19875,11 +19875,11 @@
       <c r="J372" s="19"/>
       <c r="K372" s="19"/>
       <c r="L372" s="19"/>
-      <c r="M372" s="87" t="s">
+      <c r="M372" s="88" t="s">
         <v>774</v>
       </c>
-      <c r="N372" s="87"/>
-      <c r="O372" s="87"/>
+      <c r="N372" s="88"/>
+      <c r="O372" s="88"/>
       <c r="P372" s="28" t="s">
         <v>175</v>
       </c>
@@ -19915,11 +19915,11 @@
       <c r="J373" s="19"/>
       <c r="K373" s="19"/>
       <c r="L373" s="19"/>
-      <c r="M373" s="87" t="s">
+      <c r="M373" s="88" t="s">
         <v>775</v>
       </c>
-      <c r="N373" s="87"/>
-      <c r="O373" s="87"/>
+      <c r="N373" s="88"/>
+      <c r="O373" s="88"/>
       <c r="P373" s="22" t="s">
         <v>1</v>
       </c>
@@ -19955,11 +19955,11 @@
       <c r="J374" s="19"/>
       <c r="K374" s="19"/>
       <c r="L374" s="19"/>
-      <c r="M374" s="87" t="s">
+      <c r="M374" s="88" t="s">
         <v>777</v>
       </c>
-      <c r="N374" s="87"/>
-      <c r="O374" s="87"/>
+      <c r="N374" s="88"/>
+      <c r="O374" s="88"/>
       <c r="P374" s="22" t="s">
         <v>1</v>
       </c>
@@ -19995,11 +19995,11 @@
       <c r="J375" s="19"/>
       <c r="K375" s="19"/>
       <c r="L375" s="19"/>
-      <c r="M375" s="87" t="s">
+      <c r="M375" s="88" t="s">
         <v>778</v>
       </c>
-      <c r="N375" s="87"/>
-      <c r="O375" s="87"/>
+      <c r="N375" s="88"/>
+      <c r="O375" s="88"/>
       <c r="P375" s="22" t="s">
         <v>1</v>
       </c>
@@ -20035,11 +20035,11 @@
       <c r="J376" s="19"/>
       <c r="K376" s="19"/>
       <c r="L376" s="19"/>
-      <c r="M376" s="87" t="s">
+      <c r="M376" s="88" t="s">
         <v>780</v>
       </c>
-      <c r="N376" s="87"/>
-      <c r="O376" s="87"/>
+      <c r="N376" s="88"/>
+      <c r="O376" s="88"/>
       <c r="P376" s="28" t="s">
         <v>175</v>
       </c>
@@ -20075,11 +20075,11 @@
       <c r="J377" s="19"/>
       <c r="K377" s="19"/>
       <c r="L377" s="19"/>
-      <c r="M377" s="87" t="s">
+      <c r="M377" s="88" t="s">
         <v>781</v>
       </c>
-      <c r="N377" s="87"/>
-      <c r="O377" s="87"/>
+      <c r="N377" s="88"/>
+      <c r="O377" s="88"/>
       <c r="P377" s="28" t="s">
         <v>175</v>
       </c>
@@ -20115,11 +20115,11 @@
       <c r="J378" s="19"/>
       <c r="K378" s="19"/>
       <c r="L378" s="19"/>
-      <c r="M378" s="87" t="s">
+      <c r="M378" s="88" t="s">
         <v>782</v>
       </c>
-      <c r="N378" s="87"/>
-      <c r="O378" s="87"/>
+      <c r="N378" s="88"/>
+      <c r="O378" s="88"/>
       <c r="P378" s="22" t="s">
         <v>1</v>
       </c>
@@ -20155,11 +20155,11 @@
       <c r="J379" s="19"/>
       <c r="K379" s="19"/>
       <c r="L379" s="19"/>
-      <c r="M379" s="87" t="s">
+      <c r="M379" s="88" t="s">
         <v>783</v>
       </c>
-      <c r="N379" s="87"/>
-      <c r="O379" s="87"/>
+      <c r="N379" s="88"/>
+      <c r="O379" s="88"/>
       <c r="P379" s="22" t="s">
         <v>1</v>
       </c>
@@ -20195,11 +20195,11 @@
       <c r="J380" s="19"/>
       <c r="K380" s="19"/>
       <c r="L380" s="19"/>
-      <c r="M380" s="87" t="s">
+      <c r="M380" s="88" t="s">
         <v>784</v>
       </c>
-      <c r="N380" s="87"/>
-      <c r="O380" s="87"/>
+      <c r="N380" s="88"/>
+      <c r="O380" s="88"/>
       <c r="P380" s="22" t="s">
         <v>1</v>
       </c>
@@ -20235,11 +20235,11 @@
       <c r="J381" s="19"/>
       <c r="K381" s="19"/>
       <c r="L381" s="19"/>
-      <c r="M381" s="87" t="s">
+      <c r="M381" s="88" t="s">
         <v>785</v>
       </c>
-      <c r="N381" s="87"/>
-      <c r="O381" s="87"/>
+      <c r="N381" s="88"/>
+      <c r="O381" s="88"/>
       <c r="P381" s="22" t="s">
         <v>1</v>
       </c>
@@ -20275,11 +20275,11 @@
       <c r="J382" s="19"/>
       <c r="K382" s="19"/>
       <c r="L382" s="19"/>
-      <c r="M382" s="87" t="s">
+      <c r="M382" s="88" t="s">
         <v>786</v>
       </c>
-      <c r="N382" s="87"/>
-      <c r="O382" s="87"/>
+      <c r="N382" s="88"/>
+      <c r="O382" s="88"/>
       <c r="P382" s="22" t="s">
         <v>1</v>
       </c>
@@ -20315,11 +20315,11 @@
       <c r="J383" s="19"/>
       <c r="K383" s="19"/>
       <c r="L383" s="19"/>
-      <c r="M383" s="87" t="s">
+      <c r="M383" s="88" t="s">
         <v>787</v>
       </c>
-      <c r="N383" s="87"/>
-      <c r="O383" s="87"/>
+      <c r="N383" s="88"/>
+      <c r="O383" s="88"/>
       <c r="P383" s="22" t="s">
         <v>1</v>
       </c>
@@ -20355,11 +20355,11 @@
       <c r="J384" s="19"/>
       <c r="K384" s="19"/>
       <c r="L384" s="19"/>
-      <c r="M384" s="87" t="s">
+      <c r="M384" s="88" t="s">
         <v>788</v>
       </c>
-      <c r="N384" s="87"/>
-      <c r="O384" s="87"/>
+      <c r="N384" s="88"/>
+      <c r="O384" s="88"/>
       <c r="P384" s="22" t="s">
         <v>1</v>
       </c>
@@ -20395,11 +20395,11 @@
       <c r="J385" s="19"/>
       <c r="K385" s="19"/>
       <c r="L385" s="19"/>
-      <c r="M385" s="87" t="s">
+      <c r="M385" s="88" t="s">
         <v>790</v>
       </c>
-      <c r="N385" s="87"/>
-      <c r="O385" s="87"/>
+      <c r="N385" s="88"/>
+      <c r="O385" s="88"/>
       <c r="P385" s="22" t="s">
         <v>1</v>
       </c>
@@ -20435,11 +20435,11 @@
       <c r="J386" s="19"/>
       <c r="K386" s="19"/>
       <c r="L386" s="19"/>
-      <c r="M386" s="87" t="s">
+      <c r="M386" s="88" t="s">
         <v>791</v>
       </c>
-      <c r="N386" s="87"/>
-      <c r="O386" s="87"/>
+      <c r="N386" s="88"/>
+      <c r="O386" s="88"/>
       <c r="P386" s="22" t="s">
         <v>1</v>
       </c>
@@ -20475,11 +20475,11 @@
       <c r="J387" s="19"/>
       <c r="K387" s="19"/>
       <c r="L387" s="19"/>
-      <c r="M387" s="87" t="s">
+      <c r="M387" s="88" t="s">
         <v>792</v>
       </c>
-      <c r="N387" s="87"/>
-      <c r="O387" s="87"/>
+      <c r="N387" s="88"/>
+      <c r="O387" s="88"/>
       <c r="P387" s="22" t="s">
         <v>1</v>
       </c>
@@ -20515,11 +20515,11 @@
       <c r="J388" s="19"/>
       <c r="K388" s="19"/>
       <c r="L388" s="19"/>
-      <c r="M388" s="87" t="s">
+      <c r="M388" s="88" t="s">
         <v>794</v>
       </c>
-      <c r="N388" s="87"/>
-      <c r="O388" s="87"/>
+      <c r="N388" s="88"/>
+      <c r="O388" s="88"/>
       <c r="P388" s="22" t="s">
         <v>1</v>
       </c>
@@ -20555,11 +20555,11 @@
       <c r="J389" s="19"/>
       <c r="K389" s="19"/>
       <c r="L389" s="19"/>
-      <c r="M389" s="87" t="s">
+      <c r="M389" s="88" t="s">
         <v>795</v>
       </c>
-      <c r="N389" s="87"/>
-      <c r="O389" s="87"/>
+      <c r="N389" s="88"/>
+      <c r="O389" s="88"/>
       <c r="P389" s="22" t="s">
         <v>1</v>
       </c>
@@ -20595,11 +20595,11 @@
       <c r="J390" s="19"/>
       <c r="K390" s="19"/>
       <c r="L390" s="19"/>
-      <c r="M390" s="87" t="s">
+      <c r="M390" s="88" t="s">
         <v>797</v>
       </c>
-      <c r="N390" s="87"/>
-      <c r="O390" s="87"/>
+      <c r="N390" s="88"/>
+      <c r="O390" s="88"/>
       <c r="P390" s="28" t="s">
         <v>175</v>
       </c>
@@ -20635,11 +20635,11 @@
       <c r="J391" s="19"/>
       <c r="K391" s="19"/>
       <c r="L391" s="19"/>
-      <c r="M391" s="87" t="s">
+      <c r="M391" s="88" t="s">
         <v>798</v>
       </c>
-      <c r="N391" s="87"/>
-      <c r="O391" s="87"/>
+      <c r="N391" s="88"/>
+      <c r="O391" s="88"/>
       <c r="P391" s="28" t="s">
         <v>175</v>
       </c>
@@ -20675,11 +20675,11 @@
       <c r="J392" s="19"/>
       <c r="K392" s="19"/>
       <c r="L392" s="19"/>
-      <c r="M392" s="87" t="s">
+      <c r="M392" s="88" t="s">
         <v>799</v>
       </c>
-      <c r="N392" s="87"/>
-      <c r="O392" s="87"/>
+      <c r="N392" s="88"/>
+      <c r="O392" s="88"/>
       <c r="P392" s="22" t="s">
         <v>1</v>
       </c>
@@ -20715,11 +20715,11 @@
       <c r="J393" s="19"/>
       <c r="K393" s="19"/>
       <c r="L393" s="19"/>
-      <c r="M393" s="87" t="s">
+      <c r="M393" s="88" t="s">
         <v>800</v>
       </c>
-      <c r="N393" s="87"/>
-      <c r="O393" s="87"/>
+      <c r="N393" s="88"/>
+      <c r="O393" s="88"/>
       <c r="P393" s="22" t="s">
         <v>1</v>
       </c>
@@ -20755,11 +20755,11 @@
       <c r="J394" s="19"/>
       <c r="K394" s="19"/>
       <c r="L394" s="19"/>
-      <c r="M394" s="87" t="s">
+      <c r="M394" s="88" t="s">
         <v>801</v>
       </c>
-      <c r="N394" s="87"/>
-      <c r="O394" s="87"/>
+      <c r="N394" s="88"/>
+      <c r="O394" s="88"/>
       <c r="P394" s="22" t="s">
         <v>1</v>
       </c>
@@ -20795,11 +20795,11 @@
       <c r="J395" s="19"/>
       <c r="K395" s="19"/>
       <c r="L395" s="19"/>
-      <c r="M395" s="87" t="s">
+      <c r="M395" s="88" t="s">
         <v>802</v>
       </c>
-      <c r="N395" s="87"/>
-      <c r="O395" s="87"/>
+      <c r="N395" s="88"/>
+      <c r="O395" s="88"/>
       <c r="P395" s="22" t="s">
         <v>1</v>
       </c>
@@ -20835,11 +20835,11 @@
       <c r="J396" s="19"/>
       <c r="K396" s="19"/>
       <c r="L396" s="19"/>
-      <c r="M396" s="87" t="s">
+      <c r="M396" s="88" t="s">
         <v>803</v>
       </c>
-      <c r="N396" s="87"/>
-      <c r="O396" s="87"/>
+      <c r="N396" s="88"/>
+      <c r="O396" s="88"/>
       <c r="P396" s="22" t="s">
         <v>1</v>
       </c>
@@ -20875,11 +20875,11 @@
       <c r="J397" s="19"/>
       <c r="K397" s="19"/>
       <c r="L397" s="19"/>
-      <c r="M397" s="87" t="s">
+      <c r="M397" s="88" t="s">
         <v>804</v>
       </c>
-      <c r="N397" s="87"/>
-      <c r="O397" s="87"/>
+      <c r="N397" s="88"/>
+      <c r="O397" s="88"/>
       <c r="P397" s="22" t="s">
         <v>1</v>
       </c>
@@ -20915,11 +20915,11 @@
       <c r="J398" s="19"/>
       <c r="K398" s="19"/>
       <c r="L398" s="19"/>
-      <c r="M398" s="87" t="s">
+      <c r="M398" s="88" t="s">
         <v>805</v>
       </c>
-      <c r="N398" s="87"/>
-      <c r="O398" s="87"/>
+      <c r="N398" s="88"/>
+      <c r="O398" s="88"/>
       <c r="P398" s="22" t="s">
         <v>1</v>
       </c>
@@ -20943,7 +20943,7 @@
         <v>772</v>
       </c>
       <c r="B399" s="27" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C399" s="29"/>
       <c r="D399" s="29"/>
@@ -20955,11 +20955,11 @@
       <c r="J399" s="19"/>
       <c r="K399" s="19"/>
       <c r="L399" s="19"/>
-      <c r="M399" s="87" t="s">
-        <v>864</v>
-      </c>
-      <c r="N399" s="87"/>
-      <c r="O399" s="87"/>
+      <c r="M399" s="88" t="s">
+        <v>863</v>
+      </c>
+      <c r="N399" s="88"/>
+      <c r="O399" s="88"/>
       <c r="P399" s="22" t="s">
         <v>1</v>
       </c>
@@ -20983,7 +20983,7 @@
         <v>772</v>
       </c>
       <c r="B400" s="27" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C400" s="29"/>
       <c r="D400" s="29"/>
@@ -20996,7 +20996,7 @@
       <c r="K400" s="19"/>
       <c r="L400" s="19"/>
       <c r="M400" s="83" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="N400" s="83"/>
       <c r="O400" s="83"/>
@@ -21035,11 +21035,11 @@
       <c r="J401" s="19"/>
       <c r="K401" s="19"/>
       <c r="L401" s="19"/>
-      <c r="M401" s="87" t="s">
+      <c r="M401" s="88" t="s">
         <v>808</v>
       </c>
-      <c r="N401" s="87"/>
-      <c r="O401" s="87"/>
+      <c r="N401" s="88"/>
+      <c r="O401" s="88"/>
       <c r="P401" s="28" t="s">
         <v>175</v>
       </c>
@@ -21075,11 +21075,11 @@
       <c r="J402" s="19"/>
       <c r="K402" s="19"/>
       <c r="L402" s="19"/>
-      <c r="M402" s="87" t="s">
+      <c r="M402" s="88" t="s">
         <v>809</v>
       </c>
-      <c r="N402" s="87"/>
-      <c r="O402" s="87"/>
+      <c r="N402" s="88"/>
+      <c r="O402" s="88"/>
       <c r="P402" s="28" t="s">
         <v>186</v>
       </c>
@@ -21115,11 +21115,11 @@
       <c r="J403" s="19"/>
       <c r="K403" s="19"/>
       <c r="L403" s="19"/>
-      <c r="M403" s="87" t="s">
+      <c r="M403" s="88" t="s">
         <v>810</v>
       </c>
-      <c r="N403" s="87"/>
-      <c r="O403" s="87"/>
+      <c r="N403" s="88"/>
+      <c r="O403" s="88"/>
       <c r="P403" s="22" t="s">
         <v>1</v>
       </c>
@@ -21143,7 +21143,7 @@
         <v>772</v>
       </c>
       <c r="B404" s="27" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C404" s="29"/>
       <c r="D404" s="29"/>
@@ -21156,7 +21156,7 @@
       <c r="K404" s="19"/>
       <c r="L404" s="19"/>
       <c r="M404" s="83" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="N404" s="83"/>
       <c r="O404" s="83"/>
@@ -21183,7 +21183,7 @@
         <v>772</v>
       </c>
       <c r="B405" s="27" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C405" s="29"/>
       <c r="D405" s="29"/>
@@ -21196,7 +21196,7 @@
       <c r="K405" s="19"/>
       <c r="L405" s="19"/>
       <c r="M405" s="83" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="N405" s="83"/>
       <c r="O405" s="83"/>
@@ -21223,7 +21223,7 @@
         <v>772</v>
       </c>
       <c r="B406" s="27" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C406" s="29"/>
       <c r="D406" s="29"/>
@@ -21236,7 +21236,7 @@
       <c r="K406" s="19"/>
       <c r="L406" s="19"/>
       <c r="M406" s="83" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="N406" s="83"/>
       <c r="O406" s="83"/>
@@ -21263,7 +21263,7 @@
         <v>772</v>
       </c>
       <c r="B407" s="27" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C407" s="29"/>
       <c r="D407" s="29"/>
@@ -21276,7 +21276,7 @@
       <c r="K407" s="19"/>
       <c r="L407" s="19"/>
       <c r="M407" s="83" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="N407" s="83"/>
       <c r="O407" s="83"/>
@@ -21315,11 +21315,11 @@
       <c r="J408" s="19"/>
       <c r="K408" s="19"/>
       <c r="L408" s="19"/>
-      <c r="M408" s="87" t="s">
+      <c r="M408" s="88" t="s">
         <v>812</v>
       </c>
-      <c r="N408" s="87"/>
-      <c r="O408" s="87"/>
+      <c r="N408" s="88"/>
+      <c r="O408" s="88"/>
       <c r="P408" s="22" t="s">
         <v>1</v>
       </c>
@@ -21355,11 +21355,11 @@
       <c r="J409" s="19"/>
       <c r="K409" s="19"/>
       <c r="L409" s="19"/>
-      <c r="M409" s="87" t="s">
+      <c r="M409" s="88" t="s">
         <v>813</v>
       </c>
-      <c r="N409" s="87"/>
-      <c r="O409" s="87"/>
+      <c r="N409" s="88"/>
+      <c r="O409" s="88"/>
       <c r="P409" s="22" t="s">
         <v>1</v>
       </c>
@@ -21395,11 +21395,11 @@
       <c r="J410" s="19"/>
       <c r="K410" s="19"/>
       <c r="L410" s="19"/>
-      <c r="M410" s="87" t="s">
+      <c r="M410" s="88" t="s">
         <v>814</v>
       </c>
-      <c r="N410" s="87"/>
-      <c r="O410" s="87"/>
+      <c r="N410" s="88"/>
+      <c r="O410" s="88"/>
       <c r="P410" s="22" t="s">
         <v>1</v>
       </c>
@@ -21435,11 +21435,11 @@
       <c r="J411" s="19"/>
       <c r="K411" s="19"/>
       <c r="L411" s="19"/>
-      <c r="M411" s="87" t="s">
+      <c r="M411" s="88" t="s">
         <v>840</v>
       </c>
-      <c r="N411" s="87"/>
-      <c r="O411" s="87"/>
+      <c r="N411" s="88"/>
+      <c r="O411" s="88"/>
       <c r="P411" s="22" t="s">
         <v>1</v>
       </c>
@@ -21475,11 +21475,11 @@
       <c r="J412" s="19"/>
       <c r="K412" s="19"/>
       <c r="L412" s="19"/>
-      <c r="M412" s="87" t="s">
+      <c r="M412" s="88" t="s">
         <v>817</v>
       </c>
-      <c r="N412" s="87"/>
-      <c r="O412" s="87"/>
+      <c r="N412" s="88"/>
+      <c r="O412" s="88"/>
       <c r="P412" s="22" t="s">
         <v>1</v>
       </c>
@@ -21515,11 +21515,11 @@
       <c r="J413" s="19"/>
       <c r="K413" s="19"/>
       <c r="L413" s="19"/>
-      <c r="M413" s="87" t="s">
+      <c r="M413" s="88" t="s">
         <v>818</v>
       </c>
-      <c r="N413" s="87"/>
-      <c r="O413" s="87"/>
+      <c r="N413" s="88"/>
+      <c r="O413" s="88"/>
       <c r="P413" s="22" t="s">
         <v>1</v>
       </c>
@@ -21555,11 +21555,11 @@
       <c r="J414" s="19"/>
       <c r="K414" s="19"/>
       <c r="L414" s="19"/>
-      <c r="M414" s="87" t="s">
+      <c r="M414" s="88" t="s">
         <v>819</v>
       </c>
-      <c r="N414" s="87"/>
-      <c r="O414" s="87"/>
+      <c r="N414" s="88"/>
+      <c r="O414" s="88"/>
       <c r="P414" s="22" t="s">
         <v>1</v>
       </c>
@@ -21595,11 +21595,11 @@
       <c r="J415" s="19"/>
       <c r="K415" s="19"/>
       <c r="L415" s="19"/>
-      <c r="M415" s="87" t="s">
+      <c r="M415" s="88" t="s">
         <v>841</v>
       </c>
-      <c r="N415" s="87"/>
-      <c r="O415" s="87"/>
+      <c r="N415" s="88"/>
+      <c r="O415" s="88"/>
       <c r="P415" s="22" t="s">
         <v>1</v>
       </c>
@@ -21635,11 +21635,11 @@
       <c r="J416" s="19"/>
       <c r="K416" s="19"/>
       <c r="L416" s="19"/>
-      <c r="M416" s="87" t="s">
+      <c r="M416" s="88" t="s">
         <v>822</v>
       </c>
-      <c r="N416" s="87"/>
-      <c r="O416" s="87"/>
+      <c r="N416" s="88"/>
+      <c r="O416" s="88"/>
       <c r="P416" s="22" t="s">
         <v>1</v>
       </c>
@@ -21675,11 +21675,11 @@
       <c r="J417" s="19"/>
       <c r="K417" s="19"/>
       <c r="L417" s="19"/>
-      <c r="M417" s="87" t="s">
+      <c r="M417" s="88" t="s">
         <v>823</v>
       </c>
-      <c r="N417" s="87"/>
-      <c r="O417" s="87"/>
+      <c r="N417" s="88"/>
+      <c r="O417" s="88"/>
       <c r="P417" s="22" t="s">
         <v>1</v>
       </c>
@@ -21715,11 +21715,11 @@
       <c r="J418" s="19"/>
       <c r="K418" s="19"/>
       <c r="L418" s="19"/>
-      <c r="M418" s="87" t="s">
+      <c r="M418" s="88" t="s">
         <v>824</v>
       </c>
-      <c r="N418" s="87"/>
-      <c r="O418" s="87"/>
+      <c r="N418" s="88"/>
+      <c r="O418" s="88"/>
       <c r="P418" s="22" t="s">
         <v>1</v>
       </c>
@@ -21755,11 +21755,11 @@
       <c r="J419" s="19"/>
       <c r="K419" s="19"/>
       <c r="L419" s="19"/>
-      <c r="M419" s="87" t="s">
+      <c r="M419" s="88" t="s">
         <v>826</v>
       </c>
-      <c r="N419" s="87"/>
-      <c r="O419" s="87"/>
+      <c r="N419" s="88"/>
+      <c r="O419" s="88"/>
       <c r="P419" s="22" t="s">
         <v>1</v>
       </c>
@@ -21795,11 +21795,11 @@
       <c r="J420" s="19"/>
       <c r="K420" s="19"/>
       <c r="L420" s="19"/>
-      <c r="M420" s="87" t="s">
+      <c r="M420" s="88" t="s">
         <v>827</v>
       </c>
-      <c r="N420" s="87"/>
-      <c r="O420" s="87"/>
+      <c r="N420" s="88"/>
+      <c r="O420" s="88"/>
       <c r="P420" s="22" t="s">
         <v>1</v>
       </c>
@@ -21835,11 +21835,11 @@
       <c r="J421" s="19"/>
       <c r="K421" s="19"/>
       <c r="L421" s="19"/>
-      <c r="M421" s="87" t="s">
+      <c r="M421" s="88" t="s">
         <v>828</v>
       </c>
-      <c r="N421" s="87"/>
-      <c r="O421" s="87"/>
+      <c r="N421" s="88"/>
+      <c r="O421" s="88"/>
       <c r="P421" s="22" t="s">
         <v>1</v>
       </c>
@@ -21875,11 +21875,11 @@
       <c r="J422" s="19"/>
       <c r="K422" s="19"/>
       <c r="L422" s="19"/>
-      <c r="M422" s="87" t="s">
+      <c r="M422" s="88" t="s">
         <v>842</v>
       </c>
-      <c r="N422" s="87"/>
-      <c r="O422" s="87"/>
+      <c r="N422" s="88"/>
+      <c r="O422" s="88"/>
       <c r="P422" s="22" t="s">
         <v>1</v>
       </c>
@@ -21915,11 +21915,11 @@
       <c r="J423" s="19"/>
       <c r="K423" s="19"/>
       <c r="L423" s="19"/>
-      <c r="M423" s="87" t="s">
+      <c r="M423" s="88" t="s">
         <v>831</v>
       </c>
-      <c r="N423" s="87"/>
-      <c r="O423" s="87"/>
+      <c r="N423" s="88"/>
+      <c r="O423" s="88"/>
       <c r="P423" s="22" t="s">
         <v>1</v>
       </c>
@@ -21955,11 +21955,11 @@
       <c r="J424" s="19"/>
       <c r="K424" s="19"/>
       <c r="L424" s="19"/>
-      <c r="M424" s="87" t="s">
+      <c r="M424" s="88" t="s">
         <v>832</v>
       </c>
-      <c r="N424" s="87"/>
-      <c r="O424" s="87"/>
+      <c r="N424" s="88"/>
+      <c r="O424" s="88"/>
       <c r="P424" s="22" t="s">
         <v>1</v>
       </c>
@@ -21995,11 +21995,11 @@
       <c r="J425" s="19"/>
       <c r="K425" s="19"/>
       <c r="L425" s="19"/>
-      <c r="M425" s="87" t="s">
+      <c r="M425" s="88" t="s">
         <v>833</v>
       </c>
-      <c r="N425" s="87"/>
-      <c r="O425" s="87"/>
+      <c r="N425" s="88"/>
+      <c r="O425" s="88"/>
       <c r="P425" s="22" t="s">
         <v>1</v>
       </c>
@@ -22035,11 +22035,11 @@
       <c r="J426" s="19"/>
       <c r="K426" s="19"/>
       <c r="L426" s="19"/>
-      <c r="M426" s="87" t="s">
+      <c r="M426" s="88" t="s">
         <v>843</v>
       </c>
-      <c r="N426" s="87"/>
-      <c r="O426" s="87"/>
+      <c r="N426" s="88"/>
+      <c r="O426" s="88"/>
       <c r="P426" s="22" t="s">
         <v>1</v>
       </c>
@@ -22075,11 +22075,11 @@
       <c r="J427" s="19"/>
       <c r="K427" s="19"/>
       <c r="L427" s="19"/>
-      <c r="M427" s="87" t="s">
+      <c r="M427" s="88" t="s">
         <v>836</v>
       </c>
-      <c r="N427" s="87"/>
-      <c r="O427" s="87"/>
+      <c r="N427" s="88"/>
+      <c r="O427" s="88"/>
       <c r="P427" s="22" t="s">
         <v>1</v>
       </c>
@@ -22115,11 +22115,11 @@
       <c r="J428" s="19"/>
       <c r="K428" s="19"/>
       <c r="L428" s="19"/>
-      <c r="M428" s="87" t="s">
+      <c r="M428" s="88" t="s">
         <v>837</v>
       </c>
-      <c r="N428" s="87"/>
-      <c r="O428" s="87"/>
+      <c r="N428" s="88"/>
+      <c r="O428" s="88"/>
       <c r="P428" s="22" t="s">
         <v>1</v>
       </c>
@@ -22155,11 +22155,11 @@
       <c r="J429" s="19"/>
       <c r="K429" s="19"/>
       <c r="L429" s="19"/>
-      <c r="M429" s="87" t="s">
+      <c r="M429" s="88" t="s">
         <v>838</v>
       </c>
-      <c r="N429" s="87"/>
-      <c r="O429" s="87"/>
+      <c r="N429" s="88"/>
+      <c r="O429" s="88"/>
       <c r="P429" s="22" t="s">
         <v>1</v>
       </c>
@@ -22191,9 +22191,9 @@
       <c r="J430" s="19"/>
       <c r="K430" s="19"/>
       <c r="L430" s="19"/>
-      <c r="M430" s="87"/>
-      <c r="N430" s="87"/>
-      <c r="O430" s="87"/>
+      <c r="M430" s="88"/>
+      <c r="N430" s="88"/>
+      <c r="O430" s="88"/>
       <c r="P430" s="22"/>
       <c r="Q430" s="22"/>
       <c r="R430" s="28"/>
@@ -22219,9 +22219,9 @@
       <c r="J431" s="19"/>
       <c r="K431" s="19"/>
       <c r="L431" s="19"/>
-      <c r="M431" s="87"/>
-      <c r="N431" s="87"/>
-      <c r="O431" s="87"/>
+      <c r="M431" s="88"/>
+      <c r="N431" s="88"/>
+      <c r="O431" s="88"/>
       <c r="P431" s="22"/>
       <c r="Q431" s="22"/>
       <c r="R431" s="28"/>
@@ -22247,9 +22247,9 @@
       <c r="J432" s="19"/>
       <c r="K432" s="19"/>
       <c r="L432" s="19"/>
-      <c r="M432" s="87"/>
-      <c r="N432" s="87"/>
-      <c r="O432" s="87"/>
+      <c r="M432" s="88"/>
+      <c r="N432" s="88"/>
+      <c r="O432" s="88"/>
       <c r="P432" s="22"/>
       <c r="Q432" s="22"/>
       <c r="R432" s="28"/>
@@ -22275,9 +22275,9 @@
       <c r="J433" s="19"/>
       <c r="K433" s="19"/>
       <c r="L433" s="19"/>
-      <c r="M433" s="87"/>
-      <c r="N433" s="87"/>
-      <c r="O433" s="87"/>
+      <c r="M433" s="88"/>
+      <c r="N433" s="88"/>
+      <c r="O433" s="88"/>
       <c r="P433" s="22"/>
       <c r="Q433" s="22"/>
       <c r="R433" s="28"/>
@@ -22303,9 +22303,9 @@
       <c r="J434" s="19"/>
       <c r="K434" s="19"/>
       <c r="L434" s="19"/>
-      <c r="M434" s="87"/>
-      <c r="N434" s="87"/>
-      <c r="O434" s="87"/>
+      <c r="M434" s="88"/>
+      <c r="N434" s="88"/>
+      <c r="O434" s="88"/>
       <c r="P434" s="22"/>
       <c r="Q434" s="22"/>
       <c r="R434" s="28"/>
@@ -22331,9 +22331,9 @@
       <c r="J435" s="19"/>
       <c r="K435" s="19"/>
       <c r="L435" s="19"/>
-      <c r="M435" s="87"/>
-      <c r="N435" s="87"/>
-      <c r="O435" s="87"/>
+      <c r="M435" s="88"/>
+      <c r="N435" s="88"/>
+      <c r="O435" s="88"/>
       <c r="P435" s="22"/>
       <c r="Q435" s="22"/>
       <c r="R435" s="28"/>
@@ -22693,8 +22693,271 @@
       <c r="Z447" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Il24+NbFjJk84oYYEzuusSzmBRj3dwFYNde5SahiE8ZUD+mftZAHIne+cXz2ZUkZ2xh0wM834XULUrHu1Qm75A==" saltValue="7KTOw2bp39Smofmn6E/1sw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wXTtAFfF5JE58GTwWuwYDz+ZA1XUF6AMkOZydCSSgMXxzHjHmXJ4Mn0YfXChGQsuFU8OTt4QBoSUI0TDW4LLFw==" saltValue="M5kGQ9QR4EGXZQOAdhyctA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="287">
+    <mergeCell ref="M352:O352"/>
+    <mergeCell ref="M353:O353"/>
+    <mergeCell ref="M351:O351"/>
+    <mergeCell ref="M312:O312"/>
+    <mergeCell ref="M313:O313"/>
+    <mergeCell ref="M317:O317"/>
+    <mergeCell ref="M318:O318"/>
+    <mergeCell ref="M324:O324"/>
+    <mergeCell ref="M325:O325"/>
+    <mergeCell ref="M329:O329"/>
+    <mergeCell ref="M330:O330"/>
+    <mergeCell ref="M336:O336"/>
+    <mergeCell ref="M338:O338"/>
+    <mergeCell ref="M342:O342"/>
+    <mergeCell ref="M343:O343"/>
+    <mergeCell ref="M347:O347"/>
+    <mergeCell ref="M348:O348"/>
+    <mergeCell ref="M335:O335"/>
+    <mergeCell ref="M339:O339"/>
+    <mergeCell ref="M340:O340"/>
+    <mergeCell ref="M341:O341"/>
+    <mergeCell ref="M344:O344"/>
+    <mergeCell ref="M345:O345"/>
+    <mergeCell ref="M346:O346"/>
+    <mergeCell ref="M349:O349"/>
+    <mergeCell ref="M350:O350"/>
+    <mergeCell ref="M316:O316"/>
+    <mergeCell ref="M319:O319"/>
+    <mergeCell ref="M320:O320"/>
+    <mergeCell ref="M321:O321"/>
+    <mergeCell ref="M326:O326"/>
+    <mergeCell ref="M327:O327"/>
+    <mergeCell ref="M328:O328"/>
+    <mergeCell ref="M333:O333"/>
+    <mergeCell ref="M334:O334"/>
+    <mergeCell ref="M307:O307"/>
+    <mergeCell ref="M308:O308"/>
+    <mergeCell ref="M309:O309"/>
+    <mergeCell ref="M310:O310"/>
+    <mergeCell ref="M311:O311"/>
+    <mergeCell ref="M278:O278"/>
+    <mergeCell ref="M279:O279"/>
+    <mergeCell ref="M314:O314"/>
+    <mergeCell ref="M315:O315"/>
+    <mergeCell ref="M298:O298"/>
+    <mergeCell ref="M299:O299"/>
+    <mergeCell ref="M300:O300"/>
+    <mergeCell ref="M301:O301"/>
+    <mergeCell ref="M302:O302"/>
+    <mergeCell ref="M303:O303"/>
+    <mergeCell ref="M304:O304"/>
+    <mergeCell ref="M305:O305"/>
+    <mergeCell ref="M306:O306"/>
+    <mergeCell ref="M289:O289"/>
+    <mergeCell ref="M290:O290"/>
+    <mergeCell ref="M291:O291"/>
+    <mergeCell ref="M292:O292"/>
+    <mergeCell ref="M293:O293"/>
+    <mergeCell ref="M294:O294"/>
+    <mergeCell ref="M295:O295"/>
+    <mergeCell ref="M296:O296"/>
+    <mergeCell ref="M297:O297"/>
+    <mergeCell ref="M280:O280"/>
+    <mergeCell ref="M281:O281"/>
+    <mergeCell ref="M282:O282"/>
+    <mergeCell ref="M283:O283"/>
+    <mergeCell ref="M284:O284"/>
+    <mergeCell ref="M285:O285"/>
+    <mergeCell ref="M286:O286"/>
+    <mergeCell ref="M287:O287"/>
+    <mergeCell ref="M288:O288"/>
+    <mergeCell ref="M269:O269"/>
+    <mergeCell ref="M270:O270"/>
+    <mergeCell ref="M271:O271"/>
+    <mergeCell ref="M272:O272"/>
+    <mergeCell ref="M273:O273"/>
+    <mergeCell ref="M274:O274"/>
+    <mergeCell ref="M275:O275"/>
+    <mergeCell ref="M276:O276"/>
+    <mergeCell ref="M277:O277"/>
+    <mergeCell ref="M262:O262"/>
+    <mergeCell ref="M263:O263"/>
+    <mergeCell ref="M264:O264"/>
+    <mergeCell ref="M265:O265"/>
+    <mergeCell ref="M266:O266"/>
+    <mergeCell ref="M267:O267"/>
+    <mergeCell ref="M268:O268"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="T79:T80"/>
+    <mergeCell ref="S120:S145"/>
+    <mergeCell ref="M200:O200"/>
+    <mergeCell ref="M190:O190"/>
+    <mergeCell ref="M191:O191"/>
+    <mergeCell ref="M192:O192"/>
+    <mergeCell ref="M194:O194"/>
+    <mergeCell ref="M195:O195"/>
+    <mergeCell ref="M193:O193"/>
+    <mergeCell ref="M185:O185"/>
+    <mergeCell ref="M186:O186"/>
+    <mergeCell ref="M187:O187"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="M189:O189"/>
+    <mergeCell ref="M196:O196"/>
+    <mergeCell ref="M197:O197"/>
+    <mergeCell ref="T65:T66"/>
+    <mergeCell ref="R178:T179"/>
+    <mergeCell ref="T53:T54"/>
+    <mergeCell ref="T55:T56"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="G47:K48"/>
+    <mergeCell ref="G49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="B178:L179"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="R6:R11"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="R82:R83"/>
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="G82:K83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="G26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="R75:R78"/>
+    <mergeCell ref="Q91:Q93"/>
+    <mergeCell ref="O91:O93"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="L91:L93"/>
+    <mergeCell ref="G91:K93"/>
+    <mergeCell ref="M91:M93"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="P91:P93"/>
+    <mergeCell ref="M198:O198"/>
+    <mergeCell ref="M199:O199"/>
+    <mergeCell ref="P178:P179"/>
+    <mergeCell ref="Q178:Q179"/>
+    <mergeCell ref="M178:O179"/>
+    <mergeCell ref="M180:O180"/>
+    <mergeCell ref="M181:O181"/>
+    <mergeCell ref="M182:O182"/>
+    <mergeCell ref="M183:O183"/>
+    <mergeCell ref="M184:O184"/>
+    <mergeCell ref="M206:O206"/>
+    <mergeCell ref="M207:O207"/>
+    <mergeCell ref="M208:O208"/>
+    <mergeCell ref="M209:O209"/>
+    <mergeCell ref="M210:O210"/>
+    <mergeCell ref="M201:O201"/>
+    <mergeCell ref="M202:O202"/>
+    <mergeCell ref="M203:O203"/>
+    <mergeCell ref="M204:O204"/>
+    <mergeCell ref="M205:O205"/>
+    <mergeCell ref="M216:O216"/>
+    <mergeCell ref="M217:O217"/>
+    <mergeCell ref="M218:O218"/>
+    <mergeCell ref="M219:O219"/>
+    <mergeCell ref="M220:O220"/>
+    <mergeCell ref="M211:O211"/>
+    <mergeCell ref="M212:O212"/>
+    <mergeCell ref="M213:O213"/>
+    <mergeCell ref="M214:O214"/>
+    <mergeCell ref="M215:O215"/>
+    <mergeCell ref="M226:O226"/>
+    <mergeCell ref="M227:O227"/>
+    <mergeCell ref="M228:O228"/>
+    <mergeCell ref="M229:O229"/>
+    <mergeCell ref="M230:O230"/>
+    <mergeCell ref="M221:O221"/>
+    <mergeCell ref="M222:O222"/>
+    <mergeCell ref="M223:O223"/>
+    <mergeCell ref="M224:O224"/>
+    <mergeCell ref="M225:O225"/>
+    <mergeCell ref="M236:O236"/>
+    <mergeCell ref="M237:O237"/>
+    <mergeCell ref="M238:O238"/>
+    <mergeCell ref="M239:O239"/>
+    <mergeCell ref="M240:O240"/>
+    <mergeCell ref="M231:O231"/>
+    <mergeCell ref="M232:O232"/>
+    <mergeCell ref="M233:O233"/>
+    <mergeCell ref="M234:O234"/>
+    <mergeCell ref="M235:O235"/>
+    <mergeCell ref="M249:O249"/>
+    <mergeCell ref="M250:O250"/>
+    <mergeCell ref="M251:O251"/>
+    <mergeCell ref="M241:O241"/>
+    <mergeCell ref="M242:O242"/>
+    <mergeCell ref="M246:O246"/>
+    <mergeCell ref="M247:O247"/>
+    <mergeCell ref="M248:O248"/>
+    <mergeCell ref="M257:O257"/>
+    <mergeCell ref="M258:O258"/>
+    <mergeCell ref="M259:O259"/>
+    <mergeCell ref="M260:O260"/>
+    <mergeCell ref="M261:O261"/>
+    <mergeCell ref="M252:O252"/>
+    <mergeCell ref="M253:O253"/>
+    <mergeCell ref="M254:O254"/>
+    <mergeCell ref="M255:O255"/>
+    <mergeCell ref="M256:O256"/>
+    <mergeCell ref="M354:O354"/>
+    <mergeCell ref="M355:O355"/>
+    <mergeCell ref="M356:O356"/>
+    <mergeCell ref="M357:O357"/>
+    <mergeCell ref="M358:O358"/>
+    <mergeCell ref="M360:O360"/>
+    <mergeCell ref="M361:O361"/>
+    <mergeCell ref="M362:O362"/>
+    <mergeCell ref="M363:O363"/>
+    <mergeCell ref="M364:O364"/>
+    <mergeCell ref="M365:O365"/>
+    <mergeCell ref="M366:O366"/>
+    <mergeCell ref="M367:O367"/>
+    <mergeCell ref="M368:O368"/>
+    <mergeCell ref="M369:O369"/>
+    <mergeCell ref="M370:O370"/>
+    <mergeCell ref="M371:O371"/>
+    <mergeCell ref="M372:O372"/>
+    <mergeCell ref="M373:O373"/>
+    <mergeCell ref="M374:O374"/>
+    <mergeCell ref="M375:O375"/>
+    <mergeCell ref="M376:O376"/>
+    <mergeCell ref="M377:O377"/>
+    <mergeCell ref="M378:O378"/>
+    <mergeCell ref="M379:O379"/>
+    <mergeCell ref="M380:O380"/>
+    <mergeCell ref="M381:O381"/>
+    <mergeCell ref="M382:O382"/>
+    <mergeCell ref="M383:O383"/>
+    <mergeCell ref="M384:O384"/>
+    <mergeCell ref="M385:O385"/>
+    <mergeCell ref="M386:O386"/>
+    <mergeCell ref="M387:O387"/>
+    <mergeCell ref="M388:O388"/>
+    <mergeCell ref="M389:O389"/>
+    <mergeCell ref="M390:O390"/>
+    <mergeCell ref="M402:O402"/>
+    <mergeCell ref="M403:O403"/>
+    <mergeCell ref="M408:O408"/>
+    <mergeCell ref="M409:O409"/>
+    <mergeCell ref="M410:O410"/>
+    <mergeCell ref="M411:O411"/>
+    <mergeCell ref="M412:O412"/>
+    <mergeCell ref="M413:O413"/>
+    <mergeCell ref="M391:O391"/>
+    <mergeCell ref="M392:O392"/>
+    <mergeCell ref="M393:O393"/>
+    <mergeCell ref="M394:O394"/>
+    <mergeCell ref="M395:O395"/>
+    <mergeCell ref="M396:O396"/>
+    <mergeCell ref="M397:O397"/>
+    <mergeCell ref="M398:O398"/>
+    <mergeCell ref="M399:O399"/>
     <mergeCell ref="B371:L371"/>
     <mergeCell ref="M432:O432"/>
     <mergeCell ref="M433:O433"/>
@@ -22719,269 +22982,6 @@
     <mergeCell ref="M421:O421"/>
     <mergeCell ref="M422:O422"/>
     <mergeCell ref="M401:O401"/>
-    <mergeCell ref="M402:O402"/>
-    <mergeCell ref="M403:O403"/>
-    <mergeCell ref="M408:O408"/>
-    <mergeCell ref="M409:O409"/>
-    <mergeCell ref="M410:O410"/>
-    <mergeCell ref="M411:O411"/>
-    <mergeCell ref="M412:O412"/>
-    <mergeCell ref="M413:O413"/>
-    <mergeCell ref="M391:O391"/>
-    <mergeCell ref="M392:O392"/>
-    <mergeCell ref="M393:O393"/>
-    <mergeCell ref="M394:O394"/>
-    <mergeCell ref="M395:O395"/>
-    <mergeCell ref="M396:O396"/>
-    <mergeCell ref="M397:O397"/>
-    <mergeCell ref="M398:O398"/>
-    <mergeCell ref="M399:O399"/>
-    <mergeCell ref="M382:O382"/>
-    <mergeCell ref="M383:O383"/>
-    <mergeCell ref="M384:O384"/>
-    <mergeCell ref="M385:O385"/>
-    <mergeCell ref="M386:O386"/>
-    <mergeCell ref="M387:O387"/>
-    <mergeCell ref="M388:O388"/>
-    <mergeCell ref="M389:O389"/>
-    <mergeCell ref="M390:O390"/>
-    <mergeCell ref="M373:O373"/>
-    <mergeCell ref="M374:O374"/>
-    <mergeCell ref="M375:O375"/>
-    <mergeCell ref="M376:O376"/>
-    <mergeCell ref="M377:O377"/>
-    <mergeCell ref="M378:O378"/>
-    <mergeCell ref="M379:O379"/>
-    <mergeCell ref="M380:O380"/>
-    <mergeCell ref="M381:O381"/>
-    <mergeCell ref="M364:O364"/>
-    <mergeCell ref="M365:O365"/>
-    <mergeCell ref="M366:O366"/>
-    <mergeCell ref="M367:O367"/>
-    <mergeCell ref="M368:O368"/>
-    <mergeCell ref="M369:O369"/>
-    <mergeCell ref="M370:O370"/>
-    <mergeCell ref="M371:O371"/>
-    <mergeCell ref="M372:O372"/>
-    <mergeCell ref="M354:O354"/>
-    <mergeCell ref="M355:O355"/>
-    <mergeCell ref="M356:O356"/>
-    <mergeCell ref="M357:O357"/>
-    <mergeCell ref="M358:O358"/>
-    <mergeCell ref="M360:O360"/>
-    <mergeCell ref="M361:O361"/>
-    <mergeCell ref="M362:O362"/>
-    <mergeCell ref="M363:O363"/>
-    <mergeCell ref="M258:O258"/>
-    <mergeCell ref="M259:O259"/>
-    <mergeCell ref="M260:O260"/>
-    <mergeCell ref="M261:O261"/>
-    <mergeCell ref="M252:O252"/>
-    <mergeCell ref="M253:O253"/>
-    <mergeCell ref="M254:O254"/>
-    <mergeCell ref="M255:O255"/>
-    <mergeCell ref="M256:O256"/>
-    <mergeCell ref="M249:O249"/>
-    <mergeCell ref="M250:O250"/>
-    <mergeCell ref="M251:O251"/>
-    <mergeCell ref="M241:O241"/>
-    <mergeCell ref="M242:O242"/>
-    <mergeCell ref="M246:O246"/>
-    <mergeCell ref="M247:O247"/>
-    <mergeCell ref="M248:O248"/>
-    <mergeCell ref="M257:O257"/>
-    <mergeCell ref="M236:O236"/>
-    <mergeCell ref="M237:O237"/>
-    <mergeCell ref="M238:O238"/>
-    <mergeCell ref="M239:O239"/>
-    <mergeCell ref="M240:O240"/>
-    <mergeCell ref="M231:O231"/>
-    <mergeCell ref="M232:O232"/>
-    <mergeCell ref="M233:O233"/>
-    <mergeCell ref="M234:O234"/>
-    <mergeCell ref="M235:O235"/>
-    <mergeCell ref="M226:O226"/>
-    <mergeCell ref="M227:O227"/>
-    <mergeCell ref="M228:O228"/>
-    <mergeCell ref="M229:O229"/>
-    <mergeCell ref="M230:O230"/>
-    <mergeCell ref="M221:O221"/>
-    <mergeCell ref="M222:O222"/>
-    <mergeCell ref="M223:O223"/>
-    <mergeCell ref="M224:O224"/>
-    <mergeCell ref="M225:O225"/>
-    <mergeCell ref="M216:O216"/>
-    <mergeCell ref="M217:O217"/>
-    <mergeCell ref="M218:O218"/>
-    <mergeCell ref="M219:O219"/>
-    <mergeCell ref="M220:O220"/>
-    <mergeCell ref="M211:O211"/>
-    <mergeCell ref="M212:O212"/>
-    <mergeCell ref="M213:O213"/>
-    <mergeCell ref="M214:O214"/>
-    <mergeCell ref="M215:O215"/>
-    <mergeCell ref="M206:O206"/>
-    <mergeCell ref="M207:O207"/>
-    <mergeCell ref="M208:O208"/>
-    <mergeCell ref="M209:O209"/>
-    <mergeCell ref="M210:O210"/>
-    <mergeCell ref="M201:O201"/>
-    <mergeCell ref="M202:O202"/>
-    <mergeCell ref="M203:O203"/>
-    <mergeCell ref="M204:O204"/>
-    <mergeCell ref="M205:O205"/>
-    <mergeCell ref="M198:O198"/>
-    <mergeCell ref="M199:O199"/>
-    <mergeCell ref="P178:P179"/>
-    <mergeCell ref="Q178:Q179"/>
-    <mergeCell ref="M178:O179"/>
-    <mergeCell ref="M180:O180"/>
-    <mergeCell ref="M181:O181"/>
-    <mergeCell ref="M182:O182"/>
-    <mergeCell ref="M183:O183"/>
-    <mergeCell ref="M184:O184"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="G26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="R75:R78"/>
-    <mergeCell ref="Q91:Q93"/>
-    <mergeCell ref="O91:O93"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="L91:L93"/>
-    <mergeCell ref="G91:K93"/>
-    <mergeCell ref="M91:M93"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="P91:P93"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="R6:R11"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="R82:R83"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="G82:K83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="T65:T66"/>
-    <mergeCell ref="R178:T179"/>
-    <mergeCell ref="T53:T54"/>
-    <mergeCell ref="T55:T56"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="G47:K48"/>
-    <mergeCell ref="G49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="B178:L179"/>
-    <mergeCell ref="M262:O262"/>
-    <mergeCell ref="M263:O263"/>
-    <mergeCell ref="M264:O264"/>
-    <mergeCell ref="M265:O265"/>
-    <mergeCell ref="M266:O266"/>
-    <mergeCell ref="M267:O267"/>
-    <mergeCell ref="M268:O268"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="T79:T80"/>
-    <mergeCell ref="S120:S145"/>
-    <mergeCell ref="M200:O200"/>
-    <mergeCell ref="M190:O190"/>
-    <mergeCell ref="M191:O191"/>
-    <mergeCell ref="M192:O192"/>
-    <mergeCell ref="M194:O194"/>
-    <mergeCell ref="M195:O195"/>
-    <mergeCell ref="M193:O193"/>
-    <mergeCell ref="M185:O185"/>
-    <mergeCell ref="M186:O186"/>
-    <mergeCell ref="M187:O187"/>
-    <mergeCell ref="M188:O188"/>
-    <mergeCell ref="M189:O189"/>
-    <mergeCell ref="M196:O196"/>
-    <mergeCell ref="M197:O197"/>
-    <mergeCell ref="M269:O269"/>
-    <mergeCell ref="M270:O270"/>
-    <mergeCell ref="M271:O271"/>
-    <mergeCell ref="M272:O272"/>
-    <mergeCell ref="M273:O273"/>
-    <mergeCell ref="M274:O274"/>
-    <mergeCell ref="M275:O275"/>
-    <mergeCell ref="M276:O276"/>
-    <mergeCell ref="M277:O277"/>
-    <mergeCell ref="M295:O295"/>
-    <mergeCell ref="M296:O296"/>
-    <mergeCell ref="M297:O297"/>
-    <mergeCell ref="M280:O280"/>
-    <mergeCell ref="M281:O281"/>
-    <mergeCell ref="M282:O282"/>
-    <mergeCell ref="M283:O283"/>
-    <mergeCell ref="M284:O284"/>
-    <mergeCell ref="M285:O285"/>
-    <mergeCell ref="M286:O286"/>
-    <mergeCell ref="M287:O287"/>
-    <mergeCell ref="M288:O288"/>
-    <mergeCell ref="M307:O307"/>
-    <mergeCell ref="M308:O308"/>
-    <mergeCell ref="M309:O309"/>
-    <mergeCell ref="M310:O310"/>
-    <mergeCell ref="M311:O311"/>
-    <mergeCell ref="M278:O278"/>
-    <mergeCell ref="M279:O279"/>
-    <mergeCell ref="M314:O314"/>
-    <mergeCell ref="M315:O315"/>
-    <mergeCell ref="M298:O298"/>
-    <mergeCell ref="M299:O299"/>
-    <mergeCell ref="M300:O300"/>
-    <mergeCell ref="M301:O301"/>
-    <mergeCell ref="M302:O302"/>
-    <mergeCell ref="M303:O303"/>
-    <mergeCell ref="M304:O304"/>
-    <mergeCell ref="M305:O305"/>
-    <mergeCell ref="M306:O306"/>
-    <mergeCell ref="M289:O289"/>
-    <mergeCell ref="M290:O290"/>
-    <mergeCell ref="M291:O291"/>
-    <mergeCell ref="M292:O292"/>
-    <mergeCell ref="M293:O293"/>
-    <mergeCell ref="M294:O294"/>
-    <mergeCell ref="M349:O349"/>
-    <mergeCell ref="M350:O350"/>
-    <mergeCell ref="M316:O316"/>
-    <mergeCell ref="M319:O319"/>
-    <mergeCell ref="M320:O320"/>
-    <mergeCell ref="M321:O321"/>
-    <mergeCell ref="M326:O326"/>
-    <mergeCell ref="M327:O327"/>
-    <mergeCell ref="M328:O328"/>
-    <mergeCell ref="M333:O333"/>
-    <mergeCell ref="M334:O334"/>
-    <mergeCell ref="M352:O352"/>
-    <mergeCell ref="M353:O353"/>
-    <mergeCell ref="M351:O351"/>
-    <mergeCell ref="M312:O312"/>
-    <mergeCell ref="M313:O313"/>
-    <mergeCell ref="M317:O317"/>
-    <mergeCell ref="M318:O318"/>
-    <mergeCell ref="M324:O324"/>
-    <mergeCell ref="M325:O325"/>
-    <mergeCell ref="M329:O329"/>
-    <mergeCell ref="M330:O330"/>
-    <mergeCell ref="M336:O336"/>
-    <mergeCell ref="M338:O338"/>
-    <mergeCell ref="M342:O342"/>
-    <mergeCell ref="M343:O343"/>
-    <mergeCell ref="M347:O347"/>
-    <mergeCell ref="M348:O348"/>
-    <mergeCell ref="M335:O335"/>
-    <mergeCell ref="M339:O339"/>
-    <mergeCell ref="M340:O340"/>
-    <mergeCell ref="M341:O341"/>
-    <mergeCell ref="M344:O344"/>
-    <mergeCell ref="M345:O345"/>
-    <mergeCell ref="M346:O346"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G41" r:id="rId1" xr:uid="{28F9BDB3-7E69-4EA9-B145-1143B2C8E8EB}"/>
